--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>Adı</t>
   </si>
@@ -331,18 +331,6 @@
   </si>
   <si>
     <t>NOT</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>DEVAM DURUMU (%10)</t>
@@ -756,15 +744,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -778,15 +757,6 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -818,41 +788,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -870,6 +828,24 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -965,6 +941,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1000,196 +996,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1478,7 +1284,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
+      <selection pane="bottomLeft" activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1505,194 +1311,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="27"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="38"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="35">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AG2" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="32">
         <v>2</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="32">
         <v>3</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="32">
         <v>4</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="32">
         <v>5</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="32">
         <v>6</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="32">
         <v>7</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="31">
         <v>1</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="32">
         <v>2</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="32">
         <v>3</v>
       </c>
-      <c r="O3" s="38">
+      <c r="O3" s="32">
         <v>4</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="32">
         <v>5</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="32">
         <v>6</v>
       </c>
-      <c r="R3" s="38">
+      <c r="R3" s="32">
         <v>7</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="T3" s="37">
+      <c r="T3" s="31">
         <v>1</v>
       </c>
-      <c r="U3" s="38">
+      <c r="U3" s="32">
         <v>2</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3" s="32">
         <v>3</v>
       </c>
-      <c r="W3" s="38">
+      <c r="W3" s="32">
         <v>4</v>
       </c>
-      <c r="X3" s="38">
+      <c r="X3" s="32">
         <v>5</v>
       </c>
-      <c r="Y3" s="39" t="s">
+      <c r="Y3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Z3" s="37">
+      <c r="Z3" s="31">
         <v>1</v>
       </c>
-      <c r="AA3" s="38">
+      <c r="AA3" s="32">
         <v>2</v>
       </c>
-      <c r="AB3" s="38">
+      <c r="AB3" s="32">
         <v>3</v>
       </c>
-      <c r="AC3" s="38">
+      <c r="AC3" s="32">
         <v>4</v>
       </c>
-      <c r="AD3" s="38">
+      <c r="AD3" s="32">
         <v>5</v>
       </c>
-      <c r="AE3" s="39" t="s">
+      <c r="AE3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AF3" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" s="28" t="s">
+      <c r="AG3" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1701,7 +1507,7 @@
       <c r="C4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
       <c r="E4" s="7">
@@ -1712,11 +1518,11 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="21">
-        <f>100*SUM(D4:J4)/(2*A$2)</f>
+      <c r="K4" s="18">
+        <f t="shared" ref="K4:K33" si="0">100*SUM(D4:J4)/(2*A$2)</f>
         <v>100</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="15">
         <v>100</v>
       </c>
       <c r="M4" s="6">
@@ -1727,36 +1533,36 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="21">
-        <f>SUM(L4:R4)/(A$2)</f>
+      <c r="S4" s="18">
+        <f t="shared" ref="S4:S33" si="1">SUM(L4:R4)/(A$2)</f>
         <v>100</v>
       </c>
-      <c r="T4" s="18"/>
+      <c r="T4" s="15"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="21">
-        <f>SUM(T4:X4)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="18"/>
+      <c r="Y4" s="18">
+        <f t="shared" ref="Y4:Y33" si="2">SUM(T4:X4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="21">
-        <f>SUM(Z4:AD4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="30">
-        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
+      <c r="AE4" s="18">
+        <f t="shared" ref="AE4:AE33" si="3">SUM(Z4:AD4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="24">
+        <f t="shared" ref="AG4:AG33" si="4">K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1765,7 +1571,7 @@
       <c r="C5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>2</v>
       </c>
       <c r="E5" s="7">
@@ -1776,11 +1582,11 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="21">
-        <f>100*SUM(D5:J5)/(2*A$2)</f>
+      <c r="K5" s="18">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="15">
         <v>100</v>
       </c>
       <c r="M5" s="6">
@@ -1791,36 +1597,36 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="21">
-        <f>SUM(L5:R5)/(A$2)</f>
+      <c r="S5" s="18">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="T5" s="18"/>
+      <c r="T5" s="15"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="21">
-        <f>SUM(T5:X5)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18"/>
+      <c r="Y5" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="21">
-        <f>SUM(Z5:AD5)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="30">
-        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
+      <c r="AE5" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="24">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1829,7 +1635,7 @@
       <c r="C6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>2</v>
       </c>
       <c r="E6" s="7">
@@ -1840,11 +1646,11 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="21">
-        <f>100*SUM(D6:J6)/(2*A$2)</f>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <v>100</v>
       </c>
       <c r="M6" s="6">
@@ -1855,36 +1661,36 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="21">
-        <f>SUM(L6:R6)/(A$2)</f>
+      <c r="S6" s="18">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="T6" s="18"/>
+      <c r="T6" s="15"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="21">
-        <f>SUM(T6:X6)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18"/>
+      <c r="Y6" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="21">
-        <f>SUM(Z6:AD6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="30">
-        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
+      <c r="AE6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="24">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1893,7 +1699,7 @@
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" s="7">
@@ -1904,11 +1710,11 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="21">
-        <f>100*SUM(D7:J7)/(2*A$2)</f>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <v>100</v>
       </c>
       <c r="M7" s="6">
@@ -1919,36 +1725,36 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="21">
-        <f>SUM(L7:R7)/(A$2)</f>
+      <c r="S7" s="18">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="T7" s="18"/>
+      <c r="T7" s="15"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="21">
-        <f>SUM(T7:X7)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18"/>
+      <c r="Y7" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="21">
-        <f>SUM(Z7:AD7)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="30">
-        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
+      <c r="AE7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="24">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1957,7 +1763,7 @@
       <c r="C8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
       <c r="E8" s="7">
@@ -1968,11 +1774,11 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="21">
-        <f>100*SUM(D8:J8)/(2*A$2)</f>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <v>100</v>
       </c>
       <c r="M8" s="6">
@@ -1983,36 +1789,36 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="21">
-        <f>SUM(L8:R8)/(A$2)</f>
+      <c r="S8" s="18">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="T8" s="18"/>
+      <c r="T8" s="15"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="21">
-        <f>SUM(T8:X8)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18"/>
+      <c r="Y8" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="21">
-        <f>SUM(Z8:AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="30">
-        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
+      <c r="AE8" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="24">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2021,7 +1827,7 @@
       <c r="C9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>1.7</v>
       </c>
       <c r="E9" s="7">
@@ -2032,11 +1838,11 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="21">
-        <f>100*SUM(D9:J9)/(2*A$2)</f>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <v>75</v>
       </c>
       <c r="M9" s="6">
@@ -2047,36 +1853,36 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="21">
-        <f>SUM(L9:R9)/(A$2)</f>
+      <c r="S9" s="18">
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="T9" s="18"/>
+      <c r="T9" s="15"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="21">
-        <f>SUM(T9:X9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="18"/>
+      <c r="Y9" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="15"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="21">
-        <f>SUM(Z9:AD9)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="30">
-        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
+      <c r="AE9" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="24">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2085,7 +1891,7 @@
       <c r="C10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
       <c r="E10" s="7">
@@ -2096,11 +1902,11 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="21">
-        <f>100*SUM(D10:J10)/(2*A$2)</f>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <v>100</v>
       </c>
       <c r="M10" s="6">
@@ -2111,36 +1917,36 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="21">
-        <f>SUM(L10:R10)/(A$2)</f>
+      <c r="S10" s="18">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="T10" s="18"/>
+      <c r="T10" s="15"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="21">
-        <f>SUM(T10:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="18"/>
+      <c r="Y10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="15"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="21">
-        <f>SUM(Z10:AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="30">
-        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
+      <c r="AE10" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="24">
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2149,7 +1955,7 @@
       <c r="C11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>0</v>
       </c>
       <c r="E11" s="7">
@@ -2160,11 +1966,11 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="21">
-        <f>100*SUM(D11:J11)/(2*A$2)</f>
+      <c r="K11" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <v>0</v>
       </c>
       <c r="M11" s="6">
@@ -2175,36 +1981,36 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="21">
-        <f>SUM(L11:R11)/(A$2)</f>
+      <c r="S11" s="18">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="T11" s="18"/>
+      <c r="T11" s="15"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="21">
-        <f>SUM(T11:X11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="18"/>
+      <c r="Y11" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="15"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="21">
-        <f>SUM(Z11:AD11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="30">
-        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
+      <c r="AE11" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="24">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2213,7 +2019,7 @@
       <c r="C12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>0</v>
       </c>
       <c r="E12" s="7">
@@ -2224,11 +2030,11 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="21">
-        <f>100*SUM(D12:J12)/(2*A$2)</f>
+      <c r="K12" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <v>0</v>
       </c>
       <c r="M12" s="6">
@@ -2239,36 +2045,36 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="21">
-        <f>SUM(L12:R12)/(A$2)</f>
+      <c r="S12" s="18">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="T12" s="18"/>
+      <c r="T12" s="15"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="21">
-        <f>SUM(T12:X12)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="18"/>
+      <c r="Y12" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="21">
-        <f>SUM(Z12:AD12)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="30">
-        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
+      <c r="AE12" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="24">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2277,7 +2083,7 @@
       <c r="C13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>0</v>
       </c>
       <c r="E13" s="7">
@@ -2288,11 +2094,11 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="21">
-        <f>100*SUM(D13:J13)/(2*A$2)</f>
+      <c r="K13" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="6">
@@ -2303,36 +2109,36 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="21">
-        <f>SUM(L13:R13)/(A$2)</f>
+      <c r="S13" s="18">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="T13" s="18"/>
+      <c r="T13" s="15"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="21">
-        <f>SUM(T13:X13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="18"/>
+      <c r="Y13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="21">
-        <f>SUM(Z13:AD13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="30">
-        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
+      <c r="AE13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="24">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2341,7 +2147,7 @@
       <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>0</v>
       </c>
       <c r="E14" s="7">
@@ -2352,11 +2158,11 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="21">
-        <f>100*SUM(D14:J14)/(2*A$2)</f>
+      <c r="K14" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="6">
@@ -2367,36 +2173,36 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="21">
-        <f>SUM(L14:R14)/(A$2)</f>
+      <c r="S14" s="18">
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
-      <c r="T14" s="18"/>
+      <c r="T14" s="15"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="21">
-        <f>SUM(T14:X14)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18"/>
+      <c r="Y14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="21">
-        <f>SUM(Z14:AD14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="30">
-        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
+      <c r="AE14" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="24">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2405,7 +2211,7 @@
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>0.5</v>
       </c>
       <c r="E15" s="7">
@@ -2416,11 +2222,11 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="21">
-        <f>100*SUM(D15:J15)/(2*A$2)</f>
+      <c r="K15" s="18">
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="6">
@@ -2431,36 +2237,36 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="21">
-        <f>SUM(L15:R15)/(A$2)</f>
+      <c r="S15" s="18">
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="T15" s="18"/>
+      <c r="T15" s="15"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="21">
-        <f>SUM(T15:X15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="18"/>
+      <c r="Y15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="21">
-        <f>SUM(Z15:AD15)</f>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="30">
-        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
+      <c r="AE15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="24">
+        <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2469,7 +2275,7 @@
       <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>0</v>
       </c>
       <c r="E16" s="7">
@@ -2480,11 +2286,11 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="21">
-        <f>100*SUM(D16:J16)/(2*A$2)</f>
+      <c r="K16" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <v>0</v>
       </c>
       <c r="M16" s="6">
@@ -2495,36 +2301,36 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="21">
-        <f>SUM(L16:R16)/(A$2)</f>
+      <c r="S16" s="18">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="T16" s="18"/>
+      <c r="T16" s="15"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="21">
-        <f>SUM(T16:X16)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="18"/>
+      <c r="Y16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="21">
-        <f>SUM(Z16:AD16)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="30">
-        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
+      <c r="AE16" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="24">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2533,7 +2339,7 @@
       <c r="C17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <v>0</v>
       </c>
       <c r="E17" s="7">
@@ -2544,11 +2350,11 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="21">
-        <f>100*SUM(D17:J17)/(2*A$2)</f>
+      <c r="K17" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="15">
         <v>0</v>
       </c>
       <c r="M17" s="6">
@@ -2559,36 +2365,36 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="21">
-        <f>SUM(L17:R17)/(A$2)</f>
+      <c r="S17" s="18">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="T17" s="18"/>
+      <c r="T17" s="15"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="21">
-        <f>SUM(T17:X17)</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="18"/>
+      <c r="Y17" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="21">
-        <f>SUM(Z17:AD17)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="30">
-        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
+      <c r="AE17" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="24">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2597,7 +2403,7 @@
       <c r="C18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>0</v>
       </c>
       <c r="E18" s="7">
@@ -2608,11 +2414,11 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="21">
-        <f>100*SUM(D18:J18)/(2*A$2)</f>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <v>0</v>
       </c>
       <c r="M18" s="6">
@@ -2623,36 +2429,36 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="21">
-        <f>SUM(L18:R18)/(A$2)</f>
+      <c r="S18" s="18">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="T18" s="18"/>
+      <c r="T18" s="15"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="21">
-        <f>SUM(T18:X18)</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="18"/>
+      <c r="Y18" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="21">
-        <f>SUM(Z18:AD18)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="30">
-        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
+      <c r="AE18" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="24">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2661,7 +2467,7 @@
       <c r="C19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>0</v>
       </c>
       <c r="E19" s="7">
@@ -2672,11 +2478,11 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="21">
-        <f>100*SUM(D19:J19)/(2*A$2)</f>
+      <c r="K19" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="15">
         <v>0</v>
       </c>
       <c r="M19" s="6">
@@ -2687,36 +2493,36 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="21">
-        <f>SUM(L19:R19)/(A$2)</f>
+      <c r="S19" s="18">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="T19" s="18"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="21">
-        <f>SUM(T19:X19)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="18"/>
+      <c r="Y19" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="15"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="21">
-        <f>SUM(Z19:AD19)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="30">
-        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
+      <c r="AE19" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="24">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2725,7 +2531,7 @@
       <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <v>0</v>
       </c>
       <c r="E20" s="7">
@@ -2736,11 +2542,11 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="21">
-        <f>100*SUM(D20:J20)/(2*A$2)</f>
+      <c r="K20" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="15">
         <v>0</v>
       </c>
       <c r="M20" s="6">
@@ -2751,36 +2557,36 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="21">
-        <f>SUM(L20:R20)/(A$2)</f>
+      <c r="S20" s="18">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="T20" s="18"/>
+      <c r="T20" s="15"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="21">
-        <f>SUM(T20:X20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="18"/>
+      <c r="Y20" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="21">
-        <f>SUM(Z20:AD20)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="30">
-        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
+      <c r="AE20" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="24">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2789,7 +2595,7 @@
       <c r="C21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <v>0</v>
       </c>
       <c r="E21" s="7">
@@ -2800,11 +2606,11 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="21">
-        <f>100*SUM(D21:J21)/(2*A$2)</f>
+      <c r="K21" s="18">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="15">
         <v>0</v>
       </c>
       <c r="M21" s="6">
@@ -2815,36 +2621,36 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="21">
-        <f>SUM(L21:R21)/(A$2)</f>
+      <c r="S21" s="18">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T21" s="18"/>
+      <c r="T21" s="15"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="21">
-        <f>SUM(T21:X21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="18"/>
+      <c r="Y21" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="21">
-        <f>SUM(Z21:AD21)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="30">
-        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
+      <c r="AE21" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="24">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2853,7 +2659,7 @@
       <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>0</v>
       </c>
       <c r="E22" s="7">
@@ -2864,11 +2670,11 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="21">
-        <f>100*SUM(D22:J22)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
+      <c r="K22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
         <v>0</v>
       </c>
       <c r="M22" s="6">
@@ -2879,36 +2685,36 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="21">
-        <f>SUM(L22:R22)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="18"/>
+      <c r="S22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="15"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="21">
-        <f>SUM(T22:X22)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="18"/>
+      <c r="Y22" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="21">
-        <f>SUM(Z22:AD22)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="30">
-        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
+      <c r="AE22" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2917,7 +2723,7 @@
       <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>0</v>
       </c>
       <c r="E23" s="7">
@@ -2928,11 +2734,11 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="21">
-        <f>100*SUM(D23:J23)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
+      <c r="K23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
         <v>0</v>
       </c>
       <c r="M23" s="6">
@@ -2943,36 +2749,36 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="21">
-        <f>SUM(L23:R23)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="18"/>
+      <c r="S23" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="15"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="21">
-        <f>SUM(T23:X23)</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="18"/>
+      <c r="Y23" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="21">
-        <f>SUM(Z23:AD23)</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="30">
-        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
+      <c r="AE23" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2981,7 +2787,7 @@
       <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <v>0</v>
       </c>
       <c r="E24" s="7">
@@ -2992,11 +2798,11 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="21">
-        <f>100*SUM(D24:J24)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
+      <c r="K24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
         <v>0</v>
       </c>
       <c r="M24" s="6">
@@ -3007,36 +2813,36 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="21">
-        <f>SUM(L24:R24)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="18"/>
+      <c r="S24" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="15"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="21">
-        <f>SUM(T24:X24)</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="18"/>
+      <c r="Y24" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="15"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="21">
-        <f>SUM(Z24:AD24)</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="30">
-        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
+      <c r="AE24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3045,7 +2851,7 @@
       <c r="C25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>0</v>
       </c>
       <c r="E25" s="7">
@@ -3056,11 +2862,11 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="21">
-        <f>100*SUM(D25:J25)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
+      <c r="K25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
         <v>0</v>
       </c>
       <c r="M25" s="6">
@@ -3071,36 +2877,36 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="21">
-        <f>SUM(L25:R25)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="18"/>
+      <c r="S25" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="15"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="21">
-        <f>SUM(T25:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="18"/>
+      <c r="Y25" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="21">
-        <f>SUM(Z25:AD25)</f>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="30">
-        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
+      <c r="AE25" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3109,7 +2915,7 @@
       <c r="C26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="12">
         <v>0</v>
       </c>
       <c r="E26" s="7">
@@ -3120,11 +2926,11 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="21">
-        <f>100*SUM(D26:J26)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
+      <c r="K26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
         <v>0</v>
       </c>
       <c r="M26" s="6">
@@ -3135,36 +2941,36 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="21">
-        <f>SUM(L26:R26)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="18"/>
+      <c r="S26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="15"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="21">
-        <f>SUM(T26:X26)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="18"/>
+      <c r="Y26" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="21">
-        <f>SUM(Z26:AD26)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="30">
-        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
+      <c r="AE26" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3173,7 +2979,7 @@
       <c r="C27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <v>0</v>
       </c>
       <c r="E27" s="7">
@@ -3184,11 +2990,11 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="21">
-        <f>100*SUM(D27:J27)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
+      <c r="K27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
         <v>0</v>
       </c>
       <c r="M27" s="6">
@@ -3199,36 +3005,36 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="21">
-        <f>SUM(L27:R27)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="18"/>
+      <c r="S27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="15"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="21">
-        <f>SUM(T27:X27)</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="18"/>
+      <c r="Y27" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="15"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="21">
-        <f>SUM(Z27:AD27)</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="30">
-        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
+      <c r="AE27" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3237,7 +3043,7 @@
       <c r="C28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <v>0</v>
       </c>
       <c r="E28" s="7">
@@ -3248,11 +3054,11 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="21">
-        <f>100*SUM(D28:J28)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
+      <c r="K28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
         <v>0</v>
       </c>
       <c r="M28" s="6">
@@ -3263,36 +3069,36 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="21">
-        <f>SUM(L28:R28)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="18"/>
+      <c r="S28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="15"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="21">
-        <f>SUM(T28:X28)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="18"/>
+      <c r="Y28" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="15"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="21">
-        <f>SUM(Z28:AD28)</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="30">
-        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
+      <c r="AE28" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3301,7 +3107,7 @@
       <c r="C29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>0</v>
       </c>
       <c r="E29" s="7">
@@ -3312,11 +3118,11 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="21">
-        <f>100*SUM(D29:J29)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
+      <c r="K29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
         <v>0</v>
       </c>
       <c r="M29" s="6">
@@ -3327,36 +3133,36 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="21">
-        <f>SUM(L29:R29)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="18"/>
+      <c r="S29" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="15"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="21">
-        <f>SUM(T29:X29)</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="18"/>
+      <c r="Y29" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="15"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="21">
-        <f>SUM(Z29:AD29)</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="30">
-        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
+      <c r="AE29" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3365,7 +3171,7 @@
       <c r="C30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <v>0</v>
       </c>
       <c r="E30" s="7">
@@ -3376,11 +3182,11 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="21">
-        <f>100*SUM(D30:J30)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="18">
+      <c r="K30" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
         <v>0</v>
       </c>
       <c r="M30" s="6">
@@ -3391,36 +3197,36 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="21">
-        <f>SUM(L30:R30)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="18"/>
+      <c r="S30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="15"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="21">
-        <f>SUM(T30:X30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="18"/>
+      <c r="Y30" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="15"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="21">
-        <f>SUM(Z30:AD30)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="30">
-        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
+      <c r="AE30" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3429,7 +3235,7 @@
       <c r="C31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <v>0</v>
       </c>
       <c r="E31" s="7">
@@ -3440,11 +3246,11 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="21">
-        <f>100*SUM(D31:J31)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
+      <c r="K31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
         <v>0</v>
       </c>
       <c r="M31" s="6">
@@ -3455,36 +3261,36 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="21">
-        <f>SUM(L31:R31)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="18"/>
+      <c r="S31" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="15"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="21">
-        <f>SUM(T31:X31)</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="18"/>
+      <c r="Y31" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="21">
-        <f>SUM(Z31:AD31)</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="30">
-        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
+      <c r="AE31" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3493,7 +3299,7 @@
       <c r="C32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="12">
         <v>0</v>
       </c>
       <c r="E32" s="7">
@@ -3504,11 +3310,11 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="21">
-        <f>100*SUM(D32:J32)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="18">
+      <c r="K32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
         <v>0</v>
       </c>
       <c r="M32" s="6">
@@ -3519,95 +3325,95 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="21">
-        <f>SUM(L32:R32)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="18"/>
+      <c r="S32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="15"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="21">
-        <f>SUM(T32:X32)</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="18"/>
+      <c r="Y32" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="15"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="21">
-        <f>SUM(Z32:AD32)</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="30">
-        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
+      <c r="AE32" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="16">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="21">
-        <f>100*SUM(D33:J33)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
         <v>0</v>
       </c>
       <c r="M33" s="6">
         <v>0</v>
       </c>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="21">
-        <f>SUM(L33:R33)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="19"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="23">
-        <f>SUM(T33:X33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="21">
-        <f>SUM(Z33:AD33)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="34">
-        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="16"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4901,19 +4707,19 @@
     <mergeCell ref="L2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:J33">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K33">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4927,7 +4733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S33">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4941,7 +4747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Y33">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4955,7 +4761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE33">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4969,7 +4775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG33">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4983,16 +4789,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R33">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
-      <formula>60</formula>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e048482\Desktop\Medipol\2017guz\İleri Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_SRC\GIT\MY\MyCourses\AdvancedJava_2017Autumn\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -810,132 +810,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1284,7 +1164,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI28" sqref="AI28"/>
+      <selection pane="bottomLeft" activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1399,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K33" si="0">100*SUM(D4:J4)/(2*A$2)</f>
+        <f>100*SUM(D4:J4)/(2*A$2)</f>
         <v>100</v>
       </c>
       <c r="L4" s="15">
@@ -1534,7 +1414,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="18">
-        <f t="shared" ref="S4:S33" si="1">SUM(L4:R4)/(A$2)</f>
+        <f>SUM(L4:R4)/(A$2)</f>
         <v>100</v>
       </c>
       <c r="T4" s="15"/>
@@ -1543,7 +1423,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="18">
-        <f t="shared" ref="Y4:Y33" si="2">SUM(T4:X4)</f>
+        <f>SUM(T4:X4)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="15"/>
@@ -1552,12 +1432,12 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="18">
-        <f t="shared" ref="AE4:AE33" si="3">SUM(Z4:AD4)</f>
+        <f>SUM(Z4:AD4)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="15"/>
       <c r="AG4" s="24">
-        <f t="shared" ref="AG4:AG33" si="4">K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
+        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
         <v>30</v>
       </c>
     </row>
@@ -1583,7 +1463,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D5:J5)/(2*A$2)</f>
         <v>100</v>
       </c>
       <c r="L5" s="15">
@@ -1598,7 +1478,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L5:R5)/(A$2)</f>
         <v>90</v>
       </c>
       <c r="T5" s="15"/>
@@ -1607,7 +1487,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T5:X5)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="15"/>
@@ -1616,30 +1496,30 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z5:AD5)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="15"/>
       <c r="AG5" s="24">
-        <f t="shared" si="4"/>
+        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E6" s="7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1647,14 +1527,14 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D6:J6)/(2*A$2)</f>
+        <v>85</v>
+      </c>
+      <c r="L6" s="15">
+        <v>90</v>
+      </c>
+      <c r="M6" s="6">
         <v>100</v>
-      </c>
-      <c r="L6" s="15">
-        <v>100</v>
-      </c>
-      <c r="M6" s="6">
-        <v>70</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1662,8 +1542,8 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="18">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f>SUM(L6:R6)/(A$2)</f>
+        <v>95</v>
       </c>
       <c r="T6" s="15"/>
       <c r="U6" s="6"/>
@@ -1671,7 +1551,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T6:X6)</f>
         <v>0</v>
       </c>
       <c r="Z6" s="15"/>
@@ -1680,24 +1560,24 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z6:AD6)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="24">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -1711,14 +1591,14 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D7:J7)/(2*A$2)</f>
         <v>100</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
       </c>
       <c r="M7" s="6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1726,8 +1606,8 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="18">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>SUM(L7:R7)/(A$2)</f>
+        <v>85</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="6"/>
@@ -1735,7 +1615,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T7:X7)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="15"/>
@@ -1744,24 +1624,24 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z7:AD7)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="15"/>
       <c r="AG7" s="24">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D8" s="12">
         <v>2</v>
@@ -1775,7 +1655,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D8:J8)/(2*A$2)</f>
         <v>100</v>
       </c>
       <c r="L8" s="15">
@@ -1790,7 +1670,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L8:R8)/(A$2)</f>
         <v>80</v>
       </c>
       <c r="T8" s="15"/>
@@ -1799,7 +1679,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T8:X8)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="15"/>
@@ -1808,30 +1688,30 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z8:AD8)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="24">
-        <f t="shared" si="4"/>
+        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1839,14 +1719,14 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="18">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>100*SUM(D9:J9)/(2*A$2)</f>
+        <v>100</v>
       </c>
       <c r="L9" s="15">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M9" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1854,8 +1734,8 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="18">
-        <f t="shared" si="1"/>
-        <v>87.5</v>
+        <f>SUM(L9:R9)/(A$2)</f>
+        <v>80</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="6"/>
@@ -1863,7 +1743,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T9:X9)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="15"/>
@@ -1872,12 +1752,12 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z9:AD9)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="24">
-        <f t="shared" si="4"/>
+        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
         <v>26</v>
       </c>
     </row>
@@ -1903,7 +1783,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D10:J10)/(2*A$2)</f>
         <v>75</v>
       </c>
       <c r="L10" s="15">
@@ -1918,7 +1798,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L10:R10)/(A$2)</f>
         <v>50</v>
       </c>
       <c r="T10" s="15"/>
@@ -1927,7 +1807,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T10:X10)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="15"/>
@@ -1936,12 +1816,12 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z10:AD10)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="15"/>
       <c r="AG10" s="24">
-        <f t="shared" si="4"/>
+        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
         <v>17.5</v>
       </c>
     </row>
@@ -1967,7 +1847,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D11:J11)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L11" s="15">
@@ -1982,7 +1862,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L11:R11)/(A$2)</f>
         <v>50</v>
       </c>
       <c r="T11" s="15"/>
@@ -1991,7 +1871,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T11:X11)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="15"/>
@@ -2000,12 +1880,12 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z11:AD11)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="24">
-        <f t="shared" si="4"/>
+        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
         <v>15</v>
       </c>
     </row>
@@ -2031,7 +1911,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D12:J12)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L12" s="15">
@@ -2046,7 +1926,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L12:R12)/(A$2)</f>
         <v>50</v>
       </c>
       <c r="T12" s="15"/>
@@ -2055,7 +1935,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T12:X12)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="15"/>
@@ -2064,12 +1944,12 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z12:AD12)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="24">
-        <f t="shared" si="4"/>
+        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
         <v>15</v>
       </c>
     </row>
@@ -2095,7 +1975,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D13:J13)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L13" s="15">
@@ -2110,7 +1990,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L13:R13)/(A$2)</f>
         <v>50</v>
       </c>
       <c r="T13" s="15"/>
@@ -2119,7 +1999,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T13:X13)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="15"/>
@@ -2128,12 +2008,12 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z13:AD13)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="24">
-        <f t="shared" si="4"/>
+        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
         <v>15</v>
       </c>
     </row>
@@ -2159,7 +2039,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D14:J14)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L14" s="15">
@@ -2174,7 +2054,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L14:R14)/(A$2)</f>
         <v>37.5</v>
       </c>
       <c r="T14" s="15"/>
@@ -2183,7 +2063,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T14:X14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="15"/>
@@ -2192,12 +2072,12 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z14:AD14)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="15"/>
       <c r="AG14" s="24">
-        <f t="shared" si="4"/>
+        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
         <v>12.5</v>
       </c>
     </row>
@@ -2223,7 +2103,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D15:J15)/(2*A$2)</f>
         <v>37.5</v>
       </c>
       <c r="L15" s="15">
@@ -2238,7 +2118,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L15:R15)/(A$2)</f>
         <v>42.5</v>
       </c>
       <c r="T15" s="15"/>
@@ -2247,7 +2127,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T15:X15)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="15"/>
@@ -2256,12 +2136,12 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z15:AD15)</f>
         <v>0</v>
       </c>
       <c r="AF15" s="15"/>
       <c r="AG15" s="24">
-        <f t="shared" si="4"/>
+        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
         <v>12.25</v>
       </c>
     </row>
@@ -2287,7 +2167,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D16:J16)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L16" s="15">
@@ -2302,7 +2182,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L16:R16)/(A$2)</f>
         <v>35</v>
       </c>
       <c r="T16" s="15"/>
@@ -2311,7 +2191,7 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T16:X16)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="15"/>
@@ -2320,12 +2200,12 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z16:AD16)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="24">
-        <f t="shared" si="4"/>
+        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
         <v>12</v>
       </c>
     </row>
@@ -2351,7 +2231,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D17:J17)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L17" s="15">
@@ -2366,7 +2246,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L17:R17)/(A$2)</f>
         <v>35</v>
       </c>
       <c r="T17" s="15"/>
@@ -2375,7 +2255,7 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T17:X17)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="15"/>
@@ -2384,12 +2264,12 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z17:AD17)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="15"/>
       <c r="AG17" s="24">
-        <f t="shared" si="4"/>
+        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
         <v>12</v>
       </c>
     </row>
@@ -2415,7 +2295,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D18:J18)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L18" s="15">
@@ -2430,7 +2310,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L18:R18)/(A$2)</f>
         <v>30</v>
       </c>
       <c r="T18" s="15"/>
@@ -2439,7 +2319,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T18:X18)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="15"/>
@@ -2448,12 +2328,12 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z18:AD18)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="15"/>
       <c r="AG18" s="24">
-        <f t="shared" si="4"/>
+        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
         <v>11</v>
       </c>
     </row>
@@ -2479,7 +2359,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D19:J19)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L19" s="15">
@@ -2494,7 +2374,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L19:R19)/(A$2)</f>
         <v>30</v>
       </c>
       <c r="T19" s="15"/>
@@ -2503,7 +2383,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T19:X19)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="15"/>
@@ -2512,12 +2392,12 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z19:AD19)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="15"/>
       <c r="AG19" s="24">
-        <f t="shared" si="4"/>
+        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
         <v>11</v>
       </c>
     </row>
@@ -2543,7 +2423,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D20:J20)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L20" s="15">
@@ -2558,7 +2438,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L20:R20)/(A$2)</f>
         <v>30</v>
       </c>
       <c r="T20" s="15"/>
@@ -2567,7 +2447,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T20:X20)</f>
         <v>0</v>
       </c>
       <c r="Z20" s="15"/>
@@ -2576,12 +2456,12 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z20:AD20)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="15"/>
       <c r="AG20" s="24">
-        <f t="shared" si="4"/>
+        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
         <v>11</v>
       </c>
     </row>
@@ -2607,7 +2487,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D21:J21)/(2*A$2)</f>
         <v>50</v>
       </c>
       <c r="L21" s="15">
@@ -2622,7 +2502,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L21:R21)/(A$2)</f>
         <v>25</v>
       </c>
       <c r="T21" s="15"/>
@@ -2631,7 +2511,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T21:X21)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="15"/>
@@ -2640,12 +2520,12 @@
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z21:AD21)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="15"/>
       <c r="AG21" s="24">
-        <f t="shared" si="4"/>
+        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
         <v>10</v>
       </c>
     </row>
@@ -2671,7 +2551,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D22:J22)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L22" s="15">
@@ -2686,7 +2566,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L22:R22)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T22" s="15"/>
@@ -2695,7 +2575,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T22:X22)</f>
         <v>0</v>
       </c>
       <c r="Z22" s="15"/>
@@ -2704,12 +2584,12 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z22:AD22)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="15"/>
       <c r="AG22" s="24">
-        <f t="shared" si="4"/>
+        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -2735,7 +2615,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D23:J23)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L23" s="15">
@@ -2750,7 +2630,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L23:R23)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T23" s="15"/>
@@ -2759,7 +2639,7 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T23:X23)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="15"/>
@@ -2768,12 +2648,12 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z23:AD23)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="15"/>
       <c r="AG23" s="24">
-        <f t="shared" si="4"/>
+        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -2799,7 +2679,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D24:J24)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L24" s="15">
@@ -2814,7 +2694,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L24:R24)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T24" s="15"/>
@@ -2823,7 +2703,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T24:X24)</f>
         <v>0</v>
       </c>
       <c r="Z24" s="15"/>
@@ -2832,12 +2712,12 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z24:AD24)</f>
         <v>0</v>
       </c>
       <c r="AF24" s="15"/>
       <c r="AG24" s="24">
-        <f t="shared" si="4"/>
+        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +2743,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D25:J25)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L25" s="15">
@@ -2878,7 +2758,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L25:R25)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T25" s="15"/>
@@ -2887,7 +2767,7 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T25:X25)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="15"/>
@@ -2896,12 +2776,12 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z25:AD25)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="15"/>
       <c r="AG25" s="24">
-        <f t="shared" si="4"/>
+        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +2807,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D26:J26)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -2942,7 +2822,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L26:R26)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T26" s="15"/>
@@ -2951,7 +2831,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T26:X26)</f>
         <v>0</v>
       </c>
       <c r="Z26" s="15"/>
@@ -2960,12 +2840,12 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z26:AD26)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="15"/>
       <c r="AG26" s="24">
-        <f t="shared" si="4"/>
+        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -2991,7 +2871,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D27:J27)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3006,7 +2886,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L27:R27)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T27" s="15"/>
@@ -3015,7 +2895,7 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T27:X27)</f>
         <v>0</v>
       </c>
       <c r="Z27" s="15"/>
@@ -3024,12 +2904,12 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z27:AD27)</f>
         <v>0</v>
       </c>
       <c r="AF27" s="15"/>
       <c r="AG27" s="24">
-        <f t="shared" si="4"/>
+        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3055,7 +2935,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D28:J28)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3070,7 +2950,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L28:R28)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T28" s="15"/>
@@ -3079,7 +2959,7 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T28:X28)</f>
         <v>0</v>
       </c>
       <c r="Z28" s="15"/>
@@ -3088,12 +2968,12 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z28:AD28)</f>
         <v>0</v>
       </c>
       <c r="AF28" s="15"/>
       <c r="AG28" s="24">
-        <f t="shared" si="4"/>
+        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3119,7 +2999,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D29:J29)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3134,7 +3014,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L29:R29)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T29" s="15"/>
@@ -3143,7 +3023,7 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T29:X29)</f>
         <v>0</v>
       </c>
       <c r="Z29" s="15"/>
@@ -3152,12 +3032,12 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z29:AD29)</f>
         <v>0</v>
       </c>
       <c r="AF29" s="15"/>
       <c r="AG29" s="24">
-        <f t="shared" si="4"/>
+        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3183,7 +3063,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D30:J30)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3198,7 +3078,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L30:R30)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T30" s="15"/>
@@ -3207,7 +3087,7 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T30:X30)</f>
         <v>0</v>
       </c>
       <c r="Z30" s="15"/>
@@ -3216,12 +3096,12 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z30:AD30)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="15"/>
       <c r="AG30" s="24">
-        <f t="shared" si="4"/>
+        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3247,7 +3127,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D31:J31)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3262,7 +3142,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L31:R31)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T31" s="15"/>
@@ -3271,7 +3151,7 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T31:X31)</f>
         <v>0</v>
       </c>
       <c r="Z31" s="15"/>
@@ -3280,12 +3160,12 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z31:AD31)</f>
         <v>0</v>
       </c>
       <c r="AF31" s="15"/>
       <c r="AG31" s="24">
-        <f t="shared" si="4"/>
+        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3311,7 +3191,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D32:J32)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3326,7 +3206,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L32:R32)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T32" s="15"/>
@@ -3335,7 +3215,7 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T32:X32)</f>
         <v>0</v>
       </c>
       <c r="Z32" s="15"/>
@@ -3344,12 +3224,12 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z32:AD32)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="15"/>
       <c r="AG32" s="24">
-        <f t="shared" si="4"/>
+        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3375,7 +3255,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D33:J33)/(2*A$2)</f>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -3390,7 +3270,7 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L33:R33)/(A$2)</f>
         <v>0</v>
       </c>
       <c r="T33" s="16"/>
@@ -3399,7 +3279,7 @@
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="20">
-        <f t="shared" si="2"/>
+        <f>SUM(T33:X33)</f>
         <v>0</v>
       </c>
       <c r="Z33" s="16"/>
@@ -3408,12 +3288,12 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z33:AD33)</f>
         <v>0</v>
       </c>
       <c r="AF33" s="16"/>
       <c r="AG33" s="28">
-        <f t="shared" si="4"/>
+        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -4707,14 +4587,14 @@
     <mergeCell ref="L2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:J33">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4789,18 +4669,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R33">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>Adı</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>SINAV (%30)</t>
+  </si>
+  <si>
+    <t>RÜMEYSA</t>
+  </si>
+  <si>
+    <t>YILDIRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -788,6 +797,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -810,12 +822,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -846,6 +860,64 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1160,11 +1232,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG81"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI9" sqref="AI9"/>
+      <selection pane="bottomLeft" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1173,12 +1245,13 @@
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
     <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1190,85 +1263,85 @@
     <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:34" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="38"/>
-    </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="41"/>
+    </row>
+    <row r="2" spans="1:34" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>2</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="34"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="39" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="39" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="39" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="41"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="19" t="s">
         <v>100</v>
       </c>
@@ -1276,7 +1349,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>91</v>
       </c>
@@ -1377,7 +1450,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
@@ -1393,14 +1466,16 @@
       <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="18">
-        <f>100*SUM(D4:J4)/(2*A$2)</f>
-        <v>100</v>
+        <f t="shared" ref="K4:K34" si="0">100*SUM(D4:J4)/(2*A$2)</f>
+        <v>150</v>
       </c>
       <c r="L4" s="15">
         <v>100</v>
@@ -1408,14 +1483,16 @@
       <c r="M4" s="6">
         <v>100</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6">
+        <v>80</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="18">
-        <f>SUM(L4:R4)/(A$2)</f>
-        <v>100</v>
+        <f t="shared" ref="S4:S34" si="1">SUM(L4:R4)/(A$2)</f>
+        <v>140</v>
       </c>
       <c r="T4" s="15"/>
       <c r="U4" s="6"/>
@@ -1423,7 +1500,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="18">
-        <f>SUM(T4:X4)</f>
+        <f t="shared" ref="Y4:Y34" si="2">SUM(T4:X4)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="15"/>
@@ -1432,16 +1509,16 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="18">
-        <f>SUM(Z4:AD4)</f>
+        <f t="shared" ref="AE4:AE34" si="3">SUM(Z4:AD4)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="15"/>
       <c r="AG4" s="24">
-        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AG4:AG34" si="4">K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>67</v>
       </c>
@@ -1457,14 +1534,16 @@
       <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="18">
-        <f>100*SUM(D5:J5)/(2*A$2)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="L5" s="15">
         <v>100</v>
@@ -1472,14 +1551,16 @@
       <c r="M5" s="6">
         <v>80</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6">
+        <v>80</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="18">
-        <f>SUM(L5:R5)/(A$2)</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>130</v>
       </c>
       <c r="T5" s="15"/>
       <c r="U5" s="6"/>
@@ -1487,7 +1568,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="18">
-        <f>SUM(T5:X5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="15"/>
@@ -1496,16 +1577,16 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="18">
-        <f>SUM(Z5:AD5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF5" s="15"/>
       <c r="AG5" s="24">
-        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>88</v>
       </c>
@@ -1521,14 +1602,16 @@
       <c r="E6" s="7">
         <v>1.7</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>1.7</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="18">
-        <f>100*SUM(D6:J6)/(2*A$2)</f>
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="L6" s="15">
         <v>90</v>
@@ -1536,14 +1619,16 @@
       <c r="M6" s="6">
         <v>100</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <v>100</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="18">
-        <f>SUM(L6:R6)/(A$2)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>145</v>
       </c>
       <c r="T6" s="15"/>
       <c r="U6" s="6"/>
@@ -1551,7 +1636,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="18">
-        <f>SUM(T6:X6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6" s="15"/>
@@ -1560,16 +1645,19 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="18">
-        <f>SUM(Z6:AD6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="24">
-        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>41.75</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>73</v>
       </c>
@@ -1585,14 +1673,16 @@
       <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="18">
-        <f>100*SUM(D7:J7)/(2*A$2)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
@@ -1600,14 +1690,16 @@
       <c r="M7" s="6">
         <v>70</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6">
+        <v>60</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="18">
-        <f>SUM(L7:R7)/(A$2)</f>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>115</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="6"/>
@@ -1615,7 +1707,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="18">
-        <f>SUM(T7:X7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="15"/>
@@ -1624,16 +1716,16 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="18">
-        <f>SUM(Z7:AD7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF7" s="15"/>
       <c r="AG7" s="24">
-        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>16</v>
       </c>
@@ -1649,13 +1741,15 @@
       <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="18">
-        <f>100*SUM(D8:J8)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L8" s="15">
@@ -1664,13 +1758,15 @@
       <c r="M8" s="6">
         <v>60</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="18">
-        <f>SUM(L8:R8)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="T8" s="15"/>
@@ -1679,7 +1775,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="18">
-        <f>SUM(T8:X8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8" s="15"/>
@@ -1688,16 +1784,16 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="18">
-        <f>SUM(Z8:AD8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="24">
-        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>46</v>
       </c>
@@ -1713,14 +1809,16 @@
       <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="18">
-        <f>100*SUM(D9:J9)/(2*A$2)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="L9" s="15">
         <v>100</v>
@@ -1728,14 +1826,16 @@
       <c r="M9" s="6">
         <v>60</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6">
+        <v>60</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="18">
-        <f>SUM(L9:R9)/(A$2)</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="6"/>
@@ -1743,7 +1843,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="18">
-        <f>SUM(T9:X9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="15"/>
@@ -1752,16 +1852,16 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="18">
-        <f>SUM(Z9:AD9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="24">
-        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>52</v>
       </c>
@@ -1777,14 +1877,16 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>1.9</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="18">
-        <f>100*SUM(D10:J10)/(2*A$2)</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>122.50000000000001</v>
       </c>
       <c r="L10" s="15">
         <v>100</v>
@@ -1792,14 +1894,16 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6">
+        <v>60</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="18">
-        <f>SUM(L10:R10)/(A$2)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="6"/>
@@ -1807,7 +1911,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="18">
-        <f>SUM(T10:X10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z10" s="15"/>
@@ -1816,16 +1920,16 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="18">
-        <f>SUM(Z10:AD10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF10" s="15"/>
       <c r="AG10" s="24">
-        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -1841,14 +1945,16 @@
       <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="18">
-        <f>100*SUM(D11:J11)/(2*A$2)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -1856,14 +1962,16 @@
       <c r="M11" s="6">
         <v>100</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6">
+        <v>80</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="18">
-        <f>SUM(L11:R11)/(A$2)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="6"/>
@@ -1871,7 +1979,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="18">
-        <f>SUM(T11:X11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="15"/>
@@ -1880,16 +1988,16 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="18">
-        <f>SUM(Z11:AD11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="24">
-        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>79</v>
       </c>
@@ -1905,14 +2013,16 @@
       <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="18">
-        <f>100*SUM(D12:J12)/(2*A$2)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -1920,14 +2030,16 @@
       <c r="M12" s="6">
         <v>100</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6">
+        <v>100</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="18">
-        <f>SUM(L12:R12)/(A$2)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="6"/>
@@ -1935,7 +2047,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="18">
-        <f>SUM(T12:X12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="15"/>
@@ -1944,16 +2056,16 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="18">
-        <f>SUM(Z12:AD12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="24">
-        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>82</v>
       </c>
@@ -1969,14 +2081,16 @@
       <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="18">
-        <f>100*SUM(D13:J13)/(2*A$2)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -1984,14 +2098,16 @@
       <c r="M13" s="6">
         <v>100</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>100</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="18">
-        <f>SUM(L13:R13)/(A$2)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="6"/>
@@ -1999,7 +2115,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="18">
-        <f>SUM(T13:X13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13" s="15"/>
@@ -2008,16 +2124,16 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="18">
-        <f>SUM(Z13:AD13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="24">
-        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>37</v>
       </c>
@@ -2033,13 +2149,15 @@
       <c r="E14" s="7">
         <v>2</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="18">
-        <f>100*SUM(D14:J14)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L14" s="15">
@@ -2048,13 +2166,15 @@
       <c r="M14" s="6">
         <v>75</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="18">
-        <f>SUM(L14:R14)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="T14" s="15"/>
@@ -2063,7 +2183,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="18">
-        <f>SUM(T14:X14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14" s="15"/>
@@ -2072,16 +2192,16 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="18">
-        <f>SUM(Z14:AD14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14" s="15"/>
       <c r="AG14" s="24">
-        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>31</v>
       </c>
@@ -2097,13 +2217,15 @@
       <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="18">
-        <f>100*SUM(D15:J15)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="L15" s="15">
@@ -2112,13 +2234,15 @@
       <c r="M15" s="6">
         <v>85</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="18">
-        <f>SUM(L15:R15)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
       <c r="T15" s="15"/>
@@ -2127,7 +2251,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="18">
-        <f>SUM(T15:X15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z15" s="15"/>
@@ -2136,16 +2260,16 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="18">
-        <f>SUM(Z15:AD15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15" s="15"/>
       <c r="AG15" s="24">
-        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
+        <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>8</v>
       </c>
@@ -2161,14 +2285,16 @@
       <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="18">
-        <f>100*SUM(D16:J16)/(2*A$2)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L16" s="15">
         <v>0</v>
@@ -2176,14 +2302,16 @@
       <c r="M16" s="6">
         <v>70</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6">
+        <v>60</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="18">
-        <f>SUM(L16:R16)/(A$2)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="6"/>
@@ -2191,7 +2319,7 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="18">
-        <f>SUM(T16:X16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z16" s="15"/>
@@ -2200,13 +2328,13 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="18">
-        <f>SUM(Z16:AD16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="24">
-        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2225,14 +2353,16 @@
       <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="18">
-        <f>100*SUM(D17:J17)/(2*A$2)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -2240,14 +2370,16 @@
       <c r="M17" s="6">
         <v>70</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6">
+        <v>60</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="18">
-        <f>SUM(L17:R17)/(A$2)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="6"/>
@@ -2255,7 +2387,7 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="18">
-        <f>SUM(T17:X17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z17" s="15"/>
@@ -2264,13 +2396,13 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="18">
-        <f>SUM(Z17:AD17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF17" s="15"/>
       <c r="AG17" s="24">
-        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2289,13 +2421,15 @@
       <c r="E18" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="18">
-        <f>100*SUM(D18:J18)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L18" s="15">
@@ -2304,13 +2438,15 @@
       <c r="M18" s="6">
         <v>60</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="18">
-        <f>SUM(L18:R18)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="T18" s="15"/>
@@ -2319,7 +2455,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="18">
-        <f>SUM(T18:X18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z18" s="15"/>
@@ -2328,12 +2464,12 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="18">
-        <f>SUM(Z18:AD18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF18" s="15"/>
       <c r="AG18" s="24">
-        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -2353,13 +2489,15 @@
       <c r="E19" s="7">
         <v>2</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="18">
-        <f>100*SUM(D19:J19)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L19" s="15">
@@ -2368,13 +2506,15 @@
       <c r="M19" s="6">
         <v>60</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="18">
-        <f>SUM(L19:R19)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="T19" s="15"/>
@@ -2383,7 +2523,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="18">
-        <f>SUM(T19:X19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z19" s="15"/>
@@ -2392,12 +2532,12 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="18">
-        <f>SUM(Z19:AD19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF19" s="15"/>
       <c r="AG19" s="24">
-        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -2417,13 +2557,15 @@
       <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="18">
-        <f>100*SUM(D20:J20)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L20" s="15">
@@ -2432,13 +2574,15 @@
       <c r="M20" s="6">
         <v>60</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="18">
-        <f>SUM(L20:R20)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="T20" s="15"/>
@@ -2447,7 +2591,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="18">
-        <f>SUM(T20:X20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z20" s="15"/>
@@ -2456,12 +2600,12 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="18">
-        <f>SUM(Z20:AD20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF20" s="15"/>
       <c r="AG20" s="24">
-        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -2481,14 +2625,16 @@
       <c r="E21" s="7">
         <v>2</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="18">
-        <f>100*SUM(D21:J21)/(2*A$2)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
@@ -2496,14 +2642,16 @@
       <c r="M21" s="6">
         <v>50</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6">
+        <v>70</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="18">
-        <f>SUM(L21:R21)/(A$2)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="6"/>
@@ -2511,7 +2659,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="18">
-        <f>SUM(T21:X21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z21" s="15"/>
@@ -2520,13 +2668,13 @@
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="18">
-        <f>SUM(Z21:AD21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF21" s="15"/>
       <c r="AG21" s="24">
-        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,13 +2693,15 @@
       <c r="E22" s="7">
         <v>0</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
-        <f>100*SUM(D22:J22)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="15">
@@ -2560,13 +2710,15 @@
       <c r="M22" s="6">
         <v>0</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="18">
-        <f>SUM(L22:R22)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22" s="15"/>
@@ -2575,7 +2727,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="18">
-        <f>SUM(T22:X22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z22" s="15"/>
@@ -2584,12 +2736,12 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="18">
-        <f>SUM(Z22:AD22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF22" s="15"/>
       <c r="AG22" s="24">
-        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2609,14 +2761,16 @@
       <c r="E23" s="7">
         <v>0</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
-        <f>100*SUM(D23:J23)/(2*A$2)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="L23" s="15">
         <v>0</v>
@@ -2624,13 +2778,15 @@
       <c r="M23" s="6">
         <v>0</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="18">
-        <f>SUM(L23:R23)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23" s="15"/>
@@ -2639,7 +2795,7 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="18">
-        <f>SUM(T23:X23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z23" s="15"/>
@@ -2648,13 +2804,13 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="18">
-        <f>SUM(Z23:AD23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF23" s="15"/>
       <c r="AG23" s="24">
-        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2673,13 +2829,15 @@
       <c r="E24" s="7">
         <v>0</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="18">
-        <f>100*SUM(D24:J24)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="15">
@@ -2688,13 +2846,15 @@
       <c r="M24" s="6">
         <v>0</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="18">
-        <f>SUM(L24:R24)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="15"/>
@@ -2703,7 +2863,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="18">
-        <f>SUM(T24:X24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z24" s="15"/>
@@ -2712,12 +2872,12 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="18">
-        <f>SUM(Z24:AD24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF24" s="15"/>
       <c r="AG24" s="24">
-        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2737,13 +2897,15 @@
       <c r="E25" s="7">
         <v>0</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="18">
-        <f>100*SUM(D25:J25)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="15">
@@ -2752,13 +2914,15 @@
       <c r="M25" s="6">
         <v>0</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="18">
-        <f>SUM(L25:R25)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="15"/>
@@ -2767,7 +2931,7 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="18">
-        <f>SUM(T25:X25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z25" s="15"/>
@@ -2776,12 +2940,12 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="18">
-        <f>SUM(Z25:AD25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF25" s="15"/>
       <c r="AG25" s="24">
-        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2796,19 +2960,21 @@
         <v>27</v>
       </c>
       <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="18">
-        <f>100*SUM(D26:J26)/(2*A$2)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="L26" s="15">
         <v>0</v>
@@ -2816,14 +2982,16 @@
       <c r="M26" s="6">
         <v>0</v>
       </c>
-      <c r="N26" s="6"/>
+      <c r="N26" s="6">
+        <v>60</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="18">
-        <f>SUM(L26:R26)/(A$2)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="6"/>
@@ -2831,7 +2999,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="18">
-        <f>SUM(T26:X26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z26" s="15"/>
@@ -2840,13 +3008,13 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="18">
-        <f>SUM(Z26:AD26)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF26" s="15"/>
       <c r="AG26" s="24">
-        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>13.5</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2865,13 +3033,15 @@
       <c r="E27" s="7">
         <v>0</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="18">
-        <f>100*SUM(D27:J27)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -2880,13 +3050,15 @@
       <c r="M27" s="6">
         <v>0</v>
       </c>
-      <c r="N27" s="6"/>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="18">
-        <f>SUM(L27:R27)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="15"/>
@@ -2895,7 +3067,7 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="18">
-        <f>SUM(T27:X27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z27" s="15"/>
@@ -2904,12 +3076,12 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="18">
-        <f>SUM(Z27:AD27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF27" s="15"/>
       <c r="AG27" s="24">
-        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2929,13 +3101,15 @@
       <c r="E28" s="7">
         <v>0</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="18">
-        <f>100*SUM(D28:J28)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -2944,13 +3118,15 @@
       <c r="M28" s="6">
         <v>0</v>
       </c>
-      <c r="N28" s="6"/>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="18">
-        <f>SUM(L28:R28)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="15"/>
@@ -2959,7 +3135,7 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="18">
-        <f>SUM(T28:X28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z28" s="15"/>
@@ -2968,12 +3144,12 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="18">
-        <f>SUM(Z28:AD28)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF28" s="15"/>
       <c r="AG28" s="24">
-        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2993,13 +3169,15 @@
       <c r="E29" s="7">
         <v>0</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="18">
-        <f>100*SUM(D29:J29)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3008,13 +3186,15 @@
       <c r="M29" s="6">
         <v>0</v>
       </c>
-      <c r="N29" s="6"/>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="18">
-        <f>SUM(L29:R29)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="15"/>
@@ -3023,7 +3203,7 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="18">
-        <f>SUM(T29:X29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z29" s="15"/>
@@ -3032,12 +3212,12 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="18">
-        <f>SUM(Z29:AD29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF29" s="15"/>
       <c r="AG29" s="24">
-        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3057,13 +3237,15 @@
       <c r="E30" s="7">
         <v>0</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="18">
-        <f>100*SUM(D30:J30)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3072,13 +3254,15 @@
       <c r="M30" s="6">
         <v>0</v>
       </c>
-      <c r="N30" s="6"/>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="18">
-        <f>SUM(L30:R30)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="15"/>
@@ -3087,7 +3271,7 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="18">
-        <f>SUM(T30:X30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z30" s="15"/>
@@ -3096,12 +3280,12 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="18">
-        <f>SUM(Z30:AD30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF30" s="15"/>
       <c r="AG30" s="24">
-        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3121,13 +3305,15 @@
       <c r="E31" s="7">
         <v>0</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="18">
-        <f>100*SUM(D31:J31)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3136,13 +3322,15 @@
       <c r="M31" s="6">
         <v>0</v>
       </c>
-      <c r="N31" s="6"/>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="18">
-        <f>SUM(L31:R31)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="15"/>
@@ -3151,7 +3339,7 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="18">
-        <f>SUM(T31:X31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z31" s="15"/>
@@ -3160,12 +3348,12 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="18">
-        <f>SUM(Z31:AD31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF31" s="15"/>
       <c r="AG31" s="24">
-        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3185,13 +3373,15 @@
       <c r="E32" s="7">
         <v>0</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="18">
-        <f>100*SUM(D32:J32)/(2*A$2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3200,13 +3390,15 @@
       <c r="M32" s="6">
         <v>0</v>
       </c>
-      <c r="N32" s="6"/>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="18">
-        <f>SUM(L32:R32)/(A$2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32" s="15"/>
@@ -3215,7 +3407,7 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="18">
-        <f>SUM(T32:X32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z32" s="15"/>
@@ -3224,89 +3416,150 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="18">
-        <f>SUM(Z32:AD32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF32" s="15"/>
       <c r="AG32" s="24">
-        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="18">
+        <f t="shared" ref="K33" si="5">100*SUM(D33:J33)/(2*A$2)</f>
+        <v>50</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>60</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="18">
+        <f t="shared" ref="S33" si="6">SUM(L33:R33)/(A$2)</f>
+        <v>30</v>
+      </c>
+      <c r="T33" s="15"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="18">
+        <f t="shared" ref="Y33" si="7">SUM(T33:X33)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="18">
+        <f t="shared" ref="AE33" si="8">SUM(Z33:AD33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="24">
+        <f t="shared" ref="AG33" si="9">K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B34" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C34" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="13">
-        <v>0</v>
-      </c>
-      <c r="E33" s="14">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="18">
-        <f>100*SUM(D33:J33)/(2*A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="15">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="18">
-        <f>SUM(L33:R33)/(A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="16"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="20">
-        <f>SUM(T33:X33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="18">
-        <f>SUM(Z33:AD33)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="28">
-        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="16"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3314,24 +3567,6 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -4575,6 +4810,33 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
+    <row r="82" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+    </row>
   </sheetData>
   <sortState ref="A4:AG33">
     <sortCondition descending="1" ref="AG4:AG33"/>
@@ -4586,19 +4848,19 @@
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="L2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:J33">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
+  <conditionalFormatting sqref="D4:J34">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K33">
+  <conditionalFormatting sqref="K4:K34">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -4612,7 +4874,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S33">
+  <conditionalFormatting sqref="S4:S34">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -4626,7 +4888,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y33">
+  <conditionalFormatting sqref="Y4:Y34">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -4640,7 +4902,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE4:AE33">
+  <conditionalFormatting sqref="AE4:AE34">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -4654,7 +4916,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AG33">
+  <conditionalFormatting sqref="AG4:AG34">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -4668,21 +4930,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:R33">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
-      <formula>80</formula>
-      <formula>100</formula>
+  <conditionalFormatting sqref="L4:R34">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>0.1</formula>
-      <formula>59.9</formula>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4700,7 +4962,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K4:K33</xm:sqref>
+          <xm:sqref>K4:K34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E54EB9-FD52-4CFD-8B29-7F3B7B6681D5}">
@@ -4711,7 +4973,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S4:S33</xm:sqref>
+          <xm:sqref>S4:S34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03C5F189-3F43-4B84-A0F5-49F108E9F2B6}">
@@ -4722,7 +4984,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y4:Y33</xm:sqref>
+          <xm:sqref>Y4:Y34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{04C393DA-4C35-49B7-B05F-92E59E130F0F}">
@@ -4733,7 +4995,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE4:AE33</xm:sqref>
+          <xm:sqref>AE4:AE34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4744,7 +5006,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AG4:AG33</xm:sqref>
+          <xm:sqref>AG4:AG34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -24,7 +24,7 @@
     <author>Sari, Ozkan</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>Adı</t>
   </si>
@@ -419,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -633,37 +633,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -734,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -767,16 +736,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,21 +763,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -822,67 +782,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1232,11 +1132,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO31" sqref="AO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1245,13 +1145,12 @@
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
     <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1263,191 +1162,229 @@
     <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35">
+        <v>3</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="39" t="s">
+        <v>96</v>
+      </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="M1" s="40"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
       <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="39" t="s">
+        <v>98</v>
+      </c>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="AA1" s="40"/>
       <c r="AB1" s="40"/>
       <c r="AC1" s="40"/>
       <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="41"/>
-    </row>
-    <row r="2" spans="1:34" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
-        <v>2</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="19" t="s">
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="AG1" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32">
+        <v>2</v>
+      </c>
+      <c r="F2" s="32">
+        <v>3</v>
+      </c>
+      <c r="G2" s="32">
+        <v>4</v>
+      </c>
+      <c r="H2" s="32">
+        <v>5</v>
+      </c>
+      <c r="I2" s="32">
+        <v>6</v>
+      </c>
+      <c r="J2" s="32">
+        <v>7</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="31">
+        <v>1</v>
+      </c>
+      <c r="M2" s="32">
+        <v>2</v>
+      </c>
+      <c r="N2" s="32">
+        <v>3</v>
+      </c>
+      <c r="O2" s="32">
+        <v>4</v>
+      </c>
+      <c r="P2" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>6</v>
+      </c>
+      <c r="R2" s="32">
+        <v>7</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="31">
+        <v>1</v>
+      </c>
+      <c r="U2" s="32">
+        <v>2</v>
+      </c>
+      <c r="V2" s="32">
+        <v>3</v>
+      </c>
+      <c r="W2" s="32">
+        <v>4</v>
+      </c>
+      <c r="X2" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="32">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="32">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="AG2" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="31">
-        <v>1</v>
-      </c>
-      <c r="E3" s="32">
-        <v>2</v>
-      </c>
-      <c r="F3" s="32">
-        <v>3</v>
-      </c>
-      <c r="G3" s="32">
-        <v>4</v>
-      </c>
-      <c r="H3" s="32">
-        <v>5</v>
-      </c>
-      <c r="I3" s="32">
-        <v>6</v>
-      </c>
-      <c r="J3" s="32">
-        <v>7</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="31">
-        <v>1</v>
-      </c>
-      <c r="M3" s="32">
-        <v>2</v>
-      </c>
-      <c r="N3" s="32">
-        <v>3</v>
-      </c>
-      <c r="O3" s="32">
-        <v>4</v>
-      </c>
-      <c r="P3" s="32">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="32">
-        <v>6</v>
-      </c>
-      <c r="R3" s="32">
-        <v>7</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" s="31">
-        <v>1</v>
-      </c>
-      <c r="U3" s="32">
-        <v>2</v>
-      </c>
-      <c r="V3" s="32">
-        <v>3</v>
-      </c>
-      <c r="W3" s="32">
-        <v>4</v>
-      </c>
-      <c r="X3" s="32">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z3" s="31">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="32">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="32">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="32">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="32">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF3" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="18">
+        <f>100*SUM(D3:J3)/(2*A$1)</f>
+        <v>110</v>
+      </c>
+      <c r="L3" s="15">
+        <v>90</v>
+      </c>
+      <c r="M3" s="6">
+        <v>100</v>
+      </c>
+      <c r="N3" s="6">
+        <v>100</v>
+      </c>
+      <c r="O3" s="6">
         <v>95</v>
       </c>
-      <c r="AG3" s="22" t="s">
-        <v>94</v>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="18">
+        <f>SUM(L3:R3)/(A$1)</f>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="18">
+        <f>SUM(T3:X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="18">
+        <f>SUM(Z3:AD3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="24">
+        <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,13 +1406,15 @@
       <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K34" si="0">100*SUM(D4:J4)/(2*A$2)</f>
-        <v>150</v>
+        <f>100*SUM(D4:J4)/(2*A$1)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="L4" s="15">
         <v>100</v>
@@ -1486,13 +1425,15 @@
       <c r="N4" s="6">
         <v>80</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <v>60</v>
+      </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="18">
-        <f t="shared" ref="S4:S34" si="1">SUM(L4:R4)/(A$2)</f>
-        <v>140</v>
+        <f>SUM(L4:R4)/(A$1)</f>
+        <v>113.33333333333333</v>
       </c>
       <c r="T4" s="15"/>
       <c r="U4" s="6"/>
@@ -1500,7 +1441,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="18">
-        <f t="shared" ref="Y4:Y34" si="2">SUM(T4:X4)</f>
+        <f>SUM(T4:X4)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="15"/>
@@ -1509,13 +1450,13 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="18">
-        <f t="shared" ref="AE4:AE34" si="3">SUM(Z4:AD4)</f>
+        <f>SUM(Z4:AD4)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="15"/>
       <c r="AG4" s="24">
-        <f t="shared" ref="AG4:AG34" si="4">K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>43</v>
+        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,13 +1478,15 @@
       <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>1.4</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="18">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>100*SUM(D5:J5)/(2*A$1)</f>
+        <v>123.33333333333333</v>
       </c>
       <c r="L5" s="15">
         <v>100</v>
@@ -1554,13 +1497,15 @@
       <c r="N5" s="6">
         <v>80</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <v>60</v>
+      </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="18">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f>SUM(L5:R5)/(A$1)</f>
+        <v>106.66666666666667</v>
       </c>
       <c r="T5" s="15"/>
       <c r="U5" s="6"/>
@@ -1568,7 +1513,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T5:X5)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="15"/>
@@ -1577,58 +1522,62 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z5:AD5)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="15"/>
       <c r="AG5" s="24">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
+        <v>33.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="18">
-        <f t="shared" si="0"/>
-        <v>127.49999999999999</v>
+        <f>100*SUM(D6:J6)/(2*A$1)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="L6" s="15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M6" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N6" s="6">
-        <v>100</v>
-      </c>
-      <c r="O6" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="O6" s="6">
+        <v>60</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="18">
-        <f t="shared" si="1"/>
-        <v>145</v>
+        <f>SUM(L6:R6)/(A$1)</f>
+        <v>96.666666666666671</v>
       </c>
       <c r="T6" s="15"/>
       <c r="U6" s="6"/>
@@ -1636,7 +1585,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T6:X6)</f>
         <v>0</v>
       </c>
       <c r="Z6" s="15"/>
@@ -1645,27 +1594,24 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z6:AD6)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="24">
-        <f t="shared" si="4"/>
-        <v>41.75</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>103</v>
+        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
+        <v>32.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -1676,30 +1622,34 @@
       <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="18">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
       </c>
       <c r="M7" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N7" s="6">
         <v>60</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6">
+        <v>60</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="18">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <f>SUM(L7:R7)/(A$1)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="6"/>
@@ -1707,7 +1657,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T7:X7)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="15"/>
@@ -1716,58 +1666,62 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z7:AD7)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="15"/>
       <c r="AG7" s="24">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D8" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D8:J8)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
         <v>100</v>
       </c>
-      <c r="M8" s="6">
-        <v>60</v>
-      </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O8" s="6">
+        <v>100</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="18">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>SUM(L8:R8)/(A$1)</f>
+        <v>100</v>
       </c>
       <c r="T8" s="15"/>
       <c r="U8" s="6"/>
@@ -1775,7 +1729,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T8:X8)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="15"/>
@@ -1784,27 +1738,27 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z8:AD8)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="24">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -1812,30 +1766,34 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="18">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>100*SUM(D9:J9)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
         <v>100</v>
       </c>
-      <c r="M9" s="6">
-        <v>60</v>
-      </c>
       <c r="N9" s="6">
-        <v>60</v>
-      </c>
-      <c r="O9" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O9" s="6">
+        <v>95</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="18">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>SUM(L9:R9)/(A$1)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="T9" s="15"/>
       <c r="U9" s="6"/>
@@ -1843,7 +1801,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T9:X9)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="15"/>
@@ -1852,58 +1810,62 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z9:AD9)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="24">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
+        <v>29.666666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D10" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="18">
-        <f t="shared" si="0"/>
-        <v>122.50000000000001</v>
+        <f>100*SUM(D10:J10)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
         <v>100</v>
       </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
       <c r="N10" s="6">
-        <v>60</v>
-      </c>
-      <c r="O10" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="O10" s="6">
+        <v>90</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="18">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>SUM(L10:R10)/(A$1)</f>
+        <v>90</v>
       </c>
       <c r="T10" s="15"/>
       <c r="U10" s="6"/>
@@ -1911,7 +1873,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T10:X10)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="15"/>
@@ -1920,58 +1882,62 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z10:AD10)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="15"/>
       <c r="AG10" s="24">
-        <f t="shared" si="4"/>
-        <v>28.25</v>
+        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D11:J11)/(2*A$1)</f>
+        <v>115</v>
+      </c>
+      <c r="L11" s="15">
         <v>100</v>
       </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
       <c r="M11" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N11" s="6">
-        <v>80</v>
-      </c>
-      <c r="O11" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="O11" s="6">
+        <v>60</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="18">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>SUM(L11:R11)/(A$1)</f>
+        <v>73.333333333333329</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="6"/>
@@ -1979,7 +1945,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T11:X11)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="15"/>
@@ -1988,24 +1954,24 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z11:AD11)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="24">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
+        <v>26.166666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2016,30 +1982,34 @@
       <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D12:J12)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
       </c>
       <c r="M12" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N12" s="6">
-        <v>100</v>
-      </c>
-      <c r="O12" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="O12" s="6">
+        <v>60</v>
+      </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="18">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L12:R12)/(A$1)</f>
+        <v>63.333333333333336</v>
       </c>
       <c r="T12" s="15"/>
       <c r="U12" s="6"/>
@@ -2047,7 +2017,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T12:X12)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="15"/>
@@ -2056,24 +2026,24 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z12:AD12)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="24">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -2084,30 +2054,34 @@
       <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D13:J13)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N13" s="6">
-        <v>100</v>
-      </c>
-      <c r="O13" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="O13" s="6">
+        <v>60</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="18">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(L13:R13)/(A$1)</f>
+        <v>63.333333333333336</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="6"/>
@@ -2115,7 +2089,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T13:X13)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="15"/>
@@ -2124,24 +2098,24 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z13:AD13)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="24">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -2150,32 +2124,36 @@
         <v>2</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <v>100</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
         <v>50</v>
       </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>75</v>
-      </c>
       <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="O14" s="6">
+        <v>60</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="18">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
+        <f>SUM(L14:R14)/(A$1)</f>
+        <v>60</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="6"/>
@@ -2183,7 +2161,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T14:X14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="15"/>
@@ -2192,58 +2170,62 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z14:AD14)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="15"/>
       <c r="AG14" s="24">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
+        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D15" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="18">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6">
+        <v>100</v>
+      </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="18">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
+        <f>SUM(L15:R15)/(A$1)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="6"/>
@@ -2251,7 +2233,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T15:X15)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="15"/>
@@ -2260,58 +2242,62 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z15:AD15)</f>
         <v>0</v>
       </c>
       <c r="AF15" s="15"/>
       <c r="AG15" s="24">
-        <f t="shared" si="4"/>
-        <v>12.25</v>
+        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
+        <v>18.333333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D16" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="7">
         <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L16" s="15">
         <v>100</v>
       </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
       <c r="M16" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N16" s="6">
-        <v>60</v>
-      </c>
-      <c r="O16" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="18">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f>SUM(L16:R16)/(A$1)</f>
+        <v>53.333333333333336</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="6"/>
@@ -2319,7 +2305,7 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T16:X16)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="15"/>
@@ -2328,24 +2314,24 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z16:AD16)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="24">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
+        <v>17.333333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -2354,32 +2340,36 @@
         <v>2</v>
       </c>
       <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>100*SUM(D17:J17)/(2*A$1)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N17" s="6">
-        <v>60</v>
-      </c>
-      <c r="O17" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>90</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="18">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f>SUM(L17:R17)/(A$1)</f>
+        <v>50</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="6"/>
@@ -2387,7 +2377,7 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T17:X17)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="15"/>
@@ -2396,58 +2386,62 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z17:AD17)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="15"/>
       <c r="AG17" s="24">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
+        <v>16.666666666666668</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D18" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="18">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
       </c>
       <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
         <v>60</v>
       </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6">
+        <v>60</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>SUM(L18:R18)/(A$1)</f>
+        <v>40</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="6"/>
@@ -2455,7 +2449,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T18:X18)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="15"/>
@@ -2464,24 +2458,24 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z18:AD18)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="15"/>
       <c r="AG18" s="24">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
+        <v>16.333333333333336</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -2492,13 +2486,15 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>1.5</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="18">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -2509,13 +2505,15 @@
       <c r="N19" s="6">
         <v>0</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6">
+        <v>50</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>SUM(L19:R19)/(A$1)</f>
+        <v>36.666666666666664</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="6"/>
@@ -2523,7 +2521,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T19:X19)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="15"/>
@@ -2532,13 +2530,13 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z19:AD19)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="15"/>
       <c r="AG19" s="24">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
+        <v>13.166666666666668</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2560,13 +2558,15 @@
       <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>1.4</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="18">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <v>56.666666666666664</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2577,13 +2577,15 @@
       <c r="N20" s="6">
         <v>0</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6">
+        <v>50</v>
+      </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>SUM(L20:R20)/(A$1)</f>
+        <v>36.666666666666664</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="6"/>
@@ -2591,7 +2593,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T20:X20)</f>
         <v>0</v>
       </c>
       <c r="Z20" s="15"/>
@@ -2600,58 +2602,62 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z20:AD20)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="15"/>
       <c r="AG20" s="24">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D21" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <v>25</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
       </c>
       <c r="M21" s="6">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N21" s="6">
-        <v>70</v>
-      </c>
-      <c r="O21" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="18">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(L21:R21)/(A$1)</f>
+        <v>28.333333333333332</v>
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="6"/>
@@ -2659,7 +2665,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T21:X21)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="15"/>
@@ -2668,24 +2674,22 @@
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z21:AD21)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="15"/>
       <c r="AG21" s="24">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
+        <v>8.1666666666666679</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="A22" s="23"/>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
@@ -2694,15 +2698,17 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>100*SUM(D22:J22)/(2*A$1)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -2711,15 +2717,17 @@
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L22:R22)/(A$1)</f>
+        <v>20</v>
       </c>
       <c r="T22" s="15"/>
       <c r="U22" s="6"/>
@@ -2727,7 +2735,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T22:X22)</f>
         <v>0</v>
       </c>
       <c r="Z22" s="15"/>
@@ -2736,13 +2744,13 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z22:AD22)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="15"/>
       <c r="AG22" s="24">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
+        <v>7.3333333333333339</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,13 +2772,15 @@
       <c r="F23" s="7">
         <v>2</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="L23" s="15">
         <v>0</v>
@@ -2779,15 +2789,17 @@
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L23:R23)/(A$1)</f>
+        <v>20</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="6"/>
@@ -2795,7 +2807,7 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T23:X23)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="15"/>
@@ -2804,24 +2816,24 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z23:AD23)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="15"/>
       <c r="AG23" s="24">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
+        <v>7.3333333333333339</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -2832,13 +2844,15 @@
       <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>2</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="L24" s="15">
         <v>0</v>
@@ -2849,13 +2863,15 @@
       <c r="N24" s="6">
         <v>0</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6">
+        <v>60</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L24:R24)/(A$1)</f>
+        <v>20</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="6"/>
@@ -2863,7 +2879,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T24:X24)</f>
         <v>0</v>
       </c>
       <c r="Z24" s="15"/>
@@ -2872,40 +2888,42 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z24:AD24)</f>
         <v>0</v>
       </c>
       <c r="AF24" s="15"/>
       <c r="AG24" s="24">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
+        <v>7.3333333333333339</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="12">
         <v>0</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D25:J25)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L25" s="15">
@@ -2917,12 +2935,14 @@
       <c r="N25" s="6">
         <v>0</v>
       </c>
-      <c r="O25" s="6"/>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L25:R25)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T25" s="15"/>
@@ -2931,7 +2951,7 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T25:X25)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="15"/>
@@ -2940,41 +2960,43 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z25:AD25)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="15"/>
       <c r="AG25" s="24">
-        <f t="shared" si="4"/>
+        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D26" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="18">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <v>0</v>
       </c>
       <c r="L26" s="15">
         <v>0</v>
@@ -2983,15 +3005,17 @@
         <v>0</v>
       </c>
       <c r="N26" s="6">
-        <v>60</v>
-      </c>
-      <c r="O26" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>SUM(L26:R26)/(A$1)</f>
+        <v>0</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="6"/>
@@ -2999,7 +3023,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T26:X26)</f>
         <v>0</v>
       </c>
       <c r="Z26" s="15"/>
@@ -3008,24 +3032,24 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z26:AD26)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="15"/>
       <c r="AG26" s="24">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
+        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -3036,12 +3060,14 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D27:J27)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3053,12 +3079,14 @@
       <c r="N27" s="6">
         <v>0</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L27:R27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T27" s="15"/>
@@ -3067,7 +3095,7 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T27:X27)</f>
         <v>0</v>
       </c>
       <c r="Z27" s="15"/>
@@ -3076,24 +3104,24 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z27:AD27)</f>
         <v>0</v>
       </c>
       <c r="AF27" s="15"/>
       <c r="AG27" s="24">
-        <f t="shared" si="4"/>
+        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -3104,12 +3132,14 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D28:J28)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3121,12 +3151,14 @@
       <c r="N28" s="6">
         <v>0</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L28:R28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T28" s="15"/>
@@ -3135,7 +3167,7 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T28:X28)</f>
         <v>0</v>
       </c>
       <c r="Z28" s="15"/>
@@ -3144,24 +3176,24 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z28:AD28)</f>
         <v>0</v>
       </c>
       <c r="AF28" s="15"/>
       <c r="AG28" s="24">
-        <f t="shared" si="4"/>
+        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
@@ -3172,12 +3204,14 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D29:J29)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3189,12 +3223,14 @@
       <c r="N29" s="6">
         <v>0</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L29:R29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T29" s="15"/>
@@ -3203,7 +3239,7 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T29:X29)</f>
         <v>0</v>
       </c>
       <c r="Z29" s="15"/>
@@ -3212,24 +3248,24 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z29:AD29)</f>
         <v>0</v>
       </c>
       <c r="AF29" s="15"/>
       <c r="AG29" s="24">
-        <f t="shared" si="4"/>
+        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30" s="12">
         <v>0</v>
@@ -3240,12 +3276,14 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D30:J30)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3257,12 +3295,14 @@
       <c r="N30" s="6">
         <v>0</v>
       </c>
-      <c r="O30" s="6"/>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L30:R30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T30" s="15"/>
@@ -3271,7 +3311,7 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T30:X30)</f>
         <v>0</v>
       </c>
       <c r="Z30" s="15"/>
@@ -3280,24 +3320,24 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z30:AD30)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="15"/>
       <c r="AG30" s="24">
-        <f t="shared" si="4"/>
+        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -3308,12 +3348,14 @@
       <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D31:J31)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3325,12 +3367,14 @@
       <c r="N31" s="6">
         <v>0</v>
       </c>
-      <c r="O31" s="6"/>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L31:R31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T31" s="15"/>
@@ -3339,7 +3383,7 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T31:X31)</f>
         <v>0</v>
       </c>
       <c r="Z31" s="15"/>
@@ -3348,24 +3392,24 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z31:AD31)</f>
         <v>0</v>
       </c>
       <c r="AF31" s="15"/>
       <c r="AG31" s="24">
-        <f t="shared" si="4"/>
+        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>78</v>
+      <c r="A32" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="D32" s="12">
         <v>0</v>
@@ -3376,12 +3420,14 @@
       <c r="F32" s="7">
         <v>0</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D32:J32)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3393,12 +3439,14 @@
       <c r="N32" s="6">
         <v>0</v>
       </c>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L32:R32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T32" s="15"/>
@@ -3407,7 +3455,7 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T32:X32)</f>
         <v>0</v>
       </c>
       <c r="Z32" s="15"/>
@@ -3416,39 +3464,43 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z32:AD32)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="15"/>
       <c r="AG32" s="24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="18">
-        <f t="shared" ref="K33" si="5">100*SUM(D33:J33)/(2*A$2)</f>
-        <v>50</v>
+        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <v>0</v>
       </c>
       <c r="L33" s="15">
         <v>0</v>
@@ -3456,110 +3508,53 @@
       <c r="M33" s="6">
         <v>0</v>
       </c>
-      <c r="N33" s="6">
-        <v>60</v>
-      </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="17">
+        <v>0</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
       <c r="S33" s="18">
-        <f t="shared" ref="S33" si="6">SUM(L33:R33)/(A$2)</f>
-        <v>30</v>
-      </c>
-      <c r="T33" s="15"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="18">
-        <f t="shared" ref="Y33" si="7">SUM(T33:X33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
+        <f>SUM(L33:R33)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="16"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="20">
+        <f>SUM(T33:X33)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
       <c r="AE33" s="18">
-        <f t="shared" ref="AE33" si="8">SUM(Z33:AD33)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="24">
-        <f t="shared" ref="AG33" si="9">K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="13">
-        <v>0</v>
-      </c>
-      <c r="E34" s="14">
-        <v>0</v>
-      </c>
-      <c r="F34" s="14">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="15">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="17">
-        <v>0</v>
-      </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="16"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(Z33:AD33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="28">
+        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3567,6 +3562,24 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -4810,57 +4823,29 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
-    </row>
   </sheetData>
-  <sortState ref="A4:AG33">
-    <sortCondition descending="1" ref="AG4:AG33"/>
+  <sortState ref="A3:AH33">
+    <sortCondition descending="1" ref="AG2"/>
   </sortState>
-  <mergeCells count="5">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="L2:S2"/>
+  <mergeCells count="4">
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="L1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:J34">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
+  <conditionalFormatting sqref="D3:J33">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K34">
+  <conditionalFormatting sqref="K3:K33">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -4874,7 +4859,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S34">
+  <conditionalFormatting sqref="S3:S33">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -4888,7 +4873,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y34">
+  <conditionalFormatting sqref="Y3:Y33">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -4902,7 +4887,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE4:AE34">
+  <conditionalFormatting sqref="AE3:AE33">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -4916,7 +4901,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AG34">
+  <conditionalFormatting sqref="AG3:AG33">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -4930,19 +4915,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:R34">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
+  <conditionalFormatting sqref="L3:R33">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -4962,7 +4947,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K4:K34</xm:sqref>
+          <xm:sqref>K3:K33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E54EB9-FD52-4CFD-8B29-7F3B7B6681D5}">
@@ -4973,7 +4958,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S4:S34</xm:sqref>
+          <xm:sqref>S3:S33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03C5F189-3F43-4B84-A0F5-49F108E9F2B6}">
@@ -4984,7 +4969,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y4:Y34</xm:sqref>
+          <xm:sqref>Y3:Y33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{04C393DA-4C35-49B7-B05F-92E59E130F0F}">
@@ -4995,7 +4980,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE4:AE34</xm:sqref>
+          <xm:sqref>AE3:AE33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -5006,7 +4991,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AG4:AG34</xm:sqref>
+          <xm:sqref>AG3:AG33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -782,7 +782,83 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1136,7 +1212,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO31" sqref="AO31"/>
+      <selection pane="bottomLeft" activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1146,11 +1222,12 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
     <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1334,12 +1411,14 @@
       <c r="G3" s="7">
         <v>1.5</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="18">
-        <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>110</v>
+        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
+        <v>128.33333333333331</v>
       </c>
       <c r="L3" s="15">
         <v>90</v>
@@ -1353,21 +1432,27 @@
       <c r="O3" s="6">
         <v>95</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="P3" s="6">
+        <v>95</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="18">
-        <f>SUM(L3:R3)/(A$1)</f>
-        <v>128.33333333333334</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
+        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
+        <v>160</v>
+      </c>
+      <c r="T3" s="15">
+        <v>60</v>
+      </c>
+      <c r="U3" s="15">
+        <v>60</v>
+      </c>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
       <c r="Y3" s="18">
-        <f>SUM(T3:X3)</f>
-        <v>0</v>
+        <f t="shared" ref="Y3:Y33" si="2">SUM(T3:X3)</f>
+        <v>120</v>
       </c>
       <c r="Z3" s="15"/>
       <c r="AA3" s="6"/>
@@ -1375,13 +1460,13 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="18">
-        <f>SUM(Z3:AD3)</f>
+        <f t="shared" ref="AE3:AE33" si="3">SUM(Z3:AD3)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="15"/>
       <c r="AG3" s="24">
-        <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>36.666666666666671</v>
+        <f t="shared" ref="AG3:AG33" si="4">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
+        <v>68.833333333333329</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>103</v>
@@ -1409,12 +1494,14 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="18">
-        <f>100*SUM(D4:J4)/(2*A$1)</f>
-        <v>133.33333333333334</v>
+        <f t="shared" si="0"/>
+        <v>166.66666666666666</v>
       </c>
       <c r="L4" s="15">
         <v>100</v>
@@ -1428,21 +1515,27 @@
       <c r="O4" s="6">
         <v>60</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6">
+        <v>70</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="18">
-        <f>SUM(L4:R4)/(A$1)</f>
-        <v>113.33333333333333</v>
-      </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
+        <f t="shared" si="1"/>
+        <v>136.66666666666666</v>
+      </c>
+      <c r="T4" s="15">
+        <v>60</v>
+      </c>
+      <c r="U4" s="15">
+        <v>60</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="18">
-        <f>SUM(T4:X4)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="6"/>
@@ -1450,13 +1543,13 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="18">
-        <f>SUM(Z4:AD4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4" s="15"/>
       <c r="AG4" s="24">
-        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,12 +1574,14 @@
       <c r="G5" s="7">
         <v>1.4</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="18">
-        <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>123.33333333333333</v>
+        <f t="shared" si="0"/>
+        <v>156.66666666666666</v>
       </c>
       <c r="L5" s="15">
         <v>100</v>
@@ -1500,20 +1595,22 @@
       <c r="O5" s="6">
         <v>60</v>
       </c>
-      <c r="P5" s="6"/>
+      <c r="P5" s="6">
+        <v>100</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="18">
-        <f>SUM(L5:R5)/(A$1)</f>
-        <v>106.66666666666667</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="T5" s="15"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="18">
-        <f>SUM(T5:X5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="15"/>
@@ -1522,13 +1619,13 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="18">
-        <f>SUM(Z5:AD5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF5" s="15"/>
       <c r="AG5" s="24">
-        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
-        <v>33.666666666666671</v>
+        <f t="shared" si="4"/>
+        <v>43.666666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,12 +1650,14 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>1.8</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="18">
-        <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>133.33333333333334</v>
+        <f t="shared" si="0"/>
+        <v>163.33333333333334</v>
       </c>
       <c r="L6" s="15">
         <v>100</v>
@@ -1572,20 +1671,22 @@
       <c r="O6" s="6">
         <v>60</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6">
+        <v>70</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="18">
-        <f>SUM(L6:R6)/(A$1)</f>
-        <v>96.666666666666671</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="T6" s="15"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="18">
-        <f>SUM(T6:X6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6" s="15"/>
@@ -1594,13 +1695,13 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="18">
-        <f>SUM(Z6:AD6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="24">
-        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
-        <v>32.666666666666671</v>
+        <f t="shared" si="4"/>
+        <v>40.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,12 +1726,14 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="18">
-        <f>100*SUM(D7:J7)/(2*A$1)</f>
-        <v>133.33333333333334</v>
+        <f t="shared" si="0"/>
+        <v>166.66666666666666</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
@@ -1644,21 +1747,25 @@
       <c r="O7" s="6">
         <v>60</v>
       </c>
-      <c r="P7" s="6"/>
+      <c r="P7" s="6">
+        <v>90</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="18">
-        <f>SUM(L7:R7)/(A$1)</f>
-        <v>93.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>123.33333333333333</v>
       </c>
       <c r="T7" s="15"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
+      <c r="U7" s="15">
+        <v>60</v>
+      </c>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="18">
-        <f>SUM(T7:X7)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="6"/>
@@ -1666,13 +1773,13 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="18">
-        <f>SUM(Z7:AD7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF7" s="15"/>
       <c r="AG7" s="24">
-        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,12 +1804,14 @@
       <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="18">
-        <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
@@ -1716,21 +1825,27 @@
       <c r="O8" s="6">
         <v>100</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6">
+        <v>100</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="18">
-        <f>SUM(L8:R8)/(A$1)</f>
-        <v>100</v>
-      </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="T8" s="15">
+        <v>60</v>
+      </c>
+      <c r="U8" s="15">
+        <v>60</v>
+      </c>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
       <c r="Y8" s="18">
-        <f>SUM(T8:X8)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="6"/>
@@ -1738,13 +1853,13 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="18">
-        <f>SUM(Z8:AD8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="24">
-        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,12 +1884,14 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>1.7</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="18">
-        <f>100*SUM(D9:J9)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>128.33333333333334</v>
       </c>
       <c r="L9" s="15">
         <v>0</v>
@@ -1788,21 +1905,27 @@
       <c r="O9" s="6">
         <v>95</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="6">
+        <v>90</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="18">
-        <f>SUM(L9:R9)/(A$1)</f>
-        <v>98.333333333333329</v>
-      </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
+        <f t="shared" si="1"/>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="T9" s="15">
+        <v>60</v>
+      </c>
+      <c r="U9" s="15">
+        <v>60</v>
+      </c>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="18">
-        <f>SUM(T9:X9)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="6"/>
@@ -1810,13 +1933,13 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="18">
-        <f>SUM(Z9:AD9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="24">
-        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
-        <v>29.666666666666668</v>
+        <f t="shared" si="4"/>
+        <v>62.500000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,12 +1964,14 @@
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="18">
-        <f>100*SUM(D10:J10)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -1860,21 +1985,27 @@
       <c r="O10" s="6">
         <v>90</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="6">
+        <v>95</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="18">
-        <f>SUM(L10:R10)/(A$1)</f>
-        <v>90</v>
-      </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
+        <f t="shared" si="1"/>
+        <v>121.66666666666667</v>
+      </c>
+      <c r="T10" s="15">
+        <v>60</v>
+      </c>
+      <c r="U10" s="15">
+        <v>60</v>
+      </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
       <c r="Y10" s="18">
-        <f>SUM(T10:X10)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="Z10" s="15"/>
       <c r="AA10" s="6"/>
@@ -1882,13 +2013,13 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="18">
-        <f>SUM(Z10:AD10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF10" s="15"/>
       <c r="AG10" s="24">
-        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>61.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1913,12 +2044,14 @@
       <c r="G11" s="7">
         <v>2</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="18">
-        <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>131.66666666666666</v>
       </c>
       <c r="L11" s="15">
         <v>100</v>
@@ -1932,20 +2065,22 @@
       <c r="O11" s="6">
         <v>60</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="6">
+        <v>10</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="18">
-        <f>SUM(L11:R11)/(A$1)</f>
-        <v>73.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>76.666666666666671</v>
       </c>
       <c r="T11" s="15"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="18">
-        <f>SUM(T11:X11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="15"/>
@@ -1954,13 +2089,13 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="18">
-        <f>SUM(Z11:AD11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="24">
-        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
-        <v>26.166666666666664</v>
+        <f t="shared" si="4"/>
+        <v>28.5</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,12 +2120,14 @@
       <c r="G12" s="7">
         <v>2</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="18">
-        <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>116.66666666666667</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -2004,20 +2141,22 @@
       <c r="O12" s="6">
         <v>60</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6">
+        <v>10</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="18">
-        <f>SUM(L12:R12)/(A$1)</f>
-        <v>63.333333333333336</v>
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="T12" s="15"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
       <c r="Y12" s="18">
-        <f>SUM(T12:X12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="15"/>
@@ -2026,13 +2165,13 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="18">
-        <f>SUM(Z12:AD12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="24">
-        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
-        <v>22.666666666666668</v>
+        <f t="shared" si="4"/>
+        <v>25.000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,12 +2196,14 @@
       <c r="G13" s="7">
         <v>2</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="18">
-        <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>116.66666666666667</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -2076,20 +2217,22 @@
       <c r="O13" s="6">
         <v>60</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6">
+        <v>20</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="18">
-        <f>SUM(L13:R13)/(A$1)</f>
-        <v>63.333333333333336</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="T13" s="15"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
       <c r="Y13" s="18">
-        <f>SUM(T13:X13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13" s="15"/>
@@ -2098,13 +2241,13 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="18">
-        <f>SUM(Z13:AD13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="24">
-        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
-        <v>22.666666666666668</v>
+        <f t="shared" si="4"/>
+        <v>25.666666666666668</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2133,7 +2276,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="18">
-        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L14" s="15">
@@ -2152,16 +2295,16 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="18">
-        <f>SUM(L14:R14)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="T14" s="15"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
       <c r="Y14" s="18">
-        <f>SUM(T14:X14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14" s="15"/>
@@ -2170,12 +2313,12 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="18">
-        <f>SUM(Z14:AD14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14" s="15"/>
       <c r="AG14" s="24">
-        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
@@ -2201,12 +2344,14 @@
       <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="18">
-        <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>66.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2220,21 +2365,25 @@
       <c r="O15" s="6">
         <v>100</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="6">
+        <v>90</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="18">
-        <f>SUM(L15:R15)/(A$1)</f>
-        <v>58.333333333333336</v>
+        <f t="shared" si="1"/>
+        <v>88.333333333333329</v>
       </c>
       <c r="T15" s="15"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
+      <c r="U15" s="15">
+        <v>60</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
       <c r="Y15" s="18">
-        <f>SUM(T15:X15)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="Z15" s="15"/>
       <c r="AA15" s="6"/>
@@ -2242,13 +2391,13 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="18">
-        <f>SUM(Z15:AD15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15" s="15"/>
       <c r="AG15" s="24">
-        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
-        <v>18.333333333333336</v>
+        <f t="shared" si="4"/>
+        <v>39.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2426,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="18">
-        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="L16" s="15">
@@ -2296,16 +2445,16 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="18">
-        <f>SUM(L16:R16)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>53.333333333333336</v>
       </c>
       <c r="T16" s="15"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
       <c r="Y16" s="18">
-        <f>SUM(T16:X16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z16" s="15"/>
@@ -2314,12 +2463,12 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="18">
-        <f>SUM(Z16:AD16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="24">
-        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
+        <f t="shared" si="4"/>
         <v>17.333333333333336</v>
       </c>
     </row>
@@ -2345,12 +2494,14 @@
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="18">
-        <f>100*SUM(D17:J17)/(2*A$1)</f>
-        <v>66.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -2364,21 +2515,25 @@
       <c r="O17" s="6">
         <v>90</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="6">
+        <v>95</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="18">
-        <f>SUM(L17:R17)/(A$1)</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>81.666666666666671</v>
       </c>
       <c r="T17" s="15"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
+      <c r="U17" s="15">
+        <v>60</v>
+      </c>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="18">
-        <f>SUM(T17:X17)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="Z17" s="15"/>
       <c r="AA17" s="6"/>
@@ -2386,13 +2541,13 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="18">
-        <f>SUM(Z17:AD17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF17" s="15"/>
       <c r="AG17" s="24">
-        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
-        <v>16.666666666666668</v>
+        <f t="shared" si="4"/>
+        <v>38.333333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2421,7 +2576,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="18">
-        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L18" s="15">
@@ -2440,16 +2595,16 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="18">
-        <f>SUM(L18:R18)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="T18" s="15"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
       <c r="Y18" s="18">
-        <f>SUM(T18:X18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z18" s="15"/>
@@ -2458,12 +2613,12 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="18">
-        <f>SUM(Z18:AD18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF18" s="15"/>
       <c r="AG18" s="24">
-        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
+        <f t="shared" si="4"/>
         <v>16.333333333333336</v>
       </c>
     </row>
@@ -2493,7 +2648,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="18">
-        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>58.333333333333336</v>
       </c>
       <c r="L19" s="15">
@@ -2512,16 +2667,16 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="18">
-        <f>SUM(L19:R19)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="T19" s="15"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
       <c r="Y19" s="18">
-        <f>SUM(T19:X19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z19" s="15"/>
@@ -2530,12 +2685,12 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="18">
-        <f>SUM(Z19:AD19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF19" s="15"/>
       <c r="AG19" s="24">
-        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
+        <f t="shared" si="4"/>
         <v>13.166666666666668</v>
       </c>
     </row>
@@ -2565,7 +2720,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="18">
-        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>56.666666666666664</v>
       </c>
       <c r="L20" s="15">
@@ -2584,16 +2739,16 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="18">
-        <f>SUM(L20:R20)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="T20" s="15"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="18">
-        <f>SUM(T20:X20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z20" s="15"/>
@@ -2602,12 +2757,12 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="18">
-        <f>SUM(Z20:AD20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF20" s="15"/>
       <c r="AG20" s="24">
-        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -2637,7 +2792,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="18">
-        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="L21" s="15">
@@ -2656,16 +2811,16 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="18">
-        <f>SUM(L21:R21)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>28.333333333333332</v>
       </c>
       <c r="T21" s="15"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
       <c r="Y21" s="18">
-        <f>SUM(T21:X21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z21" s="15"/>
@@ -2674,12 +2829,12 @@
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="18">
-        <f>SUM(Z21:AD21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF21" s="15"/>
       <c r="AG21" s="24">
-        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
+        <f t="shared" si="4"/>
         <v>8.1666666666666679</v>
       </c>
     </row>
@@ -2703,12 +2858,14 @@
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
-        <f>100*SUM(D22:J22)/(2*A$1)</f>
-        <v>33.333333333333336</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -2722,20 +2879,22 @@
       <c r="O22" s="6">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6">
+        <v>10</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="18">
-        <f>SUM(L22:R22)/(A$1)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="T22" s="15"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
       <c r="Y22" s="18">
-        <f>SUM(T22:X22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z22" s="15"/>
@@ -2744,13 +2903,13 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="18">
-        <f>SUM(Z22:AD22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF22" s="15"/>
       <c r="AG22" s="24">
-        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
-        <v>7.3333333333333339</v>
+        <f t="shared" si="4"/>
+        <v>9.6666666666666679</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,7 +2938,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
-        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="L23" s="15">
@@ -2798,16 +2957,16 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="18">
-        <f>SUM(L23:R23)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="T23" s="15"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="18">
-        <f>SUM(T23:X23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z23" s="15"/>
@@ -2816,12 +2975,12 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="18">
-        <f>SUM(Z23:AD23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF23" s="15"/>
       <c r="AG23" s="24">
-        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
+        <f t="shared" si="4"/>
         <v>7.3333333333333339</v>
       </c>
     </row>
@@ -2851,7 +3010,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="18">
-        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="L24" s="15">
@@ -2870,17 +3029,19 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="18">
-        <f>SUM(L24:R24)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="T24" s="15"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
+      <c r="U24" s="15">
+        <v>60</v>
+      </c>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
       <c r="Y24" s="18">
-        <f>SUM(T24:X24)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="Z24" s="15"/>
       <c r="AA24" s="6"/>
@@ -2888,13 +3049,13 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="18">
-        <f>SUM(Z24:AD24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF24" s="15"/>
       <c r="AG24" s="24">
-        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
-        <v>7.3333333333333339</v>
+        <f t="shared" si="4"/>
+        <v>19.333333333333336</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2923,7 +3084,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="18">
-        <f>100*SUM(D25:J25)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="15">
@@ -2942,16 +3103,16 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="18">
-        <f>SUM(L25:R25)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="15"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
       <c r="Y25" s="18">
-        <f>SUM(T25:X25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z25" s="15"/>
@@ -2960,12 +3121,12 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="18">
-        <f>SUM(Z25:AD25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF25" s="15"/>
       <c r="AG25" s="24">
-        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2995,7 +3156,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="18">
-        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -3014,16 +3175,16 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="18">
-        <f>SUM(L26:R26)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="15"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
       <c r="Y26" s="18">
-        <f>SUM(T26:X26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z26" s="15"/>
@@ -3032,12 +3193,12 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="18">
-        <f>SUM(Z26:AD26)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF26" s="15"/>
       <c r="AG26" s="24">
-        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3067,7 +3228,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="18">
-        <f>100*SUM(D27:J27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3086,16 +3247,16 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="18">
-        <f>SUM(L27:R27)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="15"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
       <c r="Y27" s="18">
-        <f>SUM(T27:X27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z27" s="15"/>
@@ -3104,12 +3265,12 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="18">
-        <f>SUM(Z27:AD27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF27" s="15"/>
       <c r="AG27" s="24">
-        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3139,7 +3300,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="18">
-        <f>100*SUM(D28:J28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3158,16 +3319,16 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="18">
-        <f>SUM(L28:R28)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="15"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
       <c r="Y28" s="18">
-        <f>SUM(T28:X28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z28" s="15"/>
@@ -3176,12 +3337,12 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="18">
-        <f>SUM(Z28:AD28)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF28" s="15"/>
       <c r="AG28" s="24">
-        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3211,7 +3372,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="18">
-        <f>100*SUM(D29:J29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3230,16 +3391,16 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="18">
-        <f>SUM(L29:R29)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="15"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
       <c r="Y29" s="18">
-        <f>SUM(T29:X29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z29" s="15"/>
@@ -3248,12 +3409,12 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="18">
-        <f>SUM(Z29:AD29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF29" s="15"/>
       <c r="AG29" s="24">
-        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3283,7 +3444,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="18">
-        <f>100*SUM(D30:J30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3302,16 +3463,16 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="18">
-        <f>SUM(L30:R30)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="15"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
       <c r="Y30" s="18">
-        <f>SUM(T30:X30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z30" s="15"/>
@@ -3320,12 +3481,12 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="18">
-        <f>SUM(Z30:AD30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF30" s="15"/>
       <c r="AG30" s="24">
-        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3355,7 +3516,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="18">
-        <f>100*SUM(D31:J31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3374,16 +3535,16 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="18">
-        <f>SUM(L31:R31)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="15"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
       <c r="Y31" s="18">
-        <f>SUM(T31:X31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z31" s="15"/>
@@ -3392,12 +3553,12 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="18">
-        <f>SUM(Z31:AD31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF31" s="15"/>
       <c r="AG31" s="24">
-        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3427,7 +3588,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="18">
-        <f>100*SUM(D32:J32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3446,16 +3607,16 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="18">
-        <f>SUM(L32:R32)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32" s="15"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
       <c r="Y32" s="18">
-        <f>SUM(T32:X32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z32" s="15"/>
@@ -3464,12 +3625,12 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="18">
-        <f>SUM(Z32:AD32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF32" s="15"/>
       <c r="AG32" s="24">
-        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3499,7 +3660,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="18">
-        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -3518,16 +3679,16 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="18">
-        <f>SUM(L33:R33)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="16"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
       <c r="Y33" s="20">
-        <f>SUM(T33:X33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z33" s="16"/>
@@ -3536,12 +3697,12 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="18">
-        <f>SUM(Z33:AD33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF33" s="16"/>
       <c r="AG33" s="28">
-        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4834,19 +4995,19 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4860,7 +5021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S33">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4874,7 +5035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y33">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4888,7 +5049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE33">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4902,7 +5063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG33">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4916,18 +5077,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:X33">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -782,45 +782,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1211,8 +1173,8 @@
   <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ12" sqref="AJ12"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,8 +1184,8 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -1414,11 +1376,13 @@
       <c r="H3" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="18">
         <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
-        <v>128.33333333333331</v>
+        <v>144.99999999999997</v>
       </c>
       <c r="L3" s="15">
         <v>90</v>
@@ -1466,7 +1430,7 @@
       <c r="AF3" s="15"/>
       <c r="AG3" s="24">
         <f t="shared" ref="AG3:AG33" si="4">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>68.833333333333329</v>
+        <v>70.5</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>103</v>
@@ -1577,11 +1541,13 @@
       <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="18">
         <f t="shared" si="0"/>
-        <v>156.66666666666666</v>
+        <v>173.33333333333334</v>
       </c>
       <c r="L5" s="15">
         <v>100</v>
@@ -1625,7 +1591,7 @@
       <c r="AF5" s="15"/>
       <c r="AG5" s="24">
         <f t="shared" si="4"/>
-        <v>43.666666666666664</v>
+        <v>45.333333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,11 +1619,13 @@
       <c r="H6" s="7">
         <v>1.8</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="18">
         <f t="shared" si="0"/>
-        <v>163.33333333333334</v>
+        <v>180</v>
       </c>
       <c r="L6" s="15">
         <v>100</v>
@@ -1701,7 +1669,7 @@
       <c r="AF6" s="15"/>
       <c r="AG6" s="24">
         <f t="shared" si="4"/>
-        <v>40.333333333333336</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1729,11 +1697,13 @@
       <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="18">
         <f t="shared" si="0"/>
-        <v>166.66666666666666</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
@@ -1779,7 +1749,7 @@
       <c r="AF7" s="15"/>
       <c r="AG7" s="24">
         <f t="shared" si="4"/>
-        <v>53.333333333333336</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,11 +1777,13 @@
       <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="18">
         <f t="shared" si="0"/>
-        <v>133.33333333333334</v>
+        <v>150</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
@@ -1859,7 +1831,7 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="24">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>65.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1887,11 +1859,13 @@
       <c r="H9" s="7">
         <v>1.7</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="18">
         <f t="shared" si="0"/>
-        <v>128.33333333333334</v>
+        <v>144.99999999999997</v>
       </c>
       <c r="L9" s="15">
         <v>0</v>
@@ -1939,7 +1913,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="24">
         <f t="shared" si="4"/>
-        <v>62.500000000000007</v>
+        <v>64.166666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1967,11 +1941,13 @@
       <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="18">
         <f t="shared" si="0"/>
-        <v>133.33333333333334</v>
+        <v>150</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -2019,7 +1995,7 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="24">
         <f t="shared" si="4"/>
-        <v>61.666666666666671</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2123,11 +2099,13 @@
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="18">
         <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -2171,7 +2149,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="24">
         <f t="shared" si="4"/>
-        <v>25.000000000000004</v>
+        <v>26.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,11 +2177,13 @@
       <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="18">
         <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -2247,7 +2227,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="24">
         <f t="shared" si="4"/>
-        <v>25.666666666666668</v>
+        <v>27.333333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,12 +2252,16 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="18">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
@@ -2319,7 +2303,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="24">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23.666666666666668</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,11 +2331,13 @@
       <c r="H15" s="7">
         <v>2</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2397,7 +2383,7 @@
       <c r="AF15" s="15"/>
       <c r="AG15" s="24">
         <f t="shared" si="4"/>
-        <v>39.666666666666671</v>
+        <v>41.333333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,12 +2408,16 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="18">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="L16" s="15">
         <v>100</v>
@@ -2469,7 +2459,7 @@
       <c r="AF16" s="15"/>
       <c r="AG16" s="24">
         <f t="shared" si="4"/>
-        <v>17.333333333333336</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,11 +2487,13 @@
       <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="18">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
@@ -2547,7 +2539,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="24">
         <f t="shared" si="4"/>
-        <v>38.333333333333336</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2572,12 +2564,16 @@
       <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="18">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -2619,7 +2615,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="24">
         <f t="shared" si="4"/>
-        <v>16.333333333333336</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,12 +2640,16 @@
       <c r="G19" s="7">
         <v>1.5</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="18">
         <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
+        <v>75</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -2691,7 +2691,7 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="24">
         <f t="shared" si="4"/>
-        <v>13.166666666666668</v>
+        <v>14.833333333333332</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2716,8 +2716,12 @@
       <c r="G20" s="7">
         <v>1.4</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="18">
         <f t="shared" si="0"/>
@@ -2788,8 +2792,12 @@
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="18">
         <f t="shared" si="0"/>
@@ -2861,11 +2869,13 @@
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -2909,7 +2919,7 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="24">
         <f t="shared" si="4"/>
-        <v>9.6666666666666679</v>
+        <v>11.333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2934,8 +2944,12 @@
       <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
         <f t="shared" si="0"/>
@@ -3006,8 +3020,12 @@
       <c r="G24" s="7">
         <v>2</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="18">
         <f t="shared" si="0"/>
@@ -3080,8 +3098,12 @@
       <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="18">
         <f t="shared" si="0"/>
@@ -3152,8 +3174,12 @@
       <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="18">
         <f t="shared" si="0"/>
@@ -3224,8 +3250,12 @@
       <c r="G27" s="7">
         <v>0</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="18">
         <f t="shared" si="0"/>
@@ -3296,8 +3326,12 @@
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="18">
         <f t="shared" si="0"/>
@@ -3368,8 +3402,12 @@
       <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="18">
         <f t="shared" si="0"/>
@@ -3440,8 +3478,12 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="18">
         <f t="shared" si="0"/>
@@ -3512,8 +3554,12 @@
       <c r="G31" s="7">
         <v>0</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
       <c r="J31" s="7"/>
       <c r="K31" s="18">
         <f t="shared" si="0"/>
@@ -3584,8 +3630,12 @@
       <c r="G32" s="7">
         <v>0</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="18">
         <f t="shared" si="0"/>
@@ -3656,8 +3706,12 @@
       <c r="G33" s="14">
         <v>0</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="H33" s="14">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0</v>
+      </c>
       <c r="J33" s="14"/>
       <c r="K33" s="18">
         <f t="shared" si="0"/>
@@ -4995,14 +5049,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5077,35 +5131,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:X33">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -782,7 +782,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1173,8 +1211,8 @@
   <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1188,8 +1226,8 @@
     <col min="10" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
     <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1377,12 +1415,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
-        <v>144.99999999999997</v>
+        <f>100*SUM(D3:J3)/(2*A$1)</f>
+        <v>161.66666666666666</v>
       </c>
       <c r="L3" s="15">
         <v>90</v>
@@ -1399,11 +1437,13 @@
       <c r="P3" s="6">
         <v>95</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="6">
+        <v>100</v>
+      </c>
       <c r="R3" s="6"/>
       <c r="S3" s="18">
-        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
-        <v>160</v>
+        <f>SUM(L3:R3)/(A$1)</f>
+        <v>193.33333333333334</v>
       </c>
       <c r="T3" s="15">
         <v>60</v>
@@ -1415,7 +1455,7 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="18">
-        <f t="shared" ref="Y3:Y33" si="2">SUM(T3:X3)</f>
+        <f>SUM(T3:X3)</f>
         <v>120</v>
       </c>
       <c r="Z3" s="15"/>
@@ -1424,13 +1464,13 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="18">
-        <f t="shared" ref="AE3:AE33" si="3">SUM(Z3:AD3)</f>
+        <f>SUM(Z3:AD3)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="15"/>
       <c r="AG3" s="24">
-        <f t="shared" ref="AG3:AG33" si="4">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>70.5</v>
+        <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
+        <v>78.833333333333343</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>103</v>
@@ -1438,16 +1478,16 @@
     </row>
     <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D4" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -1461,32 +1501,36 @@
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D4:J4)/(2*A$1)</f>
         <v>166.66666666666666</v>
       </c>
       <c r="L4" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
         <v>100</v>
       </c>
       <c r="N4" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O4" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P4" s="6">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>95</v>
+      </c>
       <c r="R4" s="6"/>
       <c r="S4" s="18">
-        <f t="shared" si="1"/>
-        <v>136.66666666666666</v>
+        <f>SUM(L4:R4)/(A$1)</f>
+        <v>165</v>
       </c>
       <c r="T4" s="15">
         <v>60</v>
@@ -1498,7 +1542,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T4:X4)</f>
         <v>120</v>
       </c>
       <c r="Z4" s="15"/>
@@ -1507,24 +1551,24 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z4:AD4)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="15"/>
       <c r="AG4" s="24">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
+        <v>73.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D5" s="12">
         <v>2</v>
@@ -1536,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1546,14 +1590,14 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="18">
-        <f t="shared" si="0"/>
-        <v>173.33333333333334</v>
+        <f>100*SUM(D5:J5)/(2*A$1)</f>
+        <v>183.33333333333334</v>
       </c>
       <c r="L5" s="15">
         <v>100</v>
       </c>
       <c r="M5" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" s="6">
         <v>80</v>
@@ -1562,22 +1606,28 @@
         <v>60</v>
       </c>
       <c r="P5" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>50</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="18">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+        <f>SUM(L5:R5)/(A$1)</f>
+        <v>153.33333333333334</v>
+      </c>
+      <c r="T5" s="15">
+        <v>60</v>
+      </c>
+      <c r="U5" s="15">
+        <v>60</v>
+      </c>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(T5:X5)</f>
+        <v>120</v>
       </c>
       <c r="Z5" s="15"/>
       <c r="AA5" s="6"/>
@@ -1585,27 +1635,27 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z5:AD5)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="15"/>
       <c r="AG5" s="24">
-        <f t="shared" si="4"/>
-        <v>45.333333333333336</v>
+        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D6" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -1617,45 +1667,51 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="I6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="18">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f>100*SUM(D6:J6)/(2*A$1)</f>
+        <v>161.66666666666666</v>
       </c>
       <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
         <v>100</v>
       </c>
-      <c r="M6" s="6">
-        <v>70</v>
-      </c>
       <c r="N6" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O6" s="6">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="P6" s="6">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>90</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="18">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+        <f>SUM(L6:R6)/(A$1)</f>
+        <v>158.33333333333334</v>
+      </c>
+      <c r="T6" s="15">
+        <v>60</v>
+      </c>
+      <c r="U6" s="15">
+        <v>60</v>
+      </c>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(T6:X6)</f>
+        <v>120</v>
       </c>
       <c r="Z6" s="15"/>
       <c r="AA6" s="6"/>
@@ -1663,27 +1719,27 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z6:AD6)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="24">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
+        <v>71.833333333333343</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D7" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -1698,35 +1754,39 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="18">
-        <f t="shared" si="0"/>
-        <v>183.33333333333334</v>
+        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <v>166.66666666666666</v>
       </c>
       <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
         <v>100</v>
       </c>
-      <c r="M7" s="6">
-        <v>60</v>
-      </c>
       <c r="N7" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O7" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P7" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>95</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="18">
-        <f t="shared" si="1"/>
-        <v>123.33333333333333</v>
-      </c>
-      <c r="T7" s="15"/>
+        <f>SUM(L7:R7)/(A$1)</f>
+        <v>153.33333333333334</v>
+      </c>
+      <c r="T7" s="15">
+        <v>60</v>
+      </c>
       <c r="U7" s="15">
         <v>60</v>
       </c>
@@ -1734,8 +1794,8 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="18">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(T7:X7)</f>
+        <v>120</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="6"/>
@@ -1743,27 +1803,27 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z7:AD7)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="15"/>
       <c r="AG7" s="24">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
+        <v>71.333333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -1778,37 +1838,37 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="18">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>100*SUM(D8:J8)/(2*A$1)</f>
+        <v>200</v>
       </c>
       <c r="L8" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N8" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O8" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P8" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>90</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="18">
-        <f t="shared" si="1"/>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="T8" s="15">
-        <v>60</v>
-      </c>
+        <f>SUM(L8:R8)/(A$1)</f>
+        <v>153.33333333333334</v>
+      </c>
+      <c r="T8" s="15"/>
       <c r="U8" s="15">
         <v>60</v>
       </c>
@@ -1816,8 +1876,8 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="18">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f>SUM(T8:X8)</f>
+        <v>60</v>
       </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="6"/>
@@ -1825,27 +1885,27 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z8:AD8)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="24">
-        <f t="shared" si="4"/>
-        <v>65.666666666666671</v>
+        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
+        <v>62.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -1854,52 +1914,50 @@
         <v>2</v>
       </c>
       <c r="G9" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H9" s="7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="18">
-        <f t="shared" si="0"/>
-        <v>144.99999999999997</v>
+        <f>100*SUM(D9:J9)/(2*A$1)</f>
+        <v>190</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="6">
+        <v>80</v>
+      </c>
+      <c r="N9" s="6">
+        <v>80</v>
+      </c>
+      <c r="O9" s="6">
+        <v>60</v>
+      </c>
+      <c r="P9" s="6">
         <v>100</v>
       </c>
-      <c r="N9" s="6">
-        <v>100</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="Q9" s="6">
         <v>95</v>
       </c>
-      <c r="P9" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="18">
-        <f t="shared" si="1"/>
-        <v>128.33333333333334</v>
-      </c>
-      <c r="T9" s="15">
-        <v>60</v>
-      </c>
-      <c r="U9" s="15">
-        <v>60</v>
-      </c>
+        <f>SUM(L9:R9)/(A$1)</f>
+        <v>171.66666666666666</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="18">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f>SUM(T9:X9)</f>
+        <v>0</v>
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="6"/>
@@ -1907,24 +1965,24 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z9:AD9)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="24">
-        <f t="shared" si="4"/>
-        <v>64.166666666666671</v>
+        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -1933,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -1942,37 +2000,37 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="18">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>100*SUM(D10:J10)/(2*A$1)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
       </c>
       <c r="M10" s="6">
+        <v>75</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
         <v>100</v>
       </c>
-      <c r="N10" s="6">
-        <v>80</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>90</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>95</v>
       </c>
-      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="18">
-        <f t="shared" si="1"/>
-        <v>121.66666666666667</v>
-      </c>
-      <c r="T10" s="15">
-        <v>60</v>
-      </c>
+        <f>SUM(L10:R10)/(A$1)</f>
+        <v>120</v>
+      </c>
+      <c r="T10" s="15"/>
       <c r="U10" s="15">
         <v>60</v>
       </c>
@@ -1980,8 +2038,8 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="18">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f>SUM(T10:X10)</f>
+        <v>60</v>
       </c>
       <c r="Z10" s="15"/>
       <c r="AA10" s="6"/>
@@ -1989,51 +2047,53 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z10:AD10)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="15"/>
       <c r="AG10" s="24">
-        <f t="shared" si="4"/>
-        <v>63.333333333333336</v>
+        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
+        <v>49.333333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
       </c>
       <c r="E11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G11" s="7">
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="18">
-        <f t="shared" si="0"/>
-        <v>131.66666666666666</v>
+        <f>100*SUM(D11:J11)/(2*A$1)</f>
+        <v>196.66666666666666</v>
       </c>
       <c r="L11" s="15">
         <v>100</v>
       </c>
       <c r="M11" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N11" s="6">
         <v>60</v>
@@ -2042,13 +2102,15 @@
         <v>60</v>
       </c>
       <c r="P11" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>80</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="18">
-        <f t="shared" si="1"/>
-        <v>76.666666666666671</v>
+        <f>SUM(L11:R11)/(A$1)</f>
+        <v>146.66666666666666</v>
       </c>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
@@ -2056,7 +2118,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T11:X11)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="15"/>
@@ -2065,24 +2127,24 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z11:AD11)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="24">
-        <f t="shared" si="4"/>
-        <v>28.5</v>
+        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2091,51 +2153,55 @@
         <v>2</v>
       </c>
       <c r="F12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
         <v>2</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D12:J12)/(2*A$1)</f>
         <v>133.33333333333334</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
       </c>
       <c r="M12" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N12" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O12" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P12" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>95</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="18">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <f>SUM(L12:R12)/(A$1)</f>
+        <v>113.33333333333333</v>
       </c>
       <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="U12" s="15">
+        <v>60</v>
+      </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(T12:X12)</f>
+        <v>60</v>
       </c>
       <c r="Z12" s="15"/>
       <c r="AA12" s="6"/>
@@ -2143,13 +2209,13 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z12:AD12)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="24">
-        <f t="shared" si="4"/>
-        <v>26.666666666666671</v>
+        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,12 +2244,12 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="18">
-        <f t="shared" si="0"/>
-        <v>133.33333333333334</v>
+        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <v>150</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -2200,11 +2266,13 @@
       <c r="P13" s="6">
         <v>20</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="6">
+        <v>70</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="18">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>SUM(L13:R13)/(A$1)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
@@ -2212,7 +2280,7 @@
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T13:X13)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="15"/>
@@ -2221,24 +2289,24 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z13:AD13)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="24">
-        <f t="shared" si="4"/>
-        <v>27.333333333333336</v>
+        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
+        <v>33.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -2253,34 +2321,38 @@
         <v>2</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="18">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <v>150</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N14" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O14" s="6">
         <v>60</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>65</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="18">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(L14:R14)/(A$1)</f>
+        <v>88.333333333333329</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
@@ -2288,7 +2360,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T14:X14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="15"/>
@@ -2297,24 +2369,24 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z14:AD14)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="15"/>
       <c r="AG14" s="24">
-        <f t="shared" si="4"/>
-        <v>23.666666666666668</v>
+        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
+        <v>32.666666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2323,53 +2395,53 @@
         <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="18">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N15" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O15" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P15" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q15" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>95</v>
+      </c>
       <c r="R15" s="6"/>
       <c r="S15" s="18">
-        <f t="shared" si="1"/>
-        <v>88.333333333333329</v>
+        <f>SUM(L15:R15)/(A$1)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="T15" s="15"/>
-      <c r="U15" s="15">
-        <v>60</v>
-      </c>
+      <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="18">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(T15:X15)</f>
+        <v>0</v>
       </c>
       <c r="Z15" s="15"/>
       <c r="AA15" s="6"/>
@@ -2377,66 +2449,70 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z15:AD15)</f>
         <v>0</v>
       </c>
       <c r="AF15" s="15"/>
       <c r="AG15" s="24">
-        <f t="shared" si="4"/>
-        <v>41.333333333333336</v>
+        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
+        <v>31.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D16" s="12">
         <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="18">
-        <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <v>131.66666666666666</v>
       </c>
       <c r="L16" s="15">
         <v>100</v>
       </c>
       <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
         <v>60</v>
       </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
       <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="P16" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
       <c r="R16" s="6"/>
       <c r="S16" s="18">
-        <f t="shared" si="1"/>
-        <v>53.333333333333336</v>
+        <f>SUM(L16:R16)/(A$1)</f>
+        <v>76.666666666666671</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
@@ -2444,7 +2520,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T16:X16)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="15"/>
@@ -2453,27 +2529,27 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z16:AD16)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="24">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
+        <v>28.5</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D17" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="7">
         <v>2</v>
@@ -2482,21 +2558,21 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="18">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>100*SUM(D17:J17)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="6">
         <v>60</v>
@@ -2505,27 +2581,27 @@
         <v>0</v>
       </c>
       <c r="O17" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>65</v>
+      </c>
       <c r="R17" s="6"/>
       <c r="S17" s="18">
-        <f t="shared" si="1"/>
-        <v>81.666666666666671</v>
+        <f>SUM(L17:R17)/(A$1)</f>
+        <v>75</v>
       </c>
       <c r="T17" s="15"/>
-      <c r="U17" s="15">
-        <v>60</v>
-      </c>
+      <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="18">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(T17:X17)</f>
+        <v>0</v>
       </c>
       <c r="Z17" s="15"/>
       <c r="AA17" s="6"/>
@@ -2533,13 +2609,13 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z17:AD17)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="15"/>
       <c r="AG17" s="24">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2568,12 +2644,12 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -2587,12 +2663,16 @@
       <c r="O18" s="6">
         <v>60</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>65</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="18">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUM(L18:R18)/(A$1)</f>
+        <v>61.666666666666664</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -2600,7 +2680,7 @@
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T18:X18)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="15"/>
@@ -2609,24 +2689,24 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z18:AD18)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="15"/>
       <c r="AG18" s="24">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -2638,18 +2718,18 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="18">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -2663,12 +2743,16 @@
       <c r="O19" s="6">
         <v>50</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>85</v>
+      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="18">
-        <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <f>SUM(L19:R19)/(A$1)</f>
+        <v>65</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
@@ -2676,7 +2760,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T19:X19)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="15"/>
@@ -2685,24 +2769,24 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z19:AD19)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="15"/>
       <c r="AG19" s="24">
-        <f t="shared" si="4"/>
-        <v>14.833333333333332</v>
+        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
+        <v>21.666666666666668</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
@@ -2714,18 +2798,18 @@
         <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="18">
-        <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2739,12 +2823,16 @@
       <c r="O20" s="6">
         <v>50</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>65</v>
+      </c>
       <c r="R20" s="6"/>
       <c r="S20" s="18">
-        <f t="shared" si="1"/>
-        <v>36.666666666666664</v>
+        <f>SUM(L20:R20)/(A$1)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -2752,7 +2840,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
       <c r="Y20" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T20:X20)</f>
         <v>0</v>
       </c>
       <c r="Z20" s="15"/>
@@ -2761,36 +2849,36 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z20:AD20)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="15"/>
       <c r="AG20" s="24">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
+        <v>20.833333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D21" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2800,36 +2888,42 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="18">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
       </c>
       <c r="M21" s="6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N21" s="6">
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
       <c r="R21" s="6"/>
       <c r="S21" s="18">
-        <f t="shared" si="1"/>
-        <v>28.333333333333332</v>
+        <f>SUM(L21:R21)/(A$1)</f>
+        <v>20</v>
       </c>
       <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="15">
+        <v>60</v>
+      </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(T21:X21)</f>
+        <v>60</v>
       </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="6"/>
@@ -2837,13 +2931,13 @@
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z21:AD21)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="15"/>
       <c r="AG21" s="24">
-        <f t="shared" si="4"/>
-        <v>8.1666666666666679</v>
+        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
+        <v>19.333333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2874,7 +2968,7 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D22:J22)/(2*A$1)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="L22" s="15">
@@ -2892,11 +2986,13 @@
       <c r="P22" s="6">
         <v>10</v>
       </c>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="6">
+        <v>40</v>
+      </c>
       <c r="R22" s="6"/>
       <c r="S22" s="18">
-        <f t="shared" si="1"/>
-        <v>23.333333333333332</v>
+        <f>SUM(L22:R22)/(A$1)</f>
+        <v>36.666666666666664</v>
       </c>
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
@@ -2904,7 +3000,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T22:X22)</f>
         <v>0</v>
       </c>
       <c r="Z22" s="15"/>
@@ -2913,33 +3009,33 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z22:AD22)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="15"/>
       <c r="AG22" s="24">
-        <f t="shared" si="4"/>
-        <v>11.333333333333336</v>
+        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D23" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -2952,27 +3048,31 @@
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <v>25</v>
       </c>
       <c r="L23" s="15">
         <v>0</v>
       </c>
       <c r="M23" s="6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N23" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O23" s="6">
         <v>0</v>
       </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
       <c r="R23" s="6"/>
       <c r="S23" s="18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>SUM(L23:R23)/(A$1)</f>
+        <v>28.333333333333332</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
@@ -2980,7 +3080,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T23:X23)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="15"/>
@@ -2989,24 +3089,24 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z23:AD23)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="15"/>
       <c r="AG23" s="24">
-        <f t="shared" si="4"/>
-        <v>7.3333333333333339</v>
+        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
+        <v>8.1666666666666679</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -3015,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3028,7 +3128,7 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D24:J24)/(2*A$1)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="L24" s="15">
@@ -3038,28 +3138,30 @@
         <v>0</v>
       </c>
       <c r="N24" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O24" s="6">
-        <v>60</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
       <c r="R24" s="6"/>
       <c r="S24" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L24:R24)/(A$1)</f>
         <v>20</v>
       </c>
       <c r="T24" s="15"/>
-      <c r="U24" s="15">
-        <v>60</v>
-      </c>
+      <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="18">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(T24:X24)</f>
+        <v>0</v>
       </c>
       <c r="Z24" s="15"/>
       <c r="AA24" s="6"/>
@@ -3067,13 +3169,13 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z24:AD24)</f>
         <v>0</v>
       </c>
       <c r="AF24" s="15"/>
       <c r="AG24" s="24">
-        <f t="shared" si="4"/>
-        <v>19.333333333333336</v>
+        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
+        <v>7.3333333333333339</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3106,7 +3208,7 @@
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D25:J25)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L25" s="15">
@@ -3121,11 +3223,15 @@
       <c r="O25" s="6">
         <v>0</v>
       </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
       <c r="R25" s="6"/>
       <c r="S25" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L25:R25)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T25" s="15"/>
@@ -3134,7 +3240,7 @@
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T25:X25)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="15"/>
@@ -3143,12 +3249,12 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z25:AD25)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="15"/>
       <c r="AG25" s="24">
-        <f t="shared" si="4"/>
+        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3182,7 +3288,7 @@
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D26:J26)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -3197,11 +3303,15 @@
       <c r="O26" s="6">
         <v>0</v>
       </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
       <c r="R26" s="6"/>
       <c r="S26" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L26:R26)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T26" s="15"/>
@@ -3210,7 +3320,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T26:X26)</f>
         <v>0</v>
       </c>
       <c r="Z26" s="15"/>
@@ -3219,12 +3329,12 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z26:AD26)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="15"/>
       <c r="AG26" s="24">
-        <f t="shared" si="4"/>
+        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3258,7 +3368,7 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D27:J27)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3273,11 +3383,15 @@
       <c r="O27" s="6">
         <v>0</v>
       </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
       <c r="R27" s="6"/>
       <c r="S27" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L27:R27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T27" s="15"/>
@@ -3286,7 +3400,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T27:X27)</f>
         <v>0</v>
       </c>
       <c r="Z27" s="15"/>
@@ -3295,12 +3409,12 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z27:AD27)</f>
         <v>0</v>
       </c>
       <c r="AF27" s="15"/>
       <c r="AG27" s="24">
-        <f t="shared" si="4"/>
+        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3334,7 +3448,7 @@
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D28:J28)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3349,11 +3463,15 @@
       <c r="O28" s="6">
         <v>0</v>
       </c>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
       <c r="R28" s="6"/>
       <c r="S28" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L28:R28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T28" s="15"/>
@@ -3362,7 +3480,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T28:X28)</f>
         <v>0</v>
       </c>
       <c r="Z28" s="15"/>
@@ -3371,12 +3489,12 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z28:AD28)</f>
         <v>0</v>
       </c>
       <c r="AF28" s="15"/>
       <c r="AG28" s="24">
-        <f t="shared" si="4"/>
+        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3410,7 +3528,7 @@
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D29:J29)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3425,11 +3543,15 @@
       <c r="O29" s="6">
         <v>0</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
       <c r="R29" s="6"/>
       <c r="S29" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L29:R29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T29" s="15"/>
@@ -3438,7 +3560,7 @@
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T29:X29)</f>
         <v>0</v>
       </c>
       <c r="Z29" s="15"/>
@@ -3447,12 +3569,12 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z29:AD29)</f>
         <v>0</v>
       </c>
       <c r="AF29" s="15"/>
       <c r="AG29" s="24">
-        <f t="shared" si="4"/>
+        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3486,7 +3608,7 @@
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D30:J30)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3501,11 +3623,15 @@
       <c r="O30" s="6">
         <v>0</v>
       </c>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
       <c r="R30" s="6"/>
       <c r="S30" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L30:R30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T30" s="15"/>
@@ -3514,7 +3640,7 @@
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T30:X30)</f>
         <v>0</v>
       </c>
       <c r="Z30" s="15"/>
@@ -3523,12 +3649,12 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z30:AD30)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="15"/>
       <c r="AG30" s="24">
-        <f t="shared" si="4"/>
+        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3562,7 +3688,7 @@
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D31:J31)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3577,11 +3703,15 @@
       <c r="O31" s="6">
         <v>0</v>
       </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
       <c r="R31" s="6"/>
       <c r="S31" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L31:R31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T31" s="15"/>
@@ -3590,7 +3720,7 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T31:X31)</f>
         <v>0</v>
       </c>
       <c r="Z31" s="15"/>
@@ -3599,12 +3729,12 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z31:AD31)</f>
         <v>0</v>
       </c>
       <c r="AF31" s="15"/>
       <c r="AG31" s="24">
-        <f t="shared" si="4"/>
+        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3638,7 +3768,7 @@
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D32:J32)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3653,11 +3783,15 @@
       <c r="O32" s="6">
         <v>0</v>
       </c>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
       <c r="R32" s="6"/>
       <c r="S32" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L32:R32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T32" s="15"/>
@@ -3666,7 +3800,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T32:X32)</f>
         <v>0</v>
       </c>
       <c r="Z32" s="15"/>
@@ -3675,12 +3809,12 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z32:AD32)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="15"/>
       <c r="AG32" s="24">
-        <f t="shared" si="4"/>
+        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3714,7 +3848,7 @@
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D33:J33)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -3729,11 +3863,15 @@
       <c r="O33" s="17">
         <v>0</v>
       </c>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
       <c r="R33" s="17"/>
       <c r="S33" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L33:R33)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T33" s="15"/>
@@ -3742,7 +3880,7 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="20">
-        <f t="shared" si="2"/>
+        <f>SUM(T33:X33)</f>
         <v>0</v>
       </c>
       <c r="Z33" s="16"/>
@@ -3751,12 +3889,12 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(Z33:AD33)</f>
         <v>0</v>
       </c>
       <c r="AF33" s="16"/>
       <c r="AG33" s="28">
-        <f t="shared" si="4"/>
+        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -5049,14 +5187,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5131,35 +5269,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:X33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -782,7 +782,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -818,6 +818,74 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1212,7 +1280,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ15" sqref="AJ15"/>
+      <selection pane="bottomLeft" activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1309,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="34"/>
@@ -1420,7 +1488,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="18">
         <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>161.66666666666666</v>
+        <v>96.999999999999986</v>
       </c>
       <c r="L3" s="15">
         <v>90</v>
@@ -1443,20 +1511,20 @@
       <c r="R3" s="6"/>
       <c r="S3" s="18">
         <f>SUM(L3:R3)/(A$1)</f>
-        <v>193.33333333333334</v>
+        <v>116</v>
       </c>
       <c r="T3" s="15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="U3" s="15">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="18">
         <f>SUM(T3:X3)</f>
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="Z3" s="15"/>
       <c r="AA3" s="6"/>
@@ -1470,7 +1538,7 @@
       <c r="AF3" s="15"/>
       <c r="AG3" s="24">
         <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>78.833333333333343</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>103</v>
@@ -1507,7 +1575,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="18">
         <f>100*SUM(D4:J4)/(2*A$1)</f>
-        <v>166.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L4" s="15">
         <v>0</v>
@@ -1530,20 +1598,20 @@
       <c r="R4" s="6"/>
       <c r="S4" s="18">
         <f>SUM(L4:R4)/(A$1)</f>
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="T4" s="15">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="U4" s="15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="18">
         <f>SUM(T4:X4)</f>
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="6"/>
@@ -1557,21 +1625,21 @@
       <c r="AF4" s="15"/>
       <c r="AG4" s="24">
         <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>73.666666666666671</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D5" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1583,51 +1651,51 @@
         <v>2</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="18">
         <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>183.33333333333334</v>
+        <v>96.999999999999986</v>
       </c>
       <c r="L5" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M5" s="6">
         <v>100</v>
       </c>
       <c r="N5" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O5" s="6">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="P5" s="6">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="18">
         <f>SUM(L5:R5)/(A$1)</f>
-        <v>153.33333333333334</v>
+        <v>95</v>
       </c>
       <c r="T5" s="15">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="U5" s="15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="18">
         <f>SUM(T5:X5)</f>
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="Z5" s="15"/>
       <c r="AA5" s="6"/>
@@ -1641,21 +1709,21 @@
       <c r="AF5" s="15"/>
       <c r="AG5" s="24">
         <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
-        <v>73</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -1667,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
@@ -1675,19 +1743,19 @@
       <c r="J6" s="7"/>
       <c r="K6" s="18">
         <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>161.66666666666666</v>
+        <v>120</v>
       </c>
       <c r="L6" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M6" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N6" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O6" s="6">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="P6" s="6">
         <v>90</v>
@@ -1698,20 +1766,20 @@
       <c r="R6" s="6"/>
       <c r="S6" s="18">
         <f>SUM(L6:R6)/(A$1)</f>
-        <v>158.33333333333334</v>
+        <v>92</v>
       </c>
       <c r="T6" s="15">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="U6" s="15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="18">
         <f>SUM(T6:X6)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="Z6" s="15"/>
       <c r="AA6" s="6"/>
@@ -1725,21 +1793,21 @@
       <c r="AF6" s="15"/>
       <c r="AG6" s="24">
         <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
-        <v>71.833333333333343</v>
+        <v>62.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -1751,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I7" s="7">
         <v>2</v>
@@ -1759,43 +1827,43 @@
       <c r="J7" s="7"/>
       <c r="K7" s="18">
         <f>100*SUM(D7:J7)/(2*A$1)</f>
-        <v>166.66666666666666</v>
+        <v>118</v>
       </c>
       <c r="L7" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M7" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N7" s="6">
+        <v>60</v>
+      </c>
+      <c r="O7" s="6">
+        <v>60</v>
+      </c>
+      <c r="P7" s="6">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="6">
         <v>80</v>
-      </c>
-      <c r="O7" s="6">
-        <v>90</v>
-      </c>
-      <c r="P7" s="6">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>95</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="18">
         <f>SUM(L7:R7)/(A$1)</f>
-        <v>153.33333333333334</v>
+        <v>88</v>
       </c>
       <c r="T7" s="15">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="U7" s="15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="18">
         <f>SUM(T7:X7)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="6"/>
@@ -1809,18 +1877,18 @@
       <c r="AF7" s="15"/>
       <c r="AG7" s="24">
         <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
-        <v>71.333333333333343</v>
+        <v>61.400000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D8" s="12">
         <v>2</v>
@@ -1838,46 +1906,48 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="18">
         <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="L8" s="15">
         <v>100</v>
       </c>
       <c r="M8" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N8" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O8" s="6">
         <v>60</v>
       </c>
       <c r="P8" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="18">
         <f>SUM(L8:R8)/(A$1)</f>
-        <v>153.33333333333334</v>
-      </c>
-      <c r="T8" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="T8" s="15">
+        <v>70</v>
+      </c>
       <c r="U8" s="15">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="18">
         <f>SUM(T8:X8)</f>
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="6"/>
@@ -1891,21 +1961,21 @@
       <c r="AF8" s="15"/>
       <c r="AG8" s="24">
         <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
-        <v>62.666666666666671</v>
+        <v>60.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D9" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -1914,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1925,22 +1995,22 @@
       <c r="J9" s="7"/>
       <c r="K9" s="18">
         <f>100*SUM(D9:J9)/(2*A$1)</f>
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
         <v>100</v>
-      </c>
-      <c r="M9" s="6">
-        <v>80</v>
       </c>
       <c r="N9" s="6">
         <v>80</v>
       </c>
       <c r="O9" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P9" s="6">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="6">
         <v>95</v>
@@ -1948,16 +2018,20 @@
       <c r="R9" s="6"/>
       <c r="S9" s="18">
         <f>SUM(L9:R9)/(A$1)</f>
-        <v>171.66666666666666</v>
-      </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="T9" s="15">
+        <v>75</v>
+      </c>
+      <c r="U9" s="15">
+        <v>80</v>
+      </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="18">
         <f>SUM(T9:X9)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="6"/>
@@ -1971,7 +2045,7 @@
       <c r="AF9" s="15"/>
       <c r="AG9" s="24">
         <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
-        <v>53.333333333333336</v>
+        <v>59.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,7 +2079,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="18">
         <f>100*SUM(D10:J10)/(2*A$1)</f>
-        <v>133.33333333333334</v>
+        <v>80</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -2028,18 +2102,20 @@
       <c r="R10" s="6"/>
       <c r="S10" s="18">
         <f>SUM(L10:R10)/(A$1)</f>
-        <v>120</v>
-      </c>
-      <c r="T10" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="T10" s="15">
+        <v>95</v>
+      </c>
       <c r="U10" s="15">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="18">
         <f>SUM(T10:X10)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="Z10" s="15"/>
       <c r="AA10" s="6"/>
@@ -2053,33 +2129,33 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="24">
         <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
-        <v>49.333333333333336</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D11" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
         <v>2</v>
@@ -2087,39 +2163,43 @@
       <c r="J11" s="7"/>
       <c r="K11" s="18">
         <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>196.66666666666666</v>
+        <v>80</v>
       </c>
       <c r="L11" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M11" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N11" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O11" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P11" s="6">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="6">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="18">
         <f>SUM(L11:R11)/(A$1)</f>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="T11" s="15">
+        <v>75</v>
+      </c>
+      <c r="U11" s="15">
+        <v>80</v>
+      </c>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="18">
         <f>SUM(T11:X11)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="6"/>
@@ -2133,24 +2213,24 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="24">
         <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
-        <v>49</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -2159,49 +2239,51 @@
         <v>2</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="18">
         <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>133.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
       </c>
       <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
         <v>60</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>90</v>
-      </c>
       <c r="P12" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="18">
         <f>SUM(L12:R12)/(A$1)</f>
-        <v>113.33333333333333</v>
-      </c>
-      <c r="T12" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="T12" s="15">
+        <v>90</v>
+      </c>
       <c r="U12" s="15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="18">
         <f>SUM(T12:X12)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="Z12" s="15"/>
       <c r="AA12" s="6"/>
@@ -2215,21 +2297,21 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="24">
         <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
-        <v>48</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D13" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -2238,10 +2320,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
         <v>2</v>
@@ -2249,30 +2331,30 @@
       <c r="J13" s="7"/>
       <c r="K13" s="18">
         <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M13" s="6">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N13" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O13" s="6">
         <v>60</v>
       </c>
       <c r="P13" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="6">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="18">
         <f>SUM(L13:R13)/(A$1)</f>
-        <v>93.333333333333329</v>
+        <v>103</v>
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
@@ -2295,18 +2377,18 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="24">
         <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
-        <v>33.666666666666671</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -2329,7 +2411,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="18">
         <f>100*SUM(D14:J14)/(2*A$1)</f>
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
@@ -2344,15 +2426,15 @@
         <v>60</v>
       </c>
       <c r="P14" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="18">
         <f>SUM(L14:R14)/(A$1)</f>
-        <v>88.333333333333329</v>
+        <v>56</v>
       </c>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
@@ -2375,18 +2457,18 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="24">
         <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
-        <v>32.666666666666671</v>
+        <v>20.200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2401,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
@@ -2409,30 +2491,30 @@
       <c r="J15" s="7"/>
       <c r="K15" s="18">
         <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>133.33333333333334</v>
+        <v>90</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N15" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O15" s="6">
         <v>60</v>
       </c>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="6">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="18">
         <f>SUM(L15:R15)/(A$1)</f>
-        <v>91.666666666666671</v>
+        <v>53</v>
       </c>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
@@ -2455,64 +2537,64 @@
       <c r="AF15" s="15"/>
       <c r="AG15" s="24">
         <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
-        <v>31.666666666666671</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D16" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="18">
         <f>100*SUM(D16:J16)/(2*A$1)</f>
-        <v>131.66666666666666</v>
+        <v>80</v>
       </c>
       <c r="L16" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N16" s="6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O16" s="6">
         <v>60</v>
       </c>
       <c r="P16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="18">
         <f>SUM(L16:R16)/(A$1)</f>
-        <v>76.666666666666671</v>
+        <v>55</v>
       </c>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
@@ -2535,64 +2617,64 @@
       <c r="AF16" s="15"/>
       <c r="AG16" s="24">
         <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
-        <v>28.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
       </c>
       <c r="E17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="18">
         <f>100*SUM(D17:J17)/(2*A$1)</f>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L17" s="15">
         <v>100</v>
       </c>
       <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
         <v>60</v>
       </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
       <c r="O17" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="6">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="18">
         <f>SUM(L17:R17)/(A$1)</f>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
@@ -2615,30 +2697,30 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="24">
         <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
-        <v>25</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D18" s="12">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2649,19 +2731,19 @@
       <c r="J18" s="7"/>
       <c r="K18" s="18">
         <f>100*SUM(D18:J18)/(2*A$1)</f>
-        <v>116.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="L18" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N18" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O18" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P18" s="6">
         <v>0</v>
@@ -2672,7 +2754,7 @@
       <c r="R18" s="6"/>
       <c r="S18" s="18">
         <f>SUM(L18:R18)/(A$1)</f>
-        <v>61.666666666666664</v>
+        <v>45</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -2695,64 +2777,64 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="24">
         <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D19" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="18">
         <f>100*SUM(D19:J19)/(2*A$1)</f>
-        <v>86.666666666666671</v>
+        <v>70</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
       </c>
       <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
         <v>60</v>
       </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
       <c r="O19" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P19" s="6">
         <v>0</v>
       </c>
       <c r="Q19" s="6">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="18">
         <f>SUM(L19:R19)/(A$1)</f>
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
@@ -2775,18 +2857,18 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="24">
         <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
-        <v>21.666666666666668</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
@@ -2798,18 +2880,18 @@
         <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="18">
         <f>100*SUM(D20:J20)/(2*A$1)</f>
-        <v>91.666666666666671</v>
+        <v>52</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2827,12 +2909,12 @@
         <v>0</v>
       </c>
       <c r="Q20" s="6">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="18">
         <f>SUM(L20:R20)/(A$1)</f>
-        <v>58.333333333333336</v>
+        <v>39</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -2855,75 +2937,73 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="24">
         <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
-        <v>20.833333333333336</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7">
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="18">
         <f>100*SUM(D21:J21)/(2*A$1)</f>
-        <v>33.333333333333336</v>
+        <v>55</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
       </c>
       <c r="M21" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N21" s="6">
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P21" s="6">
         <v>0</v>
       </c>
       <c r="Q21" s="6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="18">
         <f>SUM(L21:R21)/(A$1)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="T21" s="15"/>
-      <c r="U21" s="15">
-        <v>60</v>
-      </c>
+      <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="18">
         <f>SUM(T21:X21)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="6"/>
@@ -2937,16 +3017,18 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="24">
         <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
-        <v>19.333333333333336</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
@@ -2955,21 +3037,21 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
         <f>100*SUM(D22:J22)/(2*A$1)</f>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -2978,30 +3060,34 @@
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O22" s="6">
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="18">
         <f>SUM(L22:R22)/(A$1)</f>
-        <v>36.666666666666664</v>
-      </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>30</v>
+      </c>
+      <c r="U22" s="15">
+        <v>30</v>
+      </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="18">
         <f>SUM(T22:X22)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="6"/>
@@ -3015,64 +3101,62 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="24">
         <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="A23" s="23"/>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D23" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
         <f>100*SUM(D23:J23)/(2*A$1)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L23" s="15">
         <v>0</v>
       </c>
       <c r="M23" s="6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N23" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O23" s="6">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="18">
         <f>SUM(L23:R23)/(A$1)</f>
-        <v>28.333333333333332</v>
+        <v>22</v>
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
@@ -3095,27 +3179,27 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="24">
         <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
-        <v>8.1666666666666679</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D24" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
@@ -3129,16 +3213,16 @@
       <c r="J24" s="7"/>
       <c r="K24" s="18">
         <f>100*SUM(D24:J24)/(2*A$1)</f>
-        <v>33.333333333333336</v>
+        <v>15</v>
       </c>
       <c r="L24" s="15">
         <v>0</v>
       </c>
       <c r="M24" s="6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N24" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O24" s="6">
         <v>0</v>
@@ -3152,7 +3236,7 @@
       <c r="R24" s="6"/>
       <c r="S24" s="18">
         <f>SUM(L24:R24)/(A$1)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -3175,18 +3259,18 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="24">
         <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
-        <v>7.3333333333333339</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
@@ -3195,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
@@ -3209,7 +3293,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="18">
         <f>100*SUM(D25:J25)/(2*A$1)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L25" s="15">
         <v>0</v>
@@ -3218,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O25" s="6">
         <v>0</v>
@@ -3232,7 +3316,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="18">
         <f>SUM(L25:R25)/(A$1)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
@@ -3255,18 +3339,18 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="24">
         <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D26" s="12">
         <v>0</v>
@@ -3340,13 +3424,13 @@
     </row>
     <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -3420,13 +3504,13 @@
     </row>
     <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -5178,7 +5262,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:AH33">
-    <sortCondition descending="1" ref="AG2"/>
+    <sortCondition descending="1" ref="AG3"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="T1:Y1"/>
@@ -5187,14 +5271,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5269,37 +5353,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:X33">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>80</formula>
-      <formula>100</formula>
+      <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -419,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -591,21 +591,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -703,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -732,20 +717,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,13 +744,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,7 +1264,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM14" sqref="AM14"/>
+      <selection pane="bottomLeft" activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1308,157 +1292,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35">
+      <c r="A1" s="34">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="39" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="39" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="39" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="40"/>
       <c r="AF1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>1</v>
       </c>
-      <c r="E2" s="32">
-        <v>2</v>
-      </c>
-      <c r="F2" s="32">
+      <c r="E2" s="31">
+        <v>2</v>
+      </c>
+      <c r="F2" s="31">
         <v>3</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <v>4</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="31">
         <v>5</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <v>6</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="31">
         <v>7</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="30">
         <v>1</v>
       </c>
-      <c r="M2" s="32">
-        <v>2</v>
-      </c>
-      <c r="N2" s="32">
+      <c r="M2" s="31">
+        <v>2</v>
+      </c>
+      <c r="N2" s="31">
         <v>3</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="31">
         <v>4</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="31">
         <v>5</v>
       </c>
-      <c r="Q2" s="32">
+      <c r="Q2" s="31">
         <v>6</v>
       </c>
-      <c r="R2" s="32">
+      <c r="R2" s="31">
         <v>7</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="31">
+      <c r="T2" s="30">
         <v>1</v>
       </c>
-      <c r="U2" s="32">
-        <v>2</v>
-      </c>
-      <c r="V2" s="32">
+      <c r="U2" s="31">
+        <v>2</v>
+      </c>
+      <c r="V2" s="31">
         <v>3</v>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="31">
         <v>4</v>
       </c>
-      <c r="X2" s="32">
+      <c r="X2" s="31">
         <v>5</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="31">
+      <c r="Z2" s="30">
         <v>1</v>
       </c>
-      <c r="AA2" s="32">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="32">
+      <c r="AA2" s="31">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="31">
         <v>3</v>
       </c>
-      <c r="AC2" s="32">
+      <c r="AC2" s="31">
         <v>4</v>
       </c>
-      <c r="AD2" s="32">
+      <c r="AD2" s="31">
         <v>5</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1523,8 +1507,8 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="18">
-        <f>SUM(T3:X3)</f>
-        <v>210</v>
+        <f>SUM(T3:X3)/2</f>
+        <v>105</v>
       </c>
       <c r="Z3" s="15"/>
       <c r="AA3" s="6"/>
@@ -1536,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="AF3" s="15"/>
-      <c r="AG3" s="24">
+      <c r="AG3" s="23">
         <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>74.900000000000006</v>
+        <v>53.900000000000006</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1610,8 +1594,8 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="18">
-        <f>SUM(T4:X4)</f>
-        <v>195</v>
+        <f t="shared" ref="Y4:Y33" si="0">SUM(T4:X4)/2</f>
+        <v>97.5</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="6"/>
@@ -1623,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="AF4" s="15"/>
-      <c r="AG4" s="24">
+      <c r="AG4" s="23">
         <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>68.8</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1694,8 +1678,8 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="18">
-        <f>SUM(T5:X5)</f>
-        <v>195</v>
+        <f t="shared" si="0"/>
+        <v>97.5</v>
       </c>
       <c r="Z5" s="15"/>
       <c r="AA5" s="6"/>
@@ -1707,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="15"/>
-      <c r="AG5" s="24">
+      <c r="AG5" s="23">
         <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
-        <v>67.7</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1778,8 +1762,8 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="18">
-        <f>SUM(T6:X6)</f>
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="Z6" s="15"/>
       <c r="AA6" s="6"/>
@@ -1791,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="AF6" s="15"/>
-      <c r="AG6" s="24">
+      <c r="AG6" s="23">
         <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
-        <v>62.400000000000006</v>
+        <v>46.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1862,8 +1846,8 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="18">
-        <f>SUM(T7:X7)</f>
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="6"/>
@@ -1875,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="AF7" s="15"/>
-      <c r="AG7" s="24">
+      <c r="AG7" s="23">
         <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
-        <v>61.400000000000006</v>
+        <v>45.400000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1946,8 +1930,8 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="18">
-        <f>SUM(T8:X8)</f>
-        <v>155</v>
+        <f t="shared" si="0"/>
+        <v>77.5</v>
       </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="6"/>
@@ -1959,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="AF8" s="15"/>
-      <c r="AG8" s="24">
+      <c r="AG8" s="23">
         <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
-        <v>60.400000000000006</v>
+        <v>44.900000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2030,8 +2014,8 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="18">
-        <f>SUM(T9:X9)</f>
-        <v>155</v>
+        <f t="shared" si="0"/>
+        <v>77.5</v>
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="6"/>
@@ -2043,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="AF9" s="15"/>
-      <c r="AG9" s="24">
+      <c r="AG9" s="23">
         <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
-        <v>59.400000000000006</v>
+        <v>43.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2114,8 +2098,8 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="18">
-        <f>SUM(T10:X10)</f>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="Z10" s="15"/>
       <c r="AA10" s="6"/>
@@ -2127,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="24">
+      <c r="AG10" s="23">
         <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
-        <v>58.4</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2198,8 +2182,8 @@
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="18">
-        <f>SUM(T11:X11)</f>
-        <v>155</v>
+        <f t="shared" si="0"/>
+        <v>77.5</v>
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="6"/>
@@ -2211,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="AF11" s="15"/>
-      <c r="AG11" s="24">
+      <c r="AG11" s="23">
         <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
-        <v>52.6</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2282,8 +2266,8 @@
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="18">
-        <f>SUM(T12:X12)</f>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="Z12" s="15"/>
       <c r="AA12" s="6"/>
@@ -2295,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="AF12" s="15"/>
-      <c r="AG12" s="24">
+      <c r="AG12" s="23">
         <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
-        <v>40.4</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2362,7 +2346,7 @@
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="18">
-        <f>SUM(T13:X13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z13" s="15"/>
@@ -2375,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="AF13" s="15"/>
-      <c r="AG13" s="24">
+      <c r="AG13" s="23">
         <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2442,7 +2426,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="18">
-        <f>SUM(T14:X14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z14" s="15"/>
@@ -2455,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="AF14" s="15"/>
-      <c r="AG14" s="24">
+      <c r="AG14" s="23">
         <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
         <v>20.200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2522,7 +2506,7 @@
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="18">
-        <f>SUM(T15:X15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z15" s="15"/>
@@ -2535,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="AF15" s="15"/>
-      <c r="AG15" s="24">
+      <c r="AG15" s="23">
         <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2602,7 +2586,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="18">
-        <f>SUM(T16:X16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z16" s="15"/>
@@ -2615,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="AF16" s="15"/>
-      <c r="AG16" s="24">
+      <c r="AG16" s="23">
         <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2682,7 +2666,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="18">
-        <f>SUM(T17:X17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z17" s="15"/>
@@ -2695,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="AF17" s="15"/>
-      <c r="AG17" s="24">
+      <c r="AG17" s="23">
         <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
         <v>17.100000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2762,7 +2746,7 @@
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="18">
-        <f>SUM(T18:X18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z18" s="15"/>
@@ -2775,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="AF18" s="15"/>
-      <c r="AG18" s="24">
+      <c r="AG18" s="23">
         <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2842,7 +2826,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="18">
-        <f>SUM(T19:X19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z19" s="15"/>
@@ -2855,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="AF19" s="15"/>
-      <c r="AG19" s="24">
+      <c r="AG19" s="23">
         <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
         <v>14.4</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2922,7 +2906,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
       <c r="Y20" s="18">
-        <f>SUM(T20:X20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z20" s="15"/>
@@ -2935,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="AF20" s="15"/>
-      <c r="AG20" s="24">
+      <c r="AG20" s="23">
         <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3002,7 +2986,7 @@
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="18">
-        <f>SUM(T21:X21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z21" s="15"/>
@@ -3015,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="AF21" s="15"/>
-      <c r="AG21" s="24">
+      <c r="AG21" s="23">
         <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3086,8 +3070,8 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="18">
-        <f>SUM(T22:X22)</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="6"/>
@@ -3099,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AF22" s="15"/>
-      <c r="AG22" s="24">
+      <c r="AG22" s="23">
         <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="3" t="s">
         <v>101</v>
       </c>
@@ -3164,7 +3148,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="18">
-        <f>SUM(T23:X23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z23" s="15"/>
@@ -3177,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="AF23" s="15"/>
-      <c r="AG23" s="24">
+      <c r="AG23" s="23">
         <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
         <v>8.4</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3244,7 +3228,7 @@
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="18">
-        <f>SUM(T24:X24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z24" s="15"/>
@@ -3257,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="AF24" s="15"/>
-      <c r="AG24" s="24">
+      <c r="AG24" s="23">
         <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3324,7 +3308,7 @@
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="18">
-        <f>SUM(T25:X25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z25" s="15"/>
@@ -3337,13 +3321,13 @@
         <v>0</v>
       </c>
       <c r="AF25" s="15"/>
-      <c r="AG25" s="24">
+      <c r="AG25" s="23">
         <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3404,7 +3388,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="18">
-        <f>SUM(T26:X26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z26" s="15"/>
@@ -3417,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="AF26" s="15"/>
-      <c r="AG26" s="24">
+      <c r="AG26" s="23">
         <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3484,7 +3468,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="18">
-        <f>SUM(T27:X27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z27" s="15"/>
@@ -3497,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="AF27" s="15"/>
-      <c r="AG27" s="24">
+      <c r="AG27" s="23">
         <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3564,7 +3548,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="18">
-        <f>SUM(T28:X28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z28" s="15"/>
@@ -3577,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="AF28" s="15"/>
-      <c r="AG28" s="24">
+      <c r="AG28" s="23">
         <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3644,7 +3628,7 @@
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="18">
-        <f>SUM(T29:X29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z29" s="15"/>
@@ -3657,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="AF29" s="15"/>
-      <c r="AG29" s="24">
+      <c r="AG29" s="23">
         <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3724,7 +3708,7 @@
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="18">
-        <f>SUM(T30:X30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z30" s="15"/>
@@ -3737,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="AF30" s="15"/>
-      <c r="AG30" s="24">
+      <c r="AG30" s="23">
         <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3804,7 +3788,7 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="18">
-        <f>SUM(T31:X31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z31" s="15"/>
@@ -3817,19 +3801,19 @@
         <v>0</v>
       </c>
       <c r="AF31" s="15"/>
-      <c r="AG31" s="24">
+      <c r="AG31" s="23">
         <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="12">
@@ -3884,7 +3868,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="18">
-        <f>SUM(T32:X32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z32" s="15"/>
@@ -3897,19 +3881,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="15"/>
-      <c r="AG32" s="24">
+      <c r="AG32" s="23">
         <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="13">
@@ -3963,8 +3947,8 @@
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
-      <c r="Y33" s="20">
-        <f>SUM(T33:X33)</f>
+      <c r="Y33" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z33" s="16"/>
@@ -3976,8 +3960,8 @@
         <f>SUM(Z33:AD33)</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="28">
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="27">
         <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
         <v>0</v>
       </c>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -766,7 +766,83 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1264,7 +1340,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL24" sqref="AL24"/>
+      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2340,8 +2416,12 @@
         <f>SUM(L13:R13)/(A$1)</f>
         <v>103</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
@@ -2420,8 +2500,12 @@
         <f>SUM(L14:R14)/(A$1)</f>
         <v>56</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
@@ -2500,8 +2584,12 @@
         <f>SUM(L15:R15)/(A$1)</f>
         <v>53</v>
       </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0</v>
+      </c>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
@@ -2580,8 +2668,12 @@
         <f>SUM(L16:R16)/(A$1)</f>
         <v>55</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
@@ -2660,8 +2752,12 @@
         <f>SUM(L17:R17)/(A$1)</f>
         <v>46</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
@@ -2740,8 +2836,12 @@
         <f>SUM(L18:R18)/(A$1)</f>
         <v>45</v>
       </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -2820,8 +2920,12 @@
         <f>SUM(L19:R19)/(A$1)</f>
         <v>37</v>
       </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
@@ -2900,8 +3004,12 @@
         <f>SUM(L20:R20)/(A$1)</f>
         <v>39</v>
       </c>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
@@ -2980,8 +3088,12 @@
         <f>SUM(L21:R21)/(A$1)</f>
         <v>35</v>
       </c>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <v>0</v>
+      </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
@@ -3142,8 +3254,12 @@
         <f>SUM(L23:R23)/(A$1)</f>
         <v>22</v>
       </c>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
+      <c r="T23" s="15">
+        <v>0</v>
+      </c>
+      <c r="U23" s="15">
+        <v>0</v>
+      </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
@@ -3222,8 +3338,12 @@
         <f>SUM(L24:R24)/(A$1)</f>
         <v>17</v>
       </c>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
@@ -3302,8 +3422,12 @@
         <f>SUM(L25:R25)/(A$1)</f>
         <v>12</v>
       </c>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
@@ -3382,8 +3506,12 @@
         <f>SUM(L26:R26)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
@@ -3462,8 +3590,12 @@
         <f>SUM(L27:R27)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
@@ -3542,8 +3674,12 @@
         <f>SUM(L28:R28)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
@@ -3622,8 +3758,12 @@
         <f>SUM(L29:R29)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0</v>
+      </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
@@ -3702,8 +3842,12 @@
         <f>SUM(L30:R30)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
@@ -3782,8 +3926,12 @@
         <f>SUM(L31:R31)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
+      <c r="T31" s="15">
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
@@ -3862,8 +4010,12 @@
         <f>SUM(L32:R32)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <v>0</v>
+      </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
@@ -3942,8 +4094,12 @@
         <f>SUM(L33:R33)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
@@ -5255,14 +5411,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5337,35 +5493,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:X33">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Vize" sheetId="1" r:id="rId1"/>
+    <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -42,8 +43,32 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sari, Ozkan</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Arial Narrow"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hafta Sayısı
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
   <si>
     <t>Adı</t>
   </si>
@@ -355,6 +380,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DEVAM DURUMU (%20)</t>
+  </si>
+  <si>
+    <t>LAB ÇALIŞMALARI (%25)</t>
+  </si>
+  <si>
+    <t>ÖDEVLER (%25)</t>
   </si>
 </sst>
 </file>
@@ -688,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -756,6 +790,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -766,83 +803,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1336,11 +1297,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
+      <selection pane="bottomLeft" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1360,63 +1321,53 @@
     <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" customWidth="1"/>
-    <col min="26" max="30" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.21875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.77734375" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
         <v>5</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="19" t="s">
+      <c r="D1" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>91</v>
       </c>
@@ -1492,32 +1443,14 @@
       <c r="Y2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="31">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="31">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="31">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="30" t="s">
+      <c r="Z2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AA2" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
@@ -1587,24 +1520,15 @@
         <v>105</v>
       </c>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="18">
-        <f>SUM(Z3:AD3)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="23">
-        <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AA3" s="23">
+        <f>K3*0.2+S3*0.25+Y3*0.25+Z3*0.3</f>
+        <v>74.650000000000006</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -1670,25 +1594,16 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="18">
-        <f t="shared" ref="Y4:Y33" si="0">SUM(T4:X4)/2</f>
+        <f>SUM(T4:X4)/2</f>
         <v>97.5</v>
       </c>
       <c r="Z4" s="15"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="18">
-        <f>SUM(Z4:AD4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="23">
-        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="23">
+        <f>K4*0.2+S4*0.25+Y4*0.25+Z4*0.3</f>
+        <v>69.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>79</v>
       </c>
@@ -1754,25 +1669,16 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T5:X5)/2</f>
         <v>97.5</v>
       </c>
       <c r="Z5" s="15"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="18">
-        <f>SUM(Z5:AD5)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="23">
-        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="23">
+        <f>K5*0.2+S5*0.25+Y5*0.25+Z5*0.3</f>
+        <v>67.525000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>46</v>
       </c>
@@ -1838,25 +1744,16 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T6:X6)/2</f>
         <v>80</v>
       </c>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="18">
-        <f>SUM(Z6:AD6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="23">
-        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
-        <v>46.400000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="23">
+        <f>K6*0.2+S6*0.25+Y6*0.25+Z6*0.3</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>73</v>
       </c>
@@ -1922,25 +1819,16 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T7:X7)/2</f>
         <v>80</v>
       </c>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="18">
-        <f>SUM(Z7:AD7)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="23">
-        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
-        <v>45.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="23">
+        <f>K7*0.2+S7*0.25+Y7*0.25+Z7*0.3</f>
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
@@ -2006,25 +1894,16 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T8:X8)/2</f>
         <v>77.5</v>
       </c>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="18">
-        <f>SUM(Z8:AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="23">
-        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
-        <v>44.900000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="23">
+        <f>K8*0.2+S8*0.25+Y8*0.25+Z8*0.3</f>
+        <v>64.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -2090,25 +1969,16 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T9:X9)/2</f>
         <v>77.5</v>
       </c>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="18">
-        <f>SUM(Z9:AD9)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="23">
-        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
-        <v>43.900000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="23">
+        <f>K9*0.2+S9*0.25+Y9*0.25+Z9*0.3</f>
+        <v>62.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
@@ -2174,25 +2044,16 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T10:X10)/2</f>
         <v>90</v>
       </c>
       <c r="Z10" s="15"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="18">
-        <f>SUM(Z10:AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="23">
-        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="23">
+        <f>K10*0.2+S10*0.25+Y10*0.25+Z10*0.3</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
@@ -2258,120 +2119,102 @@
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T11:X11)/2</f>
         <v>77.5</v>
       </c>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="18">
-        <f>SUM(Z11:AD11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="23">
-        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="23">
+        <f>K11*0.2+S11*0.25+Y11*0.25+Z11*0.3</f>
+        <v>52.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D12" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="18">
         <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N12" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O12" s="6">
         <v>60</v>
       </c>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="18">
         <f>SUM(L12:R12)/(A$1)</f>
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="T12" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U12" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="18">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUM(T12:X12)/2</f>
+        <v>0</v>
       </c>
       <c r="Z12" s="15"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="18">
-        <f>SUM(Z12:AD12)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="23">
-        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="23">
+        <f>K12*0.2+S12*0.25+Y12*0.25+Z12*0.3</f>
+        <v>48.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D13" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -2380,10 +2223,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
         <v>2</v>
@@ -2391,30 +2234,30 @@
       <c r="J13" s="7"/>
       <c r="K13" s="18">
         <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="L13" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M13" s="6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N13" s="6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O13" s="6">
         <v>60</v>
       </c>
       <c r="P13" s="6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="6">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="18">
         <f>SUM(L13:R13)/(A$1)</f>
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="T13" s="15">
         <v>0</v>
@@ -2426,33 +2269,24 @@
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T13:X13)/2</f>
         <v>0</v>
       </c>
       <c r="Z13" s="15"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="18">
-        <f>SUM(Z13:AD13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="23">
-        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
+      <c r="AA13" s="23">
+        <f>K13*0.2+S13*0.25+Y13*0.25+Z13*0.3</f>
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -2490,15 +2324,15 @@
         <v>60</v>
       </c>
       <c r="P14" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="18">
         <f>SUM(L14:R14)/(A$1)</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T14" s="15">
         <v>0</v>
@@ -2510,33 +2344,24 @@
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T14:X14)/2</f>
         <v>0</v>
       </c>
       <c r="Z14" s="15"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="18">
-        <f>SUM(Z14:AD14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="23">
-        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
-        <v>20.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="23">
+        <f>K14*0.2+S14*0.25+Y14*0.25+Z14*0.3</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2551,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
         <v>2</v>
@@ -2559,30 +2384,30 @@
       <c r="J15" s="7"/>
       <c r="K15" s="18">
         <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="6">
+        <v>50</v>
+      </c>
+      <c r="N15" s="6">
         <v>70</v>
-      </c>
-      <c r="N15" s="6">
-        <v>60</v>
       </c>
       <c r="O15" s="6">
         <v>60</v>
       </c>
       <c r="P15" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="6">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="18">
         <f>SUM(L15:R15)/(A$1)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T15" s="15">
         <v>0</v>
@@ -2594,42 +2419,33 @@
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T15:X15)/2</f>
         <v>0</v>
       </c>
       <c r="Z15" s="15"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="18">
-        <f>SUM(Z15:AD15)</f>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="23">
-        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="23">
+        <f>K15*0.2+S15*0.25+Y15*0.25+Z15*0.3</f>
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
@@ -2638,21 +2454,21 @@
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="18">
         <f>100*SUM(D16:J16)/(2*A$1)</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L16" s="15">
         <v>0</v>
       </c>
       <c r="M16" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N16" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6">
         <v>60</v>
@@ -2661,42 +2477,33 @@
         <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="18">
         <f>SUM(L16:R16)/(A$1)</f>
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="T16" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U16" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(T16:X16)/2</f>
+        <v>90</v>
       </c>
       <c r="Z16" s="15"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="18">
-        <f>SUM(Z16:AD16)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="23">
-        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="23">
+        <f>K16*0.2+S16*0.25+Y16*0.25+Z16*0.3</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>52</v>
       </c>
@@ -2762,25 +2569,16 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T17:X17)/2</f>
         <v>0</v>
       </c>
       <c r="Z17" s="15"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="18">
-        <f>SUM(Z17:AD17)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="23">
-        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="23">
+        <f>K17*0.2+S17*0.25+Y17*0.25+Z17*0.3</f>
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>16</v>
       </c>
@@ -2846,25 +2644,16 @@
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T18:X18)/2</f>
         <v>0</v>
       </c>
       <c r="Z18" s="15"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="18">
-        <f>SUM(Z18:AD18)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="23">
-        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="23">
+        <f>K18*0.2+S18*0.25+Y18*0.25+Z18*0.3</f>
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
@@ -2930,25 +2719,16 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T19:X19)/2</f>
         <v>0</v>
       </c>
       <c r="Z19" s="15"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="18">
-        <f>SUM(Z19:AD19)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="23">
-        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="23">
+        <f>K19*0.2+S19*0.25+Y19*0.25+Z19*0.3</f>
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>49</v>
       </c>
@@ -3014,25 +2794,16 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
       <c r="Y20" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T20:X20)/2</f>
         <v>0</v>
       </c>
       <c r="Z20" s="15"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="18">
-        <f>SUM(Z20:AD20)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="23">
-        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="23">
+        <f>K20*0.2+S20*0.25+Y20*0.25+Z20*0.3</f>
+        <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>2</v>
       </c>
@@ -3098,33 +2869,22 @@
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T21:X21)/2</f>
         <v>0</v>
       </c>
       <c r="Z21" s="15"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="18">
-        <f>SUM(Z21:AD21)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="23">
-        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA21" s="23">
+        <f>K21*0.2+S21*0.25+Y21*0.25+Z21*0.3</f>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
@@ -3133,21 +2893,21 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
         <f>100*SUM(D22:J22)/(2*A$1)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -3156,58 +2916,51 @@
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O22" s="6">
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="18">
         <f>SUM(L22:R22)/(A$1)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T22" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U22" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T22:X22)/2</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="23">
+        <f>K22*0.2+S22*0.25+Y22*0.25+Z22*0.3</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="18">
-        <f>SUM(Z22:AD22)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="23">
-        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="D23" s="12">
         <v>0</v>
       </c>
@@ -3215,21 +2968,21 @@
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
         <f>100*SUM(D23:J23)/(2*A$1)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L23" s="15">
         <v>0</v>
@@ -3238,51 +2991,42 @@
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O23" s="6">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="18">
         <f>SUM(L23:R23)/(A$1)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T23" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U23" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(T23:X23)/2</f>
+        <v>30</v>
       </c>
       <c r="Z23" s="15"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="18">
-        <f>SUM(Z23:AD23)</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="23">
-        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="23">
+        <f>K23*0.2+S23*0.25+Y23*0.25+Z23*0.3</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
@@ -3348,25 +3092,16 @@
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T24:X24)/2</f>
         <v>0</v>
       </c>
       <c r="Z24" s="15"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="18">
-        <f>SUM(Z24:AD24)</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="23">
-        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="23">
+        <f>K24*0.2+S24*0.25+Y24*0.25+Z24*0.3</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
@@ -3432,25 +3167,16 @@
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T25:X25)/2</f>
         <v>0</v>
       </c>
       <c r="Z25" s="15"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="18">
-        <f>SUM(Z25:AD25)</f>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="23">
-        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA25" s="23">
+        <f>K25*0.2+S25*0.25+Y25*0.25+Z25*0.3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
@@ -3516,25 +3242,16 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T26:X26)/2</f>
         <v>0</v>
       </c>
       <c r="Z26" s="15"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="18">
-        <f>SUM(Z26:AD26)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="23">
-        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA26" s="23">
+        <f>K26*0.2+S26*0.25+Y26*0.25+Z26*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
@@ -3600,25 +3317,16 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T27:X27)/2</f>
         <v>0</v>
       </c>
       <c r="Z27" s="15"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="18">
-        <f>SUM(Z27:AD27)</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="23">
-        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA27" s="23">
+        <f>K27*0.2+S27*0.25+Y27*0.25+Z27*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>19</v>
       </c>
@@ -3684,25 +3392,16 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T28:X28)/2</f>
         <v>0</v>
       </c>
       <c r="Z28" s="15"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="18">
-        <f>SUM(Z28:AD28)</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="23">
-        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA28" s="23">
+        <f>K28*0.2+S28*0.25+Y28*0.25+Z28*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>34</v>
       </c>
@@ -3768,25 +3467,16 @@
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T29:X29)/2</f>
         <v>0</v>
       </c>
       <c r="Z29" s="15"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="18">
-        <f>SUM(Z29:AD29)</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="23">
-        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA29" s="23">
+        <f>K29*0.2+S29*0.25+Y29*0.25+Z29*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>61</v>
       </c>
@@ -3852,25 +3542,16 @@
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T30:X30)/2</f>
         <v>0</v>
       </c>
       <c r="Z30" s="15"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="18">
-        <f>SUM(Z30:AD30)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="23">
-        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA30" s="23">
+        <f>K30*0.2+S30*0.25+Y30*0.25+Z30*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>64</v>
       </c>
@@ -3936,25 +3617,16 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T31:X31)/2</f>
         <v>0</v>
       </c>
       <c r="Z31" s="15"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="18">
-        <f>SUM(Z31:AD31)</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="23">
-        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA31" s="23">
+        <f>K31*0.2+S31*0.25+Y31*0.25+Z31*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>70</v>
       </c>
@@ -4020,25 +3692,16 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="18">
-        <f t="shared" si="0"/>
+        <f>SUM(T32:X32)/2</f>
         <v>0</v>
       </c>
       <c r="Z32" s="15"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="18">
-        <f>SUM(Z32:AD32)</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="23">
-        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA32" s="23">
+        <f>K32*0.2+S32*0.25+Y32*0.25+Z32*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>76</v>
       </c>
@@ -4104,25 +3767,16 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="18">
-        <f>SUM(Z33:AD33)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="27">
-        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(T33:X33)/2</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="23">
+        <f>K33*0.2+S33*0.25+Y33*0.25+Z33*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4131,7 +3785,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4158,7 +3812,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4185,7 +3839,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4212,7 +3866,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4239,7 +3893,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4266,7 +3920,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4293,7 +3947,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4320,7 +3974,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4347,7 +4001,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4374,7 +4028,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4401,7 +4055,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4428,7 +4082,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4455,7 +4109,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4482,7 +4136,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -5401,24 +5055,23 @@
       <c r="Y81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AH33">
-    <sortCondition descending="1" ref="AG3"/>
+  <sortState ref="A3:AB33">
+    <sortCondition descending="1" ref="AA3"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5464,21 +5117,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE33">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04C393DA-4C35-49B7-B05F-92E59E130F0F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG33">
+  <conditionalFormatting sqref="AA3:AA33">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -5493,35 +5132,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:X33">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -5566,7 +5205,4255 @@
           <xm:sqref>Y3:Y33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04C393DA-4C35-49B7-B05F-92E59E130F0F}">
+          <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AA3:AA33</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AH81"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
+    <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="1" customWidth="1"/>
+    <col min="26" max="30" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.21875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.77734375" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31">
+        <v>2</v>
+      </c>
+      <c r="F2" s="31">
+        <v>3</v>
+      </c>
+      <c r="G2" s="31">
+        <v>4</v>
+      </c>
+      <c r="H2" s="31">
+        <v>5</v>
+      </c>
+      <c r="I2" s="31">
+        <v>6</v>
+      </c>
+      <c r="J2" s="31">
+        <v>7</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="30">
+        <v>1</v>
+      </c>
+      <c r="M2" s="31">
+        <v>2</v>
+      </c>
+      <c r="N2" s="31">
+        <v>3</v>
+      </c>
+      <c r="O2" s="31">
+        <v>4</v>
+      </c>
+      <c r="P2" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>6</v>
+      </c>
+      <c r="R2" s="31">
+        <v>7</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="30">
+        <v>1</v>
+      </c>
+      <c r="U2" s="31">
+        <v>2</v>
+      </c>
+      <c r="V2" s="31">
+        <v>3</v>
+      </c>
+      <c r="W2" s="31">
+        <v>4</v>
+      </c>
+      <c r="X2" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="31">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="31">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="31">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="18">
+        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
+        <v>96.999999999999986</v>
+      </c>
+      <c r="L3" s="15">
+        <v>90</v>
+      </c>
+      <c r="M3" s="6">
+        <v>100</v>
+      </c>
+      <c r="N3" s="6">
+        <v>100</v>
+      </c>
+      <c r="O3" s="6">
+        <v>95</v>
+      </c>
+      <c r="P3" s="6">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>100</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="18">
+        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
+        <v>116</v>
+      </c>
+      <c r="T3" s="15">
+        <v>100</v>
+      </c>
+      <c r="U3" s="15">
+        <v>110</v>
+      </c>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="18">
+        <f>SUM(T3:X3)/2</f>
+        <v>105</v>
+      </c>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="18">
+        <f t="shared" ref="AE3:AE33" si="2">SUM(Z3:AD3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="23">
+        <f t="shared" ref="AG3:AG33" si="3">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>100</v>
+      </c>
+      <c r="N4" s="6">
+        <v>100</v>
+      </c>
+      <c r="O4" s="6">
+        <v>100</v>
+      </c>
+      <c r="P4" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>95</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="18">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="T4" s="15">
+        <v>95</v>
+      </c>
+      <c r="U4" s="15">
+        <v>100</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="18">
+        <f t="shared" ref="Y4:Y33" si="4">SUM(T4:X4)/2</f>
+        <v>97.5</v>
+      </c>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="23">
+        <f t="shared" si="3"/>
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="18">
+        <f t="shared" si="0"/>
+        <v>96.999999999999986</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>100</v>
+      </c>
+      <c r="N5" s="6">
+        <v>100</v>
+      </c>
+      <c r="O5" s="6">
+        <v>95</v>
+      </c>
+      <c r="P5" s="6">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>90</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="18">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="T5" s="15">
+        <v>95</v>
+      </c>
+      <c r="U5" s="15">
+        <v>100</v>
+      </c>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="18">
+        <f t="shared" si="4"/>
+        <v>97.5</v>
+      </c>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="23">
+        <f t="shared" si="3"/>
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L6" s="15">
+        <v>100</v>
+      </c>
+      <c r="M6" s="6">
+        <v>60</v>
+      </c>
+      <c r="N6" s="6">
+        <v>60</v>
+      </c>
+      <c r="O6" s="6">
+        <v>60</v>
+      </c>
+      <c r="P6" s="6">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>90</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="18">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="T6" s="15">
+        <v>70</v>
+      </c>
+      <c r="U6" s="15">
+        <v>90</v>
+      </c>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="18">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="23">
+        <f t="shared" si="3"/>
+        <v>46.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="L7" s="15">
+        <v>100</v>
+      </c>
+      <c r="M7" s="6">
+        <v>70</v>
+      </c>
+      <c r="N7" s="6">
+        <v>60</v>
+      </c>
+      <c r="O7" s="6">
+        <v>60</v>
+      </c>
+      <c r="P7" s="6">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>80</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="18">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="T7" s="15">
+        <v>70</v>
+      </c>
+      <c r="U7" s="15">
+        <v>90</v>
+      </c>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="18">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="23">
+        <f t="shared" si="3"/>
+        <v>45.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="L8" s="15">
+        <v>100</v>
+      </c>
+      <c r="M8" s="6">
+        <v>100</v>
+      </c>
+      <c r="N8" s="6">
+        <v>80</v>
+      </c>
+      <c r="O8" s="6">
+        <v>60</v>
+      </c>
+      <c r="P8" s="6">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>50</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="18">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="T8" s="15">
+        <v>70</v>
+      </c>
+      <c r="U8" s="15">
+        <v>85</v>
+      </c>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="18">
+        <f t="shared" si="4"/>
+        <v>77.5</v>
+      </c>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="23">
+        <f t="shared" si="3"/>
+        <v>44.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>100</v>
+      </c>
+      <c r="N9" s="6">
+        <v>80</v>
+      </c>
+      <c r="O9" s="6">
+        <v>90</v>
+      </c>
+      <c r="P9" s="6">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>95</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="18">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="T9" s="15">
+        <v>75</v>
+      </c>
+      <c r="U9" s="15">
+        <v>80</v>
+      </c>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="18">
+        <f t="shared" si="4"/>
+        <v>77.5</v>
+      </c>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="23">
+        <f t="shared" si="3"/>
+        <v>43.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>75</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>100</v>
+      </c>
+      <c r="P10" s="6">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>95</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="18">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="T10" s="15">
+        <v>95</v>
+      </c>
+      <c r="U10" s="15">
+        <v>85</v>
+      </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="18">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="23">
+        <f t="shared" si="3"/>
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>60</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>90</v>
+      </c>
+      <c r="P11" s="6">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>95</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="18">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="T11" s="15">
+        <v>75</v>
+      </c>
+      <c r="U11" s="15">
+        <v>80</v>
+      </c>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="18">
+        <f t="shared" si="4"/>
+        <v>77.5</v>
+      </c>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="23">
+        <f t="shared" si="3"/>
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>60</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="T12" s="15">
+        <v>90</v>
+      </c>
+      <c r="U12" s="15">
+        <v>90</v>
+      </c>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="18">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="23">
+        <f t="shared" si="3"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="18">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="L13" s="15">
+        <v>100</v>
+      </c>
+      <c r="M13" s="6">
+        <v>80</v>
+      </c>
+      <c r="N13" s="6">
+        <v>80</v>
+      </c>
+      <c r="O13" s="6">
+        <v>60</v>
+      </c>
+      <c r="P13" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>95</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="18">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="23">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>70</v>
+      </c>
+      <c r="N14" s="6">
+        <v>60</v>
+      </c>
+      <c r="O14" s="6">
+        <v>60</v>
+      </c>
+      <c r="P14" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>70</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="18">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="23">
+        <f t="shared" si="3"/>
+        <v>20.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>70</v>
+      </c>
+      <c r="N15" s="6">
+        <v>60</v>
+      </c>
+      <c r="O15" s="6">
+        <v>60</v>
+      </c>
+      <c r="P15" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>65</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="18">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="23">
+        <f t="shared" si="3"/>
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>50</v>
+      </c>
+      <c r="N16" s="6">
+        <v>70</v>
+      </c>
+      <c r="O16" s="6">
+        <v>60</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>95</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="18">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="18">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="L17" s="15">
+        <v>100</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>60</v>
+      </c>
+      <c r="O17" s="6">
+        <v>60</v>
+      </c>
+      <c r="P17" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="18">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="23">
+        <f t="shared" si="3"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="L18" s="15">
+        <v>100</v>
+      </c>
+      <c r="M18" s="6">
+        <v>60</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>65</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="18">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="23">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="18">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>60</v>
+      </c>
+      <c r="O19" s="6">
+        <v>60</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>65</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="18">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="23">
+        <f t="shared" si="3"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="18">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>60</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>50</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>85</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="18">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="23">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="18">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>60</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>50</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>65</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="18">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <v>0</v>
+      </c>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="23">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>30</v>
+      </c>
+      <c r="U22" s="15">
+        <v>30</v>
+      </c>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="18">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="23">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>60</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>40</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="18">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="T23" s="15">
+        <v>0</v>
+      </c>
+      <c r="U23" s="15">
+        <v>0</v>
+      </c>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="23">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>85</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6"/>
+      <c r="S24" s="18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="23">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>60</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="23">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="17">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+    </row>
+    <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+    </row>
+    <row r="37" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+    </row>
+    <row r="38" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+    </row>
+    <row r="39" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+    </row>
+    <row r="40" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+    </row>
+    <row r="41" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+    </row>
+    <row r="42" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+    </row>
+    <row r="43" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+    </row>
+    <row r="44" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+    </row>
+    <row r="45" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+    </row>
+    <row r="46" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+    </row>
+    <row r="47" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+    </row>
+    <row r="48" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+    </row>
+    <row r="49" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+    </row>
+    <row r="50" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+    </row>
+    <row r="51" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+    </row>
+    <row r="52" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+    </row>
+    <row r="53" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+    </row>
+    <row r="54" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+    </row>
+    <row r="55" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+    </row>
+    <row r="56" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+    </row>
+    <row r="57" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+    </row>
+    <row r="58" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+    </row>
+    <row r="59" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+    </row>
+    <row r="60" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+    </row>
+    <row r="61" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+    </row>
+    <row r="62" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+    </row>
+    <row r="63" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+    </row>
+    <row r="64" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+    </row>
+    <row r="65" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+    </row>
+    <row r="66" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+    </row>
+    <row r="67" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+    </row>
+    <row r="68" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+    </row>
+    <row r="69" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+    </row>
+    <row r="70" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+    </row>
+    <row r="71" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+    </row>
+    <row r="72" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+    </row>
+    <row r="73" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+    </row>
+    <row r="74" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+    </row>
+    <row r="75" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+    </row>
+    <row r="76" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+    </row>
+    <row r="77" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+    </row>
+    <row r="78" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+    </row>
+    <row r="79" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+    </row>
+    <row r="80" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+    </row>
+    <row r="81" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:J33">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+      <formula>0.1</formula>
+      <formula>1.99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K33">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F325F88-05E0-41BA-AA33-7B854FBE8033}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S33">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22C9DC09-E768-4CCB-8C68-41B5A3538743}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y33">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77C9A01F-EA1B-4605-8E36-B0BAF3BB9AE5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE33">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{56E5E5A3-F957-491E-9C01-522DE745411E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AG33">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:R33">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:X33">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>80</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F325F88-05E0-41BA-AA33-7B854FBE8033}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K3:K33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S3:S33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77C9A01F-EA1B-4605-8E36-B0BAF3BB9AE5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y3:Y33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{56E5E5A3-F957-491E-9C01-522DE745411E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5577,7 +9464,7 @@
           <xm:sqref>AE3:AE33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
+          <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -803,7 +803,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1013,6 +1013,44 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1297,11 +1335,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1311,22 +1349,20 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.5546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
     <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.77734375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
         <v>5</v>
       </c>
@@ -1356,18 +1392,15 @@
         <v>106</v>
       </c>
       <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="19" t="s">
+      <c r="V1" s="41"/>
+      <c r="W1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>91</v>
       </c>
@@ -1431,26 +1464,17 @@
       <c r="U2" s="31">
         <v>2</v>
       </c>
-      <c r="V2" s="31">
-        <v>3</v>
-      </c>
-      <c r="W2" s="31">
-        <v>4</v>
-      </c>
-      <c r="X2" s="31">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="32" t="s">
+      <c r="V2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="W2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="X2" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
@@ -1478,10 +1502,12 @@
       <c r="I3" s="7">
         <v>2</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="K3" s="18">
         <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>96.999999999999986</v>
+        <v>108</v>
       </c>
       <c r="L3" s="15">
         <v>90</v>
@@ -1501,10 +1527,13 @@
       <c r="Q3" s="6">
         <v>100</v>
       </c>
-      <c r="R3" s="6"/>
+      <c r="R3" s="6">
+        <f>J3*50+20</f>
+        <v>75</v>
+      </c>
       <c r="S3" s="18">
         <f>SUM(L3:R3)/(A$1)</f>
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="T3" s="15">
         <v>100</v>
@@ -1512,31 +1541,28 @@
       <c r="U3" s="15">
         <v>110</v>
       </c>
-      <c r="V3" s="15"/>
+      <c r="V3" s="18">
+        <f>SUM(T3:U3)/2</f>
+        <v>105</v>
+      </c>
       <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="18">
-        <f>SUM(T3:X3)/2</f>
-        <v>105</v>
-      </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="23">
-        <f>K3*0.2+S3*0.25+Y3*0.25+Z3*0.3</f>
-        <v>74.650000000000006</v>
-      </c>
-      <c r="AB3" s="1" t="s">
+      <c r="X3" s="23">
+        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -1551,15 +1577,17 @@
         <v>2</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
       <c r="K4" s="18">
         <f>100*SUM(D4:J4)/(2*A$1)</f>
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="L4" s="15">
         <v>0</v>
@@ -1571,18 +1599,21 @@
         <v>100</v>
       </c>
       <c r="O4" s="6">
+        <v>95</v>
+      </c>
+      <c r="P4" s="6">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>90</v>
+      </c>
+      <c r="R4" s="6">
+        <f>J4*50</f>
         <v>100</v>
       </c>
-      <c r="P4" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>95</v>
-      </c>
-      <c r="R4" s="6"/>
       <c r="S4" s="18">
         <f>SUM(L4:R4)/(A$1)</f>
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="T4" s="15">
         <v>95</v>
@@ -1590,31 +1621,28 @@
       <c r="U4" s="15">
         <v>100</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="18">
+        <f>SUM(T4:U4)/2</f>
+        <v>97.5</v>
+      </c>
       <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="18">
-        <f>SUM(T4:X4)/2</f>
-        <v>97.5</v>
-      </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="23">
-        <f>K4*0.2+S4*0.25+Y4*0.25+Z4*0.3</f>
-        <v>69.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="23">
+        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3</f>
+        <v>76.525000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1626,27 +1654,29 @@
         <v>2</v>
       </c>
       <c r="H5" s="7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
       <c r="K5" s="18">
         <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>96.999999999999986</v>
+        <v>140</v>
       </c>
       <c r="L5" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M5" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N5" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O5" s="6">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="P5" s="6">
         <v>90</v>
@@ -1654,39 +1684,39 @@
       <c r="Q5" s="6">
         <v>90</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="6">
+        <f>J5*50-10</f>
+        <v>90</v>
+      </c>
       <c r="S5" s="18">
         <f>SUM(L5:R5)/(A$1)</f>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="T5" s="15">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="U5" s="15">
-        <v>100</v>
-      </c>
-      <c r="V5" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="V5" s="18">
+        <f>SUM(T5:U5)/2</f>
+        <v>80</v>
+      </c>
       <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="18">
-        <f>SUM(T5:X5)/2</f>
-        <v>97.5</v>
-      </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="23">
-        <f>K5*0.2+S5*0.25+Y5*0.25+Z5*0.3</f>
-        <v>67.525000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="23">
+        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3</f>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
@@ -1701,21 +1731,23 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
       <c r="K6" s="18">
         <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="L6" s="15">
         <v>100</v>
       </c>
       <c r="M6" s="6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N6" s="6">
         <v>60</v>
@@ -1724,15 +1756,18 @@
         <v>60</v>
       </c>
       <c r="P6" s="6">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>80</v>
+      </c>
+      <c r="R6" s="6">
+        <f>J6*50-10</f>
         <v>90</v>
       </c>
-      <c r="Q6" s="6">
-        <v>90</v>
-      </c>
-      <c r="R6" s="6"/>
       <c r="S6" s="18">
         <f>SUM(L6:R6)/(A$1)</f>
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="T6" s="15">
         <v>70</v>
@@ -1740,28 +1775,25 @@
       <c r="U6" s="15">
         <v>90</v>
       </c>
-      <c r="V6" s="15"/>
+      <c r="V6" s="18">
+        <f>SUM(T6:U6)/2</f>
+        <v>80</v>
+      </c>
       <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="18">
-        <f>SUM(T6:X6)/2</f>
-        <v>80</v>
-      </c>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="23">
-        <f>K6*0.2+S6*0.25+Y6*0.25+Z6*0.3</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="23">
+        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3</f>
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -1776,24 +1808,26 @@
         <v>2</v>
       </c>
       <c r="H7" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.9</v>
+      </c>
       <c r="K7" s="18">
         <f>100*SUM(D7:J7)/(2*A$1)</f>
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
       </c>
       <c r="M7" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N7" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O7" s="6">
         <v>60</v>
@@ -1802,44 +1836,44 @@
         <v>70</v>
       </c>
       <c r="Q7" s="6">
-        <v>80</v>
-      </c>
-      <c r="R7" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="R7" s="6">
+        <f>J7*50-10</f>
+        <v>85</v>
+      </c>
       <c r="S7" s="18">
         <f>SUM(L7:R7)/(A$1)</f>
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="T7" s="15">
         <v>70</v>
       </c>
       <c r="U7" s="15">
-        <v>90</v>
-      </c>
-      <c r="V7" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="V7" s="18">
+        <f>SUM(T7:U7)/2</f>
+        <v>77.5</v>
+      </c>
       <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="18">
-        <f>SUM(T7:X7)/2</f>
-        <v>80</v>
-      </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="23">
-        <f>K7*0.2+S7*0.25+Y7*0.25+Z7*0.3</f>
-        <v>65.599999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="23">
+        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3</f>
+        <v>72.424999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -1854,15 +1888,17 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.9</v>
+      </c>
       <c r="K8" s="18">
         <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L8" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6">
         <v>100</v>
@@ -1871,47 +1907,47 @@
         <v>80</v>
       </c>
       <c r="O8" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P8" s="6">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="6">
-        <v>50</v>
-      </c>
-      <c r="R8" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="R8" s="6">
+        <f>J8*50-10</f>
+        <v>85</v>
+      </c>
       <c r="S8" s="18">
         <f>SUM(L8:R8)/(A$1)</f>
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="T8" s="15">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U8" s="15">
-        <v>85</v>
-      </c>
-      <c r="V8" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="V8" s="18">
+        <f>SUM(T8:U8)/2</f>
+        <v>77.5</v>
+      </c>
       <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="18">
-        <f>SUM(T8:X8)/2</f>
-        <v>77.5</v>
-      </c>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="23">
-        <f>K8*0.2+S8*0.25+Y8*0.25+Z8*0.3</f>
-        <v>64.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="23">
+        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3</f>
+        <v>70.424999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D9" s="12">
         <v>0</v>
@@ -1931,7 +1967,9 @@
       <c r="I9" s="7">
         <v>2</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
       <c r="K9" s="18">
         <f>100*SUM(D9:J9)/(2*A$1)</f>
         <v>100</v>
@@ -1943,42 +1981,42 @@
         <v>100</v>
       </c>
       <c r="N9" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O9" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P9" s="6">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="6">
         <v>95</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="6">
+        <f>J9*50</f>
+        <v>0</v>
+      </c>
       <c r="S9" s="18">
         <f>SUM(L9:R9)/(A$1)</f>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="T9" s="15">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="U9" s="15">
-        <v>80</v>
-      </c>
-      <c r="V9" s="15"/>
+        <v>100</v>
+      </c>
+      <c r="V9" s="18">
+        <f>SUM(T9:U9)/2</f>
+        <v>97.5</v>
+      </c>
       <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="18">
-        <f>SUM(T9:X9)/2</f>
-        <v>77.5</v>
-      </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="23">
-        <f>K9*0.2+S9*0.25+Y9*0.25+Z9*0.3</f>
-        <v>62.375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="23">
+        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3</f>
+        <v>69.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
@@ -2006,10 +2044,12 @@
       <c r="I10" s="7">
         <v>2</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
       <c r="K10" s="18">
         <f>100*SUM(D10:J10)/(2*A$1)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -2029,10 +2069,13 @@
       <c r="Q10" s="6">
         <v>95</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="6">
+        <f>J10*50-30</f>
+        <v>70</v>
+      </c>
       <c r="S10" s="18">
         <f>SUM(L10:R10)/(A$1)</f>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="T10" s="15">
         <v>95</v>
@@ -2040,20 +2083,17 @@
       <c r="U10" s="15">
         <v>85</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="18">
+        <f>SUM(T10:U10)/2</f>
+        <v>90</v>
+      </c>
       <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="18">
-        <f>SUM(T10:X10)/2</f>
-        <v>90</v>
-      </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="23">
-        <f>K10*0.2+S10*0.25+Y10*0.25+Z10*0.3</f>
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="23">
+        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
@@ -2081,10 +2121,12 @@
       <c r="I11" s="7">
         <v>2</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
       <c r="K11" s="18">
         <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -2104,10 +2146,13 @@
       <c r="Q11" s="6">
         <v>95</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6">
+        <f>J11*50-10</f>
+        <v>90</v>
+      </c>
       <c r="S11" s="18">
         <f>SUM(L11:R11)/(A$1)</f>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="T11" s="15">
         <v>75</v>
@@ -2115,20 +2160,17 @@
       <c r="U11" s="15">
         <v>80</v>
       </c>
-      <c r="V11" s="15"/>
+      <c r="V11" s="18">
+        <f>SUM(T11:U11)/2</f>
+        <v>77.5</v>
+      </c>
       <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="18">
-        <f>SUM(T11:X11)/2</f>
-        <v>77.5</v>
-      </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="23">
-        <f>K11*0.2+S11*0.25+Y11*0.25+Z11*0.3</f>
-        <v>52.375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="23">
+        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3</f>
+        <v>60.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>67</v>
       </c>
@@ -2156,10 +2198,12 @@
       <c r="I12" s="7">
         <v>2</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7">
+        <v>1.9</v>
+      </c>
       <c r="K12" s="18">
         <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="L12" s="15">
         <v>100</v>
@@ -2179,10 +2223,13 @@
       <c r="Q12" s="6">
         <v>95</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6">
+        <f>J12*50-5</f>
+        <v>90</v>
+      </c>
       <c r="S12" s="18">
         <f>SUM(L12:R12)/(A$1)</f>
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="T12" s="15">
         <v>0</v>
@@ -2190,20 +2237,17 @@
       <c r="U12" s="15">
         <v>0</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="18">
+        <f>SUM(T12:U12)/2</f>
+        <v>0</v>
+      </c>
       <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="18">
-        <f>SUM(T12:X12)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="23">
-        <f>K12*0.2+S12*0.25+Y12*0.25+Z12*0.3</f>
-        <v>48.55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="23">
+        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3</f>
+        <v>56.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>22</v>
       </c>
@@ -2231,10 +2275,12 @@
       <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
       <c r="K13" s="18">
         <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -2254,10 +2300,13 @@
       <c r="Q13" s="6">
         <v>70</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6">
+        <f>J13*50-10-40</f>
+        <v>50</v>
+      </c>
       <c r="S13" s="18">
         <f>SUM(L13:R13)/(A$1)</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="T13" s="15">
         <v>0</v>
@@ -2265,20 +2314,17 @@
       <c r="U13" s="15">
         <v>0</v>
       </c>
-      <c r="V13" s="15"/>
+      <c r="V13" s="18">
+        <f>SUM(T13:U13)/2</f>
+        <v>0</v>
+      </c>
       <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="18">
-        <f>SUM(T13:X13)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="23">
-        <f>K13*0.2+S13*0.25+Y13*0.25+Z13*0.3</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="23">
+        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
@@ -2306,10 +2352,12 @@
       <c r="I14" s="7">
         <v>2</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
       <c r="K14" s="18">
         <f>100*SUM(D14:J14)/(2*A$1)</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
@@ -2329,10 +2377,13 @@
       <c r="Q14" s="6">
         <v>65</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="6">
+        <f>J14*50-10-20</f>
+        <v>70</v>
+      </c>
       <c r="S14" s="18">
         <f>SUM(L14:R14)/(A$1)</f>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="T14" s="15">
         <v>0</v>
@@ -2340,20 +2391,17 @@
       <c r="U14" s="15">
         <v>0</v>
       </c>
-      <c r="V14" s="15"/>
+      <c r="V14" s="18">
+        <f>SUM(T14:U14)/2</f>
+        <v>0</v>
+      </c>
       <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="18">
-        <f>SUM(T14:X14)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="23">
-        <f>K14*0.2+S14*0.25+Y14*0.25+Z14*0.3</f>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="23">
+        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3</f>
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>43</v>
       </c>
@@ -2381,10 +2429,12 @@
       <c r="I15" s="7">
         <v>2</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
       <c r="K15" s="18">
         <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2404,10 +2454,13 @@
       <c r="Q15" s="6">
         <v>95</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="6">
+        <f>J15*50-10</f>
+        <v>90</v>
+      </c>
       <c r="S15" s="18">
         <f>SUM(L15:R15)/(A$1)</f>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="T15" s="15">
         <v>0</v>
@@ -2415,149 +2468,153 @@
       <c r="U15" s="15">
         <v>0</v>
       </c>
-      <c r="V15" s="15"/>
+      <c r="V15" s="18">
+        <f>SUM(T15:U15)/2</f>
+        <v>0</v>
+      </c>
       <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="18">
-        <f>SUM(T15:X15)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="23">
-        <f>K15*0.2+S15*0.25+Y15*0.25+Z15*0.3</f>
-        <v>29.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="23">
+        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3</f>
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D16" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
       <c r="K16" s="18">
         <f>100*SUM(D16:J16)/(2*A$1)</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
       </c>
       <c r="N16" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O16" s="6">
         <v>60</v>
       </c>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
-      <c r="R16" s="6"/>
+      <c r="R16" s="6">
+        <f>J16*50-40</f>
+        <v>60</v>
+      </c>
       <c r="S16" s="18">
         <f>SUM(L16:R16)/(A$1)</f>
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="T16" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U16" s="15">
-        <v>90</v>
-      </c>
-      <c r="V16" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="18">
+        <f>SUM(T16:U16)/2</f>
+        <v>0</v>
+      </c>
       <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="18">
-        <f>SUM(T16:X16)/2</f>
-        <v>90</v>
-      </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="23">
-        <f>K16*0.2+S16*0.25+Y16*0.25+Z16*0.3</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="23">
+        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3</f>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
       </c>
       <c r="E17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="7">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
       <c r="K17" s="18">
         <f>100*SUM(D17:J17)/(2*A$1)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="15">
         <v>100</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>65</v>
+      </c>
+      <c r="R17" s="6">
+        <f>J17*50-40</f>
         <v>60</v>
       </c>
-      <c r="O17" s="6">
-        <v>60</v>
-      </c>
-      <c r="P17" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6"/>
       <c r="S17" s="18">
         <f>SUM(L17:R17)/(A$1)</f>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T17" s="15">
         <v>0</v>
@@ -2565,40 +2622,37 @@
       <c r="U17" s="15">
         <v>0</v>
       </c>
-      <c r="V17" s="15"/>
+      <c r="V17" s="18">
+        <f>SUM(T17:U17)/2</f>
+        <v>0</v>
+      </c>
       <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="18">
-        <f>SUM(T17:X17)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="23">
-        <f>K17*0.2+S17*0.25+Y17*0.25+Z17*0.3</f>
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="23">
+        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3</f>
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D18" s="12">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2606,22 +2660,24 @@
       <c r="I18" s="7">
         <v>2</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
       <c r="K18" s="18">
         <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <v>90</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
         <v>60</v>
       </c>
-      <c r="L18" s="15">
-        <v>100</v>
-      </c>
-      <c r="M18" s="6">
+      <c r="O18" s="6">
         <v>60</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
       </c>
       <c r="P18" s="6">
         <v>0</v>
@@ -2629,10 +2685,13 @@
       <c r="Q18" s="6">
         <v>65</v>
       </c>
-      <c r="R18" s="6"/>
+      <c r="R18" s="6">
+        <f>J18*50-10-10</f>
+        <v>80</v>
+      </c>
       <c r="S18" s="18">
         <f>SUM(L18:R18)/(A$1)</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="T18" s="15">
         <v>0</v>
@@ -2640,37 +2699,34 @@
       <c r="U18" s="15">
         <v>0</v>
       </c>
-      <c r="V18" s="15"/>
+      <c r="V18" s="18">
+        <f>SUM(T18:U18)/2</f>
+        <v>0</v>
+      </c>
       <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="18">
-        <f>SUM(T18:X18)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="23">
-        <f>K18*0.2+S18*0.25+Y18*0.25+Z18*0.3</f>
-        <v>23.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="23">
+        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D19" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7">
         <v>2</v>
@@ -2679,12 +2735,14 @@
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
       <c r="K19" s="18">
         <f>100*SUM(D19:J19)/(2*A$1)</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -2693,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O19" s="6">
         <v>60</v>
@@ -2702,33 +2760,33 @@
         <v>0</v>
       </c>
       <c r="Q19" s="6">
-        <v>65</v>
-      </c>
-      <c r="R19" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <f>J19*50</f>
+        <v>0</v>
+      </c>
       <c r="S19" s="18">
         <f>SUM(L19:R19)/(A$1)</f>
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="T19" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U19" s="15">
-        <v>0</v>
-      </c>
-      <c r="V19" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="V19" s="18">
+        <f>SUM(T19:U19)/2</f>
+        <v>90</v>
+      </c>
       <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="18">
-        <f>SUM(T19:X19)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="23">
-        <f>K19*0.2+S19*0.25+Y19*0.25+Z19*0.3</f>
-        <v>23.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="23">
+        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>49</v>
       </c>
@@ -2756,10 +2814,12 @@
       <c r="I20" s="7">
         <v>1.8</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
       <c r="K20" s="18">
         <f>100*SUM(D20:J20)/(2*A$1)</f>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2779,10 +2839,13 @@
       <c r="Q20" s="6">
         <v>85</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="R20" s="6">
+        <f>J20*50-5</f>
+        <v>95</v>
+      </c>
       <c r="S20" s="18">
         <f>SUM(L20:R20)/(A$1)</f>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="T20" s="15">
         <v>0</v>
@@ -2790,20 +2853,17 @@
       <c r="U20" s="15">
         <v>0</v>
       </c>
-      <c r="V20" s="15"/>
+      <c r="V20" s="18">
+        <f>SUM(T20:U20)/2</f>
+        <v>0</v>
+      </c>
       <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="18">
-        <f>SUM(T20:X20)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="23">
-        <f>K20*0.2+S20*0.25+Y20*0.25+Z20*0.3</f>
-        <v>20.149999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="23">
+        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3</f>
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>2</v>
       </c>
@@ -2831,10 +2891,12 @@
       <c r="I21" s="7">
         <v>2</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <v>2</v>
+      </c>
       <c r="K21" s="18">
         <f>100*SUM(D21:J21)/(2*A$1)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
@@ -2854,10 +2916,13 @@
       <c r="Q21" s="6">
         <v>65</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="R21" s="6">
+        <f>J21*50-20</f>
+        <v>80</v>
+      </c>
       <c r="S21" s="18">
         <f>SUM(L21:R21)/(A$1)</f>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="T21" s="15">
         <v>0</v>
@@ -2865,20 +2930,17 @@
       <c r="U21" s="15">
         <v>0</v>
       </c>
-      <c r="V21" s="15"/>
+      <c r="V21" s="18">
+        <f>SUM(T21:U21)/2</f>
+        <v>0</v>
+      </c>
       <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="18">
-        <f>SUM(T21:X21)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="23">
-        <f>K21*0.2+S21*0.25+Y21*0.25+Z21*0.3</f>
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="23">
+        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3</f>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="3" t="s">
         <v>101</v>
@@ -2927,7 +2989,10 @@
       <c r="Q22" s="6">
         <v>40</v>
       </c>
-      <c r="R22" s="6"/>
+      <c r="R22" s="6">
+        <f>J22*50</f>
+        <v>0</v>
+      </c>
       <c r="S22" s="18">
         <f>SUM(L22:R22)/(A$1)</f>
         <v>22</v>
@@ -2938,20 +3003,17 @@
       <c r="U22" s="15">
         <v>0</v>
       </c>
-      <c r="V22" s="15"/>
+      <c r="V22" s="18">
+        <f>SUM(T22:U22)/2</f>
+        <v>0</v>
+      </c>
       <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="18">
-        <f>SUM(T22:X22)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="23">
-        <f>K22*0.2+S22*0.25+Y22*0.25+Z22*0.3</f>
+      <c r="X22" s="23">
+        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3</f>
         <v>13.5</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>28</v>
       </c>
@@ -3002,7 +3064,10 @@
       <c r="Q23" s="6">
         <v>0</v>
       </c>
-      <c r="R23" s="6"/>
+      <c r="R23" s="6">
+        <f>J23*50</f>
+        <v>0</v>
+      </c>
       <c r="S23" s="18">
         <f>SUM(L23:R23)/(A$1)</f>
         <v>0</v>
@@ -3013,20 +3078,17 @@
       <c r="U23" s="15">
         <v>30</v>
       </c>
-      <c r="V23" s="15"/>
+      <c r="V23" s="18">
+        <f>SUM(T23:U23)/2</f>
+        <v>30</v>
+      </c>
       <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="18">
-        <f>SUM(T23:X23)/2</f>
-        <v>30</v>
-      </c>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="23">
-        <f>K23*0.2+S23*0.25+Y23*0.25+Z23*0.3</f>
+      <c r="X23" s="23">
+        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
@@ -3077,7 +3139,10 @@
       <c r="Q24" s="6">
         <v>0</v>
       </c>
-      <c r="R24" s="6"/>
+      <c r="R24" s="6">
+        <f>J24*50</f>
+        <v>0</v>
+      </c>
       <c r="S24" s="18">
         <f>SUM(L24:R24)/(A$1)</f>
         <v>17</v>
@@ -3088,20 +3153,17 @@
       <c r="U24" s="15">
         <v>0</v>
       </c>
-      <c r="V24" s="15"/>
+      <c r="V24" s="18">
+        <f>SUM(T24:U24)/2</f>
+        <v>0</v>
+      </c>
       <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="18">
-        <f>SUM(T24:X24)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="23">
-        <f>K24*0.2+S24*0.25+Y24*0.25+Z24*0.3</f>
+      <c r="X24" s="23">
+        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3</f>
         <v>7.25</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
@@ -3152,7 +3214,10 @@
       <c r="Q25" s="6">
         <v>0</v>
       </c>
-      <c r="R25" s="6"/>
+      <c r="R25" s="6">
+        <f>J25*50</f>
+        <v>0</v>
+      </c>
       <c r="S25" s="18">
         <f>SUM(L25:R25)/(A$1)</f>
         <v>12</v>
@@ -3163,20 +3228,17 @@
       <c r="U25" s="15">
         <v>0</v>
       </c>
-      <c r="V25" s="15"/>
+      <c r="V25" s="18">
+        <f>SUM(T25:U25)/2</f>
+        <v>0</v>
+      </c>
       <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="18">
-        <f>SUM(T25:X25)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="23">
-        <f>K25*0.2+S25*0.25+Y25*0.25+Z25*0.3</f>
+      <c r="X25" s="23">
+        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3</f>
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
@@ -3227,7 +3289,10 @@
       <c r="Q26" s="6">
         <v>0</v>
       </c>
-      <c r="R26" s="6"/>
+      <c r="R26" s="6">
+        <f>J26*50</f>
+        <v>0</v>
+      </c>
       <c r="S26" s="18">
         <f>SUM(L26:R26)/(A$1)</f>
         <v>0</v>
@@ -3238,20 +3303,17 @@
       <c r="U26" s="15">
         <v>0</v>
       </c>
-      <c r="V26" s="15"/>
+      <c r="V26" s="18">
+        <f>SUM(T26:U26)/2</f>
+        <v>0</v>
+      </c>
       <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="18">
-        <f>SUM(T26:X26)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="23">
-        <f>K26*0.2+S26*0.25+Y26*0.25+Z26*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="23">
+        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
@@ -3302,7 +3364,10 @@
       <c r="Q27" s="6">
         <v>0</v>
       </c>
-      <c r="R27" s="6"/>
+      <c r="R27" s="6">
+        <f>J27*50</f>
+        <v>0</v>
+      </c>
       <c r="S27" s="18">
         <f>SUM(L27:R27)/(A$1)</f>
         <v>0</v>
@@ -3313,20 +3378,17 @@
       <c r="U27" s="15">
         <v>0</v>
       </c>
-      <c r="V27" s="15"/>
+      <c r="V27" s="18">
+        <f>SUM(T27:U27)/2</f>
+        <v>0</v>
+      </c>
       <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="18">
-        <f>SUM(T27:X27)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="23">
-        <f>K27*0.2+S27*0.25+Y27*0.25+Z27*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="23">
+        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>19</v>
       </c>
@@ -3377,7 +3439,10 @@
       <c r="Q28" s="6">
         <v>0</v>
       </c>
-      <c r="R28" s="6"/>
+      <c r="R28" s="6">
+        <f>J28*50</f>
+        <v>0</v>
+      </c>
       <c r="S28" s="18">
         <f>SUM(L28:R28)/(A$1)</f>
         <v>0</v>
@@ -3388,20 +3453,17 @@
       <c r="U28" s="15">
         <v>0</v>
       </c>
-      <c r="V28" s="15"/>
+      <c r="V28" s="18">
+        <f>SUM(T28:U28)/2</f>
+        <v>0</v>
+      </c>
       <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="18">
-        <f>SUM(T28:X28)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="23">
-        <f>K28*0.2+S28*0.25+Y28*0.25+Z28*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="23">
+        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>34</v>
       </c>
@@ -3452,7 +3514,10 @@
       <c r="Q29" s="6">
         <v>0</v>
       </c>
-      <c r="R29" s="6"/>
+      <c r="R29" s="6">
+        <f>J29*50</f>
+        <v>0</v>
+      </c>
       <c r="S29" s="18">
         <f>SUM(L29:R29)/(A$1)</f>
         <v>0</v>
@@ -3463,20 +3528,17 @@
       <c r="U29" s="15">
         <v>0</v>
       </c>
-      <c r="V29" s="15"/>
+      <c r="V29" s="18">
+        <f>SUM(T29:U29)/2</f>
+        <v>0</v>
+      </c>
       <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="18">
-        <f>SUM(T29:X29)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="23">
-        <f>K29*0.2+S29*0.25+Y29*0.25+Z29*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="23">
+        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>61</v>
       </c>
@@ -3527,7 +3589,10 @@
       <c r="Q30" s="6">
         <v>0</v>
       </c>
-      <c r="R30" s="6"/>
+      <c r="R30" s="6">
+        <f>J30*50</f>
+        <v>0</v>
+      </c>
       <c r="S30" s="18">
         <f>SUM(L30:R30)/(A$1)</f>
         <v>0</v>
@@ -3538,20 +3603,17 @@
       <c r="U30" s="15">
         <v>0</v>
       </c>
-      <c r="V30" s="15"/>
+      <c r="V30" s="18">
+        <f>SUM(T30:U30)/2</f>
+        <v>0</v>
+      </c>
       <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="18">
-        <f>SUM(T30:X30)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="23">
-        <f>K30*0.2+S30*0.25+Y30*0.25+Z30*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="23">
+        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>64</v>
       </c>
@@ -3602,7 +3664,10 @@
       <c r="Q31" s="6">
         <v>0</v>
       </c>
-      <c r="R31" s="6"/>
+      <c r="R31" s="6">
+        <f>J31*50</f>
+        <v>0</v>
+      </c>
       <c r="S31" s="18">
         <f>SUM(L31:R31)/(A$1)</f>
         <v>0</v>
@@ -3613,20 +3678,17 @@
       <c r="U31" s="15">
         <v>0</v>
       </c>
-      <c r="V31" s="15"/>
+      <c r="V31" s="18">
+        <f>SUM(T31:U31)/2</f>
+        <v>0</v>
+      </c>
       <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="18">
-        <f>SUM(T31:X31)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="23">
-        <f>K31*0.2+S31*0.25+Y31*0.25+Z31*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="23">
+        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>70</v>
       </c>
@@ -3677,7 +3739,10 @@
       <c r="Q32" s="6">
         <v>0</v>
       </c>
-      <c r="R32" s="6"/>
+      <c r="R32" s="6">
+        <f>J32*50</f>
+        <v>0</v>
+      </c>
       <c r="S32" s="18">
         <f>SUM(L32:R32)/(A$1)</f>
         <v>0</v>
@@ -3688,20 +3753,17 @@
       <c r="U32" s="15">
         <v>0</v>
       </c>
-      <c r="V32" s="15"/>
+      <c r="V32" s="18">
+        <f>SUM(T32:U32)/2</f>
+        <v>0</v>
+      </c>
       <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="18">
-        <f>SUM(T32:X32)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="23">
-        <f>K32*0.2+S32*0.25+Y32*0.25+Z32*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X32" s="23">
+        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>76</v>
       </c>
@@ -3752,7 +3814,10 @@
       <c r="Q33" s="6">
         <v>0</v>
       </c>
-      <c r="R33" s="17"/>
+      <c r="R33" s="6">
+        <f>J33*50</f>
+        <v>0</v>
+      </c>
       <c r="S33" s="18">
         <f>SUM(L33:R33)/(A$1)</f>
         <v>0</v>
@@ -3763,20 +3828,17 @@
       <c r="U33" s="15">
         <v>0</v>
       </c>
-      <c r="V33" s="15"/>
+      <c r="V33" s="18">
+        <f>SUM(T33:U33)/2</f>
+        <v>0</v>
+      </c>
       <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="18">
-        <f>SUM(T33:X33)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="23">
-        <f>K33*0.2+S33*0.25+Y33*0.25+Z33*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="23">
+        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3785,7 +3847,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3808,11 +3870,8 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3835,11 +3894,8 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3862,11 +3918,8 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3889,11 +3942,8 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3916,11 +3966,8 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-    </row>
-    <row r="40" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3943,11 +3990,8 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3970,11 +4014,8 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3997,11 +4038,8 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4024,11 +4062,8 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-    </row>
-    <row r="44" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4051,11 +4086,8 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-    </row>
-    <row r="45" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4078,11 +4110,8 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-    </row>
-    <row r="46" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4105,11 +4134,8 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-    </row>
-    <row r="47" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4132,11 +4158,8 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-    </row>
-    <row r="48" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4159,11 +4182,8 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-    </row>
-    <row r="49" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4186,11 +4206,8 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-    </row>
-    <row r="50" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4213,11 +4230,8 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-    </row>
-    <row r="51" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4240,11 +4254,8 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-    </row>
-    <row r="52" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4267,11 +4278,8 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-    </row>
-    <row r="53" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4294,11 +4302,8 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-    </row>
-    <row r="54" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4321,11 +4326,8 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-    </row>
-    <row r="55" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4348,11 +4350,8 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-    </row>
-    <row r="56" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4375,11 +4374,8 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-    </row>
-    <row r="57" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4402,11 +4398,8 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-    </row>
-    <row r="58" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4429,11 +4422,8 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-    </row>
-    <row r="59" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4456,11 +4446,8 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-    </row>
-    <row r="60" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4483,11 +4470,8 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-    </row>
-    <row r="61" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4510,11 +4494,8 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-    </row>
-    <row r="62" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4537,11 +4518,8 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-    </row>
-    <row r="63" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4564,11 +4542,8 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-    </row>
-    <row r="64" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4591,11 +4566,8 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-    </row>
-    <row r="65" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4618,11 +4590,8 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-    </row>
-    <row r="66" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4645,11 +4614,8 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-    </row>
-    <row r="67" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4672,11 +4638,8 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-    </row>
-    <row r="68" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4699,11 +4662,8 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-    </row>
-    <row r="69" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4726,11 +4686,8 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-    </row>
-    <row r="70" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4753,11 +4710,8 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-    </row>
-    <row r="71" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4780,11 +4734,8 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-    </row>
-    <row r="72" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4807,11 +4758,8 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-    </row>
-    <row r="73" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4834,11 +4782,8 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-    </row>
-    <row r="74" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4861,11 +4806,8 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-    </row>
-    <row r="75" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4888,11 +4830,8 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-    </row>
-    <row r="76" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4915,11 +4854,8 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-    </row>
-    <row r="77" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4942,11 +4878,8 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-    </row>
-    <row r="78" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4969,11 +4902,8 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-    </row>
-    <row r="79" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4996,11 +4926,8 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-    </row>
-    <row r="80" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -5023,11 +4950,8 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-    </row>
-    <row r="81" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -5050,16 +4974,13 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A3:AB33">
-    <sortCondition descending="1" ref="AA3"/>
+    <sortCondition descending="1" ref="X3"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="L1:S1"/>
   </mergeCells>
@@ -5103,7 +5024,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y33">
+  <conditionalFormatting sqref="V3:V33">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -5117,7 +5038,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA33">
+  <conditionalFormatting sqref="X3:X33">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -5148,7 +5069,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:X33">
+  <conditionalFormatting sqref="T3:U33">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -5202,7 +5123,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y33</xm:sqref>
+          <xm:sqref>V3:V33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -5213,7 +5134,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AA3:AA33</xm:sqref>
+          <xm:sqref>X3:X33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -803,7 +803,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1013,44 +1013,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1339,7 +1301,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1326,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="33"/>
@@ -1506,8 +1468,8 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K3" s="18">
-        <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>108</v>
+        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
+        <v>90</v>
       </c>
       <c r="L3" s="15">
         <v>90</v>
@@ -1532,8 +1494,8 @@
         <v>75</v>
       </c>
       <c r="S3" s="18">
-        <f>SUM(L3:R3)/(A$1)</f>
-        <v>131</v>
+        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
+        <v>109.16666666666667</v>
       </c>
       <c r="T3" s="15">
         <v>100</v>
@@ -1542,13 +1504,13 @@
         <v>110</v>
       </c>
       <c r="V3" s="18">
-        <f>SUM(T3:U3)/2</f>
+        <f t="shared" ref="V3:V33" si="2">SUM(T3:U3)/2</f>
         <v>105</v>
       </c>
       <c r="W3" s="15"/>
       <c r="X3" s="23">
-        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
-        <v>80.599999999999994</v>
+        <f t="shared" ref="X3:X33" si="3">K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
+        <v>71.541666666666671</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>103</v>
@@ -1586,8 +1548,8 @@
         <v>2</v>
       </c>
       <c r="K4" s="18">
-        <f>100*SUM(D4:J4)/(2*A$1)</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>97.5</v>
       </c>
       <c r="L4" s="15">
         <v>0</v>
@@ -1612,8 +1574,8 @@
         <v>100</v>
       </c>
       <c r="S4" s="18">
-        <f>SUM(L4:R4)/(A$1)</f>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>95.833333333333329</v>
       </c>
       <c r="T4" s="15">
         <v>95</v>
@@ -1622,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="V4" s="18">
-        <f>SUM(T4:U4)/2</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="W4" s="15"/>
       <c r="X4" s="23">
-        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3</f>
-        <v>76.525000000000006</v>
+        <f t="shared" si="3"/>
+        <v>67.833333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,8 +1625,8 @@
         <v>2</v>
       </c>
       <c r="K5" s="18">
-        <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>116.66666666666667</v>
       </c>
       <c r="L5" s="15">
         <v>100</v>
@@ -1689,8 +1651,8 @@
         <v>90</v>
       </c>
       <c r="S5" s="18">
-        <f>SUM(L5:R5)/(A$1)</f>
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>91.666666666666671</v>
       </c>
       <c r="T5" s="15">
         <v>70</v>
@@ -1699,13 +1661,13 @@
         <v>90</v>
       </c>
       <c r="V5" s="18">
-        <f>SUM(T5:U5)/2</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="W5" s="15"/>
       <c r="X5" s="23">
-        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3</f>
-        <v>75.5</v>
+        <f t="shared" si="3"/>
+        <v>66.25</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,8 +1702,8 @@
         <v>2</v>
       </c>
       <c r="K6" s="18">
-        <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
       </c>
       <c r="L6" s="15">
         <v>100</v>
@@ -1766,8 +1728,8 @@
         <v>90</v>
       </c>
       <c r="S6" s="18">
-        <f>SUM(L6:R6)/(A$1)</f>
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>88.333333333333329</v>
       </c>
       <c r="T6" s="15">
         <v>70</v>
@@ -1776,13 +1738,13 @@
         <v>90</v>
       </c>
       <c r="V6" s="18">
-        <f>SUM(T6:U6)/2</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="W6" s="15"/>
       <c r="X6" s="23">
-        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3</f>
-        <v>74.099999999999994</v>
+        <f t="shared" si="3"/>
+        <v>65.083333333333329</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,8 +1779,8 @@
         <v>1.9</v>
       </c>
       <c r="K7" s="18">
-        <f>100*SUM(D7:J7)/(2*A$1)</f>
-        <v>129</v>
+        <f t="shared" si="0"/>
+        <v>107.5</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
@@ -1843,8 +1805,8 @@
         <v>85</v>
       </c>
       <c r="S7" s="18">
-        <f>SUM(L7:R7)/(A$1)</f>
-        <v>109</v>
+        <f t="shared" si="1"/>
+        <v>90.833333333333329</v>
       </c>
       <c r="T7" s="15">
         <v>70</v>
@@ -1853,13 +1815,13 @@
         <v>85</v>
       </c>
       <c r="V7" s="18">
-        <f>SUM(T7:U7)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W7" s="15"/>
       <c r="X7" s="23">
-        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3</f>
-        <v>72.424999999999997</v>
+        <f t="shared" si="3"/>
+        <v>63.583333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,8 +1856,8 @@
         <v>1.9</v>
       </c>
       <c r="K8" s="18">
-        <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>119</v>
+        <f t="shared" si="0"/>
+        <v>99.166666666666671</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
@@ -1920,8 +1882,8 @@
         <v>85</v>
       </c>
       <c r="S8" s="18">
-        <f>SUM(L8:R8)/(A$1)</f>
-        <v>109</v>
+        <f t="shared" si="1"/>
+        <v>90.833333333333329</v>
       </c>
       <c r="T8" s="15">
         <v>75</v>
@@ -1930,13 +1892,13 @@
         <v>80</v>
       </c>
       <c r="V8" s="18">
-        <f>SUM(T8:U8)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W8" s="15"/>
       <c r="X8" s="23">
-        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3</f>
-        <v>70.424999999999997</v>
+        <f t="shared" si="3"/>
+        <v>61.916666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,8 +1933,8 @@
         <v>0</v>
       </c>
       <c r="K9" s="18">
-        <f>100*SUM(D9:J9)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
       </c>
       <c r="L9" s="15">
         <v>0</v>
@@ -1997,8 +1959,8 @@
         <v>0</v>
       </c>
       <c r="S9" s="18">
-        <f>SUM(L9:R9)/(A$1)</f>
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>82.5</v>
       </c>
       <c r="T9" s="15">
         <v>95</v>
@@ -2007,13 +1969,13 @@
         <v>100</v>
       </c>
       <c r="V9" s="18">
-        <f>SUM(T9:U9)/2</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="W9" s="15"/>
       <c r="X9" s="23">
-        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3</f>
-        <v>69.125</v>
+        <f t="shared" si="3"/>
+        <v>61.666666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2048,8 +2010,8 @@
         <v>2</v>
       </c>
       <c r="K10" s="18">
-        <f>100*SUM(D10:J10)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -2074,8 +2036,8 @@
         <v>70</v>
       </c>
       <c r="S10" s="18">
-        <f>SUM(L10:R10)/(A$1)</f>
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>71.666666666666671</v>
       </c>
       <c r="T10" s="15">
         <v>95</v>
@@ -2084,13 +2046,13 @@
         <v>85</v>
       </c>
       <c r="V10" s="18">
-        <f>SUM(T10:U10)/2</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="W10" s="15"/>
       <c r="X10" s="23">
-        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>57.083333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,8 +2087,8 @@
         <v>2</v>
       </c>
       <c r="K11" s="18">
-        <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -2151,8 +2113,8 @@
         <v>90</v>
       </c>
       <c r="S11" s="18">
-        <f>SUM(L11:R11)/(A$1)</f>
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>71.666666666666671</v>
       </c>
       <c r="T11" s="15">
         <v>75</v>
@@ -2161,13 +2123,13 @@
         <v>80</v>
       </c>
       <c r="V11" s="18">
-        <f>SUM(T11:U11)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W11" s="15"/>
       <c r="X11" s="23">
-        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3</f>
-        <v>60.875</v>
+        <f t="shared" si="3"/>
+        <v>53.958333333333336</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2202,8 +2164,8 @@
         <v>1.9</v>
       </c>
       <c r="K12" s="18">
-        <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>133</v>
+        <f t="shared" si="0"/>
+        <v>110.83333333333333</v>
       </c>
       <c r="L12" s="15">
         <v>100</v>
@@ -2228,8 +2190,8 @@
         <v>90</v>
       </c>
       <c r="S12" s="18">
-        <f>SUM(L12:R12)/(A$1)</f>
-        <v>121</v>
+        <f t="shared" si="1"/>
+        <v>100.83333333333333</v>
       </c>
       <c r="T12" s="15">
         <v>0</v>
@@ -2238,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="18">
-        <f>SUM(T12:U12)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="15"/>
       <c r="X12" s="23">
-        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3</f>
-        <v>56.85</v>
+        <f t="shared" si="3"/>
+        <v>47.375</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2279,8 +2241,8 @@
         <v>2</v>
       </c>
       <c r="K13" s="18">
-        <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>91.666666666666671</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -2305,8 +2267,8 @@
         <v>50</v>
       </c>
       <c r="S13" s="18">
-        <f>SUM(L13:R13)/(A$1)</f>
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="T13" s="15">
         <v>0</v>
@@ -2315,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="V13" s="18">
-        <f>SUM(T13:U13)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="15"/>
       <c r="X13" s="23">
-        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3</f>
-        <v>38.5</v>
+        <f t="shared" si="3"/>
+        <v>32.083333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,8 +2318,8 @@
         <v>2</v>
       </c>
       <c r="K14" s="18">
-        <f>100*SUM(D14:J14)/(2*A$1)</f>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>91.666666666666671</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
@@ -2382,8 +2344,8 @@
         <v>70</v>
       </c>
       <c r="S14" s="18">
-        <f>SUM(L14:R14)/(A$1)</f>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>55.833333333333336</v>
       </c>
       <c r="T14" s="15">
         <v>0</v>
@@ -2392,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="18">
-        <f>SUM(T14:U14)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="15"/>
       <c r="X14" s="23">
-        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3</f>
-        <v>38.75</v>
+        <f t="shared" si="3"/>
+        <v>32.291666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2433,8 +2395,8 @@
         <v>2</v>
       </c>
       <c r="K15" s="18">
-        <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
@@ -2459,8 +2421,8 @@
         <v>90</v>
       </c>
       <c r="S15" s="18">
-        <f>SUM(L15:R15)/(A$1)</f>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>60.833333333333336</v>
       </c>
       <c r="T15" s="15">
         <v>0</v>
@@ -2469,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="18">
-        <f>SUM(T15:U15)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="15"/>
       <c r="X15" s="23">
-        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3</f>
-        <v>38.25</v>
+        <f t="shared" si="3"/>
+        <v>31.875</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,8 +2472,8 @@
         <v>2</v>
       </c>
       <c r="K16" s="18">
-        <f>100*SUM(D16:J16)/(2*A$1)</f>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>82.5</v>
       </c>
       <c r="L16" s="15">
         <v>100</v>
@@ -2536,8 +2498,8 @@
         <v>60</v>
       </c>
       <c r="S16" s="18">
-        <f>SUM(L16:R16)/(A$1)</f>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>48.333333333333336</v>
       </c>
       <c r="T16" s="15">
         <v>0</v>
@@ -2546,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="V16" s="18">
-        <f>SUM(T16:U16)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="15"/>
       <c r="X16" s="23">
-        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3</f>
-        <v>34.299999999999997</v>
+        <f t="shared" si="3"/>
+        <v>28.583333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2587,8 +2549,8 @@
         <v>2</v>
       </c>
       <c r="K17" s="18">
-        <f>100*SUM(D17:J17)/(2*A$1)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="L17" s="15">
         <v>100</v>
@@ -2613,8 +2575,8 @@
         <v>60</v>
       </c>
       <c r="S17" s="18">
-        <f>SUM(L17:R17)/(A$1)</f>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>47.5</v>
       </c>
       <c r="T17" s="15">
         <v>0</v>
@@ -2623,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="V17" s="18">
-        <f>SUM(T17:U17)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="15"/>
       <c r="X17" s="23">
-        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3</f>
-        <v>30.25</v>
+        <f t="shared" si="3"/>
+        <v>25.208333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2664,8 +2626,8 @@
         <v>2</v>
       </c>
       <c r="K18" s="18">
-        <f>100*SUM(D18:J18)/(2*A$1)</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
@@ -2690,8 +2652,8 @@
         <v>80</v>
       </c>
       <c r="S18" s="18">
-        <f>SUM(L18:R18)/(A$1)</f>
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>44.166666666666664</v>
       </c>
       <c r="T18" s="15">
         <v>0</v>
@@ -2700,13 +2662,13 @@
         <v>0</v>
       </c>
       <c r="V18" s="18">
-        <f>SUM(T18:U18)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="15"/>
       <c r="X18" s="23">
-        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3</f>
-        <v>31.25</v>
+        <f t="shared" si="3"/>
+        <v>26.041666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,8 +2703,8 @@
         <v>0</v>
       </c>
       <c r="K19" s="18">
-        <f>100*SUM(D19:J19)/(2*A$1)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
@@ -2767,8 +2729,8 @@
         <v>0</v>
       </c>
       <c r="S19" s="18">
-        <f>SUM(L19:R19)/(A$1)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="T19" s="15">
         <v>90</v>
@@ -2777,13 +2739,13 @@
         <v>90</v>
       </c>
       <c r="V19" s="18">
-        <f>SUM(T19:U19)/2</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="W19" s="15"/>
       <c r="X19" s="23">
-        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3</f>
-        <v>29.5</v>
+        <f t="shared" si="3"/>
+        <v>28.333333333333336</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2818,8 +2780,8 @@
         <v>2</v>
       </c>
       <c r="K20" s="18">
-        <f>100*SUM(D20:J20)/(2*A$1)</f>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2844,8 +2806,8 @@
         <v>95</v>
       </c>
       <c r="S20" s="18">
-        <f>SUM(L20:R20)/(A$1)</f>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>48.333333333333336</v>
       </c>
       <c r="T20" s="15">
         <v>0</v>
@@ -2854,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="18">
-        <f>SUM(T20:U20)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="15"/>
       <c r="X20" s="23">
-        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3</f>
-        <v>28.9</v>
+        <f t="shared" si="3"/>
+        <v>24.083333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2895,8 +2857,8 @@
         <v>2</v>
       </c>
       <c r="K21" s="18">
-        <f>100*SUM(D21:J21)/(2*A$1)</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
@@ -2921,8 +2883,8 @@
         <v>80</v>
       </c>
       <c r="S21" s="18">
-        <f>SUM(L21:R21)/(A$1)</f>
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>42.5</v>
       </c>
       <c r="T21" s="15">
         <v>0</v>
@@ -2931,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f>SUM(T21:U21)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="15"/>
       <c r="X21" s="23">
-        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3</f>
-        <v>27.75</v>
+        <f t="shared" si="3"/>
+        <v>23.125</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2968,8 +2930,8 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="18">
-        <f>100*SUM(D22:J22)/(2*A$1)</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L22" s="15">
         <v>0</v>
@@ -2990,12 +2952,12 @@
         <v>40</v>
       </c>
       <c r="R22" s="6">
-        <f>J22*50</f>
+        <f t="shared" ref="R22:R33" si="4">J22*50</f>
         <v>0</v>
       </c>
       <c r="S22" s="18">
-        <f>SUM(L22:R22)/(A$1)</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
       </c>
       <c r="T22" s="15">
         <v>0</v>
@@ -3004,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="V22" s="18">
-        <f>SUM(T22:U22)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="15"/>
       <c r="X22" s="23">
-        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3</f>
-        <v>13.5</v>
+        <f t="shared" si="3"/>
+        <v>11.25</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3043,7 +3005,7 @@
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="18">
-        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="15">
@@ -3065,11 +3027,11 @@
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <f>J23*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S23" s="18">
-        <f>SUM(L23:R23)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23" s="15">
@@ -3079,12 +3041,12 @@
         <v>30</v>
       </c>
       <c r="V23" s="18">
-        <f>SUM(T23:U23)/2</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="W23" s="15"/>
       <c r="X23" s="23">
-        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -3118,8 +3080,8 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="18">
-        <f>100*SUM(D24:J24)/(2*A$1)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="L24" s="15">
         <v>0</v>
@@ -3140,12 +3102,12 @@
         <v>0</v>
       </c>
       <c r="R24" s="6">
-        <f>J24*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24" s="18">
-        <f>SUM(L24:R24)/(A$1)</f>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>14.166666666666666</v>
       </c>
       <c r="T24" s="15">
         <v>0</v>
@@ -3154,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="18">
-        <f>SUM(T24:U24)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24" s="15"/>
       <c r="X24" s="23">
-        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3</f>
-        <v>7.25</v>
+        <f t="shared" si="3"/>
+        <v>6.0416666666666661</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,8 +3155,8 @@
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="18">
-        <f>100*SUM(D25:J25)/(2*A$1)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="L25" s="15">
         <v>0</v>
@@ -3215,12 +3177,12 @@
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f>J25*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25" s="18">
-        <f>SUM(L25:R25)/(A$1)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="T25" s="15">
         <v>0</v>
@@ -3229,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="V25" s="18">
-        <f>SUM(T25:U25)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="15"/>
       <c r="X25" s="23">
-        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>5.8333333333333339</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,7 +3230,7 @@
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="18">
-        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -3290,11 +3252,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f>J26*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26" s="18">
-        <f>SUM(L26:R26)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="15">
@@ -3304,12 +3266,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="18">
-        <f>SUM(T26:U26)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="15"/>
       <c r="X26" s="23">
-        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3343,7 +3305,7 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="18">
-        <f>100*SUM(D27:J27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3365,11 +3327,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f>J27*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="18">
-        <f>SUM(L27:R27)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="15">
@@ -3379,12 +3341,12 @@
         <v>0</v>
       </c>
       <c r="V27" s="18">
-        <f>SUM(T27:U27)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="15"/>
       <c r="X27" s="23">
-        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3418,7 +3380,7 @@
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="18">
-        <f>100*SUM(D28:J28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3440,11 +3402,11 @@
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f>J28*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" s="18">
-        <f>SUM(L28:R28)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="15">
@@ -3454,12 +3416,12 @@
         <v>0</v>
       </c>
       <c r="V28" s="18">
-        <f>SUM(T28:U28)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="15"/>
       <c r="X28" s="23">
-        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3493,7 +3455,7 @@
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="18">
-        <f>100*SUM(D29:J29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3515,11 +3477,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <f>J29*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="18">
-        <f>SUM(L29:R29)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="15">
@@ -3529,12 +3491,12 @@
         <v>0</v>
       </c>
       <c r="V29" s="18">
-        <f>SUM(T29:U29)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="15"/>
       <c r="X29" s="23">
-        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3568,7 +3530,7 @@
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="18">
-        <f>100*SUM(D30:J30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3590,11 +3552,11 @@
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f>J30*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S30" s="18">
-        <f>SUM(L30:R30)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="15">
@@ -3604,12 +3566,12 @@
         <v>0</v>
       </c>
       <c r="V30" s="18">
-        <f>SUM(T30:U30)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="15"/>
       <c r="X30" s="23">
-        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3643,7 +3605,7 @@
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="18">
-        <f>100*SUM(D31:J31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3665,11 +3627,11 @@
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f>J31*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="18">
-        <f>SUM(L31:R31)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="15">
@@ -3679,12 +3641,12 @@
         <v>0</v>
       </c>
       <c r="V31" s="18">
-        <f>SUM(T31:U31)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="15"/>
       <c r="X31" s="23">
-        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3718,7 +3680,7 @@
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="18">
-        <f>100*SUM(D32:J32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3740,11 +3702,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="6">
-        <f>J32*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S32" s="18">
-        <f>SUM(L32:R32)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32" s="15">
@@ -3754,12 +3716,12 @@
         <v>0</v>
       </c>
       <c r="V32" s="18">
-        <f>SUM(T32:U32)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="15"/>
       <c r="X32" s="23">
-        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3793,7 +3755,7 @@
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="18">
-        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -3815,11 +3777,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f>J33*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S33" s="18">
-        <f>SUM(L33:R33)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T33" s="15">
@@ -3829,12 +3791,12 @@
         <v>0</v>
       </c>
       <c r="V33" s="18">
-        <f>SUM(T33:U33)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="15"/>
       <c r="X33" s="23">
-        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -1301,7 +1301,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2928,7 +2928,9 @@
       <c r="I22" s="7">
         <v>1</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
       <c r="K22" s="18">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
@@ -3003,7 +3005,9 @@
       <c r="I23" s="7">
         <v>0</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
       <c r="K23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3078,7 +3082,9 @@
       <c r="I24" s="7">
         <v>0</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
       <c r="K24" s="18">
         <f t="shared" si="0"/>
         <v>12.5</v>
@@ -3153,7 +3159,9 @@
       <c r="I25" s="7">
         <v>0</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
       <c r="K25" s="18">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
@@ -3228,7 +3236,9 @@
       <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
       <c r="K26" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3303,7 +3313,9 @@
       <c r="I27" s="7">
         <v>0</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
       <c r="K27" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3378,7 +3390,9 @@
       <c r="I28" s="7">
         <v>0</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
       <c r="K28" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3453,7 +3467,9 @@
       <c r="I29" s="7">
         <v>0</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
       <c r="K29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3528,7 +3544,9 @@
       <c r="I30" s="7">
         <v>0</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
       <c r="K30" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3603,7 +3621,9 @@
       <c r="I31" s="7">
         <v>0</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
       <c r="K31" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3678,7 +3698,9 @@
       <c r="I32" s="7">
         <v>0</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
       <c r="K32" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3753,7 +3775,9 @@
       <c r="I33" s="14">
         <v>0</v>
       </c>
-      <c r="J33" s="14"/>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
       <c r="K33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>Adı</t>
   </si>
@@ -389,6 +389,12 @@
   </si>
   <si>
     <t>ÖDEVLER (%25)</t>
+  </si>
+  <si>
+    <t>FİNAL</t>
+  </si>
+  <si>
+    <t>DERS NOTU</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -718,11 +724,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -790,6 +848,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -803,7 +876,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -907,6 +1018,44 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1301,7 +1450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1330,31 +1479,31 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="39" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="39" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="41"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="48"/>
       <c r="W1" s="19" t="s">
         <v>100</v>
       </c>
@@ -1468,7 +1617,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
+        <f>100*SUM(D3:J3)/(2*A$1)</f>
         <v>90</v>
       </c>
       <c r="L3" s="15">
@@ -1494,7 +1643,7 @@
         <v>75</v>
       </c>
       <c r="S3" s="18">
-        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
+        <f>SUM(L3:R3)/(A$1)</f>
         <v>109.16666666666667</v>
       </c>
       <c r="T3" s="15">
@@ -1504,13 +1653,15 @@
         <v>110</v>
       </c>
       <c r="V3" s="18">
-        <f t="shared" ref="V3:V33" si="2">SUM(T3:U3)/2</f>
+        <f>SUM(T3:U3)/2</f>
         <v>105</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="6">
+        <v>96</v>
+      </c>
       <c r="X3" s="23">
-        <f t="shared" ref="X3:X33" si="3">K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
-        <v>71.541666666666671</v>
+        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
+        <v>100.34166666666667</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>103</v>
@@ -1548,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D4:J4)/(2*A$1)</f>
         <v>97.5</v>
       </c>
       <c r="L4" s="15">
@@ -1574,7 +1725,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L4:R4)/(A$1)</f>
         <v>95.833333333333329</v>
       </c>
       <c r="T4" s="15">
@@ -1584,27 +1735,29 @@
         <v>100</v>
       </c>
       <c r="V4" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T4:U4)/2</f>
         <v>97.5</v>
       </c>
-      <c r="W4" s="15"/>
+      <c r="W4" s="6">
+        <v>87</v>
+      </c>
       <c r="X4" s="23">
-        <f t="shared" si="3"/>
-        <v>67.833333333333329</v>
+        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3</f>
+        <v>93.933333333333323</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D5" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1622,63 +1775,65 @@
         <v>2</v>
       </c>
       <c r="J5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>100*SUM(D5:J5)/(2*A$1)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
         <v>100</v>
       </c>
-      <c r="M5" s="6">
-        <v>60</v>
-      </c>
       <c r="N5" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O5" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P5" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R5" s="6">
-        <f>J5*50-10</f>
-        <v>90</v>
+        <f>J5*50</f>
+        <v>0</v>
       </c>
       <c r="S5" s="18">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
+        <f>SUM(L5:R5)/(A$1)</f>
+        <v>82.5</v>
       </c>
       <c r="T5" s="15">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="U5" s="15">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="V5" s="18">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="W5" s="15"/>
+        <f>SUM(T5:U5)/2</f>
+        <v>97.5</v>
+      </c>
+      <c r="W5" s="6">
+        <v>97</v>
+      </c>
       <c r="X5" s="23">
-        <f t="shared" si="3"/>
-        <v>66.25</v>
+        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3</f>
+        <v>90.766666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
@@ -1693,26 +1848,26 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K6" s="18">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>100*SUM(D6:J6)/(2*A$1)</f>
+        <v>107.5</v>
       </c>
       <c r="L6" s="15">
         <v>100</v>
       </c>
       <c r="M6" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N6" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="O6" s="6">
         <v>60</v>
@@ -1721,41 +1876,43 @@
         <v>70</v>
       </c>
       <c r="Q6" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R6" s="6">
         <f>J6*50-10</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="S6" s="18">
-        <f t="shared" si="1"/>
-        <v>88.333333333333329</v>
+        <f>SUM(L6:R6)/(A$1)</f>
+        <v>90.833333333333329</v>
       </c>
       <c r="T6" s="15">
         <v>70</v>
       </c>
       <c r="U6" s="15">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="V6" s="18">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="W6" s="15"/>
+        <f>SUM(T6:U6)/2</f>
+        <v>77.5</v>
+      </c>
+      <c r="W6" s="6">
+        <v>68</v>
+      </c>
       <c r="X6" s="23">
-        <f t="shared" si="3"/>
-        <v>65.083333333333329</v>
+        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3</f>
+        <v>83.98333333333332</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -1770,26 +1927,26 @@
         <v>2</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" si="0"/>
-        <v>107.5</v>
+        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <v>115</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
       </c>
       <c r="M7" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N7" s="6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O7" s="6">
         <v>60</v>
@@ -1798,30 +1955,32 @@
         <v>70</v>
       </c>
       <c r="Q7" s="6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R7" s="6">
         <f>J7*50-10</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="S7" s="18">
-        <f t="shared" si="1"/>
-        <v>90.833333333333329</v>
+        <f>SUM(L7:R7)/(A$1)</f>
+        <v>88.333333333333329</v>
       </c>
       <c r="T7" s="15">
         <v>70</v>
       </c>
       <c r="U7" s="15">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="V7" s="18">
-        <f t="shared" si="2"/>
-        <v>77.5</v>
-      </c>
-      <c r="W7" s="15"/>
+        <f>SUM(T7:U7)/2</f>
+        <v>80</v>
+      </c>
+      <c r="W7" s="6">
+        <v>63</v>
+      </c>
       <c r="X7" s="23">
-        <f t="shared" si="3"/>
-        <v>63.583333333333329</v>
+        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3</f>
+        <v>83.98333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,7 +2015,7 @@
         <v>1.9</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D8:J8)/(2*A$1)</f>
         <v>99.166666666666671</v>
       </c>
       <c r="L8" s="15">
@@ -1882,7 +2041,7 @@
         <v>85</v>
       </c>
       <c r="S8" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L8:R8)/(A$1)</f>
         <v>90.833333333333329</v>
       </c>
       <c r="T8" s="15">
@@ -1892,24 +2051,26 @@
         <v>80</v>
       </c>
       <c r="V8" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T8:U8)/2</f>
         <v>77.5</v>
       </c>
-      <c r="W8" s="15"/>
+      <c r="W8" s="6">
+        <v>64</v>
+      </c>
       <c r="X8" s="23">
-        <f t="shared" si="3"/>
-        <v>61.916666666666671</v>
+        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3</f>
+        <v>81.116666666666674</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12">
         <v>0</v>
@@ -1918,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
@@ -1930,63 +2091,65 @@
         <v>2</v>
       </c>
       <c r="J9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D9:J9)/(2*A$1)</f>
         <v>83.333333333333329</v>
       </c>
       <c r="L9" s="15">
         <v>0</v>
       </c>
       <c r="M9" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N9" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="6">
         <v>100</v>
       </c>
       <c r="P9" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="6">
         <v>95</v>
       </c>
       <c r="R9" s="6">
-        <f>J9*50</f>
-        <v>0</v>
+        <f>J9*50-30</f>
+        <v>70</v>
       </c>
       <c r="S9" s="18">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
+        <f>SUM(L9:R9)/(A$1)</f>
+        <v>71.666666666666671</v>
       </c>
       <c r="T9" s="15">
         <v>95</v>
       </c>
       <c r="U9" s="15">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V9" s="18">
-        <f t="shared" si="2"/>
-        <v>97.5</v>
-      </c>
-      <c r="W9" s="15"/>
+        <f>SUM(T9:U9)/2</f>
+        <v>90</v>
+      </c>
+      <c r="W9" s="6">
+        <v>61</v>
+      </c>
       <c r="X9" s="23">
-        <f t="shared" si="3"/>
-        <v>61.666666666666671</v>
+        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3</f>
+        <v>75.38333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2010,69 +2173,71 @@
         <v>2</v>
       </c>
       <c r="K10" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D10:J10)/(2*A$1)</f>
         <v>83.333333333333329</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
       </c>
       <c r="M10" s="6">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N10" s="6">
         <v>0</v>
       </c>
       <c r="O10" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P10" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="6">
         <v>95</v>
       </c>
       <c r="R10" s="6">
-        <f>J10*50-30</f>
-        <v>70</v>
+        <f>J10*50-10</f>
+        <v>90</v>
       </c>
       <c r="S10" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L10:R10)/(A$1)</f>
         <v>71.666666666666671</v>
       </c>
       <c r="T10" s="15">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="U10" s="15">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="V10" s="18">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="W10" s="15"/>
+        <f>SUM(T10:U10)/2</f>
+        <v>77.5</v>
+      </c>
+      <c r="W10" s="6">
+        <v>63</v>
+      </c>
       <c r="X10" s="23">
-        <f t="shared" si="3"/>
-        <v>57.083333333333336</v>
+        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3</f>
+        <v>72.858333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="7">
         <v>2</v>
@@ -2087,49 +2252,51 @@
         <v>2</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <f>100*SUM(D11:J11)/(2*A$1)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="L11" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="6">
         <v>60</v>
       </c>
       <c r="N11" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O11" s="6">
+        <v>60</v>
+      </c>
+      <c r="P11" s="6">
         <v>90</v>
       </c>
-      <c r="P11" s="6">
-        <v>95</v>
-      </c>
       <c r="Q11" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R11" s="6">
         <f>J11*50-10</f>
         <v>90</v>
       </c>
       <c r="S11" s="18">
-        <f t="shared" si="1"/>
-        <v>71.666666666666671</v>
+        <f>SUM(L11:R11)/(A$1)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="T11" s="15">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U11" s="15">
+        <v>90</v>
+      </c>
+      <c r="V11" s="18">
+        <f>SUM(T11:U11)/2</f>
         <v>80</v>
       </c>
-      <c r="V11" s="18">
-        <f t="shared" si="2"/>
-        <v>77.5</v>
-      </c>
-      <c r="W11" s="15"/>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
       <c r="X11" s="23">
-        <f t="shared" si="3"/>
-        <v>53.958333333333336</v>
+        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3</f>
+        <v>66.25</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,7 +2331,7 @@
         <v>1.9</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D12:J12)/(2*A$1)</f>
         <v>110.83333333333333</v>
       </c>
       <c r="L12" s="15">
@@ -2190,7 +2357,7 @@
         <v>90</v>
       </c>
       <c r="S12" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L12:R12)/(A$1)</f>
         <v>100.83333333333333</v>
       </c>
       <c r="T12" s="15">
@@ -2200,24 +2367,26 @@
         <v>0</v>
       </c>
       <c r="V12" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="15"/>
+        <f>SUM(T12:U12)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>50</v>
+      </c>
       <c r="X12" s="23">
-        <f t="shared" si="3"/>
-        <v>47.375</v>
+        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3</f>
+        <v>62.375</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -2232,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <v>2</v>
@@ -2241,60 +2410,62 @@
         <v>2</v>
       </c>
       <c r="K13" s="18">
-        <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="6">
+        <v>50</v>
+      </c>
+      <c r="N13" s="6">
         <v>70</v>
-      </c>
-      <c r="N13" s="6">
-        <v>60</v>
       </c>
       <c r="O13" s="6">
         <v>60</v>
       </c>
       <c r="P13" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="6">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="R13" s="6">
-        <f>J13*50-10-40</f>
+        <f>J13*50-10</f>
+        <v>90</v>
+      </c>
+      <c r="S13" s="18">
+        <f>SUM(L13:R13)/(A$1)</f>
+        <v>60.833333333333336</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <f>SUM(T13:U13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
         <v>50</v>
       </c>
-      <c r="S13" s="18">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="T13" s="15">
-        <v>0</v>
-      </c>
-      <c r="U13" s="15">
-        <v>0</v>
-      </c>
-      <c r="V13" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="15"/>
       <c r="X13" s="23">
-        <f t="shared" si="3"/>
-        <v>32.083333333333336</v>
+        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3</f>
+        <v>46.875</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -2318,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D14:J14)/(2*A$1)</f>
         <v>91.666666666666671</v>
       </c>
       <c r="L14" s="15">
@@ -2334,18 +2505,18 @@
         <v>60</v>
       </c>
       <c r="P14" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R14" s="6">
-        <f>J14*50-10-20</f>
-        <v>70</v>
+        <f>J14*50-10-40</f>
+        <v>50</v>
       </c>
       <c r="S14" s="18">
-        <f t="shared" si="1"/>
-        <v>55.833333333333336</v>
+        <f>SUM(L14:R14)/(A$1)</f>
+        <v>55</v>
       </c>
       <c r="T14" s="15">
         <v>0</v>
@@ -2354,33 +2525,35 @@
         <v>0</v>
       </c>
       <c r="V14" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="15"/>
+        <f>SUM(T14:U14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>45</v>
+      </c>
       <c r="X14" s="23">
-        <f t="shared" si="3"/>
-        <v>32.291666666666671</v>
+        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3</f>
+        <v>45.583333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
@@ -2389,23 +2562,23 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="18">
-        <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N15" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O15" s="6">
         <v>60</v>
@@ -2414,91 +2587,93 @@
         <v>0</v>
       </c>
       <c r="Q15" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R15" s="6">
-        <f>J15*50-10</f>
+        <f>J15*50</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
+        <f>SUM(L15:R15)/(A$1)</f>
+        <v>10</v>
+      </c>
+      <c r="T15" s="15">
         <v>90</v>
       </c>
-      <c r="S15" s="18">
-        <f t="shared" si="1"/>
-        <v>60.833333333333336</v>
-      </c>
-      <c r="T15" s="15">
-        <v>0</v>
-      </c>
       <c r="U15" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V15" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="15"/>
+        <f>SUM(T15:U15)/2</f>
+        <v>90</v>
+      </c>
+      <c r="W15" s="6">
+        <v>45</v>
+      </c>
       <c r="X15" s="23">
-        <f t="shared" si="3"/>
-        <v>31.875</v>
+        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3</f>
+        <v>41.833333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J16" s="7">
         <v>2</v>
       </c>
       <c r="K16" s="18">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
+        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <v>60</v>
       </c>
       <c r="L16" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N16" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R16" s="6">
-        <f>J16*50-40</f>
-        <v>60</v>
+        <f>J16*50-5</f>
+        <v>95</v>
       </c>
       <c r="S16" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L16:R16)/(A$1)</f>
         <v>48.333333333333336</v>
       </c>
       <c r="T16" s="15">
@@ -2508,36 +2683,38 @@
         <v>0</v>
       </c>
       <c r="V16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="15"/>
+        <f>SUM(T16:U16)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>59</v>
+      </c>
       <c r="X16" s="23">
-        <f t="shared" si="3"/>
-        <v>28.583333333333336</v>
+        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3</f>
+        <v>41.783333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D17" s="12">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2549,20 +2726,20 @@
         <v>2</v>
       </c>
       <c r="K17" s="18">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>100*SUM(D17:J17)/(2*A$1)</f>
+        <v>75</v>
       </c>
       <c r="L17" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
         <v>60</v>
       </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
       <c r="O17" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
@@ -2571,12 +2748,12 @@
         <v>65</v>
       </c>
       <c r="R17" s="6">
-        <f>J17*50-40</f>
-        <v>60</v>
+        <f>J17*50-10-10</f>
+        <v>80</v>
       </c>
       <c r="S17" s="18">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
+        <f>SUM(L17:R17)/(A$1)</f>
+        <v>44.166666666666664</v>
       </c>
       <c r="T17" s="15">
         <v>0</v>
@@ -2585,30 +2762,32 @@
         <v>0</v>
       </c>
       <c r="V17" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="15"/>
+        <f>SUM(T17:U17)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>50</v>
+      </c>
       <c r="X17" s="23">
-        <f t="shared" si="3"/>
-        <v>25.208333333333336</v>
+        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3</f>
+        <v>41.041666666666664</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D18" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
@@ -2617,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
         <v>2</v>
@@ -2626,14 +2805,14 @@
         <v>2</v>
       </c>
       <c r="K18" s="18">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N18" s="6">
         <v>60</v>
@@ -2642,18 +2821,18 @@
         <v>60</v>
       </c>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="6">
         <v>65</v>
       </c>
       <c r="R18" s="6">
-        <f>J18*50-10-10</f>
-        <v>80</v>
+        <f>J18*50-10-20</f>
+        <v>70</v>
       </c>
       <c r="S18" s="18">
-        <f t="shared" si="1"/>
-        <v>44.166666666666664</v>
+        <f>SUM(L18:R18)/(A$1)</f>
+        <v>55.833333333333336</v>
       </c>
       <c r="T18" s="15">
         <v>0</v>
@@ -2662,101 +2841,105 @@
         <v>0</v>
       </c>
       <c r="V18" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="15"/>
+        <f>SUM(T18:U18)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <v>22</v>
+      </c>
       <c r="X18" s="23">
-        <f t="shared" si="3"/>
-        <v>26.041666666666664</v>
+        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3</f>
+        <v>38.891666666666673</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D19" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G19" s="7">
         <v>2</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="18">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <v>82.5</v>
       </c>
       <c r="L19" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O19" s="6">
         <v>60</v>
       </c>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="6">
         <v>0</v>
       </c>
       <c r="R19" s="6">
-        <f>J19*50</f>
-        <v>0</v>
+        <f>J19*50-40</f>
+        <v>60</v>
       </c>
       <c r="S19" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>SUM(L19:R19)/(A$1)</f>
+        <v>48.333333333333336</v>
       </c>
       <c r="T19" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U19" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V19" s="18">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="W19" s="15"/>
+        <f>SUM(T19:U19)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="6">
+        <v>30</v>
+      </c>
       <c r="X19" s="23">
-        <f t="shared" si="3"/>
-        <v>28.333333333333336</v>
+        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3</f>
+        <v>37.583333333333336</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
@@ -2768,20 +2951,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J20" s="7">
         <v>2</v>
       </c>
       <c r="K20" s="18">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <v>62.5</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2799,15 +2982,15 @@
         <v>0</v>
       </c>
       <c r="Q20" s="6">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="R20" s="6">
-        <f>J20*50-5</f>
-        <v>95</v>
+        <f>J20*50-20</f>
+        <v>80</v>
       </c>
       <c r="S20" s="18">
-        <f t="shared" si="1"/>
-        <v>48.333333333333336</v>
+        <f>SUM(L20:R20)/(A$1)</f>
+        <v>42.5</v>
       </c>
       <c r="T20" s="15">
         <v>0</v>
@@ -2816,27 +2999,29 @@
         <v>0</v>
       </c>
       <c r="V20" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="15"/>
+        <f>SUM(T20:U20)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>45</v>
+      </c>
       <c r="X20" s="23">
-        <f t="shared" si="3"/>
-        <v>24.083333333333336</v>
+        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3</f>
+        <v>36.625</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D21" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -2845,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2857,11 +3042,11 @@
         <v>2</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
+        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="L21" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="6">
         <v>60</v>
@@ -2870,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P21" s="6">
         <v>0</v>
@@ -2879,12 +3064,12 @@
         <v>65</v>
       </c>
       <c r="R21" s="6">
-        <f>J21*50-20</f>
-        <v>80</v>
+        <f>J21*50-40</f>
+        <v>60</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
+        <f>SUM(L21:R21)/(A$1)</f>
+        <v>47.5</v>
       </c>
       <c r="T21" s="15">
         <v>0</v>
@@ -2893,13 +3078,15 @@
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="15"/>
+        <f>SUM(T21:U21)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <v>20</v>
+      </c>
       <c r="X21" s="23">
-        <f t="shared" si="3"/>
-        <v>23.125</v>
+        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3</f>
+        <v>31.208333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2932,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D22:J22)/(2*A$1)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="L22" s="15">
@@ -2954,11 +3141,11 @@
         <v>40</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="R22:R33" si="4">J22*50</f>
+        <f>J22*50</f>
         <v>0</v>
       </c>
       <c r="S22" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L22:R22)/(A$1)</f>
         <v>18.333333333333332</v>
       </c>
       <c r="T22" s="15">
@@ -2968,30 +3155,32 @@
         <v>0</v>
       </c>
       <c r="V22" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="15"/>
+        <f>SUM(T22:U22)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0</v>
+      </c>
       <c r="X22" s="23">
-        <f t="shared" si="3"/>
+        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3</f>
         <v>11.25</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -3009,14 +3198,14 @@
         <v>0</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="L23" s="15">
         <v>0</v>
       </c>
       <c r="M23" s="6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N23" s="6">
         <v>0</v>
@@ -3031,44 +3220,46 @@
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="4"/>
+        <f>J23*50</f>
         <v>0</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L23:R23)/(A$1)</f>
+        <v>14.166666666666666</v>
       </c>
       <c r="T23" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U23" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V23" s="18">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="W23" s="15"/>
+        <f>SUM(T23:U23)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
       <c r="X23" s="23">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
+        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3</f>
+        <v>7.7083333333333339</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
@@ -3086,14 +3277,14 @@
         <v>0</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
+        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <v>0</v>
       </c>
       <c r="L24" s="15">
         <v>0</v>
       </c>
       <c r="M24" s="6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N24" s="6">
         <v>0</v>
@@ -3108,27 +3299,29 @@
         <v>0</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="4"/>
+        <f>J24*50</f>
         <v>0</v>
       </c>
       <c r="S24" s="18">
-        <f t="shared" si="1"/>
-        <v>14.166666666666666</v>
+        <f>SUM(L24:R24)/(A$1)</f>
+        <v>0</v>
       </c>
       <c r="T24" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U24" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V24" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="15"/>
+        <f>SUM(T24:U24)/2</f>
+        <v>30</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0</v>
+      </c>
       <c r="X24" s="23">
-        <f t="shared" si="3"/>
-        <v>6.0416666666666661</v>
+        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3163,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D25:J25)/(2*A$1)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="L25" s="15">
@@ -3185,11 +3378,11 @@
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="4"/>
+        <f>J25*50</f>
         <v>0</v>
       </c>
       <c r="S25" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L25:R25)/(A$1)</f>
         <v>10</v>
       </c>
       <c r="T25" s="15">
@@ -3199,24 +3392,26 @@
         <v>0</v>
       </c>
       <c r="V25" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="15"/>
+        <f>SUM(T25:U25)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
       <c r="X25" s="23">
-        <f t="shared" si="3"/>
+        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3</f>
         <v>5.8333333333333339</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D26" s="12">
         <v>0</v>
@@ -3240,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D26:J26)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -3262,11 +3457,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="4"/>
+        <f>J26*50</f>
         <v>0</v>
       </c>
       <c r="S26" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L26:R26)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T26" s="15">
@@ -3276,12 +3471,14 @@
         <v>0</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="15"/>
+        <f>SUM(T26:U26)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
       <c r="X26" s="23">
-        <f t="shared" si="3"/>
+        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3317,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D27:J27)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3339,11 +3536,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="4"/>
+        <f>J27*50</f>
         <v>0</v>
       </c>
       <c r="S27" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L27:R27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T27" s="15">
@@ -3353,24 +3550,26 @@
         <v>0</v>
       </c>
       <c r="V27" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="15"/>
+        <f>SUM(T27:U27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <v>0</v>
+      </c>
       <c r="X27" s="23">
-        <f t="shared" si="3"/>
+        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -3394,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D28:J28)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3416,11 +3615,11 @@
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="4"/>
+        <f>J28*50</f>
         <v>0</v>
       </c>
       <c r="S28" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L28:R28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T28" s="15">
@@ -3430,24 +3629,26 @@
         <v>0</v>
       </c>
       <c r="V28" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="15"/>
+        <f>SUM(T28:U28)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <v>0</v>
+      </c>
       <c r="X28" s="23">
-        <f t="shared" si="3"/>
+        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
@@ -3471,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D29:J29)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3493,11 +3694,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" si="4"/>
+        <f>J29*50</f>
         <v>0</v>
       </c>
       <c r="S29" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L29:R29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T29" s="15">
@@ -3507,24 +3708,26 @@
         <v>0</v>
       </c>
       <c r="V29" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="15"/>
+        <f>SUM(T29:U29)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="6">
+        <v>0</v>
+      </c>
       <c r="X29" s="23">
-        <f t="shared" si="3"/>
+        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D30" s="12">
         <v>0</v>
@@ -3548,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D30:J30)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3570,11 +3773,11 @@
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="4"/>
+        <f>J30*50</f>
         <v>0</v>
       </c>
       <c r="S30" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L30:R30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T30" s="15">
@@ -3584,24 +3787,26 @@
         <v>0</v>
       </c>
       <c r="V30" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="15"/>
+        <f>SUM(T30:U30)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="6">
+        <v>0</v>
+      </c>
       <c r="X30" s="23">
-        <f t="shared" si="3"/>
+        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -3625,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D31:J31)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3647,11 +3852,11 @@
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="4"/>
+        <f>J31*50</f>
         <v>0</v>
       </c>
       <c r="S31" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L31:R31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T31" s="15">
@@ -3661,12 +3866,14 @@
         <v>0</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="15"/>
+        <f>SUM(T31:U31)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="6">
+        <v>0</v>
+      </c>
       <c r="X31" s="23">
-        <f t="shared" si="3"/>
+        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3702,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D32:J32)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3724,11 +3931,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="4"/>
+        <f>J32*50</f>
         <v>0</v>
       </c>
       <c r="S32" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L32:R32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T32" s="15">
@@ -3738,24 +3945,26 @@
         <v>0</v>
       </c>
       <c r="V32" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="15"/>
+        <f>SUM(T32:U32)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="6">
+        <v>0</v>
+      </c>
       <c r="X32" s="23">
-        <f t="shared" si="3"/>
+        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D33" s="13">
         <v>0</v>
@@ -3779,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D33:J33)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -3801,11 +4010,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="4"/>
+        <f>J33*50</f>
         <v>0</v>
       </c>
       <c r="S33" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L33:R33)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T33" s="15">
@@ -3815,12 +4024,14 @@
         <v>0</v>
       </c>
       <c r="V33" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="15"/>
+        <f>SUM(T33:U33)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0</v>
+      </c>
       <c r="X33" s="23">
-        <f t="shared" si="3"/>
+        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -4962,8 +5173,8 @@
       <c r="V81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AB33">
-    <sortCondition descending="1" ref="X3"/>
+  <sortState ref="A3:Y33">
+    <sortCondition descending="1" ref="X2"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="T1:V1"/>
@@ -4971,19 +5182,19 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4997,7 +5208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S33">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5011,7 +5222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V33">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5025,7 +5236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X33">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5039,37 +5250,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U33">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W33">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5133,11 +5361,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AI81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
+      <selection pane="bottomLeft" activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5145,2781 +5373,2138 @@
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" style="1" customWidth="1"/>
-    <col min="26" max="30" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.21875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.77734375" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" style="1" customWidth="1"/>
+    <col min="27" max="31" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.21875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="5.77734375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
         <v>5</v>
       </c>
       <c r="B1" s="20"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="39" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="39" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="39" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="AG1" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="42">
         <v>1</v>
       </c>
-      <c r="E2" s="31">
-        <v>2</v>
-      </c>
       <c r="F2" s="31">
+        <v>2</v>
+      </c>
+      <c r="G2" s="31">
         <v>3</v>
       </c>
-      <c r="G2" s="31">
+      <c r="H2" s="31">
         <v>4</v>
       </c>
-      <c r="H2" s="31">
+      <c r="I2" s="31">
         <v>5</v>
       </c>
-      <c r="I2" s="31">
+      <c r="J2" s="31">
         <v>6</v>
       </c>
-      <c r="J2" s="31">
+      <c r="K2" s="31">
         <v>7</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="30">
+      <c r="M2" s="30">
         <v>1</v>
       </c>
-      <c r="M2" s="31">
-        <v>2</v>
-      </c>
       <c r="N2" s="31">
+        <v>2</v>
+      </c>
+      <c r="O2" s="31">
         <v>3</v>
       </c>
-      <c r="O2" s="31">
+      <c r="P2" s="31">
         <v>4</v>
       </c>
-      <c r="P2" s="31">
+      <c r="Q2" s="31">
         <v>5</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="R2" s="31">
         <v>6</v>
       </c>
-      <c r="R2" s="31">
+      <c r="S2" s="31">
         <v>7</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="T2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="30">
+      <c r="U2" s="30">
         <v>1</v>
       </c>
-      <c r="U2" s="31">
-        <v>2</v>
-      </c>
       <c r="V2" s="31">
+        <v>2</v>
+      </c>
+      <c r="W2" s="31">
         <v>3</v>
       </c>
-      <c r="W2" s="31">
+      <c r="X2" s="31">
         <v>4</v>
       </c>
-      <c r="X2" s="31">
+      <c r="Y2" s="31">
         <v>5</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Z2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="AA2" s="30">
         <v>1</v>
       </c>
-      <c r="AA2" s="31">
-        <v>2</v>
-      </c>
       <c r="AB2" s="31">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="31">
         <v>3</v>
       </c>
-      <c r="AC2" s="31">
+      <c r="AD2" s="31">
         <v>4</v>
       </c>
-      <c r="AD2" s="31">
+      <c r="AE2" s="31">
         <v>5</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AF2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AG2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AH2" s="21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI2" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2</v>
-      </c>
+      <c r="D3" s="6">
+        <v>100.34166666666667</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="18">
-        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
-        <v>96.999999999999986</v>
-      </c>
-      <c r="L3" s="15">
-        <v>90</v>
-      </c>
-      <c r="M3" s="6">
-        <v>100</v>
-      </c>
-      <c r="N3" s="6">
-        <v>100</v>
-      </c>
-      <c r="O3" s="6">
-        <v>95</v>
-      </c>
-      <c r="P3" s="6">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>100</v>
-      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="18">
+        <f>100*SUM(E3:K3)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="18">
-        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
-        <v>116</v>
-      </c>
-      <c r="T3" s="15">
-        <v>100</v>
-      </c>
-      <c r="U3" s="15">
-        <v>110</v>
-      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="18">
+        <f>SUM(M3:S3)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
-      <c r="Y3" s="18">
-        <f>SUM(T3:X3)/2</f>
-        <v>105</v>
-      </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="6"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="18">
+        <f>SUM(U3:Y3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="15"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="18">
-        <f t="shared" ref="AE3:AE33" si="2">SUM(Z3:AD3)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="23">
-        <f t="shared" ref="AG3:AG33" si="3">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>53.900000000000006</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="18">
+        <f>SUM(AA3:AE3)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="23">
+        <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="23">
+        <f>D3*0.4+AH3*0.6</f>
+        <v>40.13666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6">
+        <v>93.933333333333323</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L4" s="15">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>100</v>
-      </c>
-      <c r="N4" s="6">
-        <v>100</v>
-      </c>
-      <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>95</v>
-      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="18">
+        <f>100*SUM(E4:K4)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="18">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="T4" s="15">
-        <v>95</v>
-      </c>
-      <c r="U4" s="15">
-        <v>100</v>
-      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="18">
+        <f>SUM(M4:S4)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
-      <c r="Y4" s="18">
-        <f t="shared" ref="Y4:Y33" si="4">SUM(T4:X4)/2</f>
-        <v>97.5</v>
-      </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="6"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="18">
+        <f>SUM(U4:Y4)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="15"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="23">
-        <f t="shared" si="3"/>
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="18">
+        <f>SUM(AA4:AE4)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="23">
+        <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="23">
+        <f>D4*0.4+AH4*0.6</f>
+        <v>37.573333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6">
+        <v>90.766666666666666</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="18">
-        <f t="shared" si="0"/>
-        <v>96.999999999999986</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>100</v>
-      </c>
-      <c r="N5" s="6">
-        <v>100</v>
-      </c>
-      <c r="O5" s="6">
-        <v>95</v>
-      </c>
-      <c r="P5" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>90</v>
-      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="18">
+        <f>100*SUM(E5:K5)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="18">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="T5" s="15">
-        <v>95</v>
-      </c>
-      <c r="U5" s="15">
-        <v>100</v>
-      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="18">
+        <f>SUM(M5:S5)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="18">
-        <f t="shared" si="4"/>
-        <v>97.5</v>
-      </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="6"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="18">
+        <f>SUM(U5:Y5)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="15"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="23">
-        <f t="shared" si="3"/>
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="18">
+        <f>SUM(AA5:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="23">
+        <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="23">
+        <f>D5*0.4+AH5*0.6</f>
+        <v>36.306666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6">
+        <v>83.98333333333332</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="18">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="L6" s="15">
-        <v>100</v>
-      </c>
-      <c r="M6" s="6">
-        <v>60</v>
-      </c>
-      <c r="N6" s="6">
-        <v>60</v>
-      </c>
-      <c r="O6" s="6">
-        <v>60</v>
-      </c>
-      <c r="P6" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>90</v>
-      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="18">
+        <f>100*SUM(E6:K6)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="18">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="T6" s="15">
-        <v>70</v>
-      </c>
-      <c r="U6" s="15">
-        <v>90</v>
-      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="18">
+        <f>SUM(M6:S6)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="18">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="6"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="18">
+        <f>SUM(U6:Y6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="23">
-        <f t="shared" si="3"/>
-        <v>46.400000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="18">
+        <f>SUM(AA6:AE6)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="23">
+        <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="23">
+        <f>D6*0.4+AH6*0.6</f>
+        <v>33.593333333333327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2</v>
-      </c>
+      <c r="D7" s="6">
+        <v>83.98333333333332</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="18">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="L7" s="15">
-        <v>100</v>
-      </c>
-      <c r="M7" s="6">
-        <v>70</v>
-      </c>
-      <c r="N7" s="6">
-        <v>60</v>
-      </c>
-      <c r="O7" s="6">
-        <v>60</v>
-      </c>
-      <c r="P7" s="6">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>80</v>
-      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="18">
+        <f>100*SUM(E7:K7)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="18">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="T7" s="15">
-        <v>70</v>
-      </c>
-      <c r="U7" s="15">
-        <v>90</v>
-      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="18">
+        <f>SUM(M7:S7)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="18">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="6"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="18">
+        <f>SUM(U7:Y7)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="23">
-        <f t="shared" si="3"/>
-        <v>45.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="18">
+        <f>SUM(AA7:AE7)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="23">
+        <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="23">
+        <f>D7*0.4+AH7*0.6</f>
+        <v>33.593333333333327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6">
+        <v>81.116666666666674</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="18">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="L8" s="15">
-        <v>100</v>
-      </c>
-      <c r="M8" s="6">
-        <v>100</v>
-      </c>
-      <c r="N8" s="6">
-        <v>80</v>
-      </c>
-      <c r="O8" s="6">
-        <v>60</v>
-      </c>
-      <c r="P8" s="6">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>50</v>
-      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="18">
+        <f>100*SUM(E8:K8)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="18">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="T8" s="15">
-        <v>70</v>
-      </c>
-      <c r="U8" s="15">
-        <v>85</v>
-      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="18">
+        <f>SUM(M8:S8)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="18">
-        <f t="shared" si="4"/>
-        <v>77.5</v>
-      </c>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="6"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="18">
+        <f>SUM(U8:Y8)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="15"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="23">
-        <f t="shared" si="3"/>
-        <v>44.900000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="18">
+        <f>SUM(AA8:AE8)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="23">
+        <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="23">
+        <f>D8*0.4+AH8*0.6</f>
+        <v>32.446666666666673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6">
+        <v>75.38333333333334</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>100</v>
-      </c>
-      <c r="N9" s="6">
-        <v>80</v>
-      </c>
-      <c r="O9" s="6">
-        <v>90</v>
-      </c>
-      <c r="P9" s="6">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>95</v>
-      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="18">
+        <f>100*SUM(E9:K9)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="18">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="T9" s="15">
-        <v>75</v>
-      </c>
-      <c r="U9" s="15">
-        <v>80</v>
-      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="18">
+        <f>SUM(M9:S9)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="18">
-        <f t="shared" si="4"/>
-        <v>77.5</v>
-      </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="6"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="18">
+        <f>SUM(U9:Y9)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="15"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="23">
-        <f t="shared" si="3"/>
-        <v>43.900000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="18">
+        <f>SUM(AA9:AE9)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="23">
+        <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="23">
+        <f>D9*0.4+AH9*0.6</f>
+        <v>30.153333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6">
+        <v>72.858333333333334</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>75</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>100</v>
-      </c>
-      <c r="P10" s="6">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>95</v>
-      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="18">
+        <f>100*SUM(E10:K10)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="18">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="T10" s="15">
-        <v>95</v>
-      </c>
-      <c r="U10" s="15">
-        <v>85</v>
-      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="18">
+        <f>SUM(M10:S10)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="18">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="6"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="18">
+        <f>SUM(U10:Y10)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="23">
-        <f t="shared" si="3"/>
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="18">
+        <f>SUM(AA10:AE10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="23">
+        <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="23">
+        <f>D10*0.4+AH10*0.6</f>
+        <v>29.143333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6">
+        <v>66.25</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>60</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>90</v>
-      </c>
-      <c r="P11" s="6">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>95</v>
-      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="18">
+        <f>100*SUM(E11:K11)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="18">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="T11" s="15">
-        <v>75</v>
-      </c>
-      <c r="U11" s="15">
-        <v>80</v>
-      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="18">
+        <f>SUM(M11:S11)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="18">
-        <f t="shared" si="4"/>
-        <v>77.5</v>
-      </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="6"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="18">
+        <f>SUM(U11:Y11)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="15"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="23">
-        <f t="shared" si="3"/>
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="18">
+        <f>SUM(AA11:AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="23">
+        <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="23">
+        <f>D11*0.4+AH11*0.6</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="6">
+        <v>62.375</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L12" s="15">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>60</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="18">
+        <f>100*SUM(E12:K12)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="18">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="T12" s="15">
-        <v>90</v>
-      </c>
-      <c r="U12" s="15">
-        <v>90</v>
-      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="18">
+        <f>SUM(M12:S12)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="18">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="6"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="18">
+        <f>SUM(U12:Y12)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="23">
-        <f t="shared" si="3"/>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="18">
+        <f>SUM(AA12:AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="23">
+        <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="23">
+        <f>D12*0.4+AH12*0.6</f>
+        <v>24.950000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="6">
+        <v>46.875</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="18">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="L13" s="15">
-        <v>100</v>
-      </c>
-      <c r="M13" s="6">
-        <v>80</v>
-      </c>
-      <c r="N13" s="6">
-        <v>80</v>
-      </c>
-      <c r="O13" s="6">
-        <v>60</v>
-      </c>
-      <c r="P13" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>95</v>
-      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="18">
+        <f>100*SUM(E13:K13)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="18">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="T13" s="15">
-        <v>0</v>
-      </c>
-      <c r="U13" s="15">
-        <v>0</v>
-      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="18">
+        <f>SUM(M13:S13)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="6"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="18">
+        <f>SUM(U13:Y13)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="15"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="23">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="18">
+        <f>SUM(AA13:AE13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="23">
+        <f>L13*0.1+T13*0.2+Z13*0.2+AF13*0.2+AG13*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="23">
+        <f>D13*0.4+AH13*0.6</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
+      <c r="D14" s="6">
+        <v>45.583333333333336</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="18">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>70</v>
-      </c>
-      <c r="N14" s="6">
-        <v>60</v>
-      </c>
-      <c r="O14" s="6">
-        <v>60</v>
-      </c>
-      <c r="P14" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>70</v>
-      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="18">
+        <f>100*SUM(E14:K14)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="18">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="T14" s="15">
-        <v>0</v>
-      </c>
-      <c r="U14" s="15">
-        <v>0</v>
-      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="18">
+        <f>SUM(M14:S14)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="6"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="18">
+        <f>SUM(U14:Y14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="23">
-        <f t="shared" si="3"/>
-        <v>20.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="18">
+        <f>SUM(AA14:AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="23">
+        <f>L14*0.1+T14*0.2+Z14*0.2+AF14*0.2+AG14*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="23">
+        <f>D14*0.4+AH14*0.6</f>
+        <v>18.233333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="6">
+        <v>41.833333333333336</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="18">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>70</v>
-      </c>
-      <c r="N15" s="6">
-        <v>60</v>
-      </c>
-      <c r="O15" s="6">
-        <v>60</v>
-      </c>
-      <c r="P15" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>65</v>
-      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="18">
+        <f>100*SUM(E15:K15)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="18">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="T15" s="15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="15">
-        <v>0</v>
-      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="18">
+        <f>SUM(M15:S15)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="6"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="18">
+        <f>SUM(U15:Y15)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="15"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="23">
-        <f t="shared" si="3"/>
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="18">
+        <f>SUM(AA15:AE15)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="23">
+        <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="23">
+        <f>D15*0.4+AH15*0.6</f>
+        <v>16.733333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="6">
+        <v>41.783333333333331</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>50</v>
-      </c>
-      <c r="N16" s="6">
-        <v>70</v>
-      </c>
-      <c r="O16" s="6">
-        <v>60</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>95</v>
-      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="18">
+        <f>100*SUM(E16:K16)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="18">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="T16" s="15">
-        <v>0</v>
-      </c>
-      <c r="U16" s="15">
-        <v>0</v>
-      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="18">
+        <f>SUM(M16:S16)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="6"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="18">
+        <f>SUM(U16:Y16)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="15"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="23">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="18">
+        <f>SUM(AA16:AE16)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="23">
+        <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="23">
+        <f>D16*0.4+AH16*0.6</f>
+        <v>16.713333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6">
+        <v>41.041666666666664</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="18">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="L17" s="15">
-        <v>100</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>60</v>
-      </c>
-      <c r="O17" s="6">
-        <v>60</v>
-      </c>
-      <c r="P17" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="18">
+        <f>100*SUM(E17:K17)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="18">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="T17" s="15">
-        <v>0</v>
-      </c>
-      <c r="U17" s="15">
-        <v>0</v>
-      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="18">
+        <f>SUM(M17:S17)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="6"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="18">
+        <f>SUM(U17:Y17)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="15"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="23">
-        <f t="shared" si="3"/>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="18">
+        <f>SUM(AA17:AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="23">
+        <f>L17*0.1+T17*0.2+Z17*0.2+AF17*0.2+AG17*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="23">
+        <f>D17*0.4+AH17*0.6</f>
+        <v>16.416666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="12">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>38.891666666666673</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="18">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="L18" s="15">
-        <v>100</v>
-      </c>
-      <c r="M18" s="6">
-        <v>60</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>65</v>
-      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="18">
+        <f>100*SUM(E18:K18)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="18">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="T18" s="15">
-        <v>0</v>
-      </c>
-      <c r="U18" s="15">
-        <v>0</v>
-      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="18">
+        <f>SUM(M18:S18)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="6"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="18">
+        <f>SUM(U18:Y18)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="15"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="23">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="18">
+        <f>SUM(AA18:AE18)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="23">
+        <f>L18*0.1+T18*0.2+Z18*0.2+AF18*0.2+AG18*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="23">
+        <f>D18*0.4+AH18*0.6</f>
+        <v>15.55666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>2</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="6">
+        <v>37.583333333333336</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="18">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>60</v>
-      </c>
-      <c r="O19" s="6">
-        <v>60</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>65</v>
-      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="18">
+        <f>100*SUM(E19:K19)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="18">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="T19" s="15">
-        <v>0</v>
-      </c>
-      <c r="U19" s="15">
-        <v>0</v>
-      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="18">
+        <f>SUM(M19:S19)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="15"/>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="6"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="18">
+        <f>SUM(U19:Y19)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="15"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="23">
-        <f t="shared" si="3"/>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="18">
+        <f>SUM(AA19:AE19)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="23">
+        <f>L19*0.1+T19*0.2+Z19*0.2+AF19*0.2+AG19*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="23">
+        <f>D19*0.4+AH19*0.6</f>
+        <v>15.033333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6">
+        <v>36.625</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="18">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>60</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>50</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>85</v>
-      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="18">
+        <f>100*SUM(E20:K20)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="18">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="T20" s="15">
-        <v>0</v>
-      </c>
-      <c r="U20" s="15">
-        <v>0</v>
-      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="18">
+        <f>SUM(M20:S20)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="6"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="18">
+        <f>SUM(U20:Y20)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="15"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="23">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="18">
+        <f>SUM(AA20:AE20)</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="23">
+        <f>L20*0.1+T20*0.2+Z20*0.2+AF20*0.2+AG20*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="23">
+        <f>D20*0.4+AH20*0.6</f>
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6">
+        <v>31.208333333333336</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="18">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>60</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>50</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>65</v>
-      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="18">
+        <f>100*SUM(E21:K21)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="18">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="T21" s="15">
-        <v>0</v>
-      </c>
-      <c r="U21" s="15">
-        <v>0</v>
-      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="18">
+        <f>SUM(M21:S21)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="6"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="18">
+        <f>SUM(U21:Y21)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="23">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="18">
+        <f>SUM(AA21:AE21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="23">
+        <f>L21*0.1+T21*0.2+Z21*0.2+AF21*0.2+AG21*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="23">
+        <f>D21*0.4+AH21*0.6</f>
+        <v>12.483333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="6">
+        <v>11.25</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="18">
+        <f>100*SUM(E22:K22)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="15">
-        <v>30</v>
-      </c>
-      <c r="U22" s="15">
-        <v>30</v>
-      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="18">
+        <f>SUM(M22:S22)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="18">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="6"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="18">
+        <f>SUM(U22:Y22)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="15"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="23">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="18">
+        <f>SUM(AA22:AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="23">
+        <f>L22*0.1+T22*0.2+Z22*0.2+AF22*0.2+AG22*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="23">
+        <f>D22*0.4+AH22*0.6</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7.7083333333333339</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="18">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>60</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>40</v>
-      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="18">
+        <f>100*SUM(E23:K23)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="18">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="T23" s="15">
-        <v>0</v>
-      </c>
-      <c r="U23" s="15">
-        <v>0</v>
-      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="18">
+        <f>SUM(M23:S23)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="6"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="18">
+        <f>SUM(U23:Y23)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="15"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="23">
-        <f t="shared" si="3"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="18">
+        <f>SUM(AA23:AE23)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="23">
+        <f>L23*0.1+T23*0.2+Z23*0.2+AF23*0.2+AG23*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="23">
+        <f>D23*0.4+AH23*0.6</f>
+        <v>3.0833333333333339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>85</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="18">
+        <f>100*SUM(E24:K24)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="T24" s="15">
-        <v>0</v>
-      </c>
-      <c r="U24" s="15">
-        <v>0</v>
-      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="18">
+        <f>SUM(M24:S24)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="6"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="18">
+        <f>SUM(U24:Y24)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="15"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="23">
-        <f t="shared" si="3"/>
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="18">
+        <f>SUM(AA24:AE24)</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="23">
+        <f>L24*0.1+T24*0.2+Z24*0.2+AF24*0.2+AG24*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="23">
+        <f>D24*0.4+AH24*0.6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
+      <c r="D25" s="6">
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="18">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>60</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="18">
+        <f>100*SUM(E25:K25)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="18">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="T25" s="15">
-        <v>0</v>
-      </c>
-      <c r="U25" s="15">
-        <v>0</v>
-      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="18">
+        <f>SUM(M25:S25)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
-      <c r="Y25" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="6"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="18">
+        <f>SUM(U25:Y25)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="15"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="23">
-        <f t="shared" si="3"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="18">
+        <f>SUM(AA25:AE25)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="23">
+        <f>L25*0.1+T25*0.2+Z25*0.2+AF25*0.2+AG25*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="23">
+        <f>D25*0.4+AH25*0.6</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="18">
+        <f>100*SUM(E26:K26)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="15">
-        <v>0</v>
-      </c>
-      <c r="U26" s="15">
-        <v>0</v>
-      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="18">
+        <f>SUM(M26:S26)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="15"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
-      <c r="Y26" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="6"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="18">
+        <f>SUM(U26:Y26)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="15"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="18">
+        <f>SUM(AA26:AE26)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="23">
+        <f>L26*0.1+T26*0.2+Z26*0.2+AF26*0.2+AG26*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="23">
+        <f>D26*0.4+AH26*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="15">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="18">
+        <f>100*SUM(E27:K27)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="15">
-        <v>0</v>
-      </c>
-      <c r="U27" s="15">
-        <v>0</v>
-      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="18">
+        <f>SUM(M27:S27)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="15"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
-      <c r="Y27" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="6"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="18">
+        <f>SUM(U27:Y27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="15"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="18">
+        <f>SUM(AA27:AE27)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="23">
+        <f>L27*0.1+T27*0.2+Z27*0.2+AF27*0.2+AG27*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="23">
+        <f>D27*0.4+AH27*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="18">
+        <f>100*SUM(E28:K28)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="15">
-        <v>0</v>
-      </c>
-      <c r="U28" s="15">
-        <v>0</v>
-      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="18">
+        <f>SUM(M28:S28)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="15"/>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
-      <c r="Y28" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="6"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="18">
+        <f>SUM(U28:Y28)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="18">
+        <f>SUM(AA28:AE28)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="23">
+        <f>L28*0.1+T28*0.2+Z28*0.2+AF28*0.2+AG28*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="23">
+        <f>D28*0.4+AH28*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="15">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="18">
+        <f>100*SUM(E29:K29)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="15">
-        <v>0</v>
-      </c>
-      <c r="U29" s="15">
-        <v>0</v>
-      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="18">
+        <f>SUM(M29:S29)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
-      <c r="Y29" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="6"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="18">
+        <f>SUM(U29:Y29)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="18">
+        <f>SUM(AA29:AE29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="23">
+        <f>L29*0.1+T29*0.2+Z29*0.2+AF29*0.2+AG29*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="23">
+        <f>D29*0.4+AH29*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="18">
+        <f>100*SUM(E30:K30)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="15">
-        <v>0</v>
-      </c>
-      <c r="U30" s="15">
-        <v>0</v>
-      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="18">
+        <f>SUM(M30:S30)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="15"/>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
-      <c r="Y30" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="6"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="18">
+        <f>SUM(U30:Y30)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="15"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="18">
+        <f>SUM(AA30:AE30)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="23">
+        <f>L30*0.1+T30*0.2+Z30*0.2+AF30*0.2+AG30*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="23">
+        <f>D30*0.4+AH30*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="12">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0</v>
-      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="18">
+        <f>100*SUM(E31:K31)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="15">
-        <v>0</v>
-      </c>
-      <c r="U31" s="15">
-        <v>0</v>
-      </c>
+      <c r="S31" s="6"/>
+      <c r="T31" s="18">
+        <f>SUM(M31:S31)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
-      <c r="Y31" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="6"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="18">
+        <f>SUM(U31:Y31)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="15"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="18">
+        <f>SUM(AA31:AE31)</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="23">
+        <f>L31*0.1+T31*0.2+Z31*0.2+AF31*0.2+AG31*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="23">
+        <f>D31*0.4+AH31*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="15">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0</v>
-      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="18">
+        <f>100*SUM(E32:K32)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="15">
-        <v>0</v>
-      </c>
-      <c r="U32" s="15">
-        <v>0</v>
-      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="18">
+        <f>SUM(M32:S32)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
-      <c r="Y32" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="6"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="18">
+        <f>SUM(U32:Y32)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="15"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="18">
+        <f>SUM(AA32:AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="23">
+        <f>L32*0.1+T32*0.2+Z32*0.2+AF32*0.2+AG32*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="23">
+        <f>D32*0.4+AH32*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="13">
-        <v>0</v>
-      </c>
-      <c r="E33" s="14">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14">
-        <v>0</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="15">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="17">
-        <v>0</v>
-      </c>
-      <c r="O33" s="17">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="17"/>
-      <c r="S33" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="15">
-        <v>0</v>
-      </c>
-      <c r="U33" s="15">
-        <v>0</v>
-      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="18">
+        <f>100*SUM(E33:K33)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="18">
+        <f>SUM(M33:S33)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
-      <c r="Y33" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="17"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="18">
+        <f>SUM(U33:Y33)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="16"/>
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
-      <c r="AE33" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="18">
+        <f>SUM(AA33:AE33)</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="27">
+        <f>L33*0.1+T33*0.2+Z33*0.2+AF33*0.2+AG33*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="23">
+        <f>D33*0.4+AH33*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -7927,8 +7512,9 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -7936,7 +7522,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -7954,8 +7540,9 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -7963,7 +7550,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -7981,8 +7568,9 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -7990,7 +7578,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -8008,8 +7596,9 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z37" s="9"/>
+    </row>
+    <row r="38" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8017,7 +7606,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -8035,8 +7624,9 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8044,7 +7634,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -8062,8 +7652,9 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="9"/>
+    </row>
+    <row r="40" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8071,7 +7662,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -8089,8 +7680,9 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8098,7 +7690,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -8116,8 +7708,9 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8125,7 +7718,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -8143,8 +7736,9 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z42" s="9"/>
+    </row>
+    <row r="43" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8152,7 +7746,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -8170,8 +7764,9 @@
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
-    </row>
-    <row r="44" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8179,7 +7774,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -8197,8 +7792,9 @@
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
-    </row>
-    <row r="45" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z44" s="9"/>
+    </row>
+    <row r="45" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8206,7 +7802,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -8224,8 +7820,9 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
-    </row>
-    <row r="46" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z45" s="9"/>
+    </row>
+    <row r="46" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8233,7 +7830,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -8251,8 +7848,9 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
-    </row>
-    <row r="47" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z46" s="9"/>
+    </row>
+    <row r="47" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8260,7 +7858,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -8278,8 +7876,9 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
-    </row>
-    <row r="48" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z47" s="9"/>
+    </row>
+    <row r="48" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8287,7 +7886,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -8305,8 +7904,9 @@
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
-    </row>
-    <row r="49" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z48" s="9"/>
+    </row>
+    <row r="49" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8314,7 +7914,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -8332,8 +7932,9 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
-    </row>
-    <row r="50" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z49" s="9"/>
+    </row>
+    <row r="50" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8341,7 +7942,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -8359,8 +7960,9 @@
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="9"/>
-    </row>
-    <row r="51" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z50" s="9"/>
+    </row>
+    <row r="51" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8368,7 +7970,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -8386,8 +7988,9 @@
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
-    </row>
-    <row r="52" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z51" s="9"/>
+    </row>
+    <row r="52" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8395,7 +7998,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -8413,8 +8016,9 @@
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
-    </row>
-    <row r="53" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z52" s="9"/>
+    </row>
+    <row r="53" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8422,7 +8026,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -8440,8 +8044,9 @@
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
-    </row>
-    <row r="54" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z53" s="9"/>
+    </row>
+    <row r="54" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8449,7 +8054,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -8467,8 +8072,9 @@
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
-    </row>
-    <row r="55" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z54" s="9"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8476,7 +8082,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -8494,8 +8100,9 @@
       <c r="W55" s="9"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
-    </row>
-    <row r="56" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z55" s="9"/>
+    </row>
+    <row r="56" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8503,7 +8110,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -8521,8 +8128,9 @@
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
-    </row>
-    <row r="57" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z56" s="9"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8530,7 +8138,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -8548,8 +8156,9 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
-    </row>
-    <row r="58" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z57" s="9"/>
+    </row>
+    <row r="58" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8557,7 +8166,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -8575,8 +8184,9 @@
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
-    </row>
-    <row r="59" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z58" s="9"/>
+    </row>
+    <row r="59" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8584,7 +8194,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -8602,8 +8212,9 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
-    </row>
-    <row r="60" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z59" s="9"/>
+    </row>
+    <row r="60" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8611,7 +8222,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -8629,8 +8240,9 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
-    </row>
-    <row r="61" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z60" s="9"/>
+    </row>
+    <row r="61" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8638,7 +8250,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -8656,8 +8268,9 @@
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
-    </row>
-    <row r="62" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z61" s="9"/>
+    </row>
+    <row r="62" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8665,7 +8278,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -8683,8 +8296,9 @@
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
-    </row>
-    <row r="63" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z62" s="9"/>
+    </row>
+    <row r="63" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8692,7 +8306,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -8710,8 +8324,9 @@
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
-    </row>
-    <row r="64" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z63" s="9"/>
+    </row>
+    <row r="64" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8719,7 +8334,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -8737,8 +8352,9 @@
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
-    </row>
-    <row r="65" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z64" s="9"/>
+    </row>
+    <row r="65" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8746,7 +8362,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -8764,8 +8380,9 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
-    </row>
-    <row r="66" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z65" s="9"/>
+    </row>
+    <row r="66" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8773,7 +8390,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -8791,8 +8408,9 @@
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
-    </row>
-    <row r="67" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z66" s="9"/>
+    </row>
+    <row r="67" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -8800,7 +8418,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -8818,8 +8436,9 @@
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
-    </row>
-    <row r="68" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z67" s="9"/>
+    </row>
+    <row r="68" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -8827,7 +8446,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -8845,8 +8464,9 @@
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
-    </row>
-    <row r="69" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z68" s="9"/>
+    </row>
+    <row r="69" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -8854,7 +8474,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -8872,8 +8492,9 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
-    </row>
-    <row r="70" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z69" s="9"/>
+    </row>
+    <row r="70" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -8881,7 +8502,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -8899,8 +8520,9 @@
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
-    </row>
-    <row r="71" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z70" s="9"/>
+    </row>
+    <row r="71" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -8908,7 +8530,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -8926,8 +8548,9 @@
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
-    </row>
-    <row r="72" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z71" s="9"/>
+    </row>
+    <row r="72" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8935,7 +8558,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -8953,8 +8576,9 @@
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
-    </row>
-    <row r="73" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z72" s="9"/>
+    </row>
+    <row r="73" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8962,7 +8586,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -8980,8 +8604,9 @@
       <c r="W73" s="9"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
-    </row>
-    <row r="74" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z73" s="9"/>
+    </row>
+    <row r="74" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8989,7 +8614,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -9007,8 +8632,9 @@
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
-    </row>
-    <row r="75" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z74" s="9"/>
+    </row>
+    <row r="75" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9016,7 +8642,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -9034,8 +8660,9 @@
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
-    </row>
-    <row r="76" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z75" s="9"/>
+    </row>
+    <row r="76" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9043,7 +8670,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="8"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -9061,8 +8688,9 @@
       <c r="W76" s="9"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
-    </row>
-    <row r="77" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z76" s="9"/>
+    </row>
+    <row r="77" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9070,7 +8698,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="8"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -9088,8 +8716,9 @@
       <c r="W77" s="9"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
-    </row>
-    <row r="78" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z77" s="9"/>
+    </row>
+    <row r="78" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9097,7 +8726,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="8"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -9115,8 +8744,9 @@
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
-    </row>
-    <row r="79" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z78" s="9"/>
+    </row>
+    <row r="79" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9124,7 +8754,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -9142,8 +8772,9 @@
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
-    </row>
-    <row r="80" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z79" s="9"/>
+    </row>
+    <row r="80" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9151,7 +8782,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -9169,8 +8800,9 @@
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
-    </row>
-    <row r="81" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z80" s="9"/>
+    </row>
+    <row r="81" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9178,7 +8810,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -9196,28 +8828,32 @@
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="A3:AI33">
+    <sortCondition descending="1" ref="AI3"/>
+  </sortState>
   <mergeCells count="4">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AF1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+  <conditionalFormatting sqref="E3:K33">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K33">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="L3:L33">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9230,8 +8866,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S33">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="T3:T33">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9244,8 +8880,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y33">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="Z3:Z33">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9258,8 +8894,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE33">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="AF3:AF33">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9272,8 +8908,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG33">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="AH3:AH33">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9286,24 +8922,55 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+  <conditionalFormatting sqref="M3:S33">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:X33">
+  <conditionalFormatting sqref="U3:Y33">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
+      <formula>80</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI33">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2008DEFA-B118-4E92-B0F8-C5059B874A32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D33">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -9317,7 +8984,7 @@
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>80</formula>
-      <formula>200</formula>
+      <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9335,7 +9002,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K33</xm:sqref>
+          <xm:sqref>L3:L33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
@@ -9346,7 +9013,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S33</xm:sqref>
+          <xm:sqref>T3:T33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77C9A01F-EA1B-4605-8E36-B0BAF3BB9AE5}">
@@ -9357,7 +9024,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y33</xm:sqref>
+          <xm:sqref>Z3:Z33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{56E5E5A3-F957-491E-9C01-522DE745411E}">
@@ -9368,7 +9035,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE3:AE33</xm:sqref>
+          <xm:sqref>AF3:AF33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -9379,7 +9046,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AG3:AG33</xm:sqref>
+          <xm:sqref>AH3:AH33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AI3:AI33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="1" r:id="rId1"/>
@@ -1448,9 +1448,9 @@
   </sheetPr>
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1617,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K3" s="18">
-        <f>100*SUM(D3:J3)/(2*A$1)</f>
+        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
         <v>90</v>
       </c>
       <c r="L3" s="15">
@@ -1643,7 +1643,7 @@
         <v>75</v>
       </c>
       <c r="S3" s="18">
-        <f>SUM(L3:R3)/(A$1)</f>
+        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
         <v>109.16666666666667</v>
       </c>
       <c r="T3" s="15">
@@ -1653,14 +1653,14 @@
         <v>110</v>
       </c>
       <c r="V3" s="18">
-        <f>SUM(T3:U3)/2</f>
+        <f t="shared" ref="V3:V33" si="2">SUM(T3:U3)/2</f>
         <v>105</v>
       </c>
       <c r="W3" s="6">
         <v>96</v>
       </c>
       <c r="X3" s="23">
-        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
+        <f t="shared" ref="X3:X33" si="3">K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
         <v>100.34166666666667</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="18">
-        <f>100*SUM(D4:J4)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="L4" s="15">
@@ -1725,7 +1725,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="18">
-        <f>SUM(L4:R4)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>95.833333333333329</v>
       </c>
       <c r="T4" s="15">
@@ -1735,14 +1735,14 @@
         <v>100</v>
       </c>
       <c r="V4" s="18">
-        <f>SUM(T4:U4)/2</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="W4" s="6">
         <v>87</v>
       </c>
       <c r="X4" s="23">
-        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3</f>
+        <f t="shared" si="3"/>
         <v>93.933333333333323</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="18">
-        <f>100*SUM(D5:J5)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L5" s="15">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="18">
-        <f>SUM(L5:R5)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="T5" s="15">
@@ -1814,14 +1814,14 @@
         <v>100</v>
       </c>
       <c r="V5" s="18">
-        <f>SUM(T5:U5)/2</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="W5" s="6">
         <v>97</v>
       </c>
       <c r="X5" s="23">
-        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3</f>
+        <f t="shared" si="3"/>
         <v>90.766666666666666</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
         <v>1.9</v>
       </c>
       <c r="K6" s="18">
-        <f>100*SUM(D6:J6)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>107.5</v>
       </c>
       <c r="L6" s="15">
@@ -1883,7 +1883,7 @@
         <v>85</v>
       </c>
       <c r="S6" s="18">
-        <f>SUM(L6:R6)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>90.833333333333329</v>
       </c>
       <c r="T6" s="15">
@@ -1893,14 +1893,14 @@
         <v>85</v>
       </c>
       <c r="V6" s="18">
-        <f>SUM(T6:U6)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W6" s="6">
         <v>68</v>
       </c>
       <c r="X6" s="23">
-        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3</f>
+        <f t="shared" si="3"/>
         <v>83.98333333333332</v>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="18">
-        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="L7" s="15">
@@ -1962,7 +1962,7 @@
         <v>90</v>
       </c>
       <c r="S7" s="18">
-        <f>SUM(L7:R7)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>88.333333333333329</v>
       </c>
       <c r="T7" s="15">
@@ -1972,14 +1972,14 @@
         <v>90</v>
       </c>
       <c r="V7" s="18">
-        <f>SUM(T7:U7)/2</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="W7" s="6">
         <v>63</v>
       </c>
       <c r="X7" s="23">
-        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3</f>
+        <f t="shared" si="3"/>
         <v>83.98333333333332</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>1.9</v>
       </c>
       <c r="K8" s="18">
-        <f>100*SUM(D8:J8)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>99.166666666666671</v>
       </c>
       <c r="L8" s="15">
@@ -2041,7 +2041,7 @@
         <v>85</v>
       </c>
       <c r="S8" s="18">
-        <f>SUM(L8:R8)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>90.833333333333329</v>
       </c>
       <c r="T8" s="15">
@@ -2051,14 +2051,14 @@
         <v>80</v>
       </c>
       <c r="V8" s="18">
-        <f>SUM(T8:U8)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W8" s="6">
         <v>64</v>
       </c>
       <c r="X8" s="23">
-        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3</f>
+        <f t="shared" si="3"/>
         <v>81.116666666666674</v>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="18">
-        <f>100*SUM(D9:J9)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L9" s="15">
@@ -2120,7 +2120,7 @@
         <v>70</v>
       </c>
       <c r="S9" s="18">
-        <f>SUM(L9:R9)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>71.666666666666671</v>
       </c>
       <c r="T9" s="15">
@@ -2130,14 +2130,14 @@
         <v>85</v>
       </c>
       <c r="V9" s="18">
-        <f>SUM(T9:U9)/2</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="W9" s="6">
         <v>61</v>
       </c>
       <c r="X9" s="23">
-        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3</f>
+        <f t="shared" si="3"/>
         <v>75.38333333333334</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="18">
-        <f>100*SUM(D10:J10)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L10" s="15">
@@ -2199,7 +2199,7 @@
         <v>90</v>
       </c>
       <c r="S10" s="18">
-        <f>SUM(L10:R10)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>71.666666666666671</v>
       </c>
       <c r="T10" s="15">
@@ -2209,14 +2209,14 @@
         <v>80</v>
       </c>
       <c r="V10" s="18">
-        <f>SUM(T10:U10)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W10" s="6">
         <v>63</v>
       </c>
       <c r="X10" s="23">
-        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3</f>
+        <f t="shared" si="3"/>
         <v>72.858333333333334</v>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="18">
-        <f>100*SUM(D11:J11)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="L11" s="15">
@@ -2278,7 +2278,7 @@
         <v>90</v>
       </c>
       <c r="S11" s="18">
-        <f>SUM(L11:R11)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
       <c r="T11" s="15">
@@ -2288,14 +2288,14 @@
         <v>90</v>
       </c>
       <c r="V11" s="18">
-        <f>SUM(T11:U11)/2</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="W11" s="6">
         <v>0</v>
       </c>
       <c r="X11" s="23">
-        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3</f>
+        <f t="shared" si="3"/>
         <v>66.25</v>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
         <v>1.9</v>
       </c>
       <c r="K12" s="18">
-        <f>100*SUM(D12:J12)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>110.83333333333333</v>
       </c>
       <c r="L12" s="15">
@@ -2357,7 +2357,7 @@
         <v>90</v>
       </c>
       <c r="S12" s="18">
-        <f>SUM(L12:R12)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>100.83333333333333</v>
       </c>
       <c r="T12" s="15">
@@ -2367,14 +2367,14 @@
         <v>0</v>
       </c>
       <c r="V12" s="18">
-        <f>SUM(T12:U12)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="6">
         <v>50</v>
       </c>
       <c r="X12" s="23">
-        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3</f>
+        <f t="shared" si="3"/>
         <v>62.375</v>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="18">
-        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L13" s="15">
@@ -2436,7 +2436,7 @@
         <v>90</v>
       </c>
       <c r="S13" s="18">
-        <f>SUM(L13:R13)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>60.833333333333336</v>
       </c>
       <c r="T13" s="15">
@@ -2446,14 +2446,14 @@
         <v>0</v>
       </c>
       <c r="V13" s="18">
-        <f>SUM(T13:U13)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="6">
         <v>50</v>
       </c>
       <c r="X13" s="23">
-        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3</f>
+        <f t="shared" si="3"/>
         <v>46.875</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="18">
-        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
       <c r="L14" s="15">
@@ -2515,7 +2515,7 @@
         <v>50</v>
       </c>
       <c r="S14" s="18">
-        <f>SUM(L14:R14)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="T14" s="15">
@@ -2525,14 +2525,14 @@
         <v>0</v>
       </c>
       <c r="V14" s="18">
-        <f>SUM(T14:U14)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="6">
         <v>45</v>
       </c>
       <c r="X14" s="23">
-        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3</f>
+        <f t="shared" si="3"/>
         <v>45.583333333333336</v>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="18">
-        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L15" s="15">
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="18">
-        <f>SUM(L15:R15)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T15" s="15">
@@ -2604,14 +2604,14 @@
         <v>90</v>
       </c>
       <c r="V15" s="18">
-        <f>SUM(T15:U15)/2</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="W15" s="6">
         <v>45</v>
       </c>
       <c r="X15" s="23">
-        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3</f>
+        <f t="shared" si="3"/>
         <v>41.833333333333336</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="18">
-        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L16" s="15">
@@ -2673,7 +2673,7 @@
         <v>95</v>
       </c>
       <c r="S16" s="18">
-        <f>SUM(L16:R16)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>48.333333333333336</v>
       </c>
       <c r="T16" s="15">
@@ -2683,14 +2683,14 @@
         <v>0</v>
       </c>
       <c r="V16" s="18">
-        <f>SUM(T16:U16)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="6">
         <v>59</v>
       </c>
       <c r="X16" s="23">
-        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3</f>
+        <f t="shared" si="3"/>
         <v>41.783333333333331</v>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="18">
-        <f>100*SUM(D17:J17)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="L17" s="15">
@@ -2752,7 +2752,7 @@
         <v>80</v>
       </c>
       <c r="S17" s="18">
-        <f>SUM(L17:R17)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>44.166666666666664</v>
       </c>
       <c r="T17" s="15">
@@ -2762,14 +2762,14 @@
         <v>0</v>
       </c>
       <c r="V17" s="18">
-        <f>SUM(T17:U17)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="6">
         <v>50</v>
       </c>
       <c r="X17" s="23">
-        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3</f>
+        <f t="shared" si="3"/>
         <v>41.041666666666664</v>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="18">
-        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
       <c r="L18" s="15">
@@ -2831,7 +2831,7 @@
         <v>70</v>
       </c>
       <c r="S18" s="18">
-        <f>SUM(L18:R18)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>55.833333333333336</v>
       </c>
       <c r="T18" s="15">
@@ -2841,14 +2841,14 @@
         <v>0</v>
       </c>
       <c r="V18" s="18">
-        <f>SUM(T18:U18)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="6">
         <v>22</v>
       </c>
       <c r="X18" s="23">
-        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3</f>
+        <f t="shared" si="3"/>
         <v>38.891666666666673</v>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="18">
-        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="L19" s="15">
@@ -2910,7 +2910,7 @@
         <v>60</v>
       </c>
       <c r="S19" s="18">
-        <f>SUM(L19:R19)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>48.333333333333336</v>
       </c>
       <c r="T19" s="15">
@@ -2920,14 +2920,14 @@
         <v>0</v>
       </c>
       <c r="V19" s="18">
-        <f>SUM(T19:U19)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="6">
         <v>30</v>
       </c>
       <c r="X19" s="23">
-        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3</f>
+        <f t="shared" si="3"/>
         <v>37.583333333333336</v>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="18">
-        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="L20" s="15">
@@ -2989,7 +2989,7 @@
         <v>80</v>
       </c>
       <c r="S20" s="18">
-        <f>SUM(L20:R20)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
       <c r="T20" s="15">
@@ -2999,14 +2999,14 @@
         <v>0</v>
       </c>
       <c r="V20" s="18">
-        <f>SUM(T20:U20)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="6">
         <v>45</v>
       </c>
       <c r="X20" s="23">
-        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3</f>
+        <f t="shared" si="3"/>
         <v>36.625</v>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="18">
-        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="L21" s="15">
@@ -3068,7 +3068,7 @@
         <v>60</v>
       </c>
       <c r="S21" s="18">
-        <f>SUM(L21:R21)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
       <c r="T21" s="15">
@@ -3078,14 +3078,14 @@
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f>SUM(T21:U21)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="6">
         <v>20</v>
       </c>
       <c r="X21" s="23">
-        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3</f>
+        <f t="shared" si="3"/>
         <v>31.208333333333336</v>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="18">
-        <f>100*SUM(D22:J22)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="L22" s="15">
@@ -3141,11 +3141,11 @@
         <v>40</v>
       </c>
       <c r="R22" s="6">
-        <f>J22*50</f>
+        <f t="shared" ref="R22:R33" si="4">J22*50</f>
         <v>0</v>
       </c>
       <c r="S22" s="18">
-        <f>SUM(L22:R22)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>18.333333333333332</v>
       </c>
       <c r="T22" s="15">
@@ -3155,14 +3155,14 @@
         <v>0</v>
       </c>
       <c r="V22" s="18">
-        <f>SUM(T22:U22)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="6">
         <v>0</v>
       </c>
       <c r="X22" s="23">
-        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3</f>
+        <f t="shared" si="3"/>
         <v>11.25</v>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="18">
-        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>20.833333333333332</v>
       </c>
       <c r="L23" s="15">
@@ -3220,11 +3220,11 @@
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <f>J23*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S23" s="18">
-        <f>SUM(L23:R23)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>14.166666666666666</v>
       </c>
       <c r="T23" s="15">
@@ -3234,14 +3234,14 @@
         <v>0</v>
       </c>
       <c r="V23" s="18">
-        <f>SUM(T23:U23)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23" s="6">
         <v>0</v>
       </c>
       <c r="X23" s="23">
-        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3</f>
+        <f t="shared" si="3"/>
         <v>7.7083333333333339</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="18">
-        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="15">
@@ -3299,11 +3299,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="6">
-        <f>J24*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24" s="18">
-        <f>SUM(L24:R24)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="15">
@@ -3313,14 +3313,14 @@
         <v>30</v>
       </c>
       <c r="V24" s="18">
-        <f>SUM(T24:U24)/2</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="W24" s="6">
         <v>0</v>
       </c>
       <c r="X24" s="23">
-        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="18">
-        <f>100*SUM(D25:J25)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L25" s="15">
@@ -3378,11 +3378,11 @@
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f>J25*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25" s="18">
-        <f>SUM(L25:R25)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T25" s="15">
@@ -3392,14 +3392,14 @@
         <v>0</v>
       </c>
       <c r="V25" s="18">
-        <f>SUM(T25:U25)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="6">
         <v>0</v>
       </c>
       <c r="X25" s="23">
-        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3</f>
+        <f t="shared" si="3"/>
         <v>5.8333333333333339</v>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="18">
-        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -3457,11 +3457,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f>J26*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26" s="18">
-        <f>SUM(L26:R26)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="15">
@@ -3471,14 +3471,14 @@
         <v>0</v>
       </c>
       <c r="V26" s="18">
-        <f>SUM(T26:U26)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="6">
         <v>0</v>
       </c>
       <c r="X26" s="23">
-        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="18">
-        <f>100*SUM(D27:J27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3536,11 +3536,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f>J27*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="18">
-        <f>SUM(L27:R27)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="15">
@@ -3550,14 +3550,14 @@
         <v>0</v>
       </c>
       <c r="V27" s="18">
-        <f>SUM(T27:U27)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="6">
         <v>0</v>
       </c>
       <c r="X27" s="23">
-        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="18">
-        <f>100*SUM(D28:J28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3615,11 +3615,11 @@
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f>J28*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" s="18">
-        <f>SUM(L28:R28)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="15">
@@ -3629,14 +3629,14 @@
         <v>0</v>
       </c>
       <c r="V28" s="18">
-        <f>SUM(T28:U28)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="6">
         <v>0</v>
       </c>
       <c r="X28" s="23">
-        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="18">
-        <f>100*SUM(D29:J29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3694,11 +3694,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <f>J29*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="18">
-        <f>SUM(L29:R29)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="15">
@@ -3708,14 +3708,14 @@
         <v>0</v>
       </c>
       <c r="V29" s="18">
-        <f>SUM(T29:U29)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="6">
         <v>0</v>
       </c>
       <c r="X29" s="23">
-        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="18">
-        <f>100*SUM(D30:J30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3773,11 +3773,11 @@
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f>J30*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S30" s="18">
-        <f>SUM(L30:R30)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="15">
@@ -3787,14 +3787,14 @@
         <v>0</v>
       </c>
       <c r="V30" s="18">
-        <f>SUM(T30:U30)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="6">
         <v>0</v>
       </c>
       <c r="X30" s="23">
-        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="18">
-        <f>100*SUM(D31:J31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3852,11 +3852,11 @@
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f>J31*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="18">
-        <f>SUM(L31:R31)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="15">
@@ -3866,14 +3866,14 @@
         <v>0</v>
       </c>
       <c r="V31" s="18">
-        <f>SUM(T31:U31)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="6">
         <v>0</v>
       </c>
       <c r="X31" s="23">
-        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="18">
-        <f>100*SUM(D32:J32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3931,11 +3931,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="6">
-        <f>J32*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S32" s="18">
-        <f>SUM(L32:R32)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32" s="15">
@@ -3945,14 +3945,14 @@
         <v>0</v>
       </c>
       <c r="V32" s="18">
-        <f>SUM(T32:U32)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="6">
         <v>0</v>
       </c>
       <c r="X32" s="23">
-        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="18">
-        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -4010,11 +4010,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f>J33*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S33" s="18">
-        <f>SUM(L33:R33)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T33" s="15">
@@ -4024,14 +4024,14 @@
         <v>0</v>
       </c>
       <c r="V33" s="18">
-        <f>SUM(T33:U33)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="6">
         <v>0</v>
       </c>
       <c r="X33" s="23">
-        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5363,9 +5363,9 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI3" sqref="AI3"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5566,7 +5566,9 @@
       <c r="D3" s="6">
         <v>100.34166666666667</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="43">
+        <v>1</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5574,8 +5576,8 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="18">
-        <f>100*SUM(E3:K3)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" ref="L3:L33" si="0">100*SUM(E3:K3)/(2*A$1)</f>
+        <v>10</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="6"/>
@@ -5585,7 +5587,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="18">
-        <f>SUM(M3:S3)/(A$1)</f>
+        <f t="shared" ref="T3:T33" si="1">SUM(M3:S3)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U3" s="15"/>
@@ -5594,7 +5596,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="18">
-        <f>SUM(U3:Y3)/2</f>
+        <f t="shared" ref="Z3:Z33" si="2">SUM(U3:Y3)/2</f>
         <v>0</v>
       </c>
       <c r="AA3" s="15"/>
@@ -5603,17 +5605,17 @@
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="18">
-        <f>SUM(AA3:AE3)</f>
+        <f t="shared" ref="AF3:AF33" si="3">SUM(AA3:AE3)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="23">
-        <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
-        <v>0</v>
+        <f t="shared" ref="AH3:AH33" si="4">L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
+        <v>1</v>
       </c>
       <c r="AI3" s="23">
-        <f>D3*0.4+AH3*0.6</f>
-        <v>40.13666666666667</v>
+        <f t="shared" ref="AI3:AI33" si="5">D3*0.4+AH3*0.6</f>
+        <v>40.736666666666672</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5629,7 +5631,9 @@
       <c r="D4" s="6">
         <v>93.933333333333323</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="43">
+        <v>1</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -5637,8 +5641,8 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="18">
-        <f>100*SUM(E4:K4)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="6"/>
@@ -5648,7 +5652,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="18">
-        <f>SUM(M4:S4)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="15"/>
@@ -5657,7 +5661,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="18">
-        <f>SUM(U4:Y4)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA4" s="15"/>
@@ -5666,17 +5670,17 @@
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="18">
-        <f>SUM(AA4:AE4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG4" s="15"/>
       <c r="AH4" s="23">
-        <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI4" s="23">
-        <f>D4*0.4+AH4*0.6</f>
-        <v>37.573333333333331</v>
+        <f t="shared" si="5"/>
+        <v>38.173333333333332</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5700,7 +5704,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="18">
-        <f>100*SUM(E5:K5)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="15"/>
@@ -5711,7 +5715,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="18">
-        <f>SUM(M5:S5)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="15"/>
@@ -5720,7 +5724,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="18">
-        <f>SUM(U5:Y5)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA5" s="15"/>
@@ -5729,16 +5733,16 @@
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="18">
-        <f>SUM(AA5:AE5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG5" s="15"/>
       <c r="AH5" s="23">
-        <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI5" s="23">
-        <f>D5*0.4+AH5*0.6</f>
+        <f t="shared" si="5"/>
         <v>36.306666666666665</v>
       </c>
     </row>
@@ -5755,7 +5759,9 @@
       <c r="D6" s="6">
         <v>83.98333333333332</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="43">
+        <v>0.9</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -5763,8 +5769,8 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="18">
-        <f>100*SUM(E6:K6)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
@@ -5774,7 +5780,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="18">
-        <f>SUM(M6:S6)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U6" s="15"/>
@@ -5783,7 +5789,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="18">
-        <f>SUM(U6:Y6)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA6" s="15"/>
@@ -5792,17 +5798,17 @@
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="18">
-        <f>SUM(AA6:AE6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG6" s="15"/>
       <c r="AH6" s="23">
-        <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
       <c r="AI6" s="23">
-        <f>D6*0.4+AH6*0.6</f>
-        <v>33.593333333333327</v>
+        <f t="shared" si="5"/>
+        <v>34.133333333333326</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5826,7 +5832,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="18">
-        <f>100*SUM(E7:K7)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="15"/>
@@ -5837,7 +5843,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="18">
-        <f>SUM(M7:S7)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U7" s="15"/>
@@ -5846,7 +5852,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="18">
-        <f>SUM(U7:Y7)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="15"/>
@@ -5855,16 +5861,16 @@
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="18">
-        <f>SUM(AA7:AE7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG7" s="15"/>
       <c r="AH7" s="23">
-        <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI7" s="23">
-        <f>D7*0.4+AH7*0.6</f>
+        <f t="shared" si="5"/>
         <v>33.593333333333327</v>
       </c>
     </row>
@@ -5881,7 +5887,9 @@
       <c r="D8" s="6">
         <v>81.116666666666674</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="43">
+        <v>1</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5889,8 +5897,8 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="18">
-        <f>100*SUM(E8:K8)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="6"/>
@@ -5900,7 +5908,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="18">
-        <f>SUM(M8:S8)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U8" s="15"/>
@@ -5909,7 +5917,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="18">
-        <f>SUM(U8:Y8)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA8" s="15"/>
@@ -5918,17 +5926,17 @@
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="18">
-        <f>SUM(AA8:AE8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG8" s="15"/>
       <c r="AH8" s="23">
-        <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI8" s="23">
-        <f>D8*0.4+AH8*0.6</f>
-        <v>32.446666666666673</v>
+        <f t="shared" si="5"/>
+        <v>33.046666666666674</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,7 +5952,9 @@
       <c r="D9" s="6">
         <v>75.38333333333334</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="43">
+        <v>1</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -5952,8 +5962,8 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="18">
-        <f>100*SUM(E9:K9)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="6"/>
@@ -5963,7 +5973,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="18">
-        <f>SUM(M9:S9)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="15"/>
@@ -5972,7 +5982,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="18">
-        <f>SUM(U9:Y9)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA9" s="15"/>
@@ -5981,17 +5991,17 @@
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="18">
-        <f>SUM(AA9:AE9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG9" s="15"/>
       <c r="AH9" s="23">
-        <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI9" s="23">
-        <f>D9*0.4+AH9*0.6</f>
-        <v>30.153333333333336</v>
+        <f t="shared" si="5"/>
+        <v>30.753333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6007,7 +6017,9 @@
       <c r="D10" s="6">
         <v>72.858333333333334</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="43">
+        <v>1</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6015,8 +6027,8 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="18">
-        <f>100*SUM(E10:K10)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="6"/>
@@ -6026,7 +6038,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="18">
-        <f>SUM(M10:S10)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U10" s="15"/>
@@ -6035,7 +6047,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="18">
-        <f>SUM(U10:Y10)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA10" s="15"/>
@@ -6044,17 +6056,17 @@
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="18">
-        <f>SUM(AA10:AE10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG10" s="15"/>
       <c r="AH10" s="23">
-        <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI10" s="23">
-        <f>D10*0.4+AH10*0.6</f>
-        <v>29.143333333333334</v>
+        <f t="shared" si="5"/>
+        <v>29.743333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6078,7 +6090,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="18">
-        <f>100*SUM(E11:K11)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="15"/>
@@ -6089,7 +6101,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="18">
-        <f>SUM(M11:S11)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="15"/>
@@ -6098,7 +6110,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="18">
-        <f>SUM(U11:Y11)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="15"/>
@@ -6107,16 +6119,16 @@
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="18">
-        <f>SUM(AA11:AE11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG11" s="15"/>
       <c r="AH11" s="23">
-        <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI11" s="23">
-        <f>D11*0.4+AH11*0.6</f>
+        <f t="shared" si="5"/>
         <v>26.5</v>
       </c>
     </row>
@@ -6133,7 +6145,9 @@
       <c r="D12" s="6">
         <v>62.375</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="43">
+        <v>1</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -6141,8 +6155,8 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="18">
-        <f>100*SUM(E12:K12)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="6"/>
@@ -6152,7 +6166,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="18">
-        <f>SUM(M12:S12)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="15"/>
@@ -6161,7 +6175,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="18">
-        <f>SUM(U12:Y12)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="15"/>
@@ -6170,17 +6184,17 @@
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="18">
-        <f>SUM(AA12:AE12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG12" s="15"/>
       <c r="AH12" s="23">
-        <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI12" s="23">
-        <f>D12*0.4+AH12*0.6</f>
-        <v>24.950000000000003</v>
+        <f t="shared" si="5"/>
+        <v>25.550000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6196,7 +6210,9 @@
       <c r="D13" s="6">
         <v>46.875</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="43">
+        <v>1</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -6204,8 +6220,8 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="18">
-        <f>100*SUM(E13:K13)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="6"/>
@@ -6215,7 +6231,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="18">
-        <f>SUM(M13:S13)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="15"/>
@@ -6224,7 +6240,7 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="18">
-        <f>SUM(U13:Y13)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13" s="15"/>
@@ -6233,17 +6249,17 @@
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="18">
-        <f>SUM(AA13:AE13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG13" s="15"/>
       <c r="AH13" s="23">
-        <f>L13*0.1+T13*0.2+Z13*0.2+AF13*0.2+AG13*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI13" s="23">
-        <f>D13*0.4+AH13*0.6</f>
-        <v>18.75</v>
+        <f t="shared" si="5"/>
+        <v>19.350000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6259,7 +6275,9 @@
       <c r="D14" s="6">
         <v>45.583333333333336</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="43">
+        <v>1</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6267,8 +6285,8 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="18">
-        <f>100*SUM(E14:K14)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
@@ -6278,7 +6296,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="18">
-        <f>SUM(M14:S14)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U14" s="15"/>
@@ -6287,7 +6305,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="18">
-        <f>SUM(U14:Y14)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14" s="15"/>
@@ -6296,17 +6314,17 @@
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="18">
-        <f>SUM(AA14:AE14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG14" s="15"/>
       <c r="AH14" s="23">
-        <f>L14*0.1+T14*0.2+Z14*0.2+AF14*0.2+AG14*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI14" s="23">
-        <f>D14*0.4+AH14*0.6</f>
-        <v>18.233333333333334</v>
+        <f t="shared" si="5"/>
+        <v>18.833333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6330,7 +6348,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="18">
-        <f>100*SUM(E15:K15)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="15"/>
@@ -6341,7 +6359,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="18">
-        <f>SUM(M15:S15)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="15"/>
@@ -6350,7 +6368,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="18">
-        <f>SUM(U15:Y15)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15" s="15"/>
@@ -6359,16 +6377,16 @@
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="18">
-        <f>SUM(AA15:AE15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG15" s="15"/>
       <c r="AH15" s="23">
-        <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI15" s="23">
-        <f>D15*0.4+AH15*0.6</f>
+        <f t="shared" si="5"/>
         <v>16.733333333333334</v>
       </c>
     </row>
@@ -6385,7 +6403,9 @@
       <c r="D16" s="6">
         <v>41.783333333333331</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6393,8 +6413,8 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="18">
-        <f>100*SUM(E16:K16)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="6"/>
@@ -6404,7 +6424,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="18">
-        <f>SUM(M16:S16)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U16" s="15"/>
@@ -6413,7 +6433,7 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="18">
-        <f>SUM(U16:Y16)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA16" s="15"/>
@@ -6422,17 +6442,17 @@
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="18">
-        <f>SUM(AA16:AE16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG16" s="15"/>
       <c r="AH16" s="23">
-        <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI16" s="23">
-        <f>D16*0.4+AH16*0.6</f>
-        <v>16.713333333333335</v>
+        <f t="shared" si="5"/>
+        <v>17.313333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6448,7 +6468,9 @@
       <c r="D17" s="6">
         <v>41.041666666666664</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="43">
+        <v>1</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -6456,8 +6478,8 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="18">
-        <f>100*SUM(E17:K17)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="6"/>
@@ -6467,7 +6489,7 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="18">
-        <f>SUM(M17:S17)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U17" s="15"/>
@@ -6476,7 +6498,7 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="18">
-        <f>SUM(U17:Y17)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA17" s="15"/>
@@ -6485,17 +6507,17 @@
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="18">
-        <f>SUM(AA17:AE17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG17" s="15"/>
       <c r="AH17" s="23">
-        <f>L17*0.1+T17*0.2+Z17*0.2+AF17*0.2+AG17*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI17" s="23">
-        <f>D17*0.4+AH17*0.6</f>
-        <v>16.416666666666668</v>
+        <f t="shared" si="5"/>
+        <v>17.016666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6511,7 +6533,9 @@
       <c r="D18" s="6">
         <v>38.891666666666673</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="43">
+        <v>1</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -6519,8 +6543,8 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="18">
-        <f>100*SUM(E18:K18)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="6"/>
@@ -6530,7 +6554,7 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="18">
-        <f>SUM(M18:S18)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U18" s="15"/>
@@ -6539,7 +6563,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="18">
-        <f>SUM(U18:Y18)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA18" s="15"/>
@@ -6548,17 +6572,17 @@
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="18">
-        <f>SUM(AA18:AE18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG18" s="15"/>
       <c r="AH18" s="23">
-        <f>L18*0.1+T18*0.2+Z18*0.2+AF18*0.2+AG18*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI18" s="23">
-        <f>D18*0.4+AH18*0.6</f>
-        <v>15.55666666666667</v>
+        <f t="shared" si="5"/>
+        <v>16.15666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6582,7 +6606,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="18">
-        <f>100*SUM(E19:K19)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="15"/>
@@ -6593,7 +6617,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="18">
-        <f>SUM(M19:S19)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U19" s="15"/>
@@ -6602,7 +6626,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="18">
-        <f>SUM(U19:Y19)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA19" s="15"/>
@@ -6611,16 +6635,16 @@
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="18">
-        <f>SUM(AA19:AE19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG19" s="15"/>
       <c r="AH19" s="23">
-        <f>L19*0.1+T19*0.2+Z19*0.2+AF19*0.2+AG19*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI19" s="23">
-        <f>D19*0.4+AH19*0.6</f>
+        <f t="shared" si="5"/>
         <v>15.033333333333335</v>
       </c>
     </row>
@@ -6637,7 +6661,9 @@
       <c r="D20" s="6">
         <v>36.625</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="43">
+        <v>1</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -6645,8 +6671,8 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="18">
-        <f>100*SUM(E20:K20)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="6"/>
@@ -6656,7 +6682,7 @@
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="18">
-        <f>SUM(M20:S20)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U20" s="15"/>
@@ -6665,7 +6691,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="18">
-        <f>SUM(U20:Y20)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA20" s="15"/>
@@ -6674,17 +6700,17 @@
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="18">
-        <f>SUM(AA20:AE20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG20" s="15"/>
       <c r="AH20" s="23">
-        <f>L20*0.1+T20*0.2+Z20*0.2+AF20*0.2+AG20*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AI20" s="23">
-        <f>D20*0.4+AH20*0.6</f>
-        <v>14.65</v>
+        <f t="shared" si="5"/>
+        <v>15.25</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6700,7 +6726,9 @@
       <c r="D21" s="6">
         <v>31.208333333333336</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="43">
+        <v>0.9</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -6708,8 +6736,8 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="18">
-        <f>100*SUM(E21:K21)/(2*A$1)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="6"/>
@@ -6719,7 +6747,7 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="18">
-        <f>SUM(M21:S21)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U21" s="15"/>
@@ -6728,7 +6756,7 @@
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="18">
-        <f>SUM(U21:Y21)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA21" s="15"/>
@@ -6737,17 +6765,17 @@
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="18">
-        <f>SUM(AA21:AE21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG21" s="15"/>
       <c r="AH21" s="23">
-        <f>L21*0.1+T21*0.2+Z21*0.2+AF21*0.2+AG21*0.3</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
       <c r="AI21" s="23">
-        <f>D21*0.4+AH21*0.6</f>
-        <v>12.483333333333334</v>
+        <f t="shared" si="5"/>
+        <v>13.023333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6769,7 +6797,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="18">
-        <f>100*SUM(E22:K22)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="15"/>
@@ -6780,7 +6808,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="18">
-        <f>SUM(M22:S22)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U22" s="15"/>
@@ -6789,7 +6817,7 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="18">
-        <f>SUM(U22:Y22)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA22" s="15"/>
@@ -6798,16 +6826,16 @@
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="18">
-        <f>SUM(AA22:AE22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG22" s="15"/>
       <c r="AH22" s="23">
-        <f>L22*0.1+T22*0.2+Z22*0.2+AF22*0.2+AG22*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI22" s="23">
-        <f>D22*0.4+AH22*0.6</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
@@ -6832,7 +6860,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="18">
-        <f>100*SUM(E23:K23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="15"/>
@@ -6843,7 +6871,7 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="18">
-        <f>SUM(M23:S23)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U23" s="15"/>
@@ -6852,7 +6880,7 @@
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="18">
-        <f>SUM(U23:Y23)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA23" s="15"/>
@@ -6861,16 +6889,16 @@
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="18">
-        <f>SUM(AA23:AE23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG23" s="15"/>
       <c r="AH23" s="23">
-        <f>L23*0.1+T23*0.2+Z23*0.2+AF23*0.2+AG23*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI23" s="23">
-        <f>D23*0.4+AH23*0.6</f>
+        <f t="shared" si="5"/>
         <v>3.0833333333333339</v>
       </c>
     </row>
@@ -6895,7 +6923,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="18">
-        <f>100*SUM(E24:K24)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="15"/>
@@ -6906,7 +6934,7 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="18">
-        <f>SUM(M24:S24)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U24" s="15"/>
@@ -6915,7 +6943,7 @@
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="18">
-        <f>SUM(U24:Y24)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA24" s="15"/>
@@ -6924,16 +6952,16 @@
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="18">
-        <f>SUM(AA24:AE24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG24" s="15"/>
       <c r="AH24" s="23">
-        <f>L24*0.1+T24*0.2+Z24*0.2+AF24*0.2+AG24*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI24" s="23">
-        <f>D24*0.4+AH24*0.6</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -6958,7 +6986,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="18">
-        <f>100*SUM(E25:K25)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="15"/>
@@ -6969,7 +6997,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="18">
-        <f>SUM(M25:S25)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U25" s="15"/>
@@ -6978,7 +7006,7 @@
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="18">
-        <f>SUM(U25:Y25)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA25" s="15"/>
@@ -6987,16 +7015,16 @@
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="18">
-        <f>SUM(AA25:AE25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG25" s="15"/>
       <c r="AH25" s="23">
-        <f>L25*0.1+T25*0.2+Z25*0.2+AF25*0.2+AG25*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI25" s="23">
-        <f>D25*0.4+AH25*0.6</f>
+        <f t="shared" si="5"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -7021,7 +7049,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="18">
-        <f>100*SUM(E26:K26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="15"/>
@@ -7032,7 +7060,7 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="18">
-        <f>SUM(M26:S26)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U26" s="15"/>
@@ -7041,7 +7069,7 @@
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="18">
-        <f>SUM(U26:Y26)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA26" s="15"/>
@@ -7050,16 +7078,16 @@
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="18">
-        <f>SUM(AA26:AE26)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG26" s="15"/>
       <c r="AH26" s="23">
-        <f>L26*0.1+T26*0.2+Z26*0.2+AF26*0.2+AG26*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI26" s="23">
-        <f>D26*0.4+AH26*0.6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7084,7 +7112,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="18">
-        <f>100*SUM(E27:K27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="15"/>
@@ -7095,7 +7123,7 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="18">
-        <f>SUM(M27:S27)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U27" s="15"/>
@@ -7104,7 +7132,7 @@
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="18">
-        <f>SUM(U27:Y27)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA27" s="15"/>
@@ -7113,16 +7141,16 @@
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="18">
-        <f>SUM(AA27:AE27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG27" s="15"/>
       <c r="AH27" s="23">
-        <f>L27*0.1+T27*0.2+Z27*0.2+AF27*0.2+AG27*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI27" s="23">
-        <f>D27*0.4+AH27*0.6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7147,7 +7175,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="18">
-        <f>100*SUM(E28:K28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="15"/>
@@ -7158,7 +7186,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="18">
-        <f>SUM(M28:S28)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U28" s="15"/>
@@ -7167,7 +7195,7 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="18">
-        <f>SUM(U28:Y28)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA28" s="15"/>
@@ -7176,16 +7204,16 @@
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="18">
-        <f>SUM(AA28:AE28)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG28" s="15"/>
       <c r="AH28" s="23">
-        <f>L28*0.1+T28*0.2+Z28*0.2+AF28*0.2+AG28*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI28" s="23">
-        <f>D28*0.4+AH28*0.6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7210,7 +7238,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="18">
-        <f>100*SUM(E29:K29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="15"/>
@@ -7221,7 +7249,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="18">
-        <f>SUM(M29:S29)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U29" s="15"/>
@@ -7230,7 +7258,7 @@
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="18">
-        <f>SUM(U29:Y29)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA29" s="15"/>
@@ -7239,16 +7267,16 @@
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="18">
-        <f>SUM(AA29:AE29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG29" s="15"/>
       <c r="AH29" s="23">
-        <f>L29*0.1+T29*0.2+Z29*0.2+AF29*0.2+AG29*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI29" s="23">
-        <f>D29*0.4+AH29*0.6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7273,7 +7301,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="18">
-        <f>100*SUM(E30:K30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="15"/>
@@ -7284,7 +7312,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="18">
-        <f>SUM(M30:S30)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U30" s="15"/>
@@ -7293,7 +7321,7 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="18">
-        <f>SUM(U30:Y30)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA30" s="15"/>
@@ -7302,16 +7330,16 @@
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
       <c r="AF30" s="18">
-        <f>SUM(AA30:AE30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG30" s="15"/>
       <c r="AH30" s="23">
-        <f>L30*0.1+T30*0.2+Z30*0.2+AF30*0.2+AG30*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI30" s="23">
-        <f>D30*0.4+AH30*0.6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7336,7 +7364,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="18">
-        <f>100*SUM(E31:K31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="15"/>
@@ -7347,7 +7375,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="18">
-        <f>SUM(M31:S31)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U31" s="15"/>
@@ -7356,7 +7384,7 @@
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="18">
-        <f>SUM(U31:Y31)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA31" s="15"/>
@@ -7365,16 +7393,16 @@
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="18">
-        <f>SUM(AA31:AE31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG31" s="15"/>
       <c r="AH31" s="23">
-        <f>L31*0.1+T31*0.2+Z31*0.2+AF31*0.2+AG31*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI31" s="23">
-        <f>D31*0.4+AH31*0.6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7399,7 +7427,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="18">
-        <f>100*SUM(E32:K32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="15"/>
@@ -7410,7 +7438,7 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="18">
-        <f>SUM(M32:S32)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U32" s="15"/>
@@ -7419,7 +7447,7 @@
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="18">
-        <f>SUM(U32:Y32)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA32" s="15"/>
@@ -7428,16 +7456,16 @@
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
       <c r="AF32" s="18">
-        <f>SUM(AA32:AE32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG32" s="15"/>
       <c r="AH32" s="23">
-        <f>L32*0.1+T32*0.2+Z32*0.2+AF32*0.2+AG32*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI32" s="23">
-        <f>D32*0.4+AH32*0.6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7462,7 +7490,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="18">
-        <f>100*SUM(E33:K33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33" s="15"/>
@@ -7473,7 +7501,7 @@
       <c r="R33" s="6"/>
       <c r="S33" s="17"/>
       <c r="T33" s="18">
-        <f>SUM(M33:S33)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U33" s="15"/>
@@ -7482,7 +7510,7 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="18">
-        <f>SUM(U33:Y33)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA33" s="16"/>
@@ -7491,16 +7519,16 @@
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="18">
-        <f>SUM(AA33:AE33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG33" s="15"/>
       <c r="AH33" s="27">
-        <f>L33*0.1+T33*0.2+Z33*0.2+AF33*0.2+AG33*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI33" s="23">
-        <f>D33*0.4+AH33*0.6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -1450,7 +1450,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
+      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1617,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K3" s="18">
-        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
+        <f>100*SUM(D3:J3)/(2*A$1)</f>
         <v>90</v>
       </c>
       <c r="L3" s="15">
@@ -1643,7 +1643,7 @@
         <v>75</v>
       </c>
       <c r="S3" s="18">
-        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
+        <f>SUM(L3:R3)/(A$1)</f>
         <v>109.16666666666667</v>
       </c>
       <c r="T3" s="15">
@@ -1653,14 +1653,14 @@
         <v>110</v>
       </c>
       <c r="V3" s="18">
-        <f t="shared" ref="V3:V33" si="2">SUM(T3:U3)/2</f>
+        <f>SUM(T3:U3)/2</f>
         <v>105</v>
       </c>
       <c r="W3" s="6">
         <v>96</v>
       </c>
       <c r="X3" s="23">
-        <f t="shared" ref="X3:X33" si="3">K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
+        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
         <v>100.34166666666667</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D4:J4)/(2*A$1)</f>
         <v>97.5</v>
       </c>
       <c r="L4" s="15">
@@ -1725,7 +1725,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L4:R4)/(A$1)</f>
         <v>95.833333333333329</v>
       </c>
       <c r="T4" s="15">
@@ -1735,14 +1735,14 @@
         <v>100</v>
       </c>
       <c r="V4" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T4:U4)/2</f>
         <v>97.5</v>
       </c>
       <c r="W4" s="6">
         <v>87</v>
       </c>
       <c r="X4" s="23">
-        <f t="shared" si="3"/>
+        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3</f>
         <v>93.933333333333323</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D5:J5)/(2*A$1)</f>
         <v>83.333333333333329</v>
       </c>
       <c r="L5" s="15">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L5:R5)/(A$1)</f>
         <v>82.5</v>
       </c>
       <c r="T5" s="15">
@@ -1814,14 +1814,14 @@
         <v>100</v>
       </c>
       <c r="V5" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T5:U5)/2</f>
         <v>97.5</v>
       </c>
       <c r="W5" s="6">
         <v>97</v>
       </c>
       <c r="X5" s="23">
-        <f t="shared" si="3"/>
+        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3</f>
         <v>90.766666666666666</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
         <v>1.9</v>
       </c>
       <c r="K6" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D6:J6)/(2*A$1)</f>
         <v>107.5</v>
       </c>
       <c r="L6" s="15">
@@ -1883,7 +1883,7 @@
         <v>85</v>
       </c>
       <c r="S6" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L6:R6)/(A$1)</f>
         <v>90.833333333333329</v>
       </c>
       <c r="T6" s="15">
@@ -1893,14 +1893,14 @@
         <v>85</v>
       </c>
       <c r="V6" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T6:U6)/2</f>
         <v>77.5</v>
       </c>
       <c r="W6" s="6">
         <v>68</v>
       </c>
       <c r="X6" s="23">
-        <f t="shared" si="3"/>
+        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3</f>
         <v>83.98333333333332</v>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D7:J7)/(2*A$1)</f>
         <v>115</v>
       </c>
       <c r="L7" s="15">
@@ -1962,7 +1962,7 @@
         <v>90</v>
       </c>
       <c r="S7" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L7:R7)/(A$1)</f>
         <v>88.333333333333329</v>
       </c>
       <c r="T7" s="15">
@@ -1972,14 +1972,14 @@
         <v>90</v>
       </c>
       <c r="V7" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T7:U7)/2</f>
         <v>80</v>
       </c>
       <c r="W7" s="6">
         <v>63</v>
       </c>
       <c r="X7" s="23">
-        <f t="shared" si="3"/>
+        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3</f>
         <v>83.98333333333332</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>1.9</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D8:J8)/(2*A$1)</f>
         <v>99.166666666666671</v>
       </c>
       <c r="L8" s="15">
@@ -2041,7 +2041,7 @@
         <v>85</v>
       </c>
       <c r="S8" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L8:R8)/(A$1)</f>
         <v>90.833333333333329</v>
       </c>
       <c r="T8" s="15">
@@ -2051,14 +2051,14 @@
         <v>80</v>
       </c>
       <c r="V8" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T8:U8)/2</f>
         <v>77.5</v>
       </c>
       <c r="W8" s="6">
         <v>64</v>
       </c>
       <c r="X8" s="23">
-        <f t="shared" si="3"/>
+        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3</f>
         <v>81.116666666666674</v>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D9:J9)/(2*A$1)</f>
         <v>83.333333333333329</v>
       </c>
       <c r="L9" s="15">
@@ -2120,7 +2120,7 @@
         <v>70</v>
       </c>
       <c r="S9" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L9:R9)/(A$1)</f>
         <v>71.666666666666671</v>
       </c>
       <c r="T9" s="15">
@@ -2130,14 +2130,14 @@
         <v>85</v>
       </c>
       <c r="V9" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T9:U9)/2</f>
         <v>90</v>
       </c>
       <c r="W9" s="6">
         <v>61</v>
       </c>
       <c r="X9" s="23">
-        <f t="shared" si="3"/>
+        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3</f>
         <v>75.38333333333334</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D10:J10)/(2*A$1)</f>
         <v>83.333333333333329</v>
       </c>
       <c r="L10" s="15">
@@ -2199,7 +2199,7 @@
         <v>90</v>
       </c>
       <c r="S10" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L10:R10)/(A$1)</f>
         <v>71.666666666666671</v>
       </c>
       <c r="T10" s="15">
@@ -2209,14 +2209,14 @@
         <v>80</v>
       </c>
       <c r="V10" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T10:U10)/2</f>
         <v>77.5</v>
       </c>
       <c r="W10" s="6">
         <v>63</v>
       </c>
       <c r="X10" s="23">
-        <f t="shared" si="3"/>
+        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3</f>
         <v>72.858333333333334</v>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D11:J11)/(2*A$1)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="L11" s="15">
@@ -2278,7 +2278,7 @@
         <v>90</v>
       </c>
       <c r="S11" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L11:R11)/(A$1)</f>
         <v>91.666666666666671</v>
       </c>
       <c r="T11" s="15">
@@ -2288,14 +2288,14 @@
         <v>90</v>
       </c>
       <c r="V11" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T11:U11)/2</f>
         <v>80</v>
       </c>
       <c r="W11" s="6">
         <v>0</v>
       </c>
       <c r="X11" s="23">
-        <f t="shared" si="3"/>
+        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3</f>
         <v>66.25</v>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
         <v>1.9</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D12:J12)/(2*A$1)</f>
         <v>110.83333333333333</v>
       </c>
       <c r="L12" s="15">
@@ -2357,7 +2357,7 @@
         <v>90</v>
       </c>
       <c r="S12" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L12:R12)/(A$1)</f>
         <v>100.83333333333333</v>
       </c>
       <c r="T12" s="15">
@@ -2367,35 +2367,35 @@
         <v>0</v>
       </c>
       <c r="V12" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T12:U12)/2</f>
         <v>0</v>
       </c>
       <c r="W12" s="6">
         <v>50</v>
       </c>
       <c r="X12" s="23">
-        <f t="shared" si="3"/>
+        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3</f>
         <v>62.375</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
         <v>2</v>
@@ -2404,23 +2404,23 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="18">
-        <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N13" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O13" s="6">
         <v>60</v>
@@ -2429,43 +2429,43 @@
         <v>0</v>
       </c>
       <c r="Q13" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R13" s="6">
-        <f>J13*50-10</f>
+        <f>J13*50</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
+        <f>SUM(L13:R13)/(A$1)</f>
+        <v>10</v>
+      </c>
+      <c r="T13" s="15">
         <v>90</v>
       </c>
-      <c r="S13" s="18">
-        <f t="shared" si="1"/>
-        <v>60.833333333333336</v>
-      </c>
-      <c r="T13" s="15">
-        <v>0</v>
-      </c>
       <c r="U13" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V13" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(T13:U13)/2</f>
+        <v>90</v>
       </c>
       <c r="W13" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X13" s="23">
-        <f t="shared" si="3"/>
-        <v>46.875</v>
+        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3</f>
+        <v>49.333333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
         <v>2</v>
@@ -2489,130 +2489,130 @@
         <v>2</v>
       </c>
       <c r="K14" s="18">
-        <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="L14" s="15">
         <v>0</v>
       </c>
       <c r="M14" s="6">
+        <v>50</v>
+      </c>
+      <c r="N14" s="6">
         <v>70</v>
-      </c>
-      <c r="N14" s="6">
-        <v>60</v>
       </c>
       <c r="O14" s="6">
         <v>60</v>
       </c>
       <c r="P14" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="6">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="R14" s="6">
-        <f>J14*50-10-40</f>
+        <f>J14*50-10</f>
+        <v>90</v>
+      </c>
+      <c r="S14" s="18">
+        <f>SUM(L14:R14)/(A$1)</f>
+        <v>60.833333333333336</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="18">
+        <f>SUM(T14:U14)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
         <v>50</v>
       </c>
-      <c r="S14" s="18">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="T14" s="15">
-        <v>0</v>
-      </c>
-      <c r="U14" s="15">
-        <v>0</v>
-      </c>
-      <c r="V14" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>45</v>
-      </c>
       <c r="X14" s="23">
-        <f t="shared" si="3"/>
-        <v>45.583333333333336</v>
+        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3</f>
+        <v>46.875</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="18">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N15" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O15" s="6">
         <v>60</v>
       </c>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R15" s="6">
-        <f>J15*50</f>
-        <v>0</v>
+        <f>J15*50-10-40</f>
+        <v>50</v>
       </c>
       <c r="S15" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>SUM(L15:R15)/(A$1)</f>
+        <v>55</v>
       </c>
       <c r="T15" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U15" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V15" s="18">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f>SUM(T15:U15)/2</f>
+        <v>0</v>
       </c>
       <c r="W15" s="6">
         <v>45</v>
       </c>
       <c r="X15" s="23">
-        <f t="shared" si="3"/>
-        <v>41.833333333333336</v>
+        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3</f>
+        <v>45.583333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2647,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D16:J16)/(2*A$1)</f>
         <v>60</v>
       </c>
       <c r="L16" s="15">
@@ -2673,7 +2673,7 @@
         <v>95</v>
       </c>
       <c r="S16" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L16:R16)/(A$1)</f>
         <v>48.333333333333336</v>
       </c>
       <c r="T16" s="15">
@@ -2683,14 +2683,14 @@
         <v>0</v>
       </c>
       <c r="V16" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T16:U16)/2</f>
         <v>0</v>
       </c>
       <c r="W16" s="6">
         <v>59</v>
       </c>
       <c r="X16" s="23">
-        <f t="shared" si="3"/>
+        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3</f>
         <v>41.783333333333331</v>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D17:J17)/(2*A$1)</f>
         <v>75</v>
       </c>
       <c r="L17" s="15">
@@ -2752,7 +2752,7 @@
         <v>80</v>
       </c>
       <c r="S17" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L17:R17)/(A$1)</f>
         <v>44.166666666666664</v>
       </c>
       <c r="T17" s="15">
@@ -2762,14 +2762,14 @@
         <v>0</v>
       </c>
       <c r="V17" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T17:U17)/2</f>
         <v>0</v>
       </c>
       <c r="W17" s="6">
         <v>50</v>
       </c>
       <c r="X17" s="23">
-        <f t="shared" si="3"/>
+        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3</f>
         <v>41.041666666666664</v>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D18:J18)/(2*A$1)</f>
         <v>91.666666666666671</v>
       </c>
       <c r="L18" s="15">
@@ -2831,7 +2831,7 @@
         <v>70</v>
       </c>
       <c r="S18" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L18:R18)/(A$1)</f>
         <v>55.833333333333336</v>
       </c>
       <c r="T18" s="15">
@@ -2841,14 +2841,14 @@
         <v>0</v>
       </c>
       <c r="V18" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T18:U18)/2</f>
         <v>0</v>
       </c>
       <c r="W18" s="6">
         <v>22</v>
       </c>
       <c r="X18" s="23">
-        <f t="shared" si="3"/>
+        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3</f>
         <v>38.891666666666673</v>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D19:J19)/(2*A$1)</f>
         <v>82.5</v>
       </c>
       <c r="L19" s="15">
@@ -2910,7 +2910,7 @@
         <v>60</v>
       </c>
       <c r="S19" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L19:R19)/(A$1)</f>
         <v>48.333333333333336</v>
       </c>
       <c r="T19" s="15">
@@ -2920,14 +2920,14 @@
         <v>0</v>
       </c>
       <c r="V19" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T19:U19)/2</f>
         <v>0</v>
       </c>
       <c r="W19" s="6">
         <v>30</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="3"/>
+        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3</f>
         <v>37.583333333333336</v>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D20:J20)/(2*A$1)</f>
         <v>62.5</v>
       </c>
       <c r="L20" s="15">
@@ -2989,7 +2989,7 @@
         <v>80</v>
       </c>
       <c r="S20" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L20:R20)/(A$1)</f>
         <v>42.5</v>
       </c>
       <c r="T20" s="15">
@@ -2999,14 +2999,14 @@
         <v>0</v>
       </c>
       <c r="V20" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T20:U20)/2</f>
         <v>0</v>
       </c>
       <c r="W20" s="6">
         <v>45</v>
       </c>
       <c r="X20" s="23">
-        <f t="shared" si="3"/>
+        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3</f>
         <v>36.625</v>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D21:J21)/(2*A$1)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="L21" s="15">
@@ -3068,7 +3068,7 @@
         <v>60</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L21:R21)/(A$1)</f>
         <v>47.5</v>
       </c>
       <c r="T21" s="15">
@@ -3078,14 +3078,14 @@
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T21:U21)/2</f>
         <v>0</v>
       </c>
       <c r="W21" s="6">
         <v>20</v>
       </c>
       <c r="X21" s="23">
-        <f t="shared" si="3"/>
+        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3</f>
         <v>31.208333333333336</v>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D22:J22)/(2*A$1)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="L22" s="15">
@@ -3141,11 +3141,11 @@
         <v>40</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="R22:R33" si="4">J22*50</f>
+        <f>J22*50</f>
         <v>0</v>
       </c>
       <c r="S22" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L22:R22)/(A$1)</f>
         <v>18.333333333333332</v>
       </c>
       <c r="T22" s="15">
@@ -3155,14 +3155,14 @@
         <v>0</v>
       </c>
       <c r="V22" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T22:U22)/2</f>
         <v>0</v>
       </c>
       <c r="W22" s="6">
         <v>0</v>
       </c>
       <c r="X22" s="23">
-        <f t="shared" si="3"/>
+        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3</f>
         <v>11.25</v>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D23:J23)/(2*A$1)</f>
         <v>20.833333333333332</v>
       </c>
       <c r="L23" s="15">
@@ -3220,11 +3220,11 @@
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="4"/>
+        <f>J23*50</f>
         <v>0</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L23:R23)/(A$1)</f>
         <v>14.166666666666666</v>
       </c>
       <c r="T23" s="15">
@@ -3234,14 +3234,14 @@
         <v>0</v>
       </c>
       <c r="V23" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T23:U23)/2</f>
         <v>0</v>
       </c>
       <c r="W23" s="6">
         <v>0</v>
       </c>
       <c r="X23" s="23">
-        <f t="shared" si="3"/>
+        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3</f>
         <v>7.7083333333333339</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D24:J24)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L24" s="15">
@@ -3299,11 +3299,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="4"/>
+        <f>J24*50</f>
         <v>0</v>
       </c>
       <c r="S24" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L24:R24)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T24" s="15">
@@ -3313,14 +3313,14 @@
         <v>30</v>
       </c>
       <c r="V24" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T24:U24)/2</f>
         <v>30</v>
       </c>
       <c r="W24" s="6">
         <v>0</v>
       </c>
       <c r="X24" s="23">
-        <f t="shared" si="3"/>
+        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3</f>
         <v>7.5</v>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D25:J25)/(2*A$1)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="L25" s="15">
@@ -3378,11 +3378,11 @@
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="4"/>
+        <f>J25*50</f>
         <v>0</v>
       </c>
       <c r="S25" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L25:R25)/(A$1)</f>
         <v>10</v>
       </c>
       <c r="T25" s="15">
@@ -3392,14 +3392,14 @@
         <v>0</v>
       </c>
       <c r="V25" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T25:U25)/2</f>
         <v>0</v>
       </c>
       <c r="W25" s="6">
         <v>0</v>
       </c>
       <c r="X25" s="23">
-        <f t="shared" si="3"/>
+        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3</f>
         <v>5.8333333333333339</v>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D26:J26)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -3457,11 +3457,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="4"/>
+        <f>J26*50</f>
         <v>0</v>
       </c>
       <c r="S26" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L26:R26)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T26" s="15">
@@ -3471,14 +3471,14 @@
         <v>0</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T26:U26)/2</f>
         <v>0</v>
       </c>
       <c r="W26" s="6">
         <v>0</v>
       </c>
       <c r="X26" s="23">
-        <f t="shared" si="3"/>
+        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D27:J27)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3536,11 +3536,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="4"/>
+        <f>J27*50</f>
         <v>0</v>
       </c>
       <c r="S27" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L27:R27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T27" s="15">
@@ -3550,14 +3550,14 @@
         <v>0</v>
       </c>
       <c r="V27" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T27:U27)/2</f>
         <v>0</v>
       </c>
       <c r="W27" s="6">
         <v>0</v>
       </c>
       <c r="X27" s="23">
-        <f t="shared" si="3"/>
+        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D28:J28)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3615,11 +3615,11 @@
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="4"/>
+        <f>J28*50</f>
         <v>0</v>
       </c>
       <c r="S28" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L28:R28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T28" s="15">
@@ -3629,14 +3629,14 @@
         <v>0</v>
       </c>
       <c r="V28" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T28:U28)/2</f>
         <v>0</v>
       </c>
       <c r="W28" s="6">
         <v>0</v>
       </c>
       <c r="X28" s="23">
-        <f t="shared" si="3"/>
+        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D29:J29)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3694,11 +3694,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" si="4"/>
+        <f>J29*50</f>
         <v>0</v>
       </c>
       <c r="S29" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L29:R29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T29" s="15">
@@ -3708,14 +3708,14 @@
         <v>0</v>
       </c>
       <c r="V29" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T29:U29)/2</f>
         <v>0</v>
       </c>
       <c r="W29" s="6">
         <v>0</v>
       </c>
       <c r="X29" s="23">
-        <f t="shared" si="3"/>
+        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D30:J30)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3773,11 +3773,11 @@
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="4"/>
+        <f>J30*50</f>
         <v>0</v>
       </c>
       <c r="S30" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L30:R30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T30" s="15">
@@ -3787,14 +3787,14 @@
         <v>0</v>
       </c>
       <c r="V30" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T30:U30)/2</f>
         <v>0</v>
       </c>
       <c r="W30" s="6">
         <v>0</v>
       </c>
       <c r="X30" s="23">
-        <f t="shared" si="3"/>
+        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D31:J31)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3852,11 +3852,11 @@
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="4"/>
+        <f>J31*50</f>
         <v>0</v>
       </c>
       <c r="S31" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L31:R31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T31" s="15">
@@ -3866,14 +3866,14 @@
         <v>0</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T31:U31)/2</f>
         <v>0</v>
       </c>
       <c r="W31" s="6">
         <v>0</v>
       </c>
       <c r="X31" s="23">
-        <f t="shared" si="3"/>
+        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D32:J32)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -3931,11 +3931,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="4"/>
+        <f>J32*50</f>
         <v>0</v>
       </c>
       <c r="S32" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L32:R32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T32" s="15">
@@ -3945,14 +3945,14 @@
         <v>0</v>
       </c>
       <c r="V32" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T32:U32)/2</f>
         <v>0</v>
       </c>
       <c r="W32" s="6">
         <v>0</v>
       </c>
       <c r="X32" s="23">
-        <f t="shared" si="3"/>
+        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D33:J33)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -4010,11 +4010,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="4"/>
+        <f>J33*50</f>
         <v>0</v>
       </c>
       <c r="S33" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(L33:R33)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T33" s="15">
@@ -4024,14 +4024,14 @@
         <v>0</v>
       </c>
       <c r="V33" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(T33:U33)/2</f>
         <v>0</v>
       </c>
       <c r="W33" s="6">
         <v>0</v>
       </c>
       <c r="X33" s="23">
-        <f t="shared" si="3"/>
+        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:Y33">
-    <sortCondition descending="1" ref="X2"/>
+    <sortCondition descending="1" ref="X3"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="T1:V1"/>
@@ -5365,7 +5365,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5567,7 +5567,7 @@
         <v>100.34166666666667</v>
       </c>
       <c r="E3" s="43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -5576,10 +5576,12 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L33" si="0">100*SUM(E3:K3)/(2*A$1)</f>
-        <v>10</v>
-      </c>
-      <c r="M3" s="15"/>
+        <f>100*SUM(E3:K3)/(2*A$1)</f>
+        <v>15</v>
+      </c>
+      <c r="M3" s="15">
+        <v>75</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -5587,8 +5589,8 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="18">
-        <f t="shared" ref="T3:T33" si="1">SUM(M3:S3)/(A$1)</f>
-        <v>0</v>
+        <f>SUM(M3:S3)/(A$1)</f>
+        <v>15</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
@@ -5596,7 +5598,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="18">
-        <f t="shared" ref="Z3:Z33" si="2">SUM(U3:Y3)/2</f>
+        <f>SUM(U3:Y3)/2</f>
         <v>0</v>
       </c>
       <c r="AA3" s="15"/>
@@ -5605,17 +5607,17 @@
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="18">
-        <f t="shared" ref="AF3:AF33" si="3">SUM(AA3:AE3)</f>
+        <f>SUM(AA3:AE3)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="23">
-        <f t="shared" ref="AH3:AH33" si="4">L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
-        <v>1</v>
+        <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
+        <v>4.5</v>
       </c>
       <c r="AI3" s="23">
-        <f t="shared" ref="AI3:AI33" si="5">D3*0.4+AH3*0.6</f>
-        <v>40.736666666666672</v>
+        <f>D3*0.4+AH3*0.6</f>
+        <v>42.836666666666673</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5632,7 +5634,7 @@
         <v>93.933333333333323</v>
       </c>
       <c r="E4" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -5641,10 +5643,12 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M4" s="15"/>
+        <f>100*SUM(E4:K4)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M4" s="15">
+        <v>95</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -5652,8 +5656,8 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M4:S4)/(A$1)</f>
+        <v>19</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -5661,7 +5665,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U4:Y4)/2</f>
         <v>0</v>
       </c>
       <c r="AA4" s="15"/>
@@ -5670,33 +5674,35 @@
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA4:AE4)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="15"/>
       <c r="AH4" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
+        <v>5.8000000000000007</v>
       </c>
       <c r="AI4" s="23">
-        <f t="shared" si="5"/>
-        <v>38.173333333333332</v>
+        <f>D4*0.4+AH4*0.6</f>
+        <v>41.053333333333327</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6">
-        <v>90.766666666666666</v>
-      </c>
-      <c r="E5" s="43"/>
+        <v>83.98333333333332</v>
+      </c>
+      <c r="E5" s="43">
+        <v>1.9</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -5704,10 +5710,12 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="15"/>
+        <f>100*SUM(E5:K5)/(2*A$1)</f>
+        <v>19</v>
+      </c>
+      <c r="M5" s="15">
+        <v>85</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -5715,8 +5723,8 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M5:S5)/(A$1)</f>
+        <v>17</v>
       </c>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
@@ -5724,7 +5732,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U5:Y5)/2</f>
         <v>0</v>
       </c>
       <c r="AA5" s="15"/>
@@ -5733,34 +5741,34 @@
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA5:AE5)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="15"/>
       <c r="AH5" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
+        <v>5.3000000000000007</v>
       </c>
       <c r="AI5" s="23">
-        <f t="shared" si="5"/>
-        <v>36.306666666666665</v>
+        <f>D5*0.4+AH5*0.6</f>
+        <v>36.773333333333326</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6">
-        <v>83.98333333333332</v>
+        <v>90.766666666666666</v>
       </c>
       <c r="E6" s="43">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5769,10 +5777,12 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="18">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M6" s="15"/>
+        <f>100*SUM(E6:K6)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -5780,7 +5790,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M6:S6)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U6" s="15"/>
@@ -5789,7 +5799,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U6:Y6)/2</f>
         <v>0</v>
       </c>
       <c r="AA6" s="15"/>
@@ -5798,17 +5808,17 @@
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA6:AE6)</f>
         <v>0</v>
       </c>
       <c r="AG6" s="15"/>
       <c r="AH6" s="23">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
+        <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
+        <v>0</v>
       </c>
       <c r="AI6" s="23">
-        <f t="shared" si="5"/>
-        <v>34.133333333333326</v>
+        <f>D6*0.4+AH6*0.6</f>
+        <v>36.306666666666665</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,7 +5834,9 @@
       <c r="D7" s="6">
         <v>83.98333333333332</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="43">
+        <v>1</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -5832,10 +5844,12 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="15"/>
+        <f>100*SUM(E7:K7)/(2*A$1)</f>
+        <v>10</v>
+      </c>
+      <c r="M7" s="15">
+        <v>85</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -5843,8 +5857,8 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M7:S7)/(A$1)</f>
+        <v>17</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
@@ -5852,7 +5866,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U7:Y7)/2</f>
         <v>0</v>
       </c>
       <c r="AA7" s="15"/>
@@ -5861,17 +5875,17 @@
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA7:AE7)</f>
         <v>0</v>
       </c>
       <c r="AG7" s="15"/>
       <c r="AH7" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AI7" s="23">
-        <f t="shared" si="5"/>
-        <v>33.593333333333327</v>
+        <f>D7*0.4+AH7*0.6</f>
+        <v>36.233333333333327</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,7 +5902,7 @@
         <v>81.116666666666674</v>
       </c>
       <c r="E8" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -5897,10 +5911,12 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M8" s="15"/>
+        <f>100*SUM(E8:K8)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M8" s="15">
+        <v>90</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -5908,8 +5924,8 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M8:S8)/(A$1)</f>
+        <v>18</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -5917,7 +5933,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U8:Y8)/2</f>
         <v>0</v>
       </c>
       <c r="AA8" s="15"/>
@@ -5926,17 +5942,17 @@
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA8:AE8)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="15"/>
       <c r="AH8" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
+        <v>5.6</v>
       </c>
       <c r="AI8" s="23">
-        <f t="shared" si="5"/>
-        <v>33.046666666666674</v>
+        <f>D8*0.4+AH8*0.6</f>
+        <v>35.806666666666672</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5953,7 +5969,7 @@
         <v>75.38333333333334</v>
       </c>
       <c r="E9" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5962,10 +5978,12 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M9" s="15"/>
+        <f>100*SUM(E9:K9)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M9" s="15">
+        <v>65</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -5973,8 +5991,8 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M9:S9)/(A$1)</f>
+        <v>13</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
@@ -5982,7 +6000,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U9:Y9)/2</f>
         <v>0</v>
       </c>
       <c r="AA9" s="15"/>
@@ -5991,17 +6009,17 @@
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA9:AE9)</f>
         <v>0</v>
       </c>
       <c r="AG9" s="15"/>
       <c r="AH9" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AI9" s="23">
-        <f t="shared" si="5"/>
-        <v>30.753333333333337</v>
+        <f>D9*0.4+AH9*0.6</f>
+        <v>32.913333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6018,7 +6036,7 @@
         <v>72.858333333333334</v>
       </c>
       <c r="E10" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -6027,10 +6045,12 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M10" s="15"/>
+        <f>100*SUM(E10:K10)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M10" s="15">
+        <v>70</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -6038,8 +6058,8 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M10:S10)/(A$1)</f>
+        <v>14</v>
       </c>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
@@ -6047,7 +6067,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U10:Y10)/2</f>
         <v>0</v>
       </c>
       <c r="AA10" s="15"/>
@@ -6056,33 +6076,35 @@
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA10:AE10)</f>
         <v>0</v>
       </c>
       <c r="AG10" s="15"/>
       <c r="AH10" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
+        <v>4.8000000000000007</v>
       </c>
       <c r="AI10" s="23">
-        <f t="shared" si="5"/>
-        <v>29.743333333333336</v>
+        <f>D10*0.4+AH10*0.6</f>
+        <v>32.023333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D11" s="6">
-        <v>66.25</v>
-      </c>
-      <c r="E11" s="43"/>
+        <v>62.375</v>
+      </c>
+      <c r="E11" s="43">
+        <v>2</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6090,10 +6112,12 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="15"/>
+        <f>100*SUM(E11:K11)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M11" s="15">
+        <v>95</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -6101,8 +6125,8 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M11:S11)/(A$1)</f>
+        <v>19</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
@@ -6110,7 +6134,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U11:Y11)/2</f>
         <v>0</v>
       </c>
       <c r="AA11" s="15"/>
@@ -6119,34 +6143,34 @@
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA11:AE11)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="15"/>
       <c r="AH11" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
+        <v>5.8000000000000007</v>
       </c>
       <c r="AI11" s="23">
-        <f t="shared" si="5"/>
-        <v>26.5</v>
+        <f>D11*0.4+AH11*0.6</f>
+        <v>28.430000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D12" s="6">
-        <v>62.375</v>
+        <v>66.25</v>
       </c>
       <c r="E12" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -6155,10 +6179,12 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M12" s="15"/>
+        <f>100*SUM(E12:K12)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -6166,7 +6192,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M12:S12)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U12" s="15"/>
@@ -6175,7 +6201,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U12:Y12)/2</f>
         <v>0</v>
       </c>
       <c r="AA12" s="15"/>
@@ -6184,17 +6210,17 @@
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA12:AE12)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="15"/>
       <c r="AH12" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
+        <v>0</v>
       </c>
       <c r="AI12" s="23">
-        <f t="shared" si="5"/>
-        <v>25.550000000000004</v>
+        <f>D12*0.4+AH12*0.6</f>
+        <v>26.5</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6211,7 +6237,7 @@
         <v>46.875</v>
       </c>
       <c r="E13" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -6220,10 +6246,12 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M13" s="15"/>
+        <f>100*SUM(E13:K13)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M13" s="15">
+        <v>85</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -6231,8 +6259,8 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M13:S13)/(A$1)</f>
+        <v>17</v>
       </c>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
@@ -6240,7 +6268,7 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U13:Y13)/2</f>
         <v>0</v>
       </c>
       <c r="AA13" s="15"/>
@@ -6249,17 +6277,17 @@
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA13:AE13)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="15"/>
       <c r="AH13" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L13*0.1+T13*0.2+Z13*0.2+AF13*0.2+AG13*0.3</f>
+        <v>5.4</v>
       </c>
       <c r="AI13" s="23">
-        <f t="shared" si="5"/>
-        <v>19.350000000000001</v>
+        <f>D13*0.4+AH13*0.6</f>
+        <v>21.990000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6276,7 +6304,7 @@
         <v>45.583333333333336</v>
       </c>
       <c r="E14" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -6285,10 +6313,12 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M14" s="15"/>
+        <f>100*SUM(E14:K14)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M14" s="15">
+        <v>70</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -6296,8 +6326,8 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M14:S14)/(A$1)</f>
+        <v>14</v>
       </c>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
@@ -6305,7 +6335,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U14:Y14)/2</f>
         <v>0</v>
       </c>
       <c r="AA14" s="15"/>
@@ -6314,33 +6344,35 @@
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA14:AE14)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="15"/>
       <c r="AH14" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L14*0.1+T14*0.2+Z14*0.2+AF14*0.2+AG14*0.3</f>
+        <v>4.8000000000000007</v>
       </c>
       <c r="AI14" s="23">
-        <f t="shared" si="5"/>
-        <v>18.833333333333336</v>
+        <f>D14*0.4+AH14*0.6</f>
+        <v>21.113333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D15" s="6">
-        <v>41.833333333333336</v>
-      </c>
-      <c r="E15" s="43"/>
+        <v>41.783333333333331</v>
+      </c>
+      <c r="E15" s="43">
+        <v>2</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -6348,10 +6380,12 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="15"/>
+        <f>100*SUM(E15:K15)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M15" s="15">
+        <v>85</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -6359,8 +6393,8 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M15:S15)/(A$1)</f>
+        <v>17</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
@@ -6368,7 +6402,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U15:Y15)/2</f>
         <v>0</v>
       </c>
       <c r="AA15" s="15"/>
@@ -6377,34 +6411,34 @@
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA15:AE15)</f>
         <v>0</v>
       </c>
       <c r="AG15" s="15"/>
       <c r="AH15" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
+        <v>5.4</v>
       </c>
       <c r="AI15" s="23">
-        <f t="shared" si="5"/>
-        <v>16.733333333333334</v>
+        <f>D15*0.4+AH15*0.6</f>
+        <v>19.953333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D16" s="6">
-        <v>41.783333333333331</v>
+        <v>49.333333333333336</v>
       </c>
       <c r="E16" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -6413,10 +6447,12 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M16" s="15"/>
+        <f>100*SUM(E16:K16)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -6424,7 +6460,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M16:S16)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U16" s="15"/>
@@ -6433,7 +6469,7 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U16:Y16)/2</f>
         <v>0</v>
       </c>
       <c r="AA16" s="15"/>
@@ -6442,17 +6478,17 @@
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA16:AE16)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="15"/>
       <c r="AH16" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
+        <v>0</v>
       </c>
       <c r="AI16" s="23">
-        <f t="shared" si="5"/>
-        <v>17.313333333333336</v>
+        <f>D16*0.4+AH16*0.6</f>
+        <v>19.733333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6469,7 +6505,7 @@
         <v>41.041666666666664</v>
       </c>
       <c r="E17" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -6478,10 +6514,12 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M17" s="15"/>
+        <f>100*SUM(E17:K17)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M17" s="15">
+        <v>70</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -6489,8 +6527,8 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M17:S17)/(A$1)</f>
+        <v>14</v>
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
@@ -6498,7 +6536,7 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U17:Y17)/2</f>
         <v>0</v>
       </c>
       <c r="AA17" s="15"/>
@@ -6507,17 +6545,17 @@
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA17:AE17)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="15"/>
       <c r="AH17" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L17*0.1+T17*0.2+Z17*0.2+AF17*0.2+AG17*0.3</f>
+        <v>4.8000000000000007</v>
       </c>
       <c r="AI17" s="23">
-        <f t="shared" si="5"/>
-        <v>17.016666666666669</v>
+        <f>D17*0.4+AH17*0.6</f>
+        <v>19.296666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,7 +6572,7 @@
         <v>38.891666666666673</v>
       </c>
       <c r="E18" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -6543,10 +6581,12 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M18" s="15"/>
+        <f>100*SUM(E18:K18)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M18" s="15">
+        <v>70</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -6554,8 +6594,8 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M18:S18)/(A$1)</f>
+        <v>14</v>
       </c>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -6563,7 +6603,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U18:Y18)/2</f>
         <v>0</v>
       </c>
       <c r="AA18" s="15"/>
@@ -6572,33 +6612,35 @@
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA18:AE18)</f>
         <v>0</v>
       </c>
       <c r="AG18" s="15"/>
       <c r="AH18" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L18*0.1+T18*0.2+Z18*0.2+AF18*0.2+AG18*0.3</f>
+        <v>4.8000000000000007</v>
       </c>
       <c r="AI18" s="23">
-        <f t="shared" si="5"/>
-        <v>16.15666666666667</v>
+        <f>D18*0.4+AH18*0.6</f>
+        <v>18.436666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D19" s="6">
-        <v>37.583333333333336</v>
-      </c>
-      <c r="E19" s="43"/>
+        <v>36.625</v>
+      </c>
+      <c r="E19" s="43">
+        <v>2</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -6606,10 +6648,12 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="15"/>
+        <f>100*SUM(E19:K19)/(2*A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="M19" s="15">
+        <v>55</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -6617,8 +6661,8 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M19:S19)/(A$1)</f>
+        <v>11</v>
       </c>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
@@ -6626,7 +6670,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U19:Y19)/2</f>
         <v>0</v>
       </c>
       <c r="AA19" s="15"/>
@@ -6635,34 +6679,34 @@
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA19:AE19)</f>
         <v>0</v>
       </c>
       <c r="AG19" s="15"/>
       <c r="AH19" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>L19*0.1+T19*0.2+Z19*0.2+AF19*0.2+AG19*0.3</f>
+        <v>4.2</v>
       </c>
       <c r="AI19" s="23">
-        <f t="shared" si="5"/>
-        <v>15.033333333333335</v>
+        <f>D19*0.4+AH19*0.6</f>
+        <v>17.170000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D20" s="6">
-        <v>36.625</v>
+        <v>31.208333333333336</v>
       </c>
       <c r="E20" s="43">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -6671,10 +6715,12 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M20" s="15"/>
+        <f>100*SUM(E20:K20)/(2*A$1)</f>
+        <v>19</v>
+      </c>
+      <c r="M20" s="15">
+        <v>60</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -6682,8 +6728,8 @@
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M20:S20)/(A$1)</f>
+        <v>12</v>
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
@@ -6691,7 +6737,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
       <c r="Z20" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U20:Y20)/2</f>
         <v>0</v>
       </c>
       <c r="AA20" s="15"/>
@@ -6700,34 +6746,34 @@
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA20:AE20)</f>
         <v>0</v>
       </c>
       <c r="AG20" s="15"/>
       <c r="AH20" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>L20*0.1+T20*0.2+Z20*0.2+AF20*0.2+AG20*0.3</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="AI20" s="23">
-        <f t="shared" si="5"/>
-        <v>15.25</v>
+        <f>D20*0.4+AH20*0.6</f>
+        <v>15.063333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D21" s="6">
-        <v>31.208333333333336</v>
+        <v>37.583333333333336</v>
       </c>
       <c r="E21" s="43">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -6736,10 +6782,12 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="18">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M21" s="15"/>
+        <f>100*SUM(E21:K21)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -6747,7 +6795,7 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M21:S21)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U21" s="15"/>
@@ -6756,7 +6804,7 @@
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U21:Y21)/2</f>
         <v>0</v>
       </c>
       <c r="AA21" s="15"/>
@@ -6765,17 +6813,17 @@
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA21:AE21)</f>
         <v>0</v>
       </c>
       <c r="AG21" s="15"/>
       <c r="AH21" s="23">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
+        <f>L21*0.1+T21*0.2+Z21*0.2+AF21*0.2+AG21*0.3</f>
+        <v>0</v>
       </c>
       <c r="AI21" s="23">
-        <f t="shared" si="5"/>
-        <v>13.023333333333333</v>
+        <f>D21*0.4+AH21*0.6</f>
+        <v>15.033333333333335</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6789,7 +6837,9 @@
       <c r="D22" s="6">
         <v>11.25</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="43">
+        <v>0</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -6797,10 +6847,12 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="15"/>
+        <f>100*SUM(E22:K22)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -6808,7 +6860,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M22:S22)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U22" s="15"/>
@@ -6817,7 +6869,7 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U22:Y22)/2</f>
         <v>0</v>
       </c>
       <c r="AA22" s="15"/>
@@ -6826,16 +6878,16 @@
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA22:AE22)</f>
         <v>0</v>
       </c>
       <c r="AG22" s="15"/>
       <c r="AH22" s="23">
-        <f t="shared" si="4"/>
+        <f>L22*0.1+T22*0.2+Z22*0.2+AF22*0.2+AG22*0.3</f>
         <v>0</v>
       </c>
       <c r="AI22" s="23">
-        <f t="shared" si="5"/>
+        <f>D22*0.4+AH22*0.6</f>
         <v>4.5</v>
       </c>
     </row>
@@ -6852,7 +6904,9 @@
       <c r="D23" s="6">
         <v>7.7083333333333339</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="43">
+        <v>0</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -6860,10 +6914,12 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="15"/>
+        <f>100*SUM(E23:K23)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -6871,7 +6927,7 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M23:S23)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U23" s="15"/>
@@ -6880,7 +6936,7 @@
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U23:Y23)/2</f>
         <v>0</v>
       </c>
       <c r="AA23" s="15"/>
@@ -6889,16 +6945,16 @@
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA23:AE23)</f>
         <v>0</v>
       </c>
       <c r="AG23" s="15"/>
       <c r="AH23" s="23">
-        <f t="shared" si="4"/>
+        <f>L23*0.1+T23*0.2+Z23*0.2+AF23*0.2+AG23*0.3</f>
         <v>0</v>
       </c>
       <c r="AI23" s="23">
-        <f t="shared" si="5"/>
+        <f>D23*0.4+AH23*0.6</f>
         <v>3.0833333333333339</v>
       </c>
     </row>
@@ -6915,7 +6971,9 @@
       <c r="D24" s="6">
         <v>7.5</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="43">
+        <v>0</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -6923,10 +6981,12 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="15"/>
+        <f>100*SUM(E24:K24)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -6934,7 +6994,7 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M24:S24)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U24" s="15"/>
@@ -6943,7 +7003,7 @@
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U24:Y24)/2</f>
         <v>0</v>
       </c>
       <c r="AA24" s="15"/>
@@ -6952,16 +7012,16 @@
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA24:AE24)</f>
         <v>0</v>
       </c>
       <c r="AG24" s="15"/>
       <c r="AH24" s="23">
-        <f t="shared" si="4"/>
+        <f>L24*0.1+T24*0.2+Z24*0.2+AF24*0.2+AG24*0.3</f>
         <v>0</v>
       </c>
       <c r="AI24" s="23">
-        <f t="shared" si="5"/>
+        <f>D24*0.4+AH24*0.6</f>
         <v>3</v>
       </c>
     </row>
@@ -6978,7 +7038,9 @@
       <c r="D25" s="6">
         <v>5.8333333333333339</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -6986,10 +7048,12 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="15"/>
+        <f>100*SUM(E25:K25)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -6997,7 +7061,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M25:S25)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U25" s="15"/>
@@ -7006,7 +7070,7 @@
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U25:Y25)/2</f>
         <v>0</v>
       </c>
       <c r="AA25" s="15"/>
@@ -7015,16 +7079,16 @@
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA25:AE25)</f>
         <v>0</v>
       </c>
       <c r="AG25" s="15"/>
       <c r="AH25" s="23">
-        <f t="shared" si="4"/>
+        <f>L25*0.1+T25*0.2+Z25*0.2+AF25*0.2+AG25*0.3</f>
         <v>0</v>
       </c>
       <c r="AI25" s="23">
-        <f t="shared" si="5"/>
+        <f>D25*0.4+AH25*0.6</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -7041,7 +7105,9 @@
       <c r="D26" s="6">
         <v>0</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -7049,10 +7115,12 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="15"/>
+        <f>100*SUM(E26:K26)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -7060,7 +7128,7 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M26:S26)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U26" s="15"/>
@@ -7069,7 +7137,7 @@
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U26:Y26)/2</f>
         <v>0</v>
       </c>
       <c r="AA26" s="15"/>
@@ -7078,16 +7146,16 @@
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA26:AE26)</f>
         <v>0</v>
       </c>
       <c r="AG26" s="15"/>
       <c r="AH26" s="23">
-        <f t="shared" si="4"/>
+        <f>L26*0.1+T26*0.2+Z26*0.2+AF26*0.2+AG26*0.3</f>
         <v>0</v>
       </c>
       <c r="AI26" s="23">
-        <f t="shared" si="5"/>
+        <f>D26*0.4+AH26*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7104,7 +7172,9 @@
       <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="43">
+        <v>0</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -7112,10 +7182,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="15"/>
+        <f>100*SUM(E27:K27)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -7123,7 +7195,7 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M27:S27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U27" s="15"/>
@@ -7132,7 +7204,7 @@
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U27:Y27)/2</f>
         <v>0</v>
       </c>
       <c r="AA27" s="15"/>
@@ -7141,16 +7213,16 @@
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA27:AE27)</f>
         <v>0</v>
       </c>
       <c r="AG27" s="15"/>
       <c r="AH27" s="23">
-        <f t="shared" si="4"/>
+        <f>L27*0.1+T27*0.2+Z27*0.2+AF27*0.2+AG27*0.3</f>
         <v>0</v>
       </c>
       <c r="AI27" s="23">
-        <f t="shared" si="5"/>
+        <f>D27*0.4+AH27*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7167,7 +7239,9 @@
       <c r="D28" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="43">
+        <v>0</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -7175,10 +7249,12 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="15"/>
+        <f>100*SUM(E28:K28)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -7186,7 +7262,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M28:S28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U28" s="15"/>
@@ -7195,7 +7271,7 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U28:Y28)/2</f>
         <v>0</v>
       </c>
       <c r="AA28" s="15"/>
@@ -7204,16 +7280,16 @@
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA28:AE28)</f>
         <v>0</v>
       </c>
       <c r="AG28" s="15"/>
       <c r="AH28" s="23">
-        <f t="shared" si="4"/>
+        <f>L28*0.1+T28*0.2+Z28*0.2+AF28*0.2+AG28*0.3</f>
         <v>0</v>
       </c>
       <c r="AI28" s="23">
-        <f t="shared" si="5"/>
+        <f>D28*0.4+AH28*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7230,7 +7306,9 @@
       <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="43">
+        <v>0</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -7238,10 +7316,12 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="15"/>
+        <f>100*SUM(E29:K29)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -7249,7 +7329,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M29:S29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U29" s="15"/>
@@ -7258,7 +7338,7 @@
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U29:Y29)/2</f>
         <v>0</v>
       </c>
       <c r="AA29" s="15"/>
@@ -7267,16 +7347,16 @@
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA29:AE29)</f>
         <v>0</v>
       </c>
       <c r="AG29" s="15"/>
       <c r="AH29" s="23">
-        <f t="shared" si="4"/>
+        <f>L29*0.1+T29*0.2+Z29*0.2+AF29*0.2+AG29*0.3</f>
         <v>0</v>
       </c>
       <c r="AI29" s="23">
-        <f t="shared" si="5"/>
+        <f>D29*0.4+AH29*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7293,7 +7373,9 @@
       <c r="D30" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="43">
+        <v>0</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -7301,10 +7383,12 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="15"/>
+        <f>100*SUM(E30:K30)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -7312,7 +7396,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M30:S30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U30" s="15"/>
@@ -7321,7 +7405,7 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U30:Y30)/2</f>
         <v>0</v>
       </c>
       <c r="AA30" s="15"/>
@@ -7330,16 +7414,16 @@
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
       <c r="AF30" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA30:AE30)</f>
         <v>0</v>
       </c>
       <c r="AG30" s="15"/>
       <c r="AH30" s="23">
-        <f t="shared" si="4"/>
+        <f>L30*0.1+T30*0.2+Z30*0.2+AF30*0.2+AG30*0.3</f>
         <v>0</v>
       </c>
       <c r="AI30" s="23">
-        <f t="shared" si="5"/>
+        <f>D30*0.4+AH30*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7356,7 +7440,9 @@
       <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="43">
+        <v>0</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -7364,10 +7450,12 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="15"/>
+        <f>100*SUM(E31:K31)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -7375,7 +7463,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M31:S31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U31" s="15"/>
@@ -7384,7 +7472,7 @@
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U31:Y31)/2</f>
         <v>0</v>
       </c>
       <c r="AA31" s="15"/>
@@ -7393,16 +7481,16 @@
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA31:AE31)</f>
         <v>0</v>
       </c>
       <c r="AG31" s="15"/>
       <c r="AH31" s="23">
-        <f t="shared" si="4"/>
+        <f>L31*0.1+T31*0.2+Z31*0.2+AF31*0.2+AG31*0.3</f>
         <v>0</v>
       </c>
       <c r="AI31" s="23">
-        <f t="shared" si="5"/>
+        <f>D31*0.4+AH31*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7419,7 +7507,9 @@
       <c r="D32" s="6">
         <v>0</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="43">
+        <v>0</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -7427,10 +7517,12 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="15"/>
+        <f>100*SUM(E32:K32)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -7438,7 +7530,7 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M32:S32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U32" s="15"/>
@@ -7447,7 +7539,7 @@
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U32:Y32)/2</f>
         <v>0</v>
       </c>
       <c r="AA32" s="15"/>
@@ -7456,16 +7548,16 @@
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
       <c r="AF32" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA32:AE32)</f>
         <v>0</v>
       </c>
       <c r="AG32" s="15"/>
       <c r="AH32" s="23">
-        <f t="shared" si="4"/>
+        <f>L32*0.1+T32*0.2+Z32*0.2+AF32*0.2+AG32*0.3</f>
         <v>0</v>
       </c>
       <c r="AI32" s="23">
-        <f t="shared" si="5"/>
+        <f>D32*0.4+AH32*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7482,7 +7574,9 @@
       <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="44"/>
+      <c r="E33" s="44">
+        <v>0</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -7490,10 +7584,12 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="15"/>
+        <f>100*SUM(E33:K33)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
       <c r="N33" s="6"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
@@ -7501,7 +7597,7 @@
       <c r="R33" s="6"/>
       <c r="S33" s="17"/>
       <c r="T33" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(M33:S33)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="U33" s="15"/>
@@ -7510,7 +7606,7 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(U33:Y33)/2</f>
         <v>0</v>
       </c>
       <c r="AA33" s="16"/>
@@ -7519,16 +7615,16 @@
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="18">
-        <f t="shared" si="3"/>
+        <f>SUM(AA33:AE33)</f>
         <v>0</v>
       </c>
       <c r="AG33" s="15"/>
       <c r="AH33" s="27">
-        <f t="shared" si="4"/>
+        <f>L33*0.1+T33*0.2+Z33*0.2+AF33*0.2+AG33*0.3</f>
         <v>0</v>
       </c>
       <c r="AI33" s="23">
-        <f t="shared" si="5"/>
+        <f>D33*0.4+AH33*0.6</f>
         <v>0</v>
       </c>
     </row>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
   <si>
     <t>Adı</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>DERS NOTU</t>
+  </si>
+  <si>
+    <t>EKSTRA</t>
+  </si>
+  <si>
+    <t>BONUS (%15)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,8 +464,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -776,11 +788,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -866,12 +889,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,11 +1477,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1469,49 +1500,53 @@
     <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="1" customWidth="1"/>
     <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.77734375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="7" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.77734375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
         <v>6</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="46" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="46" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="50"/>
       <c r="W1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>91</v>
       </c>
@@ -1581,11 +1616,14 @@
       <c r="W2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
@@ -1659,15 +1697,16 @@
       <c r="W3" s="6">
         <v>96</v>
       </c>
-      <c r="X3" s="23">
-        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3</f>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="23">
+        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
         <v>100.34166666666667</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>79</v>
       </c>
@@ -1739,22 +1778,23 @@
         <v>97.5</v>
       </c>
       <c r="W4" s="6">
-        <v>87</v>
-      </c>
-      <c r="X4" s="23">
-        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3</f>
-        <v>93.933333333333323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="23">
+        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3+X4*0.15</f>
+        <v>96.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -1775,11 +1815,11 @@
         <v>2</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="K5" s="18">
         <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>83.333333333333329</v>
+        <v>99.166666666666671</v>
       </c>
       <c r="L5" s="15">
         <v>0</v>
@@ -1788,55 +1828,58 @@
         <v>100</v>
       </c>
       <c r="N5" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O5" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P5" s="6">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="6">
         <v>95</v>
       </c>
       <c r="R5" s="6">
-        <f>J5*50</f>
-        <v>0</v>
+        <f>J5*50-10</f>
+        <v>85</v>
       </c>
       <c r="S5" s="18">
         <f>SUM(L5:R5)/(A$1)</f>
-        <v>82.5</v>
+        <v>90.833333333333329</v>
       </c>
       <c r="T5" s="15">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="U5" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="V5" s="18">
         <f>SUM(T5:U5)/2</f>
-        <v>97.5</v>
+        <v>77.5</v>
       </c>
       <c r="W5" s="6">
-        <v>97</v>
-      </c>
-      <c r="X5" s="23">
-        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3</f>
-        <v>90.766666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="X5" s="52">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="23">
+        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3+X5*0.15</f>
+        <v>90.866666666666674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D6" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -1851,68 +1894,69 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="7">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="K6" s="18">
         <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>107.5</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="L6" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6">
         <v>100</v>
       </c>
       <c r="N6" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O6" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P6" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="6">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="R6" s="6">
-        <f>J6*50-10</f>
-        <v>85</v>
+        <f>J6*50</f>
+        <v>0</v>
       </c>
       <c r="S6" s="18">
         <f>SUM(L6:R6)/(A$1)</f>
-        <v>90.833333333333329</v>
+        <v>82.5</v>
       </c>
       <c r="T6" s="15">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="U6" s="15">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="V6" s="18">
         <f>SUM(T6:U6)/2</f>
-        <v>77.5</v>
+        <v>97.5</v>
       </c>
       <c r="W6" s="6">
-        <v>68</v>
-      </c>
-      <c r="X6" s="23">
-        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3</f>
-        <v>83.98333333333332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="23">
+        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3+X6*0.15</f>
+        <v>90.766666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -1927,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
         <v>2</v>
@@ -1937,13 +1981,13 @@
       </c>
       <c r="K7" s="18">
         <f>100*SUM(D7:J7)/(2*A$1)</f>
-        <v>115</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="L7" s="15">
         <v>100</v>
       </c>
       <c r="M7" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N7" s="6">
         <v>60</v>
@@ -1952,10 +1996,10 @@
         <v>60</v>
       </c>
       <c r="P7" s="6">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="R7" s="6">
         <f>J7*50-10</f>
@@ -1963,7 +2007,7 @@
       </c>
       <c r="S7" s="18">
         <f>SUM(L7:R7)/(A$1)</f>
-        <v>88.333333333333329</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="T7" s="15">
         <v>70</v>
@@ -1976,25 +2020,28 @@
         <v>80</v>
       </c>
       <c r="W7" s="6">
-        <v>63</v>
-      </c>
-      <c r="X7" s="23">
-        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3</f>
-        <v>83.98333333333332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="X7" s="52">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="23">
+        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3+X7*0.15</f>
+        <v>84.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -2009,17 +2056,17 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="7">
         <v>1.9</v>
       </c>
       <c r="K8" s="18">
         <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>99.166666666666671</v>
+        <v>107.5</v>
       </c>
       <c r="L8" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="6">
         <v>100</v>
@@ -2028,13 +2075,13 @@
         <v>80</v>
       </c>
       <c r="O8" s="6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P8" s="6">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="6">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="R8" s="6">
         <f>J8*50-10</f>
@@ -2045,47 +2092,48 @@
         <v>90.833333333333329</v>
       </c>
       <c r="T8" s="15">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U8" s="15">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V8" s="18">
         <f>SUM(T8:U8)/2</f>
         <v>77.5</v>
       </c>
       <c r="W8" s="6">
-        <v>64</v>
-      </c>
-      <c r="X8" s="23">
-        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3</f>
-        <v>81.116666666666674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="23">
+        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3+X8*0.15</f>
+        <v>83.98333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I9" s="7">
         <v>2</v>
@@ -2095,61 +2143,62 @@
       </c>
       <c r="K9" s="18">
         <f>100*SUM(D9:J9)/(2*A$1)</f>
-        <v>83.333333333333329</v>
+        <v>115</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N9" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O9" s="6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P9" s="6">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>80</v>
+      </c>
+      <c r="R9" s="6">
+        <f>J9*50-10</f>
         <v>90</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>95</v>
-      </c>
-      <c r="R9" s="6">
-        <f>J9*50-30</f>
-        <v>70</v>
       </c>
       <c r="S9" s="18">
         <f>SUM(L9:R9)/(A$1)</f>
-        <v>71.666666666666671</v>
+        <v>88.333333333333329</v>
       </c>
       <c r="T9" s="15">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="U9" s="15">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="V9" s="18">
         <f>SUM(T9:U9)/2</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W9" s="6">
-        <v>61</v>
-      </c>
-      <c r="X9" s="23">
-        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3</f>
-        <v>75.38333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="23">
+        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3+X9*0.15</f>
+        <v>83.98333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2180,64 +2229,65 @@
         <v>0</v>
       </c>
       <c r="M10" s="6">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N10" s="6">
         <v>0</v>
       </c>
       <c r="O10" s="6">
+        <v>100</v>
+      </c>
+      <c r="P10" s="6">
         <v>90</v>
-      </c>
-      <c r="P10" s="6">
-        <v>95</v>
       </c>
       <c r="Q10" s="6">
         <v>95</v>
       </c>
       <c r="R10" s="6">
-        <f>J10*50-10</f>
-        <v>90</v>
+        <f>J10*50-30</f>
+        <v>70</v>
       </c>
       <c r="S10" s="18">
         <f>SUM(L10:R10)/(A$1)</f>
         <v>71.666666666666671</v>
       </c>
       <c r="T10" s="15">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="U10" s="15">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V10" s="18">
         <f>SUM(T10:U10)/2</f>
-        <v>77.5</v>
+        <v>90</v>
       </c>
       <c r="W10" s="6">
-        <v>63</v>
-      </c>
-      <c r="X10" s="23">
-        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3</f>
-        <v>72.858333333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="23">
+        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3+X10*0.15</f>
+        <v>75.38333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
         <v>2</v>
@@ -2253,25 +2303,25 @@
       </c>
       <c r="K11" s="18">
         <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>116.66666666666667</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="L11" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M11" s="6">
         <v>60</v>
       </c>
       <c r="N11" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O11" s="6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P11" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R11" s="6">
         <f>J11*50-10</f>
@@ -2279,27 +2329,28 @@
       </c>
       <c r="S11" s="18">
         <f>SUM(L11:R11)/(A$1)</f>
-        <v>91.666666666666671</v>
+        <v>71.666666666666671</v>
       </c>
       <c r="T11" s="15">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="U11" s="15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="V11" s="18">
         <f>SUM(T11:U11)/2</f>
-        <v>80</v>
+        <v>77.5</v>
       </c>
       <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="23">
-        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3</f>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="23">
+        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3+X11*0.15</f>
+        <v>72.858333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>67</v>
       </c>
@@ -2373,91 +2424,97 @@
       <c r="W12" s="6">
         <v>50</v>
       </c>
-      <c r="X12" s="23">
-        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3</f>
-        <v>62.375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="52">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="23">
+        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3+X12*0.15</f>
+        <v>68.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="7">
         <v>2</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="18">
         <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>16.666666666666668</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N13" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O13" s="6">
         <v>60</v>
       </c>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R13" s="6">
-        <f>J13*50</f>
-        <v>0</v>
+        <f>J13*50-10-40</f>
+        <v>50</v>
       </c>
       <c r="S13" s="18">
         <f>SUM(L13:R13)/(A$1)</f>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="T13" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U13" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V13" s="18">
         <f>SUM(T13:U13)/2</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W13" s="6">
-        <v>70</v>
-      </c>
-      <c r="X13" s="23">
-        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3</f>
-        <v>49.333333333333336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="X13" s="52">
+        <v>95</v>
+      </c>
+      <c r="Y13" s="23">
+        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3+X13*0.15</f>
+        <v>59.833333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>43</v>
       </c>
@@ -2531,20 +2588,23 @@
       <c r="W14" s="6">
         <v>50</v>
       </c>
-      <c r="X14" s="23">
-        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3</f>
-        <v>46.875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="52">
+        <v>85</v>
+      </c>
+      <c r="Y14" s="23">
+        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3+X14*0.15</f>
+        <v>59.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2553,49 +2613,49 @@
         <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="18">
         <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>91.666666666666671</v>
+        <v>60</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N15" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O15" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P15" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="6">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="R15" s="6">
-        <f>J15*50-10-40</f>
-        <v>50</v>
+        <f>J15*50-5</f>
+        <v>95</v>
       </c>
       <c r="S15" s="18">
         <f>SUM(L15:R15)/(A$1)</f>
-        <v>55</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="T15" s="15">
         <v>0</v>
@@ -2608,113 +2668,117 @@
         <v>0</v>
       </c>
       <c r="W15" s="6">
-        <v>45</v>
-      </c>
-      <c r="X15" s="23">
-        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3</f>
-        <v>45.583333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="X15" s="52">
+        <v>65</v>
+      </c>
+      <c r="Y15" s="23">
+        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3+X15*0.15</f>
+        <v>51.533333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
       </c>
       <c r="G16" s="7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="18">
         <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
         <v>60</v>
       </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>60</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>50</v>
-      </c>
       <c r="P16" s="6">
         <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R16" s="6">
-        <f>J16*50-5</f>
-        <v>95</v>
+        <f>J16*50</f>
+        <v>0</v>
       </c>
       <c r="S16" s="18">
         <f>SUM(L16:R16)/(A$1)</f>
-        <v>48.333333333333336</v>
+        <v>10</v>
       </c>
       <c r="T16" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U16" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V16" s="18">
         <f>SUM(T16:U16)/2</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W16" s="6">
-        <v>59</v>
-      </c>
-      <c r="X16" s="23">
-        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3</f>
-        <v>41.783333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="23">
+        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
+        <v>49.333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D17" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2727,19 +2791,19 @@
       </c>
       <c r="K17" s="18">
         <f>100*SUM(D17:J17)/(2*A$1)</f>
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="L17" s="15">
         <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N17" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O17" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
@@ -2748,12 +2812,12 @@
         <v>65</v>
       </c>
       <c r="R17" s="6">
-        <f>J17*50-10-10</f>
+        <f>J17*50-20</f>
         <v>80</v>
       </c>
       <c r="S17" s="18">
         <f>SUM(L17:R17)/(A$1)</f>
-        <v>44.166666666666664</v>
+        <v>42.5</v>
       </c>
       <c r="T17" s="15">
         <v>0</v>
@@ -2766,28 +2830,31 @@
         <v>0</v>
       </c>
       <c r="W17" s="6">
-        <v>50</v>
-      </c>
-      <c r="X17" s="23">
-        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3</f>
-        <v>41.041666666666664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="X17" s="52">
+        <v>70</v>
+      </c>
+      <c r="Y17" s="23">
+        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3+X17*0.15</f>
+        <v>47.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D18" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
@@ -2796,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
         <v>2</v>
@@ -2806,13 +2873,13 @@
       </c>
       <c r="K18" s="18">
         <f>100*SUM(D18:J18)/(2*A$1)</f>
-        <v>91.666666666666671</v>
+        <v>75</v>
       </c>
       <c r="L18" s="15">
         <v>0</v>
       </c>
       <c r="M18" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N18" s="6">
         <v>60</v>
@@ -2821,18 +2888,18 @@
         <v>60</v>
       </c>
       <c r="P18" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="6">
         <v>65</v>
       </c>
       <c r="R18" s="6">
-        <f>J18*50-10-20</f>
-        <v>70</v>
+        <f>J18*50-10-10</f>
+        <v>80</v>
       </c>
       <c r="S18" s="18">
         <f>SUM(L18:R18)/(A$1)</f>
-        <v>55.833333333333336</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="T18" s="15">
         <v>0</v>
@@ -2845,31 +2912,32 @@
         <v>0</v>
       </c>
       <c r="W18" s="6">
-        <v>22</v>
-      </c>
-      <c r="X18" s="23">
-        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3</f>
-        <v>38.891666666666673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="23">
+        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3+X18*0.15</f>
+        <v>41.041666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D19" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G19" s="7">
         <v>2</v>
@@ -2878,20 +2946,20 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="7">
         <v>2</v>
       </c>
       <c r="K19" s="18">
         <f>100*SUM(D19:J19)/(2*A$1)</f>
-        <v>82.5</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="L19" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N19" s="6">
         <v>60</v>
@@ -2903,15 +2971,15 @@
         <v>10</v>
       </c>
       <c r="Q19" s="6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="R19" s="6">
-        <f>J19*50-40</f>
-        <v>60</v>
+        <f>J19*50-10-20</f>
+        <v>70</v>
       </c>
       <c r="S19" s="18">
         <f>SUM(L19:R19)/(A$1)</f>
-        <v>48.333333333333336</v>
+        <v>55.833333333333336</v>
       </c>
       <c r="T19" s="15">
         <v>0</v>
@@ -2924,73 +2992,74 @@
         <v>0</v>
       </c>
       <c r="W19" s="6">
-        <v>30</v>
-      </c>
-      <c r="X19" s="23">
-        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3</f>
-        <v>37.583333333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="23">
+        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3+X19*0.15</f>
+        <v>38.891666666666673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D20" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G20" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
         <v>2</v>
       </c>
       <c r="K20" s="18">
         <f>100*SUM(D20:J20)/(2*A$1)</f>
-        <v>62.5</v>
+        <v>82.5</v>
       </c>
       <c r="L20" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
         <v>60</v>
       </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
       <c r="O20" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="6">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="R20" s="6">
-        <f>J20*50-20</f>
-        <v>80</v>
+        <f>J20*50-40</f>
+        <v>60</v>
       </c>
       <c r="S20" s="18">
         <f>SUM(L20:R20)/(A$1)</f>
-        <v>42.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="T20" s="15">
         <v>0</v>
@@ -3003,14 +3072,15 @@
         <v>0</v>
       </c>
       <c r="W20" s="6">
-        <v>45</v>
-      </c>
-      <c r="X20" s="23">
-        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3</f>
-        <v>36.625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="23">
+        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3+X20*0.15</f>
+        <v>37.583333333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>16</v>
       </c>
@@ -3084,12 +3154,13 @@
       <c r="W21" s="6">
         <v>20</v>
       </c>
-      <c r="X21" s="23">
-        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3</f>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="23">
+        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3+X21*0.15</f>
         <v>31.208333333333336</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="3" t="s">
         <v>101</v>
@@ -3161,12 +3232,13 @@
       <c r="W22" s="6">
         <v>0</v>
       </c>
-      <c r="X22" s="23">
-        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3</f>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="23">
+        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3+X22*0.15</f>
         <v>11.25</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
@@ -3240,12 +3312,13 @@
       <c r="W23" s="6">
         <v>0</v>
       </c>
-      <c r="X23" s="23">
-        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3</f>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="23">
+        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3+X23*0.15</f>
         <v>7.7083333333333339</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>28</v>
       </c>
@@ -3319,12 +3392,13 @@
       <c r="W24" s="6">
         <v>0</v>
       </c>
-      <c r="X24" s="23">
-        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3</f>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="23">
+        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3+X24*0.15</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
@@ -3398,12 +3472,13 @@
       <c r="W25" s="6">
         <v>0</v>
       </c>
-      <c r="X25" s="23">
-        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3</f>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="23">
+        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3+X25*0.15</f>
         <v>5.8333333333333339</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>19</v>
       </c>
@@ -3477,12 +3552,13 @@
       <c r="W26" s="6">
         <v>0</v>
       </c>
-      <c r="X26" s="23">
-        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="52"/>
+      <c r="Y26" s="23">
+        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3+X26*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
@@ -3556,12 +3632,13 @@
       <c r="W27" s="6">
         <v>0</v>
       </c>
-      <c r="X27" s="23">
-        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="52"/>
+      <c r="Y27" s="23">
+        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3+X27*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>5</v>
       </c>
@@ -3635,12 +3712,13 @@
       <c r="W28" s="6">
         <v>0</v>
       </c>
-      <c r="X28" s="23">
-        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="52"/>
+      <c r="Y28" s="23">
+        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3+X28*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>61</v>
       </c>
@@ -3714,12 +3792,13 @@
       <c r="W29" s="6">
         <v>0</v>
       </c>
-      <c r="X29" s="23">
-        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="52"/>
+      <c r="Y29" s="23">
+        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3+X29*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
@@ -3793,12 +3872,13 @@
       <c r="W30" s="6">
         <v>0</v>
       </c>
-      <c r="X30" s="23">
-        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="52"/>
+      <c r="Y30" s="23">
+        <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3+X30*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>76</v>
       </c>
@@ -3872,12 +3952,13 @@
       <c r="W31" s="6">
         <v>0</v>
       </c>
-      <c r="X31" s="23">
-        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="52"/>
+      <c r="Y31" s="23">
+        <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3+X31*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>70</v>
       </c>
@@ -3951,12 +4032,13 @@
       <c r="W32" s="6">
         <v>0</v>
       </c>
-      <c r="X32" s="23">
-        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X32" s="52"/>
+      <c r="Y32" s="23">
+        <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3+X32*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>64</v>
       </c>
@@ -4030,12 +4112,13 @@
       <c r="W33" s="6">
         <v>0</v>
       </c>
-      <c r="X33" s="23">
-        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="52"/>
+      <c r="Y33" s="23">
+        <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3+X33*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4044,7 +4127,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4068,7 +4151,7 @@
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
     </row>
-    <row r="36" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4092,7 +4175,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4116,7 +4199,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
     </row>
-    <row r="38" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4140,7 +4223,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
     </row>
-    <row r="39" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4164,7 +4247,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
     </row>
-    <row r="40" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4188,7 +4271,7 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
     </row>
-    <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4212,7 +4295,7 @@
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
     </row>
-    <row r="42" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4236,7 +4319,7 @@
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
     </row>
-    <row r="43" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4260,7 +4343,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
     </row>
-    <row r="44" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4284,7 +4367,7 @@
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
     </row>
-    <row r="45" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4308,7 +4391,7 @@
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
     </row>
-    <row r="46" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4332,7 +4415,7 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
     </row>
-    <row r="47" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4356,7 +4439,7 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
     </row>
-    <row r="48" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -5173,8 +5256,8 @@
       <c r="V81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:Y33">
-    <sortCondition descending="1" ref="X3"/>
+  <sortState ref="A3:Z33">
+    <sortCondition descending="1" ref="Y3"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="T1:V1"/>
@@ -5235,7 +5318,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X33">
+  <conditionalFormatting sqref="Y3:Y33">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -5283,7 +5366,7 @@
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W33">
+  <conditionalFormatting sqref="W3:X33">
     <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -5348,7 +5431,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>X3:X33</xm:sqref>
+          <xm:sqref>Y3:Y33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5364,8 +5447,8 @@
   <dimension ref="A1:AI81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ24" sqref="AJ24"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5395,47 +5478,47 @@
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="39"/>
       <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="46" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="46" t="s">
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="48"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="50"/>
       <c r="AG1" s="38" t="s">
         <v>100</v>
       </c>
@@ -5555,21 +5638,23 @@
     </row>
     <row r="3" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="6">
-        <v>100.34166666666667</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="23">
+        <v>96.333333333333329</v>
       </c>
       <c r="E3" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -5577,12 +5662,14 @@
       <c r="K3" s="7"/>
       <c r="L3" s="18">
         <f>100*SUM(E3:K3)/(2*A$1)</f>
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M3" s="15">
-        <v>75</v>
-      </c>
-      <c r="N3" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="N3" s="6">
+        <v>100</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -5590,7 +5677,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="18">
         <f>SUM(M3:S3)/(A$1)</f>
-        <v>15</v>
+        <v>97.5</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
@@ -5613,30 +5700,32 @@
       <c r="AG3" s="15"/>
       <c r="AH3" s="23">
         <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
-        <v>4.5</v>
+        <v>29.5</v>
       </c>
       <c r="AI3" s="23">
         <f>D3*0.4+AH3*0.6</f>
-        <v>42.836666666666673</v>
+        <v>56.233333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="6">
-        <v>93.933333333333323</v>
+        <v>90</v>
+      </c>
+      <c r="D4" s="23">
+        <v>100.34166666666667</v>
       </c>
       <c r="E4" s="43">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.3</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5644,12 +5733,14 @@
       <c r="K4" s="7"/>
       <c r="L4" s="18">
         <f>100*SUM(E4:K4)/(2*A$1)</f>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M4" s="15">
-        <v>95</v>
-      </c>
-      <c r="N4" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="N4" s="6">
+        <v>75</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -5657,7 +5748,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="18">
         <f>SUM(M4:S4)/(A$1)</f>
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -5680,30 +5771,32 @@
       <c r="AG4" s="15"/>
       <c r="AH4" s="23">
         <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
-        <v>5.8000000000000007</v>
+        <v>22</v>
       </c>
       <c r="AI4" s="23">
         <f>D4*0.4+AH4*0.6</f>
-        <v>41.053333333333327</v>
+        <v>53.336666666666673</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="6">
-        <v>83.98333333333332</v>
+        <v>60</v>
+      </c>
+      <c r="D5" s="23">
+        <v>90.866666666666674</v>
       </c>
       <c r="E5" s="43">
-        <v>1.9</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5711,12 +5804,14 @@
       <c r="K5" s="7"/>
       <c r="L5" s="18">
         <f>100*SUM(E5:K5)/(2*A$1)</f>
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="M5" s="15">
-        <v>85</v>
-      </c>
-      <c r="N5" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="N5" s="6">
+        <v>100</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -5724,7 +5819,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="18">
         <f>SUM(M5:S5)/(A$1)</f>
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
@@ -5747,30 +5842,32 @@
       <c r="AG5" s="15"/>
       <c r="AH5" s="23">
         <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
-        <v>5.3000000000000007</v>
+        <v>29</v>
       </c>
       <c r="AI5" s="23">
         <f>D5*0.4+AH5*0.6</f>
-        <v>36.773333333333326</v>
+        <v>53.74666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="6">
-        <v>90.766666666666666</v>
+        <v>57</v>
+      </c>
+      <c r="D6" s="23">
+        <v>83.98333333333332</v>
       </c>
       <c r="E6" s="43">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -5778,12 +5875,14 @@
       <c r="K6" s="7"/>
       <c r="L6" s="18">
         <f>100*SUM(E6:K6)/(2*A$1)</f>
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="N6" s="6">
+        <v>100</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -5791,7 +5890,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="18">
         <f>SUM(M6:S6)/(A$1)</f>
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
@@ -5814,11 +5913,11 @@
       <c r="AG6" s="15"/>
       <c r="AH6" s="23">
         <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
-        <v>0</v>
+        <v>28.25</v>
       </c>
       <c r="AI6" s="23">
         <f>D6*0.4+AH6*0.6</f>
-        <v>36.306666666666665</v>
+        <v>50.543333333333322</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,13 +5930,15 @@
       <c r="C7" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="23">
         <v>83.98333333333332</v>
       </c>
       <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5845,12 +5946,14 @@
       <c r="K7" s="7"/>
       <c r="L7" s="18">
         <f>100*SUM(E7:K7)/(2*A$1)</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="M7" s="15">
         <v>85</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6">
+        <v>100</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -5858,7 +5961,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="18">
         <f>SUM(M7:S7)/(A$1)</f>
-        <v>17</v>
+        <v>92.5</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
@@ -5881,30 +5984,32 @@
       <c r="AG7" s="15"/>
       <c r="AH7" s="23">
         <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
-        <v>4.4000000000000004</v>
+        <v>26</v>
       </c>
       <c r="AI7" s="23">
         <f>D7*0.4+AH7*0.6</f>
-        <v>36.233333333333327</v>
+        <v>49.193333333333328</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="6">
-        <v>81.116666666666674</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="23">
+        <v>84.85</v>
       </c>
       <c r="E8" s="43">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5912,12 +6017,14 @@
       <c r="K8" s="7"/>
       <c r="L8" s="18">
         <f>100*SUM(E8:K8)/(2*A$1)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M8" s="15">
-        <v>90</v>
-      </c>
-      <c r="N8" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>100</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -5925,7 +6032,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="18">
         <f>SUM(M8:S8)/(A$1)</f>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -5948,11 +6055,11 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="23">
         <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="AI8" s="23">
         <f>D8*0.4+AH8*0.6</f>
-        <v>35.806666666666672</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5965,13 +6072,15 @@
       <c r="C9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="23">
         <v>75.38333333333334</v>
       </c>
       <c r="E9" s="43">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -5979,12 +6088,14 @@
       <c r="K9" s="7"/>
       <c r="L9" s="18">
         <f>100*SUM(E9:K9)/(2*A$1)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M9" s="15">
         <v>65</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6">
+        <v>100</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -5992,7 +6103,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="18">
         <f>SUM(M9:S9)/(A$1)</f>
-        <v>13</v>
+        <v>82.5</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
@@ -6015,30 +6126,32 @@
       <c r="AG9" s="15"/>
       <c r="AH9" s="23">
         <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
-        <v>4.5999999999999996</v>
+        <v>26.5</v>
       </c>
       <c r="AI9" s="23">
         <f>D9*0.4+AH9*0.6</f>
-        <v>32.913333333333334</v>
+        <v>46.053333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6">
-        <v>72.858333333333334</v>
+        <v>84</v>
+      </c>
+      <c r="D10" s="23">
+        <v>90.766666666666666</v>
       </c>
       <c r="E10" s="43">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -6046,12 +6159,14 @@
       <c r="K10" s="7"/>
       <c r="L10" s="18">
         <f>100*SUM(E10:K10)/(2*A$1)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
-        <v>70</v>
-      </c>
-      <c r="N10" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -6059,7 +6174,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="18">
         <f>SUM(M10:S10)/(A$1)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
@@ -6082,30 +6197,32 @@
       <c r="AG10" s="15"/>
       <c r="AH10" s="23">
         <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
-        <v>4.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="23">
         <f>D10*0.4+AH10*0.6</f>
-        <v>32.023333333333333</v>
+        <v>36.306666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="6">
-        <v>62.375</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="23">
+        <v>72.858333333333334</v>
       </c>
       <c r="E11" s="43">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -6113,12 +6230,14 @@
       <c r="K11" s="7"/>
       <c r="L11" s="18">
         <f>100*SUM(E11:K11)/(2*A$1)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M11" s="15">
-        <v>95</v>
-      </c>
-      <c r="N11" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="N11" s="6">
+        <v>100</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -6126,7 +6245,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="18">
         <f>SUM(M11:S11)/(A$1)</f>
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
@@ -6149,30 +6268,32 @@
       <c r="AG11" s="15"/>
       <c r="AH11" s="23">
         <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
-        <v>5.8000000000000007</v>
+        <v>27</v>
       </c>
       <c r="AI11" s="23">
         <f>D11*0.4+AH11*0.6</f>
-        <v>28.430000000000003</v>
+        <v>45.343333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="6">
-        <v>66.25</v>
+        <v>69</v>
+      </c>
+      <c r="D12" s="23">
+        <v>68.375</v>
       </c>
       <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6180,12 +6301,14 @@
       <c r="K12" s="7"/>
       <c r="L12" s="18">
         <f>100*SUM(E12:K12)/(2*A$1)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="N12" s="6">
+        <v>100</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -6193,7 +6316,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="18">
         <f>SUM(M12:S12)/(A$1)</f>
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
@@ -6216,11 +6339,11 @@
       <c r="AG12" s="15"/>
       <c r="AH12" s="23">
         <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="AI12" s="23">
         <f>D12*0.4+AH12*0.6</f>
-        <v>26.5</v>
+        <v>45.05</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6233,13 +6356,15 @@
       <c r="C13" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="6">
-        <v>46.875</v>
+      <c r="D13" s="23">
+        <v>59.625</v>
       </c>
       <c r="E13" s="43">
         <v>2</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -6247,12 +6372,14 @@
       <c r="K13" s="7"/>
       <c r="L13" s="18">
         <f>100*SUM(E13:K13)/(2*A$1)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M13" s="15">
         <v>85</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>100</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -6260,7 +6387,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="18">
         <f>SUM(M13:S13)/(A$1)</f>
-        <v>17</v>
+        <v>92.5</v>
       </c>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
@@ -6283,11 +6410,11 @@
       <c r="AG13" s="15"/>
       <c r="AH13" s="23">
         <f>L13*0.1+T13*0.2+Z13*0.2+AF13*0.2+AG13*0.3</f>
-        <v>5.4</v>
+        <v>28.5</v>
       </c>
       <c r="AI13" s="23">
         <f>D13*0.4+AH13*0.6</f>
-        <v>21.990000000000002</v>
+        <v>40.950000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6300,13 +6427,15 @@
       <c r="C14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6">
-        <v>45.583333333333336</v>
+      <c r="D14" s="23">
+        <v>59.833333333333336</v>
       </c>
       <c r="E14" s="43">
         <v>2</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -6314,12 +6443,14 @@
       <c r="K14" s="7"/>
       <c r="L14" s="18">
         <f>100*SUM(E14:K14)/(2*A$1)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M14" s="15">
         <v>70</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6">
+        <v>100</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -6327,7 +6458,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="18">
         <f>SUM(M14:S14)/(A$1)</f>
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
@@ -6350,11 +6481,11 @@
       <c r="AG14" s="15"/>
       <c r="AH14" s="23">
         <f>L14*0.1+T14*0.2+Z14*0.2+AF14*0.2+AG14*0.3</f>
-        <v>4.8000000000000007</v>
+        <v>27</v>
       </c>
       <c r="AI14" s="23">
         <f>D14*0.4+AH14*0.6</f>
-        <v>21.113333333333333</v>
+        <v>40.13333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,13 +6498,15 @@
       <c r="C15" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="6">
-        <v>41.783333333333331</v>
+      <c r="D15" s="23">
+        <v>51.533333333333331</v>
       </c>
       <c r="E15" s="43">
         <v>2</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -6381,12 +6514,14 @@
       <c r="K15" s="7"/>
       <c r="L15" s="18">
         <f>100*SUM(E15:K15)/(2*A$1)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M15" s="15">
         <v>85</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6">
+        <v>100</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -6394,7 +6529,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="18">
         <f>SUM(M15:S15)/(A$1)</f>
-        <v>17</v>
+        <v>92.5</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
@@ -6417,30 +6552,32 @@
       <c r="AG15" s="15"/>
       <c r="AH15" s="23">
         <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
-        <v>5.4</v>
+        <v>28.5</v>
       </c>
       <c r="AI15" s="23">
         <f>D15*0.4+AH15*0.6</f>
-        <v>19.953333333333333</v>
+        <v>37.713333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="6">
-        <v>49.333333333333336</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="23">
+        <v>47.125</v>
       </c>
       <c r="E16" s="43">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -6448,12 +6585,14 @@
       <c r="K16" s="7"/>
       <c r="L16" s="18">
         <f>100*SUM(E16:K16)/(2*A$1)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="N16" s="6">
+        <v>100</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -6461,7 +6600,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="18">
         <f>SUM(M16:S16)/(A$1)</f>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
@@ -6484,30 +6623,32 @@
       <c r="AG16" s="15"/>
       <c r="AH16" s="23">
         <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AI16" s="23">
         <f>D16*0.4+AH16*0.6</f>
-        <v>19.733333333333334</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6">
-        <v>41.041666666666664</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="23">
+        <v>38.891666666666673</v>
       </c>
       <c r="E17" s="43">
         <v>2</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -6515,12 +6656,14 @@
       <c r="K17" s="7"/>
       <c r="L17" s="18">
         <f>100*SUM(E17:K17)/(2*A$1)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M17" s="15">
         <v>70</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6">
+        <v>100</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -6528,7 +6671,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="18">
         <f>SUM(M17:S17)/(A$1)</f>
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
@@ -6551,30 +6694,32 @@
       <c r="AG17" s="15"/>
       <c r="AH17" s="23">
         <f>L17*0.1+T17*0.2+Z17*0.2+AF17*0.2+AG17*0.3</f>
-        <v>4.8000000000000007</v>
+        <v>27</v>
       </c>
       <c r="AI17" s="23">
         <f>D17*0.4+AH17*0.6</f>
-        <v>19.296666666666667</v>
+        <v>31.756666666666668</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6">
-        <v>38.891666666666673</v>
+        <v>87</v>
+      </c>
+      <c r="D18" s="23">
+        <v>49.333333333333336</v>
       </c>
       <c r="E18" s="43">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -6582,12 +6727,14 @@
       <c r="K18" s="7"/>
       <c r="L18" s="18">
         <f>100*SUM(E18:K18)/(2*A$1)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M18" s="15">
-        <v>70</v>
-      </c>
-      <c r="N18" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -6595,7 +6742,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="18">
         <f>SUM(M18:S18)/(A$1)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -6618,30 +6765,32 @@
       <c r="AG18" s="15"/>
       <c r="AH18" s="23">
         <f>L18*0.1+T18*0.2+Z18*0.2+AF18*0.2+AG18*0.3</f>
-        <v>4.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="23">
         <f>D18*0.4+AH18*0.6</f>
-        <v>18.436666666666671</v>
+        <v>19.733333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="6">
-        <v>36.625</v>
+        <v>27</v>
+      </c>
+      <c r="D19" s="23">
+        <v>41.041666666666664</v>
       </c>
       <c r="E19" s="43">
         <v>2</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="47">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -6649,12 +6798,14 @@
       <c r="K19" s="7"/>
       <c r="L19" s="18">
         <f>100*SUM(E19:K19)/(2*A$1)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M19" s="15">
-        <v>55</v>
-      </c>
-      <c r="N19" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -6662,7 +6813,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="18">
         <f>SUM(M19:S19)/(A$1)</f>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
@@ -6685,11 +6836,11 @@
       <c r="AG19" s="15"/>
       <c r="AH19" s="23">
         <f>L19*0.1+T19*0.2+Z19*0.2+AF19*0.2+AG19*0.3</f>
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="AI19" s="23">
         <f>D19*0.4+AH19*0.6</f>
-        <v>17.170000000000002</v>
+        <v>23.616666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6702,13 +6853,15 @@
       <c r="C20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="23">
         <v>31.208333333333336</v>
       </c>
       <c r="E20" s="43">
         <v>1.9</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -6716,12 +6869,14 @@
       <c r="K20" s="7"/>
       <c r="L20" s="18">
         <f>100*SUM(E20:K20)/(2*A$1)</f>
-        <v>19</v>
+        <v>47.5</v>
       </c>
       <c r="M20" s="15">
         <v>60</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -6729,7 +6884,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="18">
         <f>SUM(M20:S20)/(A$1)</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
@@ -6752,11 +6907,11 @@
       <c r="AG20" s="15"/>
       <c r="AH20" s="23">
         <f>L20*0.1+T20*0.2+Z20*0.2+AF20*0.2+AG20*0.3</f>
-        <v>4.3000000000000007</v>
+        <v>10.75</v>
       </c>
       <c r="AI20" s="23">
         <f>D20*0.4+AH20*0.6</f>
-        <v>15.063333333333334</v>
+        <v>18.933333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6769,13 +6924,15 @@
       <c r="C21" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="23">
         <v>37.583333333333336</v>
       </c>
       <c r="E21" s="43">
         <v>0</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -6788,7 +6945,9 @@
       <c r="M21" s="15">
         <v>0</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -6834,13 +6993,15 @@
       <c r="C22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="23">
         <v>11.25</v>
       </c>
       <c r="E22" s="43">
         <v>0</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -6853,7 +7014,9 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -6901,13 +7064,15 @@
       <c r="C23" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="23">
         <v>7.7083333333333339</v>
       </c>
       <c r="E23" s="43">
         <v>0</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -6920,7 +7085,9 @@
       <c r="M23" s="15">
         <v>0</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -6968,13 +7135,15 @@
       <c r="C24" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="23">
         <v>7.5</v>
       </c>
       <c r="E24" s="43">
         <v>0</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -6987,7 +7156,9 @@
       <c r="M24" s="15">
         <v>0</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -7035,13 +7206,15 @@
       <c r="C25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="23">
         <v>5.8333333333333339</v>
       </c>
       <c r="E25" s="43">
         <v>0</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -7054,7 +7227,9 @@
       <c r="M25" s="15">
         <v>0</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -7102,13 +7277,15 @@
       <c r="C26" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="23">
         <v>0</v>
       </c>
       <c r="E26" s="43">
         <v>0</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -7121,7 +7298,9 @@
       <c r="M26" s="15">
         <v>0</v>
       </c>
-      <c r="N26" s="6"/>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -7169,13 +7348,15 @@
       <c r="C27" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="23">
         <v>0</v>
       </c>
       <c r="E27" s="43">
         <v>0</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7188,7 +7369,9 @@
       <c r="M27" s="15">
         <v>0</v>
       </c>
-      <c r="N27" s="6"/>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -7236,13 +7419,15 @@
       <c r="C28" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="23">
         <v>0</v>
       </c>
       <c r="E28" s="43">
         <v>0</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -7255,7 +7440,9 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-      <c r="N28" s="6"/>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -7303,13 +7490,15 @@
       <c r="C29" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="23">
         <v>0</v>
       </c>
       <c r="E29" s="43">
         <v>0</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -7322,7 +7511,9 @@
       <c r="M29" s="15">
         <v>0</v>
       </c>
-      <c r="N29" s="6"/>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -7370,13 +7561,15 @@
       <c r="C30" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="23">
         <v>0</v>
       </c>
       <c r="E30" s="43">
         <v>0</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -7389,7 +7582,9 @@
       <c r="M30" s="15">
         <v>0</v>
       </c>
-      <c r="N30" s="6"/>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -7437,13 +7632,15 @@
       <c r="C31" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="23">
         <v>0</v>
       </c>
       <c r="E31" s="43">
         <v>0</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -7456,7 +7653,9 @@
       <c r="M31" s="15">
         <v>0</v>
       </c>
-      <c r="N31" s="6"/>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -7504,13 +7703,15 @@
       <c r="C32" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="23">
         <v>0</v>
       </c>
       <c r="E32" s="43">
         <v>0</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -7523,7 +7724,9 @@
       <c r="M32" s="15">
         <v>0</v>
       </c>
-      <c r="N32" s="6"/>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -7571,13 +7774,15 @@
       <c r="C33" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="23">
         <v>0</v>
       </c>
       <c r="E33" s="44">
         <v>0</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -7590,7 +7795,9 @@
       <c r="M33" s="15">
         <v>0</v>
       </c>
-      <c r="N33" s="6"/>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="6"/>
@@ -8965,19 +9172,19 @@
     <mergeCell ref="AA1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:K33">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L33">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8991,7 +9198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T33">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9005,7 +9212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z33">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9019,7 +9226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF33">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9033,7 +9240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH33">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9047,41 +9254,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:S33">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:Y33">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI33">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9094,21 +9301,32 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
-      <formula>0.1</formula>
-      <formula>59.9</formula>
+  <conditionalFormatting sqref="D3:D6 D8:D33">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
-      <formula>60</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
-      <formula>80</formula>
-      <formula>150</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5152AADF-8FC6-4ED1-821D-0A79F65C7F2C}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9183,6 +9401,28 @@
           </x14:cfRule>
           <xm:sqref>AI3:AI33</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D6 D8:D33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5152AADF-8FC6-4ED1-821D-0A79F65C7F2C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -890,6 +890,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -899,10 +903,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1511,31 +1511,31 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="48" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="48" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="52"/>
       <c r="W1" s="19" t="s">
         <v>100</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="W2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="48" t="s">
         <v>109</v>
       </c>
       <c r="Y2" s="21" t="s">
@@ -1655,7 +1655,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K3" s="18">
-        <f>100*SUM(D3:J3)/(2*A$1)</f>
+        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
         <v>90</v>
       </c>
       <c r="L3" s="15">
@@ -1681,7 +1681,7 @@
         <v>75</v>
       </c>
       <c r="S3" s="18">
-        <f>SUM(L3:R3)/(A$1)</f>
+        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
         <v>109.16666666666667</v>
       </c>
       <c r="T3" s="15">
@@ -1691,15 +1691,15 @@
         <v>110</v>
       </c>
       <c r="V3" s="18">
-        <f>SUM(T3:U3)/2</f>
+        <f t="shared" ref="V3:V33" si="2">SUM(T3:U3)/2</f>
         <v>105</v>
       </c>
       <c r="W3" s="6">
         <v>96</v>
       </c>
-      <c r="X3" s="52"/>
+      <c r="X3" s="49"/>
       <c r="Y3" s="23">
-        <f>K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
+        <f t="shared" ref="Y3:Y29" si="3">K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
         <v>100.34166666666667</v>
       </c>
       <c r="Z3" s="1" t="s">
@@ -1738,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="18">
-        <f>100*SUM(D4:J4)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="L4" s="15">
@@ -1764,7 +1764,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="18">
-        <f>SUM(L4:R4)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>95.833333333333329</v>
       </c>
       <c r="T4" s="15">
@@ -1774,15 +1774,15 @@
         <v>100</v>
       </c>
       <c r="V4" s="18">
-        <f>SUM(T4:U4)/2</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="W4" s="6">
         <v>95</v>
       </c>
-      <c r="X4" s="52"/>
+      <c r="X4" s="49"/>
       <c r="Y4" s="23">
-        <f>K4*0.2+S4*0.25+V4*0.25+W4*0.3+X4*0.15</f>
+        <f t="shared" si="3"/>
         <v>96.333333333333329</v>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
         <v>1.9</v>
       </c>
       <c r="K5" s="18">
-        <f>100*SUM(D5:J5)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>99.166666666666671</v>
       </c>
       <c r="L5" s="15">
@@ -1844,7 +1844,7 @@
         <v>85</v>
       </c>
       <c r="S5" s="18">
-        <f>SUM(L5:R5)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>90.833333333333329</v>
       </c>
       <c r="T5" s="15">
@@ -1854,17 +1854,17 @@
         <v>80</v>
       </c>
       <c r="V5" s="18">
-        <f>SUM(T5:U5)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W5" s="6">
         <v>64</v>
       </c>
-      <c r="X5" s="52">
+      <c r="X5" s="49">
         <v>65</v>
       </c>
       <c r="Y5" s="23">
-        <f>K5*0.2+S5*0.25+V5*0.25+W5*0.3+X5*0.15</f>
+        <f t="shared" si="3"/>
         <v>90.866666666666674</v>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="18">
-        <f>100*SUM(D6:J6)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L6" s="15">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="18">
-        <f>SUM(L6:R6)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="T6" s="15">
@@ -1936,15 +1936,15 @@
         <v>100</v>
       </c>
       <c r="V6" s="18">
-        <f>SUM(T6:U6)/2</f>
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="W6" s="6">
         <v>97</v>
       </c>
-      <c r="X6" s="52"/>
+      <c r="X6" s="49"/>
       <c r="Y6" s="23">
-        <f>K6*0.2+S6*0.25+V6*0.25+W6*0.3+X6*0.15</f>
+        <f t="shared" si="3"/>
         <v>90.766666666666666</v>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="18">
-        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="L7" s="15">
@@ -2006,7 +2006,7 @@
         <v>90</v>
       </c>
       <c r="S7" s="18">
-        <f>SUM(L7:R7)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
       <c r="T7" s="15">
@@ -2016,17 +2016,17 @@
         <v>90</v>
       </c>
       <c r="V7" s="18">
-        <f>SUM(T7:U7)/2</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="W7" s="6">
         <v>37</v>
       </c>
-      <c r="X7" s="52">
+      <c r="X7" s="49">
         <v>50</v>
       </c>
       <c r="Y7" s="23">
-        <f>K7*0.2+S7*0.25+V7*0.25+W7*0.3+X7*0.15</f>
+        <f t="shared" si="3"/>
         <v>84.85</v>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
         <v>1.9</v>
       </c>
       <c r="K8" s="18">
-        <f>100*SUM(D8:J8)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>107.5</v>
       </c>
       <c r="L8" s="15">
@@ -2088,7 +2088,7 @@
         <v>85</v>
       </c>
       <c r="S8" s="18">
-        <f>SUM(L8:R8)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>90.833333333333329</v>
       </c>
       <c r="T8" s="15">
@@ -2098,15 +2098,15 @@
         <v>85</v>
       </c>
       <c r="V8" s="18">
-        <f>SUM(T8:U8)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W8" s="6">
         <v>68</v>
       </c>
-      <c r="X8" s="52"/>
+      <c r="X8" s="49"/>
       <c r="Y8" s="23">
-        <f>K8*0.2+S8*0.25+V8*0.25+W8*0.3+X8*0.15</f>
+        <f t="shared" si="3"/>
         <v>83.98333333333332</v>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="18">
-        <f>100*SUM(D9:J9)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="L9" s="15">
@@ -2168,7 +2168,7 @@
         <v>90</v>
       </c>
       <c r="S9" s="18">
-        <f>SUM(L9:R9)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>88.333333333333329</v>
       </c>
       <c r="T9" s="15">
@@ -2178,15 +2178,15 @@
         <v>90</v>
       </c>
       <c r="V9" s="18">
-        <f>SUM(T9:U9)/2</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="W9" s="6">
         <v>63</v>
       </c>
-      <c r="X9" s="52"/>
+      <c r="X9" s="49"/>
       <c r="Y9" s="23">
-        <f>K9*0.2+S9*0.25+V9*0.25+W9*0.3+X9*0.15</f>
+        <f t="shared" si="3"/>
         <v>83.98333333333332</v>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="18">
-        <f>100*SUM(D10:J10)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L10" s="15">
@@ -2248,7 +2248,7 @@
         <v>70</v>
       </c>
       <c r="S10" s="18">
-        <f>SUM(L10:R10)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>71.666666666666671</v>
       </c>
       <c r="T10" s="15">
@@ -2258,15 +2258,15 @@
         <v>85</v>
       </c>
       <c r="V10" s="18">
-        <f>SUM(T10:U10)/2</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="W10" s="6">
         <v>61</v>
       </c>
-      <c r="X10" s="52"/>
+      <c r="X10" s="49"/>
       <c r="Y10" s="23">
-        <f>K10*0.2+S10*0.25+V10*0.25+W10*0.3+X10*0.15</f>
+        <f t="shared" si="3"/>
         <v>75.38333333333334</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="18">
-        <f>100*SUM(D11:J11)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L11" s="15">
@@ -2328,7 +2328,7 @@
         <v>90</v>
       </c>
       <c r="S11" s="18">
-        <f>SUM(L11:R11)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>71.666666666666671</v>
       </c>
       <c r="T11" s="15">
@@ -2338,15 +2338,15 @@
         <v>80</v>
       </c>
       <c r="V11" s="18">
-        <f>SUM(T11:U11)/2</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W11" s="6">
         <v>63</v>
       </c>
-      <c r="X11" s="52"/>
+      <c r="X11" s="49"/>
       <c r="Y11" s="23">
-        <f>K11*0.2+S11*0.25+V11*0.25+W11*0.3+X11*0.15</f>
+        <f t="shared" si="3"/>
         <v>72.858333333333334</v>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
         <v>1.9</v>
       </c>
       <c r="K12" s="18">
-        <f>100*SUM(D12:J12)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>110.83333333333333</v>
       </c>
       <c r="L12" s="15">
@@ -2408,7 +2408,7 @@
         <v>90</v>
       </c>
       <c r="S12" s="18">
-        <f>SUM(L12:R12)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>100.83333333333333</v>
       </c>
       <c r="T12" s="15">
@@ -2418,17 +2418,17 @@
         <v>0</v>
       </c>
       <c r="V12" s="18">
-        <f>SUM(T12:U12)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="6">
         <v>50</v>
       </c>
-      <c r="X12" s="52">
+      <c r="X12" s="49">
         <v>40</v>
       </c>
       <c r="Y12" s="23">
-        <f>K12*0.2+S12*0.25+V12*0.25+W12*0.3+X12*0.15</f>
+        <f t="shared" si="3"/>
         <v>68.375</v>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="18">
-        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
       <c r="L13" s="15">
@@ -2490,7 +2490,7 @@
         <v>50</v>
       </c>
       <c r="S13" s="18">
-        <f>SUM(L13:R13)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="T13" s="15">
@@ -2500,17 +2500,17 @@
         <v>0</v>
       </c>
       <c r="V13" s="18">
-        <f>SUM(T13:U13)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="6">
         <v>45</v>
       </c>
-      <c r="X13" s="52">
+      <c r="X13" s="49">
         <v>95</v>
       </c>
       <c r="Y13" s="23">
-        <f>K13*0.2+S13*0.25+V13*0.25+W13*0.3+X13*0.15</f>
+        <f t="shared" si="3"/>
         <v>59.833333333333336</v>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="18">
-        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L14" s="15">
@@ -2572,7 +2572,7 @@
         <v>90</v>
       </c>
       <c r="S14" s="18">
-        <f>SUM(L14:R14)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>60.833333333333336</v>
       </c>
       <c r="T14" s="15">
@@ -2582,17 +2582,17 @@
         <v>0</v>
       </c>
       <c r="V14" s="18">
-        <f>SUM(T14:U14)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="6">
         <v>50</v>
       </c>
-      <c r="X14" s="52">
+      <c r="X14" s="49">
         <v>85</v>
       </c>
       <c r="Y14" s="23">
-        <f>K14*0.2+S14*0.25+V14*0.25+W14*0.3+X14*0.15</f>
+        <f t="shared" si="3"/>
         <v>59.625</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="18">
-        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L15" s="15">
@@ -2654,7 +2654,7 @@
         <v>95</v>
       </c>
       <c r="S15" s="18">
-        <f>SUM(L15:R15)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>48.333333333333336</v>
       </c>
       <c r="T15" s="15">
@@ -2664,17 +2664,17 @@
         <v>0</v>
       </c>
       <c r="V15" s="18">
-        <f>SUM(T15:U15)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="6">
         <v>59</v>
       </c>
-      <c r="X15" s="52">
+      <c r="X15" s="49">
         <v>65</v>
       </c>
       <c r="Y15" s="23">
-        <f>K15*0.2+S15*0.25+V15*0.25+W15*0.3+X15*0.15</f>
+        <f t="shared" si="3"/>
         <v>51.533333333333331</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="18">
-        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L16" s="15">
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="18">
-        <f>SUM(L16:R16)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T16" s="15">
@@ -2746,15 +2746,15 @@
         <v>90</v>
       </c>
       <c r="V16" s="18">
-        <f>SUM(T16:U16)/2</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="W16" s="6">
         <v>70</v>
       </c>
-      <c r="X16" s="52"/>
+      <c r="X16" s="49"/>
       <c r="Y16" s="23">
-        <f>K16*0.2+S16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
+        <f t="shared" si="3"/>
         <v>49.333333333333336</v>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="18">
-        <f>100*SUM(D17:J17)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="L17" s="15">
@@ -2816,7 +2816,7 @@
         <v>80</v>
       </c>
       <c r="S17" s="18">
-        <f>SUM(L17:R17)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
       <c r="T17" s="15">
@@ -2826,17 +2826,17 @@
         <v>0</v>
       </c>
       <c r="V17" s="18">
-        <f>SUM(T17:U17)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="6">
         <v>45</v>
       </c>
-      <c r="X17" s="52">
+      <c r="X17" s="49">
         <v>70</v>
       </c>
       <c r="Y17" s="23">
-        <f>K17*0.2+S17*0.25+V17*0.25+W17*0.3+X17*0.15</f>
+        <f t="shared" si="3"/>
         <v>47.125</v>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="18">
-        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="L18" s="15">
@@ -2898,7 +2898,7 @@
         <v>80</v>
       </c>
       <c r="S18" s="18">
-        <f>SUM(L18:R18)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>44.166666666666664</v>
       </c>
       <c r="T18" s="15">
@@ -2908,15 +2908,15 @@
         <v>0</v>
       </c>
       <c r="V18" s="18">
-        <f>SUM(T18:U18)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="6">
         <v>50</v>
       </c>
-      <c r="X18" s="52"/>
+      <c r="X18" s="49"/>
       <c r="Y18" s="23">
-        <f>K18*0.2+S18*0.25+V18*0.25+W18*0.3+X18*0.15</f>
+        <f t="shared" si="3"/>
         <v>41.041666666666664</v>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="18">
-        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
       <c r="L19" s="15">
@@ -2978,7 +2978,7 @@
         <v>70</v>
       </c>
       <c r="S19" s="18">
-        <f>SUM(L19:R19)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>55.833333333333336</v>
       </c>
       <c r="T19" s="15">
@@ -2988,15 +2988,15 @@
         <v>0</v>
       </c>
       <c r="V19" s="18">
-        <f>SUM(T19:U19)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="6">
         <v>22</v>
       </c>
-      <c r="X19" s="52"/>
+      <c r="X19" s="49"/>
       <c r="Y19" s="23">
-        <f>K19*0.2+S19*0.25+V19*0.25+W19*0.3+X19*0.15</f>
+        <f t="shared" si="3"/>
         <v>38.891666666666673</v>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="18">
-        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="L20" s="15">
@@ -3058,7 +3058,7 @@
         <v>60</v>
       </c>
       <c r="S20" s="18">
-        <f>SUM(L20:R20)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>48.333333333333336</v>
       </c>
       <c r="T20" s="15">
@@ -3068,15 +3068,15 @@
         <v>0</v>
       </c>
       <c r="V20" s="18">
-        <f>SUM(T20:U20)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="6">
         <v>30</v>
       </c>
-      <c r="X20" s="52"/>
+      <c r="X20" s="49"/>
       <c r="Y20" s="23">
-        <f>K20*0.2+S20*0.25+V20*0.25+W20*0.3+X20*0.15</f>
+        <f t="shared" si="3"/>
         <v>37.583333333333336</v>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="18">
-        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="L21" s="15">
@@ -3138,7 +3138,7 @@
         <v>60</v>
       </c>
       <c r="S21" s="18">
-        <f>SUM(L21:R21)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
       <c r="T21" s="15">
@@ -3148,15 +3148,15 @@
         <v>0</v>
       </c>
       <c r="V21" s="18">
-        <f>SUM(T21:U21)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="6">
         <v>20</v>
       </c>
-      <c r="X21" s="52"/>
+      <c r="X21" s="49"/>
       <c r="Y21" s="23">
-        <f>K21*0.2+S21*0.25+V21*0.25+W21*0.3+X21*0.15</f>
+        <f t="shared" si="3"/>
         <v>31.208333333333336</v>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="18">
-        <f>100*SUM(D22:J22)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="L22" s="15">
@@ -3212,11 +3212,11 @@
         <v>40</v>
       </c>
       <c r="R22" s="6">
-        <f>J22*50</f>
+        <f t="shared" ref="R22:R33" si="4">J22*50</f>
         <v>0</v>
       </c>
       <c r="S22" s="18">
-        <f>SUM(L22:R22)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>18.333333333333332</v>
       </c>
       <c r="T22" s="15">
@@ -3226,15 +3226,15 @@
         <v>0</v>
       </c>
       <c r="V22" s="18">
-        <f>SUM(T22:U22)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="6">
         <v>0</v>
       </c>
-      <c r="X22" s="52"/>
+      <c r="X22" s="49"/>
       <c r="Y22" s="23">
-        <f>K22*0.2+S22*0.25+V22*0.25+W22*0.3+X22*0.15</f>
+        <f t="shared" si="3"/>
         <v>11.25</v>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="18">
-        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>20.833333333333332</v>
       </c>
       <c r="L23" s="15">
@@ -3292,11 +3292,11 @@
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <f>J23*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S23" s="18">
-        <f>SUM(L23:R23)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>14.166666666666666</v>
       </c>
       <c r="T23" s="15">
@@ -3306,15 +3306,15 @@
         <v>0</v>
       </c>
       <c r="V23" s="18">
-        <f>SUM(T23:U23)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23" s="6">
         <v>0</v>
       </c>
-      <c r="X23" s="52"/>
+      <c r="X23" s="49"/>
       <c r="Y23" s="23">
-        <f>K23*0.2+S23*0.25+V23*0.25+W23*0.3+X23*0.15</f>
+        <f t="shared" si="3"/>
         <v>7.7083333333333339</v>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="18">
-        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="15">
@@ -3372,11 +3372,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="6">
-        <f>J24*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24" s="18">
-        <f>SUM(L24:R24)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="15">
@@ -3386,15 +3386,15 @@
         <v>30</v>
       </c>
       <c r="V24" s="18">
-        <f>SUM(T24:U24)/2</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="W24" s="6">
         <v>0</v>
       </c>
-      <c r="X24" s="52"/>
+      <c r="X24" s="49"/>
       <c r="Y24" s="23">
-        <f>K24*0.2+S24*0.25+V24*0.25+W24*0.3+X24*0.15</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="18">
-        <f>100*SUM(D25:J25)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L25" s="15">
@@ -3452,11 +3452,11 @@
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f>J25*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25" s="18">
-        <f>SUM(L25:R25)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="T25" s="15">
@@ -3466,15 +3466,15 @@
         <v>0</v>
       </c>
       <c r="V25" s="18">
-        <f>SUM(T25:U25)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="6">
         <v>0</v>
       </c>
-      <c r="X25" s="52"/>
+      <c r="X25" s="49"/>
       <c r="Y25" s="23">
-        <f>K25*0.2+S25*0.25+V25*0.25+W25*0.3+X25*0.15</f>
+        <f t="shared" si="3"/>
         <v>5.8333333333333339</v>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="18">
-        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -3532,11 +3532,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f>J26*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26" s="18">
-        <f>SUM(L26:R26)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="15">
@@ -3546,15 +3546,15 @@
         <v>0</v>
       </c>
       <c r="V26" s="18">
-        <f>SUM(T26:U26)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="6">
         <v>0</v>
       </c>
-      <c r="X26" s="52"/>
+      <c r="X26" s="49"/>
       <c r="Y26" s="23">
-        <f>K26*0.2+S26*0.25+V26*0.25+W26*0.3+X26*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="18">
-        <f>100*SUM(D27:J27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -3612,11 +3612,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f>J27*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="18">
-        <f>SUM(L27:R27)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="15">
@@ -3626,15 +3626,15 @@
         <v>0</v>
       </c>
       <c r="V27" s="18">
-        <f>SUM(T27:U27)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="6">
         <v>0</v>
       </c>
-      <c r="X27" s="52"/>
+      <c r="X27" s="49"/>
       <c r="Y27" s="23">
-        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3+X27*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="18">
-        <f>100*SUM(D28:J28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -3692,11 +3692,11 @@
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f>J28*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" s="18">
-        <f>SUM(L28:R28)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="15">
@@ -3706,15 +3706,15 @@
         <v>0</v>
       </c>
       <c r="V28" s="18">
-        <f>SUM(T28:U28)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="6">
         <v>0</v>
       </c>
-      <c r="X28" s="52"/>
+      <c r="X28" s="49"/>
       <c r="Y28" s="23">
-        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3+X28*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="18">
-        <f>100*SUM(D29:J29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -3772,11 +3772,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <f>J29*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="18">
-        <f>SUM(L29:R29)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="15">
@@ -3786,15 +3786,15 @@
         <v>0</v>
       </c>
       <c r="V29" s="18">
-        <f>SUM(T29:U29)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="6">
         <v>0</v>
       </c>
-      <c r="X29" s="52"/>
+      <c r="X29" s="49"/>
       <c r="Y29" s="23">
-        <f>K29*0.2+S29*0.25+V29*0.25+W29*0.3+X29*0.15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="18">
-        <f>100*SUM(D30:J30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -3852,11 +3852,11 @@
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f>J30*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S30" s="18">
-        <f>SUM(L30:R30)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="15">
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="V30" s="18">
-        <f>SUM(T30:U30)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="6">
         <v>0</v>
       </c>
-      <c r="X30" s="52"/>
+      <c r="X30" s="49"/>
       <c r="Y30" s="23">
         <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3+X30*0.1</f>
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="18">
-        <f>100*SUM(D31:J31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -3932,11 +3932,11 @@
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f>J31*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="18">
-        <f>SUM(L31:R31)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="15">
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="V31" s="18">
-        <f>SUM(T31:U31)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="6">
         <v>0</v>
       </c>
-      <c r="X31" s="52"/>
+      <c r="X31" s="49"/>
       <c r="Y31" s="23">
         <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3+X31*0.1</f>
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="18">
-        <f>100*SUM(D32:J32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -4012,11 +4012,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="6">
-        <f>J32*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S32" s="18">
-        <f>SUM(L32:R32)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32" s="15">
@@ -4026,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="18">
-        <f>SUM(T32:U32)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="6">
         <v>0</v>
       </c>
-      <c r="X32" s="52"/>
+      <c r="X32" s="49"/>
       <c r="Y32" s="23">
         <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3+X32*0.1</f>
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="18">
-        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -4092,11 +4092,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f>J33*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S33" s="18">
-        <f>SUM(L33:R33)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T33" s="15">
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="V33" s="18">
-        <f>SUM(T33:U33)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="6">
         <v>0</v>
       </c>
-      <c r="X33" s="52"/>
+      <c r="X33" s="49"/>
       <c r="Y33" s="23">
         <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3+X33*0.1</f>
         <v>0</v>
@@ -5447,8 +5447,8 @@
   <dimension ref="A1:AI81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK36" sqref="AK36"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5478,47 +5478,47 @@
   <sheetData>
     <row r="1" spans="1:35" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="39"/>
       <c r="D1" s="45"/>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="48" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="48" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="52"/>
       <c r="AG1" s="38" t="s">
         <v>100</v>
       </c>
@@ -5655,7 +5655,9 @@
       <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -5670,14 +5672,16 @@
       <c r="N3" s="6">
         <v>100</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6">
+        <v>100</v>
+      </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="18">
         <f>SUM(M3:S3)/(A$1)</f>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
@@ -5700,11 +5704,11 @@
       <c r="AG3" s="15"/>
       <c r="AH3" s="23">
         <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
-        <v>29.5</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="AI3" s="23">
         <f>D3*0.4+AH3*0.6</f>
-        <v>56.233333333333334</v>
+        <v>56.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5726,14 +5730,16 @@
       <c r="F4" s="7">
         <v>1.3</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="18">
         <f>100*SUM(E4:K4)/(2*A$1)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M4" s="15">
         <v>75</v>
@@ -5741,14 +5747,16 @@
       <c r="N4" s="6">
         <v>75</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <v>100</v>
+      </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="18">
         <f>SUM(M4:S4)/(A$1)</f>
-        <v>75</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -5771,11 +5779,11 @@
       <c r="AG4" s="15"/>
       <c r="AH4" s="23">
         <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
-        <v>22</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="AI4" s="23">
         <f>D4*0.4+AH4*0.6</f>
-        <v>53.336666666666673</v>
+        <v>54.936666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5797,7 +5805,9 @@
       <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -5812,14 +5822,16 @@
       <c r="N5" s="6">
         <v>100</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <v>100</v>
+      </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="18">
         <f>SUM(M5:S5)/(A$1)</f>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
@@ -5842,11 +5854,11 @@
       <c r="AG5" s="15"/>
       <c r="AH5" s="23">
         <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
-        <v>29</v>
+        <v>29.333333333333336</v>
       </c>
       <c r="AI5" s="23">
         <f>D5*0.4+AH5*0.6</f>
-        <v>53.74666666666667</v>
+        <v>53.946666666666673</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5868,14 +5880,16 @@
       <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="18">
         <f>100*SUM(E6:K6)/(2*A$1)</f>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="M6" s="15">
         <v>85</v>
@@ -5883,14 +5897,16 @@
       <c r="N6" s="6">
         <v>100</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6">
+        <v>100</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="18">
         <f>SUM(M6:S6)/(A$1)</f>
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
@@ -5913,11 +5929,11 @@
       <c r="AG6" s="15"/>
       <c r="AH6" s="23">
         <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
-        <v>28.25</v>
+        <v>28.833333333333336</v>
       </c>
       <c r="AI6" s="23">
         <f>D6*0.4+AH6*0.6</f>
-        <v>50.543333333333322</v>
+        <v>50.893333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5939,14 +5955,16 @@
       <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="18">
         <f>100*SUM(E7:K7)/(2*A$1)</f>
-        <v>75</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="M7" s="15">
         <v>85</v>
@@ -5954,14 +5972,16 @@
       <c r="N7" s="6">
         <v>100</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6">
+        <v>100</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="18">
         <f>SUM(M7:S7)/(A$1)</f>
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
@@ -5984,55 +6004,59 @@
       <c r="AG7" s="15"/>
       <c r="AH7" s="23">
         <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
-        <v>26</v>
+        <v>27.333333333333336</v>
       </c>
       <c r="AI7" s="23">
         <f>D7*0.4+AH7*0.6</f>
-        <v>49.193333333333328</v>
+        <v>49.993333333333325</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D8" s="23">
-        <v>84.85</v>
+        <v>75.38333333333334</v>
       </c>
       <c r="E8" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="18">
         <f>100*SUM(E8:K8)/(2*A$1)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M8" s="15">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N8" s="6">
         <v>100</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6">
+        <v>100</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="18">
         <f>SUM(M8:S8)/(A$1)</f>
-        <v>50</v>
+        <v>88.333333333333329</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -6055,25 +6079,25 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="23">
         <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
-        <v>15</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="AI8" s="23">
         <f>D8*0.4+AH8*0.6</f>
-        <v>42.94</v>
+        <v>46.753333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" s="23">
-        <v>75.38333333333334</v>
+        <v>72.858333333333334</v>
       </c>
       <c r="E9" s="43">
         <v>2</v>
@@ -6081,7 +6105,9 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -6091,19 +6117,21 @@
         <v>100</v>
       </c>
       <c r="M9" s="15">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N9" s="6">
         <v>100</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6">
+        <v>100</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="18">
         <f>SUM(M9:S9)/(A$1)</f>
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
@@ -6126,55 +6154,59 @@
       <c r="AG9" s="15"/>
       <c r="AH9" s="23">
         <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
-        <v>26.5</v>
+        <v>28</v>
       </c>
       <c r="AI9" s="23">
         <f>D9*0.4+AH9*0.6</f>
-        <v>46.053333333333335</v>
+        <v>45.943333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D10" s="23">
-        <v>90.766666666666666</v>
+        <v>84.85</v>
       </c>
       <c r="E10" s="43">
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="18">
         <f>100*SUM(E10:K10)/(2*A$1)</f>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="M10" s="15">
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O10" s="6">
+        <v>100</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="18">
         <f>SUM(M10:S10)/(A$1)</f>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
@@ -6197,25 +6229,25 @@
       <c r="AG10" s="15"/>
       <c r="AH10" s="23">
         <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
-        <v>0</v>
+        <v>20.000000000000004</v>
       </c>
       <c r="AI10" s="23">
         <f>D10*0.4+AH10*0.6</f>
-        <v>36.306666666666665</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D11" s="23">
-        <v>72.858333333333334</v>
+        <v>68.375</v>
       </c>
       <c r="E11" s="43">
         <v>2</v>
@@ -6223,7 +6255,9 @@
       <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -6233,19 +6267,21 @@
         <v>100</v>
       </c>
       <c r="M11" s="15">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6">
         <v>100</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6">
+        <v>100</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="18">
         <f>SUM(M11:S11)/(A$1)</f>
-        <v>85</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
@@ -6268,55 +6304,59 @@
       <c r="AG11" s="15"/>
       <c r="AH11" s="23">
         <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
-        <v>27</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="AI11" s="23">
         <f>D11*0.4+AH11*0.6</f>
-        <v>45.343333333333334</v>
+        <v>45.150000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D12" s="23">
-        <v>68.375</v>
+        <v>90.766666666666666</v>
       </c>
       <c r="E12" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="18">
         <f>100*SUM(E12:K12)/(2*A$1)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
         <v>100</v>
       </c>
-      <c r="M12" s="15">
-        <v>95</v>
-      </c>
-      <c r="N12" s="6">
-        <v>100</v>
-      </c>
-      <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="18">
         <f>SUM(M12:S12)/(A$1)</f>
-        <v>97.5</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
@@ -6339,11 +6379,11 @@
       <c r="AG12" s="15"/>
       <c r="AH12" s="23">
         <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
-        <v>29.5</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="AI12" s="23">
         <f>D12*0.4+AH12*0.6</f>
-        <v>45.05</v>
+        <v>42.306666666666665</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6365,7 +6405,9 @@
       <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -6380,14 +6422,16 @@
       <c r="N13" s="6">
         <v>100</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <v>100</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="18">
         <f>SUM(M13:S13)/(A$1)</f>
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
@@ -6410,11 +6454,11 @@
       <c r="AG13" s="15"/>
       <c r="AH13" s="23">
         <f>L13*0.1+T13*0.2+Z13*0.2+AF13*0.2+AG13*0.3</f>
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="AI13" s="23">
         <f>D13*0.4+AH13*0.6</f>
-        <v>40.950000000000003</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6436,7 +6480,9 @@
       <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -6451,14 +6497,16 @@
       <c r="N14" s="6">
         <v>100</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6">
+        <v>100</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="18">
         <f>SUM(M14:S14)/(A$1)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
@@ -6481,11 +6529,11 @@
       <c r="AG14" s="15"/>
       <c r="AH14" s="23">
         <f>L14*0.1+T14*0.2+Z14*0.2+AF14*0.2+AG14*0.3</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI14" s="23">
         <f>D14*0.4+AH14*0.6</f>
-        <v>40.13333333333334</v>
+        <v>40.733333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6507,7 +6555,9 @@
       <c r="F15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -6522,14 +6572,16 @@
       <c r="N15" s="6">
         <v>100</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6">
+        <v>100</v>
+      </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="18">
         <f>SUM(M15:S15)/(A$1)</f>
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
@@ -6552,11 +6604,11 @@
       <c r="AG15" s="15"/>
       <c r="AH15" s="23">
         <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="AI15" s="23">
         <f>D15*0.4+AH15*0.6</f>
-        <v>37.713333333333331</v>
+        <v>38.013333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6578,7 +6630,9 @@
       <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -6593,14 +6647,16 @@
       <c r="N16" s="6">
         <v>100</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6">
+        <v>100</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="18">
         <f>SUM(M16:S16)/(A$1)</f>
-        <v>77.5</v>
+        <v>85</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
@@ -6623,11 +6679,11 @@
       <c r="AG16" s="15"/>
       <c r="AH16" s="23">
         <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="AI16" s="23">
         <f>D16*0.4+AH16*0.6</f>
-        <v>34.15</v>
+        <v>35.049999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,7 +6705,9 @@
       <c r="F17" s="7">
         <v>2</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -6664,14 +6722,16 @@
       <c r="N17" s="6">
         <v>100</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6">
+        <v>100</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="18">
         <f>SUM(M17:S17)/(A$1)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
@@ -6694,55 +6754,59 @@
       <c r="AG17" s="15"/>
       <c r="AH17" s="23">
         <f>L17*0.1+T17*0.2+Z17*0.2+AF17*0.2+AG17*0.3</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI17" s="23">
         <f>D17*0.4+AH17*0.6</f>
-        <v>31.756666666666668</v>
+        <v>32.356666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D18" s="23">
-        <v>49.333333333333336</v>
+        <v>31.208333333333336</v>
       </c>
       <c r="E18" s="43">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="18">
         <f>100*SUM(E18:K18)/(2*A$1)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M18" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N18" s="6">
         <v>0</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6">
+        <v>100</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="18">
         <f>SUM(M18:S18)/(A$1)</f>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -6765,11 +6829,11 @@
       <c r="AG18" s="15"/>
       <c r="AH18" s="23">
         <f>L18*0.1+T18*0.2+Z18*0.2+AF18*0.2+AG18*0.3</f>
-        <v>0</v>
+        <v>17.166666666666668</v>
       </c>
       <c r="AI18" s="23">
         <f>D18*0.4+AH18*0.6</f>
-        <v>19.733333333333334</v>
+        <v>22.783333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6798,7 +6862,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="18">
         <f>100*SUM(E19:K19)/(2*A$1)</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M19" s="15">
         <v>70</v>
@@ -6806,14 +6870,16 @@
       <c r="N19" s="6">
         <v>0</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="18">
         <f>SUM(M19:S19)/(A$1)</f>
-        <v>35</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
@@ -6836,28 +6902,28 @@
       <c r="AG19" s="15"/>
       <c r="AH19" s="23">
         <f>L19*0.1+T19*0.2+Z19*0.2+AF19*0.2+AG19*0.3</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI19" s="23">
         <f>D19*0.4+AH19*0.6</f>
-        <v>23.616666666666667</v>
+        <v>21.216666666666669</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D20" s="23">
-        <v>31.208333333333336</v>
+        <v>49.333333333333336</v>
       </c>
       <c r="E20" s="43">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -6869,22 +6935,24 @@
       <c r="K20" s="7"/>
       <c r="L20" s="18">
         <f>100*SUM(E20:K20)/(2*A$1)</f>
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="M20" s="15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N20" s="6">
         <v>0</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="18">
         <f>SUM(M20:S20)/(A$1)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
@@ -6907,11 +6975,11 @@
       <c r="AG20" s="15"/>
       <c r="AH20" s="23">
         <f>L20*0.1+T20*0.2+Z20*0.2+AF20*0.2+AG20*0.3</f>
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="23">
         <f>D20*0.4+AH20*0.6</f>
-        <v>18.933333333333334</v>
+        <v>19.733333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6948,7 +7016,9 @@
       <c r="N21" s="6">
         <v>0</v>
       </c>
-      <c r="O21" s="6"/>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -7017,7 +7087,9 @@
       <c r="N22" s="6">
         <v>0</v>
       </c>
-      <c r="O22" s="6"/>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -7088,7 +7160,9 @@
       <c r="N23" s="6">
         <v>0</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -7159,7 +7233,9 @@
       <c r="N24" s="6">
         <v>0</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -7230,7 +7306,9 @@
       <c r="N25" s="6">
         <v>0</v>
       </c>
-      <c r="O25" s="6"/>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -7301,7 +7379,9 @@
       <c r="N26" s="6">
         <v>0</v>
       </c>
-      <c r="O26" s="6"/>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -7372,7 +7452,9 @@
       <c r="N27" s="6">
         <v>0</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -7443,7 +7525,9 @@
       <c r="N28" s="6">
         <v>0</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -7514,7 +7598,9 @@
       <c r="N29" s="6">
         <v>0</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -7585,7 +7671,9 @@
       <c r="N30" s="6">
         <v>0</v>
       </c>
-      <c r="O30" s="6"/>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
@@ -7656,7 +7744,9 @@
       <c r="N31" s="6">
         <v>0</v>
       </c>
-      <c r="O31" s="6"/>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -7727,7 +7817,9 @@
       <c r="N32" s="6">
         <v>0</v>
       </c>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
@@ -7798,7 +7890,9 @@
       <c r="N33" s="6">
         <v>0</v>
       </c>
-      <c r="O33" s="17"/>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -907,45 +907,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1163,6 +1125,66 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5265,14 +5287,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5333,52 +5355,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U33">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:X33">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5444,11 +5466,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AE81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK4" sqref="AK4"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5459,26 +5481,24 @@
     <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
     <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" style="1" customWidth="1"/>
-    <col min="27" max="31" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.21875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5.77734375" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" style="1" customWidth="1"/>
+    <col min="23" max="27" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.21875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="5.77734375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="39"/>
@@ -5490,46 +5510,42 @@
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="50" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="50" t="s">
         <v>97</v>
       </c>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="50" t="s">
+        <v>99</v>
+      </c>
       <c r="X1" s="51"/>
       <c r="Y1" s="51"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="38" t="s">
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>91</v>
       </c>
@@ -5557,86 +5573,74 @@
       <c r="I2" s="31">
         <v>5</v>
       </c>
-      <c r="J2" s="31">
-        <v>6</v>
-      </c>
-      <c r="K2" s="31">
-        <v>7</v>
-      </c>
-      <c r="L2" s="32" t="s">
+      <c r="J2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="30">
+      <c r="K2" s="30">
         <v>1</v>
       </c>
+      <c r="L2" s="31">
+        <v>2</v>
+      </c>
+      <c r="M2" s="31">
+        <v>3</v>
+      </c>
       <c r="N2" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" s="31">
+        <v>5</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="30">
+        <v>1</v>
+      </c>
+      <c r="R2" s="31">
+        <v>2</v>
+      </c>
+      <c r="S2" s="31">
         <v>3</v>
       </c>
-      <c r="P2" s="31">
+      <c r="T2" s="31">
         <v>4</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="U2" s="31">
         <v>5</v>
       </c>
-      <c r="R2" s="31">
-        <v>6</v>
-      </c>
-      <c r="S2" s="31">
-        <v>7</v>
-      </c>
-      <c r="T2" s="32" t="s">
+      <c r="V2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="30">
+      <c r="W2" s="30">
         <v>1</v>
       </c>
-      <c r="V2" s="31">
-        <v>2</v>
-      </c>
-      <c r="W2" s="31">
+      <c r="X2" s="31">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="31">
         <v>3</v>
       </c>
-      <c r="X2" s="31">
+      <c r="Z2" s="31">
         <v>4</v>
       </c>
-      <c r="Y2" s="31">
+      <c r="AA2" s="31">
         <v>5</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="AB2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="31">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="31">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="31">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AC2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" s="21" t="s">
+      <c r="AD2" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="AI2" s="21" t="s">
+      <c r="AE2" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>79</v>
       </c>
@@ -5658,60 +5662,60 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="18">
-        <f>100*SUM(E3:K3)/(2*A$1)</f>
+      <c r="J3" s="18">
+        <f>100*SUM(E3:I3)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="M3" s="15">
+      <c r="K3" s="15">
         <v>95</v>
+      </c>
+      <c r="L3" s="6">
+        <v>100</v>
+      </c>
+      <c r="M3" s="6">
+        <v>100</v>
       </c>
       <c r="N3" s="6">
         <v>100</v>
       </c>
-      <c r="O3" s="6">
-        <v>100</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="18">
-        <f>SUM(M3:S3)/(A$1)</f>
-        <v>98.333333333333329</v>
-      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="18">
+        <f>SUM(K3:O3)/(A$1)</f>
+        <v>98.75</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
+      <c r="V3" s="18">
+        <f>SUM(Q3:U3)/2</f>
+        <v>0</v>
+      </c>
       <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="18">
-        <f>SUM(U3:Y3)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="18">
-        <f>SUM(AA3:AE3)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="23">
-        <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
-        <v>29.666666666666668</v>
-      </c>
-      <c r="AI3" s="23">
-        <f>D3*0.4+AH3*0.6</f>
-        <v>56.333333333333329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="18">
+        <f>SUM(W3:AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="23">
+        <f>J3*0.1+P3*0.2+V3*0.2+AB3*0.2+AC3*0.3</f>
+        <v>29.75</v>
+      </c>
+      <c r="AE3" s="23">
+        <f>D3*0.4+AD3*0.6</f>
+        <v>56.383333333333326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>88</v>
       </c>
@@ -5728,65 +5732,65 @@
         <v>1.5</v>
       </c>
       <c r="F4" s="7">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>1.5</v>
+      </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="18">
-        <f>100*SUM(E4:K4)/(2*A$1)</f>
-        <v>80</v>
-      </c>
-      <c r="M4" s="15">
+      <c r="J4" s="18">
+        <f>100*SUM(E4:I4)/(2*A$1)</f>
+        <v>81.25</v>
+      </c>
+      <c r="K4" s="15">
         <v>75</v>
+      </c>
+      <c r="L4" s="6">
+        <v>75</v>
+      </c>
+      <c r="M4" s="6">
+        <v>100</v>
       </c>
       <c r="N4" s="6">
         <v>75</v>
       </c>
-      <c r="O4" s="6">
-        <v>100</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="18">
-        <f>SUM(M4:S4)/(A$1)</f>
-        <v>83.333333333333329</v>
-      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="18">
+        <f>SUM(K4:O4)/(A$1)</f>
+        <v>81.25</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="V4" s="18">
+        <f>SUM(Q4:U4)/2</f>
+        <v>0</v>
+      </c>
       <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="18">
-        <f>SUM(U4:Y4)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="18">
-        <f>SUM(AA4:AE4)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="23">
-        <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
-        <v>24.666666666666668</v>
-      </c>
-      <c r="AI4" s="23">
-        <f>D4*0.4+AH4*0.6</f>
-        <v>54.936666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="18">
+        <f>SUM(W4:AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="23">
+        <f>J4*0.1+P4*0.2+V4*0.2+AB4*0.2+AC4*0.3</f>
+        <v>24.375</v>
+      </c>
+      <c r="AE4" s="23">
+        <f>D4*0.4+AD4*0.6</f>
+        <v>54.76166666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -5808,60 +5812,60 @@
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="18">
-        <f>100*SUM(E5:K5)/(2*A$1)</f>
+      <c r="J5" s="18">
+        <f>100*SUM(E5:I5)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="M5" s="15">
+      <c r="K5" s="15">
         <v>90</v>
+      </c>
+      <c r="L5" s="6">
+        <v>100</v>
+      </c>
+      <c r="M5" s="6">
+        <v>100</v>
       </c>
       <c r="N5" s="6">
         <v>100</v>
       </c>
-      <c r="O5" s="6">
-        <v>100</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="18">
-        <f>SUM(M5:S5)/(A$1)</f>
-        <v>96.666666666666671</v>
-      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="18">
+        <f>SUM(K5:O5)/(A$1)</f>
+        <v>97.5</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+      <c r="V5" s="18">
+        <f>SUM(Q5:U5)/2</f>
+        <v>0</v>
+      </c>
       <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="18">
-        <f>SUM(U5:Y5)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="18">
-        <f>SUM(AA5:AE5)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="23">
-        <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
-        <v>29.333333333333336</v>
-      </c>
-      <c r="AI5" s="23">
-        <f>D5*0.4+AH5*0.6</f>
-        <v>53.946666666666673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="18">
+        <f>SUM(W5:AA5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="23">
+        <f>J5*0.1+P5*0.2+V5*0.2+AB5*0.2+AC5*0.3</f>
+        <v>29.5</v>
+      </c>
+      <c r="AE5" s="23">
+        <f>D5*0.4+AD5*0.6</f>
+        <v>54.046666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>55</v>
       </c>
@@ -5883,60 +5887,60 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="18">
-        <f>100*SUM(E6:K6)/(2*A$1)</f>
-        <v>98.333333333333329</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="J6" s="18">
+        <f>100*SUM(E6:I6)/(2*A$1)</f>
+        <v>98.75</v>
+      </c>
+      <c r="K6" s="15">
         <v>85</v>
+      </c>
+      <c r="L6" s="6">
+        <v>100</v>
+      </c>
+      <c r="M6" s="6">
+        <v>100</v>
       </c>
       <c r="N6" s="6">
         <v>100</v>
       </c>
-      <c r="O6" s="6">
-        <v>100</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="18">
-        <f>SUM(M6:S6)/(A$1)</f>
-        <v>95</v>
-      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="18">
+        <f>SUM(K6:O6)/(A$1)</f>
+        <v>96.25</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="V6" s="18">
+        <f>SUM(Q6:U6)/2</f>
+        <v>0</v>
+      </c>
       <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="18">
-        <f>SUM(U6:Y6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="18">
-        <f>SUM(AA6:AE6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="23">
-        <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
-        <v>28.833333333333336</v>
-      </c>
-      <c r="AI6" s="23">
-        <f>D6*0.4+AH6*0.6</f>
-        <v>50.893333333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="18">
+        <f>SUM(W6:AA6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="23">
+        <f>J6*0.1+P6*0.2+V6*0.2+AB6*0.2+AC6*0.3</f>
+        <v>29.125</v>
+      </c>
+      <c r="AE6" s="23">
+        <f>D6*0.4+AD6*0.6</f>
+        <v>51.068333333333328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>73</v>
       </c>
@@ -5958,135 +5962,135 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="18">
-        <f>100*SUM(E7:K7)/(2*A$1)</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="M7" s="15">
+      <c r="J7" s="18">
+        <f>100*SUM(E7:I7)/(2*A$1)</f>
+        <v>87.5</v>
+      </c>
+      <c r="K7" s="15">
         <v>85</v>
+      </c>
+      <c r="L7" s="6">
+        <v>100</v>
+      </c>
+      <c r="M7" s="6">
+        <v>100</v>
       </c>
       <c r="N7" s="6">
         <v>100</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="6"/>
+      <c r="P7" s="18">
+        <f>SUM(K7:O7)/(A$1)</f>
+        <v>96.25</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="18">
+        <f>SUM(Q7:U7)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="15"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="18">
+        <f>SUM(W7:AA7)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="23">
+        <f>J7*0.1+P7*0.2+V7*0.2+AB7*0.2+AC7*0.3</f>
+        <v>28</v>
+      </c>
+      <c r="AE7" s="23">
+        <f>D7*0.4+AD7*0.6</f>
+        <v>50.393333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="23">
+        <v>84.85</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="18">
+        <f>100*SUM(E8:I8)/(2*A$1)</f>
+        <v>75</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <v>100</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="18">
-        <f>SUM(M7:S7)/(A$1)</f>
-        <v>95</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="18">
-        <f>SUM(U7:Y7)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="18">
-        <f>SUM(AA7:AE7)</f>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="23">
-        <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
-        <v>27.333333333333336</v>
-      </c>
-      <c r="AI7" s="23">
-        <f>D7*0.4+AH7*0.6</f>
-        <v>49.993333333333325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="23">
-        <v>75.38333333333334</v>
-      </c>
-      <c r="E8" s="43">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="18">
-        <f>100*SUM(E8:K8)/(2*A$1)</f>
+      <c r="M8" s="6">
         <v>100</v>
-      </c>
-      <c r="M8" s="15">
-        <v>65</v>
       </c>
       <c r="N8" s="6">
         <v>100</v>
       </c>
-      <c r="O8" s="6">
-        <v>100</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="18">
-        <f>SUM(M8:S8)/(A$1)</f>
-        <v>88.333333333333329</v>
-      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="18">
+        <f>SUM(K8:O8)/(A$1)</f>
+        <v>75</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="V8" s="18">
+        <f>SUM(Q8:U8)/2</f>
+        <v>0</v>
+      </c>
       <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="18">
-        <f>SUM(U8:Y8)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="18">
-        <f>SUM(AA8:AE8)</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="23">
-        <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
-        <v>27.666666666666668</v>
-      </c>
-      <c r="AI8" s="23">
-        <f>D8*0.4+AH8*0.6</f>
-        <v>46.753333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="18">
+        <f>SUM(W8:AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="23">
+        <f>J8*0.1+P8*0.2+V8*0.2+AB8*0.2+AC8*0.3</f>
+        <v>22.5</v>
+      </c>
+      <c r="AE8" s="23">
+        <f>D8*0.4+AD8*0.6</f>
+        <v>47.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>40</v>
       </c>
@@ -6108,360 +6112,360 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="18">
-        <f>100*SUM(E9:K9)/(2*A$1)</f>
+      <c r="J9" s="18">
+        <f>100*SUM(E9:I9)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="M9" s="15">
+      <c r="K9" s="15">
         <v>70</v>
+      </c>
+      <c r="L9" s="6">
+        <v>100</v>
+      </c>
+      <c r="M9" s="6">
+        <v>100</v>
       </c>
       <c r="N9" s="6">
         <v>100</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="6"/>
+      <c r="P9" s="18">
+        <f>SUM(K9:O9)/(A$1)</f>
+        <v>92.5</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="18">
+        <f>SUM(Q9:U9)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="15"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="18">
+        <f>SUM(W9:AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="23">
+        <f>J9*0.1+P9*0.2+V9*0.2+AB9*0.2+AC9*0.3</f>
+        <v>28.5</v>
+      </c>
+      <c r="AE9" s="23">
+        <f>D9*0.4+AD9*0.6</f>
+        <v>46.243333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="23">
+        <v>68.375</v>
+      </c>
+      <c r="E10" s="43">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="18">
+        <f>100*SUM(E10:I10)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="18">
-        <f>SUM(M9:S9)/(A$1)</f>
-        <v>90</v>
-      </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="18">
-        <f>SUM(U9:Y9)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="18">
-        <f>SUM(AA9:AE9)</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="23">
-        <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
-        <v>28</v>
-      </c>
-      <c r="AI9" s="23">
-        <f>D9*0.4+AH9*0.6</f>
-        <v>45.943333333333335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="23">
-        <v>84.85</v>
-      </c>
-      <c r="E10" s="43">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="18">
-        <f>100*SUM(E10:K10)/(2*A$1)</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="M10" s="15">
-        <v>0</v>
+      <c r="K10" s="15">
+        <v>95</v>
+      </c>
+      <c r="L10" s="6">
+        <v>100</v>
+      </c>
+      <c r="M10" s="6">
+        <v>100</v>
       </c>
       <c r="N10" s="6">
         <v>100</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="6"/>
+      <c r="P10" s="18">
+        <f>SUM(K10:O10)/(A$1)</f>
+        <v>98.75</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="18">
+        <f>SUM(Q10:U10)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="15"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="18">
+        <f>SUM(W10:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="23">
+        <f>J10*0.1+P10*0.2+V10*0.2+AB10*0.2+AC10*0.3</f>
+        <v>29.75</v>
+      </c>
+      <c r="AE10" s="23">
+        <f>D10*0.4+AD10*0.6</f>
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="23">
+        <v>75.38333333333334</v>
+      </c>
+      <c r="E11" s="43">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="18">
+        <f>100*SUM(E11:I11)/(2*A$1)</f>
+        <v>75</v>
+      </c>
+      <c r="K11" s="15">
+        <v>65</v>
+      </c>
+      <c r="L11" s="6">
         <v>100</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="18">
-        <f>SUM(M10:S10)/(A$1)</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="18">
-        <f>SUM(U10:Y10)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="18">
-        <f>SUM(AA10:AE10)</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="23">
-        <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
-        <v>20.000000000000004</v>
-      </c>
-      <c r="AI10" s="23">
-        <f>D10*0.4+AH10*0.6</f>
-        <v>45.94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="23">
-        <v>68.375</v>
-      </c>
-      <c r="E11" s="43">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="18">
-        <f>100*SUM(E11:K11)/(2*A$1)</f>
+      <c r="M11" s="6">
         <v>100</v>
       </c>
-      <c r="M11" s="15">
-        <v>95</v>
-      </c>
       <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="18">
+        <f>SUM(K11:O11)/(A$1)</f>
+        <v>66.25</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="18">
+        <f>SUM(Q11:U11)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="15"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="18">
+        <f>SUM(W11:AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="23">
+        <f>J11*0.1+P11*0.2+V11*0.2+AB11*0.2+AC11*0.3</f>
+        <v>20.75</v>
+      </c>
+      <c r="AE11" s="23">
+        <f>D11*0.4+AD11*0.6</f>
+        <v>42.603333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="23">
+        <v>59.625</v>
+      </c>
+      <c r="E12" s="43">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="18">
+        <f>100*SUM(E12:I12)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="O11" s="6">
+      <c r="K12" s="15">
+        <v>85</v>
+      </c>
+      <c r="L12" s="6">
         <v>100</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="18">
-        <f>SUM(M11:S11)/(A$1)</f>
-        <v>98.333333333333329</v>
-      </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="18">
-        <f>SUM(U11:Y11)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="18">
-        <f>SUM(AA11:AE11)</f>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="23">
-        <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
-        <v>29.666666666666668</v>
-      </c>
-      <c r="AI11" s="23">
-        <f>D11*0.4+AH11*0.6</f>
-        <v>45.150000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="M12" s="6">
+        <v>100</v>
+      </c>
+      <c r="N12" s="6">
+        <v>90</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="18">
+        <f>SUM(K12:O12)/(A$1)</f>
+        <v>93.75</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="18">
+        <f>SUM(Q12:U12)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="15"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="18">
+        <f>SUM(W12:AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="23">
+        <f>J12*0.1+P12*0.2+V12*0.2+AB12*0.2+AC12*0.3</f>
+        <v>28.75</v>
+      </c>
+      <c r="AE12" s="23">
+        <f>D12*0.4+AD12*0.6</f>
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C13" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D13" s="23">
         <v>90.766666666666666</v>
       </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="18">
-        <f>100*SUM(E12:K12)/(2*A$1)</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="M12" s="15">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="E13" s="43">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="18">
+        <f>100*SUM(E13:I13)/(2*A$1)</f>
+        <v>25</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
         <v>100</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="18">
-        <f>SUM(M12:S12)/(A$1)</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="18">
-        <f>SUM(U12:Y12)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="18">
-        <f>SUM(AA12:AE12)</f>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="23">
-        <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
-        <v>10.000000000000002</v>
-      </c>
-      <c r="AI12" s="23">
-        <f>D12*0.4+AH12*0.6</f>
-        <v>42.306666666666665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="23">
-        <v>59.625</v>
-      </c>
-      <c r="E13" s="43">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="18">
-        <f>100*SUM(E13:K13)/(2*A$1)</f>
-        <v>100</v>
-      </c>
-      <c r="M13" s="15">
-        <v>85</v>
-      </c>
       <c r="N13" s="6">
-        <v>100</v>
-      </c>
-      <c r="O13" s="6">
-        <v>100</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="18">
-        <f>SUM(M13:S13)/(A$1)</f>
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="18">
+        <f>SUM(K13:O13)/(A$1)</f>
+        <v>25</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
+      <c r="V13" s="18">
+        <f>SUM(Q13:U13)/2</f>
+        <v>0</v>
+      </c>
       <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="18">
-        <f>SUM(U13:Y13)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="18">
-        <f>SUM(AA13:AE13)</f>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="23">
-        <f>L13*0.1+T13*0.2+Z13*0.2+AF13*0.2+AG13*0.3</f>
-        <v>29</v>
-      </c>
-      <c r="AI13" s="23">
-        <f>D13*0.4+AH13*0.6</f>
-        <v>41.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="18">
+        <f>SUM(W13:AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="23">
+        <f>J13*0.1+P13*0.2+V13*0.2+AB13*0.2+AC13*0.3</f>
+        <v>7.5</v>
+      </c>
+      <c r="AE13" s="23">
+        <f>D13*0.4+AD13*0.6</f>
+        <v>40.806666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
@@ -6483,60 +6487,60 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="18">
-        <f>100*SUM(E14:K14)/(2*A$1)</f>
+      <c r="J14" s="18">
+        <f>100*SUM(E14:I14)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="M14" s="15">
+      <c r="K14" s="15">
         <v>70</v>
       </c>
+      <c r="L14" s="6">
+        <v>100</v>
+      </c>
+      <c r="M14" s="6">
+        <v>100</v>
+      </c>
       <c r="N14" s="6">
-        <v>100</v>
-      </c>
-      <c r="O14" s="6">
-        <v>100</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="18">
-        <f>SUM(M14:S14)/(A$1)</f>
         <v>90</v>
       </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="18">
+        <f>SUM(K14:O14)/(A$1)</f>
+        <v>90</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
+      <c r="V14" s="18">
+        <f>SUM(Q14:U14)/2</f>
+        <v>0</v>
+      </c>
       <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="18">
-        <f>SUM(U14:Y14)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="18">
-        <f>SUM(AA14:AE14)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="23">
-        <f>L14*0.1+T14*0.2+Z14*0.2+AF14*0.2+AG14*0.3</f>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="18">
+        <f>SUM(W14:AA14)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="23">
+        <f>J14*0.1+P14*0.2+V14*0.2+AB14*0.2+AC14*0.3</f>
         <v>28</v>
       </c>
-      <c r="AI14" s="23">
-        <f>D14*0.4+AH14*0.6</f>
+      <c r="AE14" s="23">
+        <f>D14*0.4+AD14*0.6</f>
         <v>40.733333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>49</v>
       </c>
@@ -6558,210 +6562,210 @@
       <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="18">
-        <f>100*SUM(E15:K15)/(2*A$1)</f>
+      <c r="J15" s="18">
+        <f>100*SUM(E15:I15)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="M15" s="15">
+      <c r="K15" s="15">
         <v>85</v>
       </c>
+      <c r="L15" s="6">
+        <v>100</v>
+      </c>
+      <c r="M15" s="6">
+        <v>100</v>
+      </c>
       <c r="N15" s="6">
+        <v>90</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="18">
+        <f>SUM(K15:O15)/(A$1)</f>
+        <v>93.75</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="18">
+        <f>SUM(Q15:U15)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="15"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="18">
+        <f>SUM(W15:AA15)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="23">
+        <f>J15*0.1+P15*0.2+V15*0.2+AB15*0.2+AC15*0.3</f>
+        <v>28.75</v>
+      </c>
+      <c r="AE15" s="23">
+        <f>D15*0.4+AD15*0.6</f>
+        <v>37.86333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="23">
+        <v>38.891666666666673</v>
+      </c>
+      <c r="E16" s="43">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="18">
+        <f>100*SUM(E16:I16)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="O15" s="6">
+      <c r="K16" s="15">
+        <v>70</v>
+      </c>
+      <c r="L16" s="6">
         <v>100</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="18">
-        <f>SUM(M15:S15)/(A$1)</f>
-        <v>95</v>
-      </c>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="18">
-        <f>SUM(U15:Y15)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="18">
-        <f>SUM(AA15:AE15)</f>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="23">
-        <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
-        <v>29</v>
-      </c>
-      <c r="AI15" s="23">
-        <f>D15*0.4+AH15*0.6</f>
-        <v>38.013333333333335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="23">
-        <v>47.125</v>
-      </c>
-      <c r="E16" s="43">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="18">
-        <f>100*SUM(E16:K16)/(2*A$1)</f>
+      <c r="M16" s="6">
         <v>100</v>
-      </c>
-      <c r="M16" s="15">
-        <v>55</v>
       </c>
       <c r="N16" s="6">
         <v>100</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="6"/>
+      <c r="P16" s="18">
+        <f>SUM(K16:O16)/(A$1)</f>
+        <v>92.5</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="18">
+        <f>SUM(Q16:U16)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="15"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="18">
+        <f>SUM(W16:AA16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="23">
+        <f>J16*0.1+P16*0.2+V16*0.2+AB16*0.2+AC16*0.3</f>
+        <v>28.5</v>
+      </c>
+      <c r="AE16" s="23">
+        <f>D16*0.4+AD16*0.6</f>
+        <v>32.656666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="23">
+        <v>47.125</v>
+      </c>
+      <c r="E17" s="43">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="18">
+        <f>100*SUM(E17:I17)/(2*A$1)</f>
+        <v>75</v>
+      </c>
+      <c r="K17" s="15">
+        <v>55</v>
+      </c>
+      <c r="L17" s="6">
         <v>100</v>
       </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="18">
-        <f>SUM(M16:S16)/(A$1)</f>
-        <v>85</v>
-      </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="18">
-        <f>SUM(U16:Y16)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="18">
-        <f>SUM(AA16:AE16)</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="23">
-        <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
-        <v>27</v>
-      </c>
-      <c r="AI16" s="23">
-        <f>D16*0.4+AH16*0.6</f>
-        <v>35.049999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="23">
-        <v>38.891666666666673</v>
-      </c>
-      <c r="E17" s="43">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="18">
-        <f>100*SUM(E17:K17)/(2*A$1)</f>
+      <c r="M17" s="6">
         <v>100</v>
       </c>
-      <c r="M17" s="15">
-        <v>70</v>
-      </c>
       <c r="N17" s="6">
-        <v>100</v>
-      </c>
-      <c r="O17" s="6">
-        <v>100</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="18">
-        <f>SUM(M17:S17)/(A$1)</f>
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="18">
+        <f>SUM(K17:O17)/(A$1)</f>
+        <v>63.75</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
+      <c r="V17" s="18">
+        <f>SUM(Q17:U17)/2</f>
+        <v>0</v>
+      </c>
       <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="18">
-        <f>SUM(U17:Y17)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="18">
-        <f>SUM(AA17:AE17)</f>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="23">
-        <f>L17*0.1+T17*0.2+Z17*0.2+AF17*0.2+AG17*0.3</f>
-        <v>28</v>
-      </c>
-      <c r="AI17" s="23">
-        <f>D17*0.4+AH17*0.6</f>
-        <v>32.356666666666669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="18">
+        <f>SUM(W17:AA17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="23">
+        <f>J17*0.1+P17*0.2+V17*0.2+AB17*0.2+AC17*0.3</f>
+        <v>20.25</v>
+      </c>
+      <c r="AE17" s="23">
+        <f>D17*0.4+AD17*0.6</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>16</v>
       </c>
@@ -6783,60 +6787,60 @@
       <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="18">
-        <f>100*SUM(E18:K18)/(2*A$1)</f>
-        <v>65</v>
-      </c>
-      <c r="M18" s="15">
+      <c r="J18" s="18">
+        <f>100*SUM(E18:I18)/(2*A$1)</f>
+        <v>73.75</v>
+      </c>
+      <c r="K18" s="15">
         <v>60</v>
       </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>100</v>
+      </c>
       <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>100</v>
-      </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="18">
-        <f>SUM(M18:S18)/(A$1)</f>
-        <v>53.333333333333336</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="18">
+        <f>SUM(K18:O18)/(A$1)</f>
+        <v>62.5</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
+      <c r="V18" s="18">
+        <f>SUM(Q18:U18)/2</f>
+        <v>0</v>
+      </c>
       <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="18">
-        <f>SUM(U18:Y18)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="18">
-        <f>SUM(AA18:AE18)</f>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="23">
-        <f>L18*0.1+T18*0.2+Z18*0.2+AF18*0.2+AG18*0.3</f>
-        <v>17.166666666666668</v>
-      </c>
-      <c r="AI18" s="23">
-        <f>D18*0.4+AH18*0.6</f>
-        <v>22.783333333333335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="18">
+        <f>SUM(W18:AA18)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="23">
+        <f>J18*0.1+P18*0.2+V18*0.2+AB18*0.2+AC18*0.3</f>
+        <v>19.875</v>
+      </c>
+      <c r="AE18" s="23">
+        <f>D18*0.4+AD18*0.6</f>
+        <v>24.408333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
@@ -6855,61 +6859,63 @@
       <c r="F19" s="47">
         <v>0</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="18">
-        <f>100*SUM(E19:K19)/(2*A$1)</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="M19" s="15">
+      <c r="J19" s="18">
+        <f>100*SUM(E19:I19)/(2*A$1)</f>
+        <v>50</v>
+      </c>
+      <c r="K19" s="15">
         <v>70</v>
       </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
       <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="18">
-        <f>SUM(M19:S19)/(A$1)</f>
-        <v>23.333333333333332</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="18">
+        <f>SUM(K19:O19)/(A$1)</f>
+        <v>40</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
+      <c r="V19" s="18">
+        <f>SUM(Q19:U19)/2</f>
+        <v>0</v>
+      </c>
       <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="18">
-        <f>SUM(U19:Y19)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="18">
-        <f>SUM(AA19:AE19)</f>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="23">
-        <f>L19*0.1+T19*0.2+Z19*0.2+AF19*0.2+AG19*0.3</f>
-        <v>8</v>
-      </c>
-      <c r="AI19" s="23">
-        <f>D19*0.4+AH19*0.6</f>
-        <v>21.216666666666669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="18">
+        <f>SUM(W19:AA19)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="23">
+        <f>J19*0.1+P19*0.2+V19*0.2+AB19*0.2+AC19*0.3</f>
+        <v>13</v>
+      </c>
+      <c r="AE19" s="23">
+        <f>D19*0.4+AD19*0.6</f>
+        <v>24.216666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -6928,61 +6934,61 @@
       <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="18">
-        <f>100*SUM(E20:K20)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="18">
-        <f>SUM(M20:S20)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="18">
+        <f>100*SUM(E20:I20)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="18">
+        <f>SUM(K20:O20)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
+      <c r="V20" s="18">
+        <f>SUM(Q20:U20)/2</f>
+        <v>0</v>
+      </c>
       <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="18">
-        <f>SUM(U20:Y20)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="18">
-        <f>SUM(AA20:AE20)</f>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="23">
-        <f>L20*0.1+T20*0.2+Z20*0.2+AF20*0.2+AG20*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="23">
-        <f>D20*0.4+AH20*0.6</f>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="18">
+        <f>SUM(W20:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="23">
+        <f>J20*0.1+P20*0.2+V20*0.2+AB20*0.2+AC20*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="23">
+        <f>D20*0.4+AD20*0.6</f>
         <v>19.733333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>52</v>
       </c>
@@ -7001,61 +7007,61 @@
       <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="18">
-        <f>100*SUM(E21:K21)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="18">
-        <f>SUM(M21:S21)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="18">
+        <f>100*SUM(E21:I21)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="18">
+        <f>SUM(K21:O21)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
+      <c r="V21" s="18">
+        <f>SUM(Q21:U21)/2</f>
+        <v>0</v>
+      </c>
       <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="18">
-        <f>SUM(U21:Y21)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="18">
-        <f>SUM(AA21:AE21)</f>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="23">
-        <f>L21*0.1+T21*0.2+Z21*0.2+AF21*0.2+AG21*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="23">
-        <f>D21*0.4+AH21*0.6</f>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="18">
+        <f>SUM(W21:AA21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="23">
+        <f>J21*0.1+P21*0.2+V21*0.2+AB21*0.2+AC21*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="23">
+        <f>D21*0.4+AD21*0.6</f>
         <v>15.033333333333335</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="11" t="s">
         <v>101</v>
@@ -7072,61 +7078,61 @@
       <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="18">
-        <f>100*SUM(E22:K22)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="18">
-        <f>SUM(M22:S22)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="18">
+        <f>100*SUM(E22:I22)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="18">
+        <f>SUM(K22:O22)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
       <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
+      <c r="V22" s="18">
+        <f>SUM(Q22:U22)/2</f>
+        <v>0</v>
+      </c>
       <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="18">
-        <f>SUM(U22:Y22)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="18">
-        <f>SUM(AA22:AE22)</f>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="23">
-        <f>L22*0.1+T22*0.2+Z22*0.2+AF22*0.2+AG22*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="23">
-        <f>D22*0.4+AH22*0.6</f>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="18">
+        <f>SUM(W22:AA22)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="23">
+        <f>J22*0.1+P22*0.2+V22*0.2+AB22*0.2+AC22*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="23">
+        <f>D22*0.4+AD22*0.6</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
@@ -7145,61 +7151,61 @@
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="18">
-        <f>100*SUM(E23:K23)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="18">
-        <f>SUM(M23:S23)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="18">
+        <f>100*SUM(E23:I23)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="18">
+        <f>SUM(K23:O23)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
+      <c r="V23" s="18">
+        <f>SUM(Q23:U23)/2</f>
+        <v>0</v>
+      </c>
       <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="18">
-        <f>SUM(U23:Y23)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="18">
-        <f>SUM(AA23:AE23)</f>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="23">
-        <f>L23*0.1+T23*0.2+Z23*0.2+AF23*0.2+AG23*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="23">
-        <f>D23*0.4+AH23*0.6</f>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="18">
+        <f>SUM(W23:AA23)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="23">
+        <f>J23*0.1+P23*0.2+V23*0.2+AB23*0.2+AC23*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="23">
+        <f>D23*0.4+AD23*0.6</f>
         <v>3.0833333333333339</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>28</v>
       </c>
@@ -7218,61 +7224,61 @@
       <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="18">
-        <f>100*SUM(E24:K24)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="18">
-        <f>SUM(M24:S24)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="18">
+        <f>100*SUM(E24:I24)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="18">
+        <f>SUM(K24:O24)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
+      <c r="V24" s="18">
+        <f>SUM(Q24:U24)/2</f>
+        <v>0</v>
+      </c>
       <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="18">
-        <f>SUM(U24:Y24)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="18">
-        <f>SUM(AA24:AE24)</f>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="23">
-        <f>L24*0.1+T24*0.2+Z24*0.2+AF24*0.2+AG24*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="23">
-        <f>D24*0.4+AH24*0.6</f>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="18">
+        <f>SUM(W24:AA24)</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="23">
+        <f>J24*0.1+P24*0.2+V24*0.2+AB24*0.2+AC24*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="23">
+        <f>D24*0.4+AD24*0.6</f>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
@@ -7291,61 +7297,61 @@
       <c r="F25" s="12">
         <v>0</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="18">
-        <f>100*SUM(E25:K25)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="18">
-        <f>SUM(M25:S25)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J25" s="18">
+        <f>100*SUM(E25:I25)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="18">
+        <f>SUM(K25:O25)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
+      <c r="V25" s="18">
+        <f>SUM(Q25:U25)/2</f>
+        <v>0</v>
+      </c>
       <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="18">
-        <f>SUM(U25:Y25)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="18">
-        <f>SUM(AA25:AE25)</f>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="23">
-        <f>L25*0.1+T25*0.2+Z25*0.2+AF25*0.2+AG25*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="23">
-        <f>D25*0.4+AH25*0.6</f>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="18">
+        <f>SUM(W25:AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="23">
+        <f>J25*0.1+P25*0.2+V25*0.2+AB25*0.2+AC25*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="23">
+        <f>D25*0.4+AD25*0.6</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>19</v>
       </c>
@@ -7364,61 +7370,61 @@
       <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="18">
-        <f>100*SUM(E26:K26)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="18">
-        <f>SUM(M26:S26)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J26" s="18">
+        <f>100*SUM(E26:I26)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="18">
+        <f>SUM(K26:O26)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
       <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
+      <c r="V26" s="18">
+        <f>SUM(Q26:U26)/2</f>
+        <v>0</v>
+      </c>
       <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="18">
-        <f>SUM(U26:Y26)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="18">
-        <f>SUM(AA26:AE26)</f>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="23">
-        <f>L26*0.1+T26*0.2+Z26*0.2+AF26*0.2+AG26*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="23">
-        <f>D26*0.4+AH26*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="18">
+        <f>SUM(W26:AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="23">
+        <f>J26*0.1+P26*0.2+V26*0.2+AB26*0.2+AC26*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="23">
+        <f>D26*0.4+AD26*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>13</v>
       </c>
@@ -7437,61 +7443,61 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="18">
-        <f>100*SUM(E27:K27)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="15">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="18">
-        <f>SUM(M27:S27)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="18">
+        <f>100*SUM(E27:I27)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="18">
+        <f>SUM(K27:O27)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
       <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
+      <c r="V27" s="18">
+        <f>SUM(Q27:U27)/2</f>
+        <v>0</v>
+      </c>
       <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="18">
-        <f>SUM(U27:Y27)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="18">
-        <f>SUM(AA27:AE27)</f>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="23">
-        <f>L27*0.1+T27*0.2+Z27*0.2+AF27*0.2+AG27*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="23">
-        <f>D27*0.4+AH27*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="18">
+        <f>SUM(W27:AA27)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="23">
+        <f>J27*0.1+P27*0.2+V27*0.2+AB27*0.2+AC27*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="23">
+        <f>D27*0.4+AD27*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>5</v>
       </c>
@@ -7510,61 +7516,61 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="18">
-        <f>100*SUM(E28:K28)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="18">
-        <f>SUM(M28:S28)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="18">
+        <f>100*SUM(E28:I28)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="18">
+        <f>SUM(K28:O28)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
       <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
+      <c r="V28" s="18">
+        <f>SUM(Q28:U28)/2</f>
+        <v>0</v>
+      </c>
       <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="18">
-        <f>SUM(U28:Y28)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="18">
-        <f>SUM(AA28:AE28)</f>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="23">
-        <f>L28*0.1+T28*0.2+Z28*0.2+AF28*0.2+AG28*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="23">
-        <f>D28*0.4+AH28*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="18">
+        <f>SUM(W28:AA28)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="23">
+        <f>J28*0.1+P28*0.2+V28*0.2+AB28*0.2+AC28*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="23">
+        <f>D28*0.4+AD28*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>61</v>
       </c>
@@ -7583,61 +7589,61 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="18">
-        <f>100*SUM(E29:K29)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="15">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="18">
-        <f>SUM(M29:S29)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="18">
+        <f>100*SUM(E29:I29)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="18">
+        <f>SUM(K29:O29)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
       <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
+      <c r="V29" s="18">
+        <f>SUM(Q29:U29)/2</f>
+        <v>0</v>
+      </c>
       <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="18">
-        <f>SUM(U29:Y29)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="18">
-        <f>SUM(AA29:AE29)</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="23">
-        <f>L29*0.1+T29*0.2+Z29*0.2+AF29*0.2+AG29*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="23">
-        <f>D29*0.4+AH29*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="18">
+        <f>SUM(W29:AA29)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="23">
+        <f>J29*0.1+P29*0.2+V29*0.2+AB29*0.2+AC29*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="23">
+        <f>D29*0.4+AD29*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
@@ -7656,61 +7662,61 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="18">
-        <f>100*SUM(E30:K30)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="18">
-        <f>SUM(M30:S30)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J30" s="18">
+        <f>100*SUM(E30:I30)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="18">
+        <f>SUM(K30:O30)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="V30" s="18">
+        <f>SUM(Q30:U30)/2</f>
+        <v>0</v>
+      </c>
       <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="18">
-        <f>SUM(U30:Y30)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="18">
-        <f>SUM(AA30:AE30)</f>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="23">
-        <f>L30*0.1+T30*0.2+Z30*0.2+AF30*0.2+AG30*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="23">
-        <f>D30*0.4+AH30*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="18">
+        <f>SUM(W30:AA30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="23">
+        <f>J30*0.1+P30*0.2+V30*0.2+AB30*0.2+AC30*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="23">
+        <f>D30*0.4+AD30*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>76</v>
       </c>
@@ -7729,61 +7735,61 @@
       <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="18">
-        <f>100*SUM(E31:K31)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="18">
-        <f>SUM(M31:S31)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="18">
+        <f>100*SUM(E31:I31)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="18">
+        <f>SUM(K31:O31)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
+      <c r="V31" s="18">
+        <f>SUM(Q31:U31)/2</f>
+        <v>0</v>
+      </c>
       <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="18">
-        <f>SUM(U31:Y31)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="18">
-        <f>SUM(AA31:AE31)</f>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="23">
-        <f>L31*0.1+T31*0.2+Z31*0.2+AF31*0.2+AG31*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="23">
-        <f>D31*0.4+AH31*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="18">
+        <f>SUM(W31:AA31)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="23">
+        <f>J31*0.1+P31*0.2+V31*0.2+AB31*0.2+AC31*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="23">
+        <f>D31*0.4+AD31*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>70</v>
       </c>
@@ -7802,61 +7808,61 @@
       <c r="F32" s="7">
         <v>0</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="18">
-        <f>100*SUM(E32:K32)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="15">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="18">
-        <f>SUM(M32:S32)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J32" s="18">
+        <f>100*SUM(E32:I32)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="18">
+        <f>SUM(K32:O32)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
       <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
+      <c r="V32" s="18">
+        <f>SUM(Q32:U32)/2</f>
+        <v>0</v>
+      </c>
       <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="18">
-        <f>SUM(U32:Y32)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="18">
-        <f>SUM(AA32:AE32)</f>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="23">
-        <f>L32*0.1+T32*0.2+Z32*0.2+AF32*0.2+AG32*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="23">
-        <f>D32*0.4+AH32*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="18">
+        <f>SUM(W32:AA32)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="23">
+        <f>J32*0.1+P32*0.2+V32*0.2+AB32*0.2+AC32*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="23">
+        <f>D32*0.4+AD32*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>64</v>
       </c>
@@ -7875,61 +7881,61 @@
       <c r="F33" s="14">
         <v>0</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="18">
-        <f>100*SUM(E33:K33)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="15">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="18">
-        <f>SUM(M33:S33)/(A$1)</f>
-        <v>0</v>
-      </c>
+      <c r="J33" s="18">
+        <f>100*SUM(E33:I33)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="18">
+        <f>SUM(K33:O33)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="18">
-        <f>SUM(U33:Y33)/2</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="18">
-        <f>SUM(AA33:AE33)</f>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="27">
-        <f>L33*0.1+T33*0.2+Z33*0.2+AF33*0.2+AG33*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="23">
-        <f>D33*0.4+AH33*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="18">
+        <f>SUM(Q33:U33)/2</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="16"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="18">
+        <f>SUM(W33:AA33)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="27">
+        <f>J33*0.1+P33*0.2+V33*0.2+AB33*0.2+AC33*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="23">
+        <f>D33*0.4+AD33*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -7939,7 +7945,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -7962,12 +7968,8 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-    </row>
-    <row r="36" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -7990,12 +7992,8 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-    </row>
-    <row r="37" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8018,12 +8016,8 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-    </row>
-    <row r="38" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8046,12 +8040,8 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8074,12 +8064,8 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-    </row>
-    <row r="40" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8102,12 +8088,8 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-    </row>
-    <row r="41" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8130,12 +8112,8 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-    </row>
-    <row r="42" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8158,12 +8136,8 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-    </row>
-    <row r="43" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8186,12 +8160,8 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-    </row>
-    <row r="44" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8214,12 +8184,8 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-    </row>
-    <row r="45" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8242,12 +8208,8 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-    </row>
-    <row r="46" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8270,12 +8232,8 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-    </row>
-    <row r="47" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8298,12 +8256,8 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-    </row>
-    <row r="48" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8326,12 +8280,8 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-    </row>
-    <row r="49" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8354,12 +8304,8 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-    </row>
-    <row r="50" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8382,12 +8328,8 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-    </row>
-    <row r="51" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8410,12 +8352,8 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-    </row>
-    <row r="52" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8438,12 +8376,8 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-    </row>
-    <row r="53" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8466,12 +8400,8 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-    </row>
-    <row r="54" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8494,12 +8424,8 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-    </row>
-    <row r="55" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8522,12 +8448,8 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-    </row>
-    <row r="56" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8550,12 +8472,8 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8578,12 +8496,8 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-    </row>
-    <row r="58" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8606,12 +8520,8 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-    </row>
-    <row r="59" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8634,12 +8544,8 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-    </row>
-    <row r="60" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8662,12 +8568,8 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-    </row>
-    <row r="61" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8690,12 +8592,8 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-    </row>
-    <row r="62" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8718,12 +8616,8 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-    </row>
-    <row r="63" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8746,12 +8640,8 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-    </row>
-    <row r="64" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8774,12 +8664,8 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-    </row>
-    <row r="65" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8802,12 +8688,8 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-    </row>
-    <row r="66" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8830,12 +8712,8 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-    </row>
-    <row r="67" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -8858,12 +8736,8 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-    </row>
-    <row r="68" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -8886,12 +8760,8 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-    </row>
-    <row r="69" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -8914,12 +8784,8 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-    </row>
-    <row r="70" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -8942,12 +8808,8 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-    </row>
-    <row r="71" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -8970,12 +8832,8 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-    </row>
-    <row r="72" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8998,12 +8856,8 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-    </row>
-    <row r="73" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9026,12 +8880,8 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-    </row>
-    <row r="74" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -9054,12 +8904,8 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-    </row>
-    <row r="75" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9082,12 +8928,8 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-    </row>
-    <row r="76" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9110,12 +8952,8 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-    </row>
-    <row r="77" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9138,12 +8976,8 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-    </row>
-    <row r="78" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9166,12 +9000,8 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="9"/>
-    </row>
-    <row r="79" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9194,12 +9024,8 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9"/>
-    </row>
-    <row r="80" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9222,12 +9048,8 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-    </row>
-    <row r="81" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9250,34 +9072,30 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
-      <c r="Z81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AI33">
-    <sortCondition descending="1" ref="AI3"/>
+  <sortState ref="A3:AE33">
+    <sortCondition descending="1" ref="AE3"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:K33">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="between">
+  <conditionalFormatting sqref="E3:I33">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L33">
+  <conditionalFormatting sqref="J3:J33">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -9291,7 +9109,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T33">
+  <conditionalFormatting sqref="P3:P33">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
@@ -9305,7 +9123,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z33">
+  <conditionalFormatting sqref="V3:V33">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
@@ -9319,7 +9137,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF33">
+  <conditionalFormatting sqref="AB3:AB33">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
@@ -9333,7 +9151,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH33">
+  <conditionalFormatting sqref="AD3:AD33">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -9347,41 +9165,41 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:S33">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="between">
+  <conditionalFormatting sqref="K3:O33">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:Y33">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
+  <conditionalFormatting sqref="Q3:U33">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI33">
+  <conditionalFormatting sqref="AE3:AE33">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -9438,7 +9256,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L3:L33</xm:sqref>
+          <xm:sqref>J3:J33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
@@ -9449,7 +9267,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T3:T33</xm:sqref>
+          <xm:sqref>P3:P33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77C9A01F-EA1B-4605-8E36-B0BAF3BB9AE5}">
@@ -9460,7 +9278,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z3:Z33</xm:sqref>
+          <xm:sqref>V3:V33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{56E5E5A3-F957-491E-9C01-522DE745411E}">
@@ -9471,7 +9289,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AF3:AF33</xm:sqref>
+          <xm:sqref>AB3:AB33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -9482,7 +9300,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AH3:AH33</xm:sqref>
+          <xm:sqref>AD3:AD33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -9493,7 +9311,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AI3:AI33</xm:sqref>
+          <xm:sqref>AE3:AE33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="109">
   <si>
     <t>Adı</t>
   </si>
@@ -358,18 +358,6 @@
     <t>NOT</t>
   </si>
   <si>
-    <t>DEVAM DURUMU (%10)</t>
-  </si>
-  <si>
-    <t>LAB ÇALIŞMALARI (%20)</t>
-  </si>
-  <si>
-    <t>ÖDEVLER (%20)</t>
-  </si>
-  <si>
-    <t>QUIZLER (%20)</t>
-  </si>
-  <si>
     <t>SINAV (%30)</t>
   </si>
   <si>
@@ -401,6 +389,12 @@
   </si>
   <si>
     <t>BONUS (%15)</t>
+  </si>
+  <si>
+    <t>LAB ÇALIŞMALARI (%30)</t>
+  </si>
+  <si>
+    <t>SINAV (%50)</t>
   </si>
 </sst>
 </file>
@@ -471,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -722,21 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -803,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -826,7 +805,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -843,7 +821,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -871,18 +848,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -890,7 +867,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -907,7 +884,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1125,66 +1102,6 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1528,125 +1445,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34">
+      <c r="A1" s="32">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="50" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="49"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29">
+        <v>3</v>
+      </c>
+      <c r="G2" s="29">
+        <v>4</v>
+      </c>
+      <c r="H2" s="29">
+        <v>5</v>
+      </c>
+      <c r="I2" s="29">
+        <v>6</v>
+      </c>
+      <c r="J2" s="29">
+        <v>7</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="28">
+        <v>1</v>
+      </c>
+      <c r="M2" s="29">
+        <v>2</v>
+      </c>
+      <c r="N2" s="29">
+        <v>3</v>
+      </c>
+      <c r="O2" s="29">
+        <v>4</v>
+      </c>
+      <c r="P2" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>6</v>
+      </c>
+      <c r="R2" s="29">
+        <v>7</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="28">
+        <v>1</v>
+      </c>
+      <c r="U2" s="29">
+        <v>2</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="X1" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30">
-        <v>1</v>
-      </c>
-      <c r="E2" s="31">
-        <v>2</v>
-      </c>
-      <c r="F2" s="31">
-        <v>3</v>
-      </c>
-      <c r="G2" s="31">
-        <v>4</v>
-      </c>
-      <c r="H2" s="31">
-        <v>5</v>
-      </c>
-      <c r="I2" s="31">
-        <v>6</v>
-      </c>
-      <c r="J2" s="31">
-        <v>7</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="30">
-        <v>1</v>
-      </c>
-      <c r="M2" s="31">
-        <v>2</v>
-      </c>
-      <c r="N2" s="31">
-        <v>3</v>
-      </c>
-      <c r="O2" s="31">
-        <v>4</v>
-      </c>
-      <c r="P2" s="31">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="31">
-        <v>6</v>
-      </c>
-      <c r="R2" s="31">
-        <v>7</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="30">
-        <v>1</v>
-      </c>
-      <c r="U2" s="31">
-        <v>2</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1676,7 +1593,7 @@
       <c r="J3" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="17">
         <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
         <v>90</v>
       </c>
@@ -1702,7 +1619,7 @@
         <f>J3*50+20</f>
         <v>75</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="17">
         <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
         <v>109.16666666666667</v>
       </c>
@@ -1712,24 +1629,24 @@
       <c r="U3" s="15">
         <v>110</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="17">
         <f t="shared" ref="V3:V33" si="2">SUM(T3:U3)/2</f>
         <v>105</v>
       </c>
       <c r="W3" s="6">
         <v>96</v>
       </c>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="23">
+      <c r="X3" s="47"/>
+      <c r="Y3" s="22">
         <f t="shared" ref="Y3:Y29" si="3">K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
         <v>100.34166666666667</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1759,7 +1676,7 @@
       <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
@@ -1785,7 +1702,7 @@
         <f>J4*50</f>
         <v>100</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <f t="shared" si="1"/>
         <v>95.833333333333329</v>
       </c>
@@ -1795,21 +1712,21 @@
       <c r="U4" s="15">
         <v>100</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="17">
         <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="W4" s="6">
         <v>95</v>
       </c>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="23">
+      <c r="X4" s="47"/>
+      <c r="Y4" s="22">
         <f t="shared" si="3"/>
         <v>96.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1839,7 +1756,7 @@
       <c r="J5" s="7">
         <v>1.9</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <f t="shared" si="0"/>
         <v>99.166666666666671</v>
       </c>
@@ -1865,7 +1782,7 @@
         <f>J5*50-10</f>
         <v>85</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="17">
         <f t="shared" si="1"/>
         <v>90.833333333333329</v>
       </c>
@@ -1875,23 +1792,23 @@
       <c r="U5" s="15">
         <v>80</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="17">
         <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W5" s="6">
         <v>64</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="47">
         <v>65</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="22">
         <f t="shared" si="3"/>
         <v>90.866666666666674</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1921,7 +1838,7 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
@@ -1947,7 +1864,7 @@
         <f>J6*50</f>
         <v>0</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="17">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
@@ -1957,21 +1874,21 @@
       <c r="U6" s="15">
         <v>100</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="17">
         <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
       <c r="W6" s="6">
         <v>97</v>
       </c>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="23">
+      <c r="X6" s="47"/>
+      <c r="Y6" s="22">
         <f t="shared" si="3"/>
         <v>90.766666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2001,7 +1918,7 @@
       <c r="J7" s="7">
         <v>2</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
@@ -2027,7 +1944,7 @@
         <f>J7*50-10</f>
         <v>90</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="17">
         <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
@@ -2037,23 +1954,23 @@
       <c r="U7" s="15">
         <v>90</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="17">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="W7" s="6">
         <v>37</v>
       </c>
-      <c r="X7" s="49">
+      <c r="X7" s="47">
         <v>50</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Y7" s="22">
         <f t="shared" si="3"/>
         <v>84.85</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2083,7 +2000,7 @@
       <c r="J8" s="7">
         <v>1.9</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <f t="shared" si="0"/>
         <v>107.5</v>
       </c>
@@ -2109,7 +2026,7 @@
         <f>J8*50-10</f>
         <v>85</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="17">
         <f t="shared" si="1"/>
         <v>90.833333333333329</v>
       </c>
@@ -2119,21 +2036,21 @@
       <c r="U8" s="15">
         <v>85</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="17">
         <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W8" s="6">
         <v>68</v>
       </c>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="23">
+      <c r="X8" s="47"/>
+      <c r="Y8" s="22">
         <f t="shared" si="3"/>
         <v>83.98333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2163,7 +2080,7 @@
       <c r="J9" s="7">
         <v>2</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -2189,7 +2106,7 @@
         <f>J9*50-10</f>
         <v>90</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <f t="shared" si="1"/>
         <v>88.333333333333329</v>
       </c>
@@ -2199,21 +2116,21 @@
       <c r="U9" s="15">
         <v>90</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="17">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="W9" s="6">
         <v>63</v>
       </c>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="23">
+      <c r="X9" s="47"/>
+      <c r="Y9" s="22">
         <f t="shared" si="3"/>
         <v>83.98333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2243,7 +2160,7 @@
       <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
@@ -2269,7 +2186,7 @@
         <f>J10*50-30</f>
         <v>70</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="17">
         <f t="shared" si="1"/>
         <v>71.666666666666671</v>
       </c>
@@ -2279,21 +2196,21 @@
       <c r="U10" s="15">
         <v>85</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="17">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="W10" s="6">
         <v>61</v>
       </c>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="23">
+      <c r="X10" s="47"/>
+      <c r="Y10" s="22">
         <f t="shared" si="3"/>
         <v>75.38333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2323,7 +2240,7 @@
       <c r="J11" s="7">
         <v>2</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
@@ -2349,7 +2266,7 @@
         <f>J11*50-10</f>
         <v>90</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="17">
         <f t="shared" si="1"/>
         <v>71.666666666666671</v>
       </c>
@@ -2359,21 +2276,21 @@
       <c r="U11" s="15">
         <v>80</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="17">
         <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="W11" s="6">
         <v>63</v>
       </c>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="23">
+      <c r="X11" s="47"/>
+      <c r="Y11" s="22">
         <f t="shared" si="3"/>
         <v>72.858333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2403,7 +2320,7 @@
       <c r="J12" s="7">
         <v>1.9</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <f t="shared" si="0"/>
         <v>110.83333333333333</v>
       </c>
@@ -2429,7 +2346,7 @@
         <f>J12*50-5</f>
         <v>90</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <f t="shared" si="1"/>
         <v>100.83333333333333</v>
       </c>
@@ -2439,23 +2356,23 @@
       <c r="U12" s="15">
         <v>0</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="6">
         <v>50</v>
       </c>
-      <c r="X12" s="49">
+      <c r="X12" s="47">
         <v>40</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Y12" s="22">
         <f t="shared" si="3"/>
         <v>68.375</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2485,7 +2402,7 @@
       <c r="J13" s="7">
         <v>2</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
@@ -2511,7 +2428,7 @@
         <f>J13*50-10-40</f>
         <v>50</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="17">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -2521,23 +2438,23 @@
       <c r="U13" s="15">
         <v>0</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="6">
         <v>45</v>
       </c>
-      <c r="X13" s="49">
+      <c r="X13" s="47">
         <v>95</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Y13" s="22">
         <f t="shared" si="3"/>
         <v>59.833333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2567,7 +2484,7 @@
       <c r="J14" s="7">
         <v>2</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="17">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
@@ -2593,7 +2510,7 @@
         <f>J14*50-10</f>
         <v>90</v>
       </c>
-      <c r="S14" s="18">
+      <c r="S14" s="17">
         <f t="shared" si="1"/>
         <v>60.833333333333336</v>
       </c>
@@ -2603,23 +2520,23 @@
       <c r="U14" s="15">
         <v>0</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="6">
         <v>50</v>
       </c>
-      <c r="X14" s="49">
+      <c r="X14" s="47">
         <v>85</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="22">
         <f t="shared" si="3"/>
         <v>59.625</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2649,7 +2566,7 @@
       <c r="J15" s="7">
         <v>2</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2675,7 +2592,7 @@
         <f>J15*50-5</f>
         <v>95</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="17">
         <f t="shared" si="1"/>
         <v>48.333333333333336</v>
       </c>
@@ -2685,23 +2602,23 @@
       <c r="U15" s="15">
         <v>0</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="6">
         <v>59</v>
       </c>
-      <c r="X15" s="49">
+      <c r="X15" s="47">
         <v>65</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Y15" s="22">
         <f t="shared" si="3"/>
         <v>51.533333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2731,7 +2648,7 @@
       <c r="J16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="17">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
@@ -2757,7 +2674,7 @@
         <f>J16*50</f>
         <v>0</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -2767,21 +2684,21 @@
       <c r="U16" s="15">
         <v>90</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="17">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="W16" s="6">
         <v>70</v>
       </c>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="23">
+      <c r="X16" s="47"/>
+      <c r="Y16" s="22">
         <f t="shared" si="3"/>
         <v>49.333333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2811,7 +2728,7 @@
       <c r="J17" s="7">
         <v>2</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="17">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
@@ -2837,7 +2754,7 @@
         <f>J17*50-20</f>
         <v>80</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="17">
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
@@ -2847,23 +2764,23 @@
       <c r="U17" s="15">
         <v>0</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="6">
         <v>45</v>
       </c>
-      <c r="X17" s="49">
+      <c r="X17" s="47">
         <v>70</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="22">
         <f t="shared" si="3"/>
         <v>47.125</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2893,7 +2810,7 @@
       <c r="J18" s="7">
         <v>2</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="17">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -2919,7 +2836,7 @@
         <f>J18*50-10-10</f>
         <v>80</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="17">
         <f t="shared" si="1"/>
         <v>44.166666666666664</v>
       </c>
@@ -2929,21 +2846,21 @@
       <c r="U18" s="15">
         <v>0</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="6">
         <v>50</v>
       </c>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="23">
+      <c r="X18" s="47"/>
+      <c r="Y18" s="22">
         <f t="shared" si="3"/>
         <v>41.041666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2973,7 +2890,7 @@
       <c r="J19" s="7">
         <v>2</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="17">
         <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
@@ -2999,7 +2916,7 @@
         <f>J19*50-10-20</f>
         <v>70</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="17">
         <f t="shared" si="1"/>
         <v>55.833333333333336</v>
       </c>
@@ -3009,21 +2926,21 @@
       <c r="U19" s="15">
         <v>0</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="6">
         <v>22</v>
       </c>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="23">
+      <c r="X19" s="47"/>
+      <c r="Y19" s="22">
         <f t="shared" si="3"/>
         <v>38.891666666666673</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3053,7 +2970,7 @@
       <c r="J20" s="7">
         <v>2</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -3079,7 +2996,7 @@
         <f>J20*50-40</f>
         <v>60</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="17">
         <f t="shared" si="1"/>
         <v>48.333333333333336</v>
       </c>
@@ -3089,21 +3006,21 @@
       <c r="U20" s="15">
         <v>0</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="6">
         <v>30</v>
       </c>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="23">
+      <c r="X20" s="47"/>
+      <c r="Y20" s="22">
         <f t="shared" si="3"/>
         <v>37.583333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3133,7 +3050,7 @@
       <c r="J21" s="7">
         <v>2</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="17">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
@@ -3159,7 +3076,7 @@
         <f>J21*50-40</f>
         <v>60</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="17">
         <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
@@ -3169,26 +3086,26 @@
       <c r="U21" s="15">
         <v>0</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="6">
         <v>20</v>
       </c>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="23">
+      <c r="X21" s="47"/>
+      <c r="Y21" s="22">
         <f t="shared" si="3"/>
         <v>31.208333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
@@ -3211,7 +3128,7 @@
       <c r="J22" s="7">
         <v>0</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="17">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
@@ -3237,7 +3154,7 @@
         <f t="shared" ref="R22:R33" si="4">J22*50</f>
         <v>0</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22" s="17">
         <f t="shared" si="1"/>
         <v>18.333333333333332</v>
       </c>
@@ -3247,21 +3164,21 @@
       <c r="U22" s="15">
         <v>0</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="6">
         <v>0</v>
       </c>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="23">
+      <c r="X22" s="47"/>
+      <c r="Y22" s="22">
         <f t="shared" si="3"/>
         <v>11.25</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3291,7 +3208,7 @@
       <c r="J23" s="7">
         <v>0</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="17">
         <f t="shared" si="0"/>
         <v>20.833333333333332</v>
       </c>
@@ -3317,7 +3234,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23" s="17">
         <f t="shared" si="1"/>
         <v>14.166666666666666</v>
       </c>
@@ -3327,21 +3244,21 @@
       <c r="U23" s="15">
         <v>0</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23" s="6">
         <v>0</v>
       </c>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="23">
+      <c r="X23" s="47"/>
+      <c r="Y23" s="22">
         <f t="shared" si="3"/>
         <v>7.7083333333333339</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3371,7 +3288,7 @@
       <c r="J24" s="7">
         <v>0</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3397,7 +3314,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3407,21 +3324,21 @@
       <c r="U24" s="15">
         <v>30</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="17">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="W24" s="6">
         <v>0</v>
       </c>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="23">
+      <c r="X24" s="47"/>
+      <c r="Y24" s="22">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3451,7 +3368,7 @@
       <c r="J25" s="7">
         <v>0</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="17">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
@@ -3477,7 +3394,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25" s="17">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -3487,21 +3404,21 @@
       <c r="U25" s="15">
         <v>0</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="6">
         <v>0</v>
       </c>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="23">
+      <c r="X25" s="47"/>
+      <c r="Y25" s="22">
         <f t="shared" si="3"/>
         <v>5.8333333333333339</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3531,7 +3448,7 @@
       <c r="J26" s="7">
         <v>0</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3557,7 +3474,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="18">
+      <c r="S26" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3567,21 +3484,21 @@
       <c r="U26" s="15">
         <v>0</v>
       </c>
-      <c r="V26" s="18">
+      <c r="V26" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="6">
         <v>0</v>
       </c>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="23">
+      <c r="X26" s="47"/>
+      <c r="Y26" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3611,7 +3528,7 @@
       <c r="J27" s="7">
         <v>0</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3637,7 +3554,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3647,21 +3564,21 @@
       <c r="U27" s="15">
         <v>0</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="6">
         <v>0</v>
       </c>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="23">
+      <c r="X27" s="47"/>
+      <c r="Y27" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3691,7 +3608,7 @@
       <c r="J28" s="7">
         <v>0</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3717,7 +3634,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3727,21 +3644,21 @@
       <c r="U28" s="15">
         <v>0</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="6">
         <v>0</v>
       </c>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="23">
+      <c r="X28" s="47"/>
+      <c r="Y28" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3771,7 +3688,7 @@
       <c r="J29" s="7">
         <v>0</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3797,7 +3714,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3807,21 +3724,21 @@
       <c r="U29" s="15">
         <v>0</v>
       </c>
-      <c r="V29" s="18">
+      <c r="V29" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="6">
         <v>0</v>
       </c>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="23">
+      <c r="X29" s="47"/>
+      <c r="Y29" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3851,7 +3768,7 @@
       <c r="J30" s="7">
         <v>0</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3877,7 +3794,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S30" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3887,21 +3804,21 @@
       <c r="U30" s="15">
         <v>0</v>
       </c>
-      <c r="V30" s="18">
+      <c r="V30" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="6">
         <v>0</v>
       </c>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="23">
+      <c r="X30" s="47"/>
+      <c r="Y30" s="22">
         <f>K30*0.2+S30*0.25+V30*0.25+W30*0.3+X30*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3931,7 +3848,7 @@
       <c r="J31" s="7">
         <v>0</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3957,7 +3874,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S31" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3967,27 +3884,27 @@
       <c r="U31" s="15">
         <v>0</v>
       </c>
-      <c r="V31" s="18">
+      <c r="V31" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="6">
         <v>0</v>
       </c>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="23">
+      <c r="X31" s="47"/>
+      <c r="Y31" s="22">
         <f>K31*0.2+S31*0.25+V31*0.25+W31*0.3+X31*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="12">
@@ -4011,7 +3928,7 @@
       <c r="J32" s="7">
         <v>0</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4037,7 +3954,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S32" s="18">
+      <c r="S32" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4047,27 +3964,27 @@
       <c r="U32" s="15">
         <v>0</v>
       </c>
-      <c r="V32" s="18">
+      <c r="V32" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="6">
         <v>0</v>
       </c>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="23">
+      <c r="X32" s="47"/>
+      <c r="Y32" s="22">
         <f>K32*0.2+S32*0.25+V32*0.25+W32*0.3+X32*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="13">
@@ -4091,7 +4008,7 @@
       <c r="J33" s="14">
         <v>0</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4101,10 +4018,10 @@
       <c r="M33" s="6">
         <v>0</v>
       </c>
-      <c r="N33" s="17">
-        <v>0</v>
-      </c>
-      <c r="O33" s="17">
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O33" s="16">
         <v>0</v>
       </c>
       <c r="P33" s="6">
@@ -4117,7 +4034,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4127,15 +4044,15 @@
       <c r="U33" s="15">
         <v>0</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="6">
         <v>0</v>
       </c>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="23">
+      <c r="X33" s="47"/>
+      <c r="Y33" s="22">
         <f>K33*0.2+S33*0.25+V33*0.25+W33*0.3+X33*0.1</f>
         <v>0</v>
       </c>
@@ -5466,11 +5383,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE81"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5486,174 +5403,117 @@
     <col min="11" max="11" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.77734375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5" style="1" customWidth="1"/>
-    <col min="23" max="27" width="1.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.21875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="5.77734375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.77734375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="38" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="R1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="40">
         <v>1</v>
       </c>
-      <c r="F2" s="31">
-        <v>2</v>
-      </c>
-      <c r="G2" s="31">
+      <c r="F2" s="29">
+        <v>2</v>
+      </c>
+      <c r="G2" s="29">
         <v>3</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="29">
         <v>4</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="29">
         <v>5</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="28">
         <v>1</v>
       </c>
-      <c r="L2" s="31">
-        <v>2</v>
-      </c>
-      <c r="M2" s="31">
+      <c r="L2" s="29">
+        <v>2</v>
+      </c>
+      <c r="M2" s="29">
         <v>3</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="29">
         <v>4</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="29">
         <v>5</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="30">
-        <v>1</v>
-      </c>
-      <c r="R2" s="31">
-        <v>2</v>
-      </c>
-      <c r="S2" s="31">
-        <v>3</v>
-      </c>
-      <c r="T2" s="31">
-        <v>4</v>
-      </c>
-      <c r="U2" s="31">
-        <v>5</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" s="30">
-        <v>1</v>
-      </c>
-      <c r="X2" s="31">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="31">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="31">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="31">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="30" t="s">
+      <c r="Q2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="S2" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>96.333333333333329</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <v>2</v>
       </c>
       <c r="F3" s="7">
@@ -5666,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <f>100*SUM(E3:I3)/(2*A$1)</f>
         <v>100</v>
       </c>
@@ -5683,202 +5543,148 @@
         <v>100</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="18">
+      <c r="P3" s="17">
         <f>SUM(K3:O3)/(A$1)</f>
         <v>98.75</v>
       </c>
       <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="18">
-        <f>SUM(Q3:U3)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="18">
-        <f>SUM(W3:AA3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="23">
-        <f>J3*0.1+P3*0.2+V3*0.2+AB3*0.2+AC3*0.3</f>
-        <v>29.75</v>
-      </c>
-      <c r="AE3" s="23">
-        <f>D3*0.4+AD3*0.6</f>
-        <v>56.383333333333326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>88</v>
+      <c r="R3" s="22">
+        <f>J3*0.2+P3*0.3+Q3*0.5</f>
+        <v>49.625</v>
+      </c>
+      <c r="S3" s="22">
+        <f>D3*0.4+R3*0.6</f>
+        <v>68.308333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="22">
+        <v>90.866666666666674</v>
+      </c>
+      <c r="E4" s="41">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="17">
+        <f>100*SUM(E4:I4)/(2*A$1)</f>
+        <v>100</v>
+      </c>
+      <c r="K4" s="15">
         <v>90</v>
       </c>
-      <c r="D4" s="23">
-        <v>100.34166666666667</v>
-      </c>
-      <c r="E4" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="18">
-        <f>100*SUM(E4:I4)/(2*A$1)</f>
-        <v>81.25</v>
-      </c>
-      <c r="K4" s="15">
-        <v>75</v>
-      </c>
       <c r="L4" s="6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M4" s="6">
         <v>100</v>
       </c>
       <c r="N4" s="6">
+        <v>100</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="17">
+        <f>SUM(K4:O4)/(A$1)</f>
+        <v>97.5</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="22">
+        <f>J4*0.2+P4*0.3+Q4*0.5</f>
+        <v>49.25</v>
+      </c>
+      <c r="S4" s="22">
+        <f>D4*0.4+R4*0.6</f>
+        <v>65.896666666666675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="22">
+        <v>100.34166666666667</v>
+      </c>
+      <c r="E5" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="17">
+        <f>100*SUM(E5:I5)/(2*A$1)</f>
+        <v>81.25</v>
+      </c>
+      <c r="K5" s="15">
         <v>75</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="18">
-        <f>SUM(K4:O4)/(A$1)</f>
-        <v>81.25</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="18">
-        <f>SUM(Q4:U4)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="18">
-        <f>SUM(W4:AA4)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="23">
-        <f>J4*0.1+P4*0.2+V4*0.2+AB4*0.2+AC4*0.3</f>
-        <v>24.375</v>
-      </c>
-      <c r="AE4" s="23">
-        <f>D4*0.4+AD4*0.6</f>
-        <v>54.76166666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="23">
-        <v>90.866666666666674</v>
-      </c>
-      <c r="E5" s="43">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="18">
-        <f>100*SUM(E5:I5)/(2*A$1)</f>
-        <v>100</v>
-      </c>
-      <c r="K5" s="15">
-        <v>90</v>
-      </c>
       <c r="L5" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M5" s="6">
         <v>100</v>
       </c>
       <c r="N5" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="18">
+      <c r="P5" s="17">
         <f>SUM(K5:O5)/(A$1)</f>
-        <v>97.5</v>
+        <v>81.25</v>
       </c>
       <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="18">
-        <f>SUM(Q5:U5)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="18">
-        <f>SUM(W5:AA5)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="23">
-        <f>J5*0.1+P5*0.2+V5*0.2+AB5*0.2+AC5*0.3</f>
-        <v>29.5</v>
-      </c>
-      <c r="AE5" s="23">
-        <f>D5*0.4+AD5*0.6</f>
-        <v>54.046666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="R5" s="22">
+        <f>J5*0.2+P5*0.3+Q5*0.5</f>
+        <v>40.625</v>
+      </c>
+      <c r="S5" s="22">
+        <f>D5*0.4+R5*0.6</f>
+        <v>64.51166666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>83.98333333333332</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <v>1.9</v>
       </c>
       <c r="F6" s="7">
@@ -5891,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <f>100*SUM(E6:I6)/(2*A$1)</f>
         <v>98.75</v>
       </c>
@@ -5908,52 +5714,34 @@
         <v>100</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <f>SUM(K6:O6)/(A$1)</f>
         <v>96.25</v>
       </c>
       <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="18">
-        <f>SUM(Q6:U6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="18">
-        <f>SUM(W6:AA6)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="23">
-        <f>J6*0.1+P6*0.2+V6*0.2+AB6*0.2+AC6*0.3</f>
-        <v>29.125</v>
-      </c>
-      <c r="AE6" s="23">
-        <f>D6*0.4+AD6*0.6</f>
-        <v>51.068333333333328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="R6" s="22">
+        <f>J6*0.2+P6*0.3+Q6*0.5</f>
+        <v>48.625</v>
+      </c>
+      <c r="S6" s="22">
+        <f>D6*0.4+R6*0.6</f>
+        <v>62.768333333333324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>83.98333333333332</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="41">
         <v>1</v>
       </c>
       <c r="F7" s="7">
@@ -5966,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f>100*SUM(E7:I7)/(2*A$1)</f>
         <v>87.5</v>
       </c>
@@ -5983,53 +5771,35 @@
         <v>100</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <f>SUM(K7:O7)/(A$1)</f>
         <v>96.25</v>
       </c>
       <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="18">
-        <f>SUM(Q7:U7)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="18">
-        <f>SUM(W7:AA7)</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="23">
-        <f>J7*0.1+P7*0.2+V7*0.2+AB7*0.2+AC7*0.3</f>
-        <v>28</v>
-      </c>
-      <c r="AE7" s="23">
-        <f>D7*0.4+AD7*0.6</f>
-        <v>50.393333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>46</v>
+      <c r="R7" s="22">
+        <f>J7*0.2+P7*0.3+Q7*0.5</f>
+        <v>46.375</v>
+      </c>
+      <c r="S7" s="22">
+        <f>D7*0.4+R7*0.6</f>
+        <v>61.418333333333322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="23">
-        <v>84.85</v>
-      </c>
-      <c r="E8" s="43">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="22">
+        <v>72.858333333333334</v>
+      </c>
+      <c r="E8" s="41">
+        <v>2</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -6041,12 +5811,12 @@
         <v>2</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f>100*SUM(E8:I8)/(2*A$1)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L8" s="6">
         <v>100</v>
@@ -6058,52 +5828,34 @@
         <v>100</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <f>SUM(K8:O8)/(A$1)</f>
-        <v>75</v>
+        <v>92.5</v>
       </c>
       <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="18">
-        <f>SUM(Q8:U8)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="18">
-        <f>SUM(W8:AA8)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="23">
-        <f>J8*0.1+P8*0.2+V8*0.2+AB8*0.2+AC8*0.3</f>
-        <v>22.5</v>
-      </c>
-      <c r="AE8" s="23">
-        <f>D8*0.4+AD8*0.6</f>
-        <v>47.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>40</v>
+      <c r="R8" s="22">
+        <f>J8*0.2+P8*0.3+Q8*0.5</f>
+        <v>47.75</v>
+      </c>
+      <c r="S8" s="22">
+        <f>D8*0.4+R8*0.6</f>
+        <v>57.793333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="23">
-        <v>72.858333333333334</v>
-      </c>
-      <c r="E9" s="43">
+        <v>68</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="22">
+        <v>68.375</v>
+      </c>
+      <c r="E9" s="41">
         <v>2</v>
       </c>
       <c r="F9" s="7">
@@ -6116,12 +5868,12 @@
         <v>2</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <f>100*SUM(E9:I9)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K9" s="15">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L9" s="6">
         <v>100</v>
@@ -6133,53 +5885,35 @@
         <v>100</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <f>SUM(K9:O9)/(A$1)</f>
-        <v>92.5</v>
+        <v>98.75</v>
       </c>
       <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="18">
-        <f>SUM(Q9:U9)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="18">
-        <f>SUM(W9:AA9)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="23">
-        <f>J9*0.1+P9*0.2+V9*0.2+AB9*0.2+AC9*0.3</f>
-        <v>28.5</v>
-      </c>
-      <c r="AE9" s="23">
-        <f>D9*0.4+AD9*0.6</f>
-        <v>46.243333333333332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>67</v>
+      <c r="R9" s="22">
+        <f>J9*0.2+P9*0.3+Q9*0.5</f>
+        <v>49.625</v>
+      </c>
+      <c r="S9" s="22">
+        <f>D9*0.4+R9*0.6</f>
+        <v>57.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="23">
-        <v>68.375</v>
-      </c>
-      <c r="E10" s="43">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="22">
+        <v>84.85</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
@@ -6191,12 +5925,12 @@
         <v>2</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <f>100*SUM(E10:I10)/(2*A$1)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K10" s="15">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6">
         <v>100</v>
@@ -6208,52 +5942,34 @@
         <v>100</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <f>SUM(K10:O10)/(A$1)</f>
-        <v>98.75</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="18">
-        <f>SUM(Q10:U10)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="18">
-        <f>SUM(W10:AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="23">
-        <f>J10*0.1+P10*0.2+V10*0.2+AB10*0.2+AC10*0.3</f>
-        <v>29.75</v>
-      </c>
-      <c r="AE10" s="23">
-        <f>D10*0.4+AD10*0.6</f>
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>37</v>
+      <c r="R10" s="22">
+        <f>J10*0.2+P10*0.3+Q10*0.5</f>
+        <v>37.5</v>
+      </c>
+      <c r="S10" s="22">
+        <f>D10*0.4+R10*0.6</f>
+        <v>56.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="23">
-        <v>75.38333333333334</v>
-      </c>
-      <c r="E11" s="43">
+        <v>44</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="22">
+        <v>59.625</v>
+      </c>
+      <c r="E11" s="41">
         <v>2</v>
       </c>
       <c r="F11" s="7">
@@ -6263,15 +5979,15 @@
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <f>100*SUM(E11:I11)/(2*A$1)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K11" s="15">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L11" s="6">
         <v>100</v>
@@ -6280,55 +5996,37 @@
         <v>100</v>
       </c>
       <c r="N11" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O11" s="6"/>
-      <c r="P11" s="18">
+      <c r="P11" s="17">
         <f>SUM(K11:O11)/(A$1)</f>
-        <v>66.25</v>
+        <v>93.75</v>
       </c>
       <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="18">
-        <f>SUM(Q11:U11)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="18">
-        <f>SUM(W11:AA11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="23">
-        <f>J11*0.1+P11*0.2+V11*0.2+AB11*0.2+AC11*0.3</f>
-        <v>20.75</v>
-      </c>
-      <c r="AE11" s="23">
-        <f>D11*0.4+AD11*0.6</f>
-        <v>42.603333333333339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>43</v>
+      <c r="R11" s="22">
+        <f>J11*0.2+P11*0.3+Q11*0.5</f>
+        <v>48.125</v>
+      </c>
+      <c r="S11" s="22">
+        <f>D11*0.4+R11*0.6</f>
+        <v>52.725000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="23">
-        <v>59.625</v>
-      </c>
-      <c r="E12" s="43">
+        <v>23</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="22">
+        <v>59.833333333333336</v>
+      </c>
+      <c r="E12" s="41">
         <v>2</v>
       </c>
       <c r="F12" s="7">
@@ -6341,12 +6039,12 @@
         <v>2</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <f>100*SUM(E12:I12)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K12" s="15">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L12" s="6">
         <v>100</v>
@@ -6358,56 +6056,38 @@
         <v>90</v>
       </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <f>SUM(K12:O12)/(A$1)</f>
-        <v>93.75</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="18">
-        <f>SUM(Q12:U12)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="18">
-        <f>SUM(W12:AA12)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="23">
-        <f>J12*0.1+P12*0.2+V12*0.2+AB12*0.2+AC12*0.3</f>
-        <v>28.75</v>
-      </c>
-      <c r="AE12" s="23">
-        <f>D12*0.4+AD12*0.6</f>
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>82</v>
+      <c r="R12" s="22">
+        <f>J12*0.2+P12*0.3+Q12*0.5</f>
+        <v>47</v>
+      </c>
+      <c r="S12" s="22">
+        <f>D12*0.4+R12*0.6</f>
+        <v>52.13333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="23">
-        <v>90.766666666666666</v>
-      </c>
-      <c r="E13" s="43">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="22">
+        <v>75.38333333333334</v>
+      </c>
+      <c r="E13" s="41">
+        <v>2</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="7">
         <v>2</v>
@@ -6416,15 +6096,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <f>100*SUM(E13:I13)/(2*A$1)</f>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K13" s="15">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L13" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M13" s="6">
         <v>100</v>
@@ -6433,52 +6113,34 @@
         <v>0</v>
       </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="18">
+      <c r="P13" s="17">
         <f>SUM(K13:O13)/(A$1)</f>
-        <v>25</v>
+        <v>66.25</v>
       </c>
       <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="18">
-        <f>SUM(Q13:U13)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="18">
-        <f>SUM(W13:AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="23">
-        <f>J13*0.1+P13*0.2+V13*0.2+AB13*0.2+AC13*0.3</f>
-        <v>7.5</v>
-      </c>
-      <c r="AE13" s="23">
-        <f>D13*0.4+AD13*0.6</f>
-        <v>40.806666666666665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>22</v>
+      <c r="R13" s="22">
+        <f>J13*0.2+P13*0.3+Q13*0.5</f>
+        <v>34.875</v>
+      </c>
+      <c r="S13" s="22">
+        <f>D13*0.4+R13*0.6</f>
+        <v>51.078333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="23">
-        <v>59.833333333333336</v>
-      </c>
-      <c r="E14" s="43">
+        <v>50</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="22">
+        <v>51.533333333333331</v>
+      </c>
+      <c r="E14" s="41">
         <v>2</v>
       </c>
       <c r="F14" s="7">
@@ -6491,12 +6153,12 @@
         <v>2</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <f>100*SUM(E14:I14)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K14" s="15">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L14" s="6">
         <v>100</v>
@@ -6508,52 +6170,34 @@
         <v>90</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="18">
+      <c r="P14" s="17">
         <f>SUM(K14:O14)/(A$1)</f>
-        <v>90</v>
+        <v>93.75</v>
       </c>
       <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="18">
-        <f>SUM(Q14:U14)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="18">
-        <f>SUM(W14:AA14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="23">
-        <f>J14*0.1+P14*0.2+V14*0.2+AB14*0.2+AC14*0.3</f>
-        <v>28</v>
-      </c>
-      <c r="AE14" s="23">
-        <f>D14*0.4+AD14*0.6</f>
-        <v>40.733333333333334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>49</v>
+      <c r="R14" s="22">
+        <f>J14*0.2+P14*0.3+Q14*0.5</f>
+        <v>48.125</v>
+      </c>
+      <c r="S14" s="22">
+        <f>D14*0.4+R14*0.6</f>
+        <v>49.48833333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="23">
-        <v>51.533333333333331</v>
-      </c>
-      <c r="E15" s="43">
+        <v>9</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="22">
+        <v>38.891666666666673</v>
+      </c>
+      <c r="E15" s="41">
         <v>2</v>
       </c>
       <c r="F15" s="7">
@@ -6566,12 +6210,12 @@
         <v>2</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <f>100*SUM(E15:I15)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K15" s="15">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L15" s="6">
         <v>100</v>
@@ -6580,130 +6224,94 @@
         <v>100</v>
       </c>
       <c r="N15" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O15" s="6"/>
-      <c r="P15" s="18">
+      <c r="P15" s="17">
         <f>SUM(K15:O15)/(A$1)</f>
-        <v>93.75</v>
+        <v>92.5</v>
       </c>
       <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="18">
-        <f>SUM(Q15:U15)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="18">
-        <f>SUM(W15:AA15)</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="23">
-        <f>J15*0.1+P15*0.2+V15*0.2+AB15*0.2+AC15*0.3</f>
-        <v>28.75</v>
-      </c>
-      <c r="AE15" s="23">
-        <f>D15*0.4+AD15*0.6</f>
-        <v>37.86333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>8</v>
+      <c r="R15" s="22">
+        <f>J15*0.2+P15*0.3+Q15*0.5</f>
+        <v>47.75</v>
+      </c>
+      <c r="S15" s="22">
+        <f>D15*0.4+R15*0.6</f>
+        <v>44.206666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23">
-        <v>38.891666666666673</v>
-      </c>
-      <c r="E16" s="43">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="22">
+        <v>90.766666666666666</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <f>100*SUM(E16:I16)/(2*A$1)</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K16" s="15">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L16" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" s="6">
         <v>100</v>
       </c>
       <c r="N16" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="18">
+      <c r="P16" s="17">
         <f>SUM(K16:O16)/(A$1)</f>
-        <v>92.5</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="18">
-        <f>SUM(Q16:U16)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="15"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="18">
-        <f>SUM(W16:AA16)</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="23">
-        <f>J16*0.1+P16*0.2+V16*0.2+AB16*0.2+AC16*0.3</f>
-        <v>28.5</v>
-      </c>
-      <c r="AE16" s="23">
-        <f>D16*0.4+AD16*0.6</f>
-        <v>32.656666666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="R16" s="22">
+        <f>J16*0.2+P16*0.3+Q16*0.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="S16" s="22">
+        <f>D16*0.4+R16*0.6</f>
+        <v>43.806666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>47.125</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="41">
         <v>2</v>
       </c>
       <c r="F17" s="7">
@@ -6716,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <f>100*SUM(E17:I17)/(2*A$1)</f>
         <v>75</v>
       </c>
@@ -6733,52 +6341,34 @@
         <v>0</v>
       </c>
       <c r="O17" s="6"/>
-      <c r="P17" s="18">
+      <c r="P17" s="17">
         <f>SUM(K17:O17)/(A$1)</f>
         <v>63.75</v>
       </c>
       <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="18">
-        <f>SUM(Q17:U17)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="18">
-        <f>SUM(W17:AA17)</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="23">
-        <f>J17*0.1+P17*0.2+V17*0.2+AB17*0.2+AC17*0.3</f>
-        <v>20.25</v>
-      </c>
-      <c r="AE17" s="23">
-        <f>D17*0.4+AD17*0.6</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="R17" s="22">
+        <f>J17*0.2+P17*0.3+Q17*0.5</f>
+        <v>34.125</v>
+      </c>
+      <c r="S17" s="22">
+        <f>D17*0.4+R17*0.6</f>
+        <v>39.325000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>31.208333333333336</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="41">
         <v>1.9</v>
       </c>
       <c r="F18" s="7">
@@ -6791,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="18">
+      <c r="J18" s="17">
         <f>100*SUM(E18:I18)/(2*A$1)</f>
         <v>73.75</v>
       </c>
@@ -6808,55 +6398,37 @@
         <v>90</v>
       </c>
       <c r="O18" s="6"/>
-      <c r="P18" s="18">
+      <c r="P18" s="17">
         <f>SUM(K18:O18)/(A$1)</f>
         <v>62.5</v>
       </c>
       <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="18">
-        <f>SUM(Q18:U18)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="18">
-        <f>SUM(W18:AA18)</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="23">
-        <f>J18*0.1+P18*0.2+V18*0.2+AB18*0.2+AC18*0.3</f>
-        <v>19.875</v>
-      </c>
-      <c r="AE18" s="23">
-        <f>D18*0.4+AD18*0.6</f>
-        <v>24.408333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="R18" s="22">
+        <f>J18*0.2+P18*0.3+Q18*0.5</f>
+        <v>33.5</v>
+      </c>
+      <c r="S18" s="22">
+        <f>D18*0.4+R18*0.6</f>
+        <v>32.583333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>41.041666666666664</v>
       </c>
-      <c r="E19" s="43">
-        <v>2</v>
-      </c>
-      <c r="F19" s="47">
+      <c r="E19" s="41">
+        <v>2</v>
+      </c>
+      <c r="F19" s="45">
         <v>0</v>
       </c>
       <c r="G19" s="7">
@@ -6866,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="18">
+      <c r="J19" s="17">
         <f>100*SUM(E19:I19)/(2*A$1)</f>
         <v>50</v>
       </c>
@@ -6883,52 +6455,34 @@
         <v>90</v>
       </c>
       <c r="O19" s="6"/>
-      <c r="P19" s="18">
+      <c r="P19" s="17">
         <f>SUM(K19:O19)/(A$1)</f>
         <v>40</v>
       </c>
       <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="18">
-        <f>SUM(Q19:U19)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="15"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="18">
-        <f>SUM(W19:AA19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="23">
-        <f>J19*0.1+P19*0.2+V19*0.2+AB19*0.2+AC19*0.3</f>
-        <v>13</v>
-      </c>
-      <c r="AE19" s="23">
-        <f>D19*0.4+AD19*0.6</f>
-        <v>24.216666666666669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="R19" s="22">
+        <f>J19*0.2+P19*0.3+Q19*0.5</f>
+        <v>22</v>
+      </c>
+      <c r="S19" s="22">
+        <f>D19*0.4+R19*0.6</f>
+        <v>29.616666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>49.333333333333336</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="41">
         <v>0</v>
       </c>
       <c r="F20" s="7">
@@ -6941,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <f>100*SUM(E20:I20)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -6956,52 +6510,34 @@
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="18">
+      <c r="P20" s="17">
         <f>SUM(K20:O20)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="18">
-        <f>SUM(Q20:U20)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="15"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="18">
-        <f>SUM(W20:AA20)</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="23">
-        <f>J20*0.1+P20*0.2+V20*0.2+AB20*0.2+AC20*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="23">
-        <f>D20*0.4+AD20*0.6</f>
+      <c r="R20" s="22">
+        <f>J20*0.2+P20*0.3+Q20*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="22">
+        <f>D20*0.4+R20*0.6</f>
         <v>19.733333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>37.583333333333336</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="41">
         <v>0</v>
       </c>
       <c r="F21" s="7">
@@ -7014,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <f>100*SUM(E21:I21)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7029,50 +6565,32 @@
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="18">
+      <c r="P21" s="17">
         <f>SUM(K21:O21)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="18">
-        <f>SUM(Q21:U21)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="15"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="18">
-        <f>SUM(W21:AA21)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="23">
-        <f>J21*0.1+P21*0.2+V21*0.2+AB21*0.2+AC21*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="23">
-        <f>D21*0.4+AD21*0.6</f>
+      <c r="R21" s="22">
+        <f>J21*0.2+P21*0.3+Q21*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="22">
+        <f>D21*0.4+R21*0.6</f>
         <v>15.033333333333335</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
       <c r="B22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="23">
+        <v>97</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="22">
         <v>11.25</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="41">
         <v>0</v>
       </c>
       <c r="F22" s="7">
@@ -7085,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="18">
+      <c r="J22" s="17">
         <f>100*SUM(E22:I22)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7100,52 +6618,34 @@
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="18">
+      <c r="P22" s="17">
         <f>SUM(K22:O22)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="18">
-        <f>SUM(Q22:U22)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="18">
-        <f>SUM(W22:AA22)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="23">
-        <f>J22*0.1+P22*0.2+V22*0.2+AB22*0.2+AC22*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="23">
-        <f>D22*0.4+AD22*0.6</f>
+      <c r="R22" s="22">
+        <f>J22*0.2+P22*0.3+Q22*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="22">
+        <f>D22*0.4+R22*0.6</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>7.7083333333333339</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="41">
         <v>0</v>
       </c>
       <c r="F23" s="7">
@@ -7158,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="18">
+      <c r="J23" s="17">
         <f>100*SUM(E23:I23)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7173,52 +6673,34 @@
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="18">
+      <c r="P23" s="17">
         <f>SUM(K23:O23)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="18">
-        <f>SUM(Q23:U23)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="15"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="18">
-        <f>SUM(W23:AA23)</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="23">
-        <f>J23*0.1+P23*0.2+V23*0.2+AB23*0.2+AC23*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="23">
-        <f>D23*0.4+AD23*0.6</f>
+      <c r="R23" s="22">
+        <f>J23*0.2+P23*0.3+Q23*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="22">
+        <f>D23*0.4+R23*0.6</f>
         <v>3.0833333333333339</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>7.5</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="41">
         <v>0</v>
       </c>
       <c r="F24" s="7">
@@ -7231,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="18">
+      <c r="J24" s="17">
         <f>100*SUM(E24:I24)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7246,52 +6728,34 @@
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="18">
+      <c r="P24" s="17">
         <f>SUM(K24:O24)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="18">
-        <f>SUM(Q24:U24)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="15"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="18">
-        <f>SUM(W24:AA24)</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="23">
-        <f>J24*0.1+P24*0.2+V24*0.2+AB24*0.2+AC24*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="23">
-        <f>D24*0.4+AD24*0.6</f>
+      <c r="R24" s="22">
+        <f>J24*0.2+P24*0.3+Q24*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="22">
+        <f>D24*0.4+R24*0.6</f>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>5.8333333333333339</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="41">
         <v>0</v>
       </c>
       <c r="F25" s="12">
@@ -7304,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="18">
+      <c r="J25" s="17">
         <f>100*SUM(E25:I25)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7319,52 +6783,34 @@
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="18">
+      <c r="P25" s="17">
         <f>SUM(K25:O25)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="18">
-        <f>SUM(Q25:U25)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="15"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="18">
-        <f>SUM(W25:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="23">
-        <f>J25*0.1+P25*0.2+V25*0.2+AB25*0.2+AC25*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="23">
-        <f>D25*0.4+AD25*0.6</f>
+      <c r="R25" s="22">
+        <f>J25*0.2+P25*0.3+Q25*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="22">
+        <f>D25*0.4+R25*0.6</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43">
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
         <v>0</v>
       </c>
       <c r="F26" s="7">
@@ -7377,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="18">
+      <c r="J26" s="17">
         <f>100*SUM(E26:I26)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7392,52 +6838,34 @@
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="18">
+      <c r="P26" s="17">
         <f>SUM(K26:O26)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="18">
-        <f>SUM(Q26:U26)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="15"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="18">
-        <f>SUM(W26:AA26)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="23">
-        <f>J26*0.1+P26*0.2+V26*0.2+AB26*0.2+AC26*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="23">
-        <f>D26*0.4+AD26*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="R26" s="22">
+        <f>J26*0.2+P26*0.3+Q26*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="22">
+        <f>D26*0.4+R26*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="23">
-        <v>0</v>
-      </c>
-      <c r="E27" s="43">
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="41">
         <v>0</v>
       </c>
       <c r="F27" s="7">
@@ -7450,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="18">
+      <c r="J27" s="17">
         <f>100*SUM(E27:I27)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7465,52 +6893,34 @@
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="18">
+      <c r="P27" s="17">
         <f>SUM(K27:O27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="18">
-        <f>SUM(Q27:U27)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="15"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="18">
-        <f>SUM(W27:AA27)</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="23">
-        <f>J27*0.1+P27*0.2+V27*0.2+AB27*0.2+AC27*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="23">
-        <f>D27*0.4+AD27*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="R27" s="22">
+        <f>J27*0.2+P27*0.3+Q27*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="22">
+        <f>D27*0.4+R27*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="23">
-        <v>0</v>
-      </c>
-      <c r="E28" s="43">
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="41">
         <v>0</v>
       </c>
       <c r="F28" s="7">
@@ -7523,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="18">
+      <c r="J28" s="17">
         <f>100*SUM(E28:I28)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7538,52 +6948,34 @@
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="18">
+      <c r="P28" s="17">
         <f>SUM(K28:O28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="18">
-        <f>SUM(Q28:U28)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="15"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="18">
-        <f>SUM(W28:AA28)</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="23">
-        <f>J28*0.1+P28*0.2+V28*0.2+AB28*0.2+AC28*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="23">
-        <f>D28*0.4+AD28*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="R28" s="22">
+        <f>J28*0.2+P28*0.3+Q28*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="22">
+        <f>D28*0.4+R28*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="23">
-        <v>0</v>
-      </c>
-      <c r="E29" s="43">
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="41">
         <v>0</v>
       </c>
       <c r="F29" s="7">
@@ -7596,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="18">
+      <c r="J29" s="17">
         <f>100*SUM(E29:I29)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7611,52 +7003,34 @@
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="18">
+      <c r="P29" s="17">
         <f>SUM(K29:O29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="18">
-        <f>SUM(Q29:U29)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="15"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="18">
-        <f>SUM(W29:AA29)</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="23">
-        <f>J29*0.1+P29*0.2+V29*0.2+AB29*0.2+AC29*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="23">
-        <f>D29*0.4+AD29*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="R29" s="22">
+        <f>J29*0.2+P29*0.3+Q29*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="22">
+        <f>D29*0.4+R29*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="23">
-        <v>0</v>
-      </c>
-      <c r="E30" s="43">
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="41">
         <v>0</v>
       </c>
       <c r="F30" s="7">
@@ -7669,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="18">
+      <c r="J30" s="17">
         <f>100*SUM(E30:I30)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7684,52 +7058,34 @@
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="18">
+      <c r="P30" s="17">
         <f>SUM(K30:O30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="18">
-        <f>SUM(Q30:U30)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="15"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="18">
-        <f>SUM(W30:AA30)</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="23">
-        <f>J30*0.1+P30*0.2+V30*0.2+AB30*0.2+AC30*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="23">
-        <f>D30*0.4+AD30*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="R30" s="22">
+        <f>J30*0.2+P30*0.3+Q30*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="22">
+        <f>D30*0.4+R30*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="23">
-        <v>0</v>
-      </c>
-      <c r="E31" s="43">
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="41">
         <v>0</v>
       </c>
       <c r="F31" s="7">
@@ -7742,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="18">
+      <c r="J31" s="17">
         <f>100*SUM(E31:I31)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7757,52 +7113,34 @@
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="18">
+      <c r="P31" s="17">
         <f>SUM(K31:O31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="18">
-        <f>SUM(Q31:U31)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="15"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="18">
-        <f>SUM(W31:AA31)</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="23">
-        <f>J31*0.1+P31*0.2+V31*0.2+AB31*0.2+AC31*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="23">
-        <f>D31*0.4+AD31*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="R31" s="22">
+        <f>J31*0.2+P31*0.3+Q31*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="22">
+        <f>D31*0.4+R31*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="23">
-        <v>0</v>
-      </c>
-      <c r="E32" s="43">
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="41">
         <v>0</v>
       </c>
       <c r="F32" s="7">
@@ -7815,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="18">
+      <c r="J32" s="17">
         <f>100*SUM(E32:I32)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7830,52 +7168,34 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="18">
+      <c r="P32" s="17">
         <f>SUM(K32:O32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="18">
-        <f>SUM(Q32:U32)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="15"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="18">
-        <f>SUM(W32:AA32)</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="23">
-        <f>J32*0.1+P32*0.2+V32*0.2+AB32*0.2+AC32*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="23">
-        <f>D32*0.4+AD32*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="R32" s="22">
+        <f>J32*0.2+P32*0.3+Q32*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="22">
+        <f>D32*0.4+R32*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="23">
-        <v>0</v>
-      </c>
-      <c r="E33" s="44">
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="42">
         <v>0</v>
       </c>
       <c r="F33" s="14">
@@ -7888,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="18">
+      <c r="J33" s="17">
         <f>100*SUM(E33:I33)/(2*A$1)</f>
         <v>0</v>
       </c>
@@ -7901,41 +7221,23 @@
       <c r="M33" s="6">
         <v>0</v>
       </c>
-      <c r="N33" s="17"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="18">
+      <c r="P33" s="17">
         <f>SUM(K33:O33)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="18">
-        <f>SUM(Q33:U33)/2</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="16"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="18">
-        <f>SUM(W33:AA33)</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="27">
-        <f>J33*0.1+P33*0.2+V33*0.2+AB33*0.2+AC33*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="23">
-        <f>D33*0.4+AD33*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="22">
+        <f>J33*0.2+P33*0.3+Q33*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="22">
+        <f>D33*0.4+R33*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -7945,7 +7247,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -7962,14 +7264,8 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -7986,14 +7282,8 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-    </row>
-    <row r="37" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8010,14 +7300,8 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-    </row>
-    <row r="38" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8034,14 +7318,8 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-    </row>
-    <row r="39" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8058,14 +7336,8 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-    </row>
-    <row r="40" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8082,14 +7354,8 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-    </row>
-    <row r="41" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8106,14 +7372,8 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-    </row>
-    <row r="42" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8130,14 +7390,8 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-    </row>
-    <row r="43" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8154,14 +7408,8 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-    </row>
-    <row r="44" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8178,14 +7426,8 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-    </row>
-    <row r="45" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8202,14 +7444,8 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-    </row>
-    <row r="46" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8226,14 +7462,8 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-    </row>
-    <row r="47" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8250,14 +7480,8 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-    </row>
-    <row r="48" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8274,14 +7498,8 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-    </row>
-    <row r="49" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8298,14 +7516,8 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-    </row>
-    <row r="50" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8322,14 +7534,8 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-    </row>
-    <row r="51" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8346,14 +7552,8 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-    </row>
-    <row r="52" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8370,14 +7570,8 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-    </row>
-    <row r="53" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8394,14 +7588,8 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-    </row>
-    <row r="54" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8418,14 +7606,8 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-    </row>
-    <row r="55" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8442,14 +7624,8 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-    </row>
-    <row r="56" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8466,14 +7642,8 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-    </row>
-    <row r="57" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8490,14 +7660,8 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-    </row>
-    <row r="58" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8514,14 +7678,8 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-    </row>
-    <row r="59" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8538,14 +7696,8 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-    </row>
-    <row r="60" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8562,14 +7714,8 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-    </row>
-    <row r="61" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8586,14 +7732,8 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-    </row>
-    <row r="62" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8610,14 +7750,8 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-    </row>
-    <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8634,14 +7768,8 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-    </row>
-    <row r="64" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8658,14 +7786,8 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-    </row>
-    <row r="65" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8682,14 +7804,8 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-    </row>
-    <row r="66" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8706,14 +7822,8 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-    </row>
-    <row r="67" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -8730,14 +7840,8 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-    </row>
-    <row r="68" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -8754,14 +7858,8 @@
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-    </row>
-    <row r="69" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -8778,14 +7876,8 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-    </row>
-    <row r="70" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -8802,14 +7894,8 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-    </row>
-    <row r="71" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -8826,14 +7912,8 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-    </row>
-    <row r="72" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8850,14 +7930,8 @@
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-    </row>
-    <row r="73" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8874,14 +7948,8 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-    </row>
-    <row r="74" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8898,14 +7966,8 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-    </row>
-    <row r="75" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8922,14 +7984,8 @@
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-    </row>
-    <row r="76" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8946,14 +8002,8 @@
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-    </row>
-    <row r="77" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8970,14 +8020,8 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-    </row>
-    <row r="78" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8994,14 +8038,8 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-    </row>
-    <row r="79" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9018,14 +8056,8 @@
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-    </row>
-    <row r="80" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9042,14 +8074,8 @@
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-    </row>
-    <row r="81" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9066,22 +8092,14 @@
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AE33">
-    <sortCondition descending="1" ref="AE3"/>
+  <sortState ref="A3:S33">
+    <sortCondition descending="1" ref="S3"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="W1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
     <cfRule type="cellIs" dxfId="10" priority="21" operator="between">
@@ -9123,35 +8141,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V33">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77C9A01F-EA1B-4605-8E36-B0BAF3BB9AE5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB33">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56E5E5A3-F957-491E-9C01-522DE745411E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD33">
+  <conditionalFormatting sqref="R3:R33">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -9182,24 +8172,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:U33">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
-      <formula>0.1</formula>
-      <formula>59.9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="between">
-      <formula>60</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="between">
-      <formula>80</formula>
-      <formula>200</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE33">
+  <conditionalFormatting sqref="S3:S33">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -9270,28 +8243,6 @@
           <xm:sqref>P3:P33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77C9A01F-EA1B-4605-8E36-B0BAF3BB9AE5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>V3:V33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56E5E5A3-F957-491E-9C01-522DE745411E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AB3:AB33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -9300,7 +8251,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AD3:AD33</xm:sqref>
+          <xm:sqref>R3:R33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -9311,7 +8262,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE3:AE33</xm:sqref>
+          <xm:sqref>S3:S33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -5387,7 +5387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5525,10 +5525,12 @@
       <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
       <c r="J3" s="17">
         <f>100*SUM(E3:I3)/(2*A$1)</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="K3" s="15">
         <v>95</v>
@@ -5542,19 +5544,22 @@
       <c r="N3" s="6">
         <v>100</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6">
+        <f>I3*35</f>
+        <v>35</v>
+      </c>
       <c r="P3" s="17">
         <f>SUM(K3:O3)/(A$1)</f>
-        <v>98.75</v>
+        <v>107.5</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="22">
         <f>J3*0.2+P3*0.3+Q3*0.5</f>
-        <v>49.625</v>
+        <v>54.75</v>
       </c>
       <c r="S3" s="22">
         <f>D3*0.4+R3*0.6</f>
-        <v>68.308333333333337</v>
+        <v>71.383333333333326</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5582,10 +5587,12 @@
       <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0.9</v>
+      </c>
       <c r="J4" s="17">
         <f>100*SUM(E4:I4)/(2*A$1)</f>
-        <v>100</v>
+        <v>111.25</v>
       </c>
       <c r="K4" s="15">
         <v>90</v>
@@ -5599,19 +5606,22 @@
       <c r="N4" s="6">
         <v>100</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <f>I4*35</f>
+        <v>31.5</v>
+      </c>
       <c r="P4" s="17">
         <f>SUM(K4:O4)/(A$1)</f>
-        <v>97.5</v>
+        <v>105.375</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="R4" s="22">
         <f>J4*0.2+P4*0.3+Q4*0.5</f>
-        <v>49.25</v>
+        <v>53.862499999999997</v>
       </c>
       <c r="S4" s="22">
         <f>D4*0.4+R4*0.6</f>
-        <v>65.896666666666675</v>
+        <v>68.664166666666659</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5639,10 +5649,12 @@
       <c r="H5" s="7">
         <v>1.5</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
       <c r="J5" s="17">
         <f>100*SUM(E5:I5)/(2*A$1)</f>
-        <v>81.25</v>
+        <v>93.75</v>
       </c>
       <c r="K5" s="15">
         <v>75</v>
@@ -5656,36 +5668,39 @@
       <c r="N5" s="6">
         <v>75</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <f>I5*35</f>
+        <v>35</v>
+      </c>
       <c r="P5" s="17">
         <f>SUM(K5:O5)/(A$1)</f>
-        <v>81.25</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="22">
         <f>J5*0.2+P5*0.3+Q5*0.5</f>
-        <v>40.625</v>
+        <v>45.75</v>
       </c>
       <c r="S5" s="22">
         <f>D5*0.4+R5*0.6</f>
-        <v>64.51166666666667</v>
+        <v>67.586666666666673</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D6" s="22">
         <v>83.98333333333332</v>
       </c>
       <c r="E6" s="41">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
@@ -5696,7 +5711,9 @@
       <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0.9</v>
+      </c>
       <c r="J6" s="17">
         <f>100*SUM(E6:I6)/(2*A$1)</f>
         <v>98.75</v>
@@ -5713,36 +5730,39 @@
       <c r="N6" s="6">
         <v>100</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6">
+        <f>I6*35</f>
+        <v>31.5</v>
+      </c>
       <c r="P6" s="17">
         <f>SUM(K6:O6)/(A$1)</f>
-        <v>96.25</v>
+        <v>104.125</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="22">
         <f>J6*0.2+P6*0.3+Q6*0.5</f>
-        <v>48.625</v>
+        <v>50.987499999999997</v>
       </c>
       <c r="S6" s="22">
         <f>D6*0.4+R6*0.6</f>
-        <v>62.768333333333324</v>
+        <v>64.185833333333321</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D7" s="22">
         <v>83.98333333333332</v>
       </c>
       <c r="E7" s="41">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
@@ -5753,10 +5773,12 @@
       <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>0.8</v>
+      </c>
       <c r="J7" s="17">
         <f>100*SUM(E7:I7)/(2*A$1)</f>
-        <v>87.5</v>
+        <v>108.75000000000001</v>
       </c>
       <c r="K7" s="15">
         <v>85</v>
@@ -5770,19 +5792,22 @@
       <c r="N7" s="6">
         <v>100</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6">
+        <f>I7*35</f>
+        <v>28</v>
+      </c>
       <c r="P7" s="17">
         <f>SUM(K7:O7)/(A$1)</f>
-        <v>96.25</v>
+        <v>103.25</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="22">
         <f>J7*0.2+P7*0.3+Q7*0.5</f>
-        <v>46.375</v>
+        <v>52.725000000000001</v>
       </c>
       <c r="S7" s="22">
         <f>D7*0.4+R7*0.6</f>
-        <v>61.418333333333322</v>
+        <v>65.228333333333325</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5810,10 +5835,12 @@
       <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
       <c r="J8" s="17">
         <f>100*SUM(E8:I8)/(2*A$1)</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="K8" s="15">
         <v>70</v>
@@ -5827,19 +5854,22 @@
       <c r="N8" s="6">
         <v>100</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6">
+        <f>I8*35</f>
+        <v>35</v>
+      </c>
       <c r="P8" s="17">
         <f>SUM(K8:O8)/(A$1)</f>
-        <v>92.5</v>
+        <v>101.25</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="22">
         <f>J8*0.2+P8*0.3+Q8*0.5</f>
-        <v>47.75</v>
+        <v>52.875</v>
       </c>
       <c r="S8" s="22">
         <f>D8*0.4+R8*0.6</f>
-        <v>57.793333333333337</v>
+        <v>60.868333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5867,10 +5897,12 @@
       <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
       <c r="J9" s="17">
         <f>100*SUM(E9:I9)/(2*A$1)</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="K9" s="15">
         <v>95</v>
@@ -5884,19 +5916,22 @@
       <c r="N9" s="6">
         <v>100</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6">
+        <f>I9*35</f>
+        <v>35</v>
+      </c>
       <c r="P9" s="17">
         <f>SUM(K9:O9)/(A$1)</f>
-        <v>98.75</v>
+        <v>107.5</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="22">
         <f>J9*0.2+P9*0.3+Q9*0.5</f>
-        <v>49.625</v>
+        <v>54.75</v>
       </c>
       <c r="S9" s="22">
         <f>D9*0.4+R9*0.6</f>
-        <v>57.125</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5924,10 +5959,12 @@
       <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
       <c r="J10" s="17">
         <f>100*SUM(E10:I10)/(2*A$1)</f>
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
@@ -5941,19 +5978,22 @@
       <c r="N10" s="6">
         <v>100</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6">
+        <f>I10*35</f>
+        <v>35</v>
+      </c>
       <c r="P10" s="17">
         <f>SUM(K10:O10)/(A$1)</f>
-        <v>75</v>
+        <v>83.75</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="22">
         <f>J10*0.2+P10*0.3+Q10*0.5</f>
-        <v>37.5</v>
+        <v>42.625</v>
       </c>
       <c r="S10" s="22">
         <f>D10*0.4+R10*0.6</f>
-        <v>56.44</v>
+        <v>59.515000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5981,10 +6021,12 @@
       <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
       <c r="J11" s="17">
         <f>100*SUM(E11:I11)/(2*A$1)</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="K11" s="15">
         <v>85</v>
@@ -5998,19 +6040,22 @@
       <c r="N11" s="6">
         <v>90</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6">
+        <f>I11*35</f>
+        <v>35</v>
+      </c>
       <c r="P11" s="17">
         <f>SUM(K11:O11)/(A$1)</f>
-        <v>93.75</v>
+        <v>102.5</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="22">
         <f>J11*0.2+P11*0.3+Q11*0.5</f>
-        <v>48.125</v>
+        <v>53.25</v>
       </c>
       <c r="S11" s="22">
         <f>D11*0.4+R11*0.6</f>
-        <v>52.725000000000001</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6038,10 +6083,12 @@
       <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
       <c r="J12" s="17">
         <f>100*SUM(E12:I12)/(2*A$1)</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="K12" s="15">
         <v>70</v>
@@ -6055,19 +6102,22 @@
       <c r="N12" s="6">
         <v>90</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6">
+        <f>I12*35</f>
+        <v>35</v>
+      </c>
       <c r="P12" s="17">
         <f>SUM(K12:O12)/(A$1)</f>
-        <v>90</v>
+        <v>98.75</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="22">
         <f>J12*0.2+P12*0.3+Q12*0.5</f>
-        <v>47</v>
+        <v>52.125</v>
       </c>
       <c r="S12" s="22">
         <f>D12*0.4+R12*0.6</f>
-        <v>52.13333333333334</v>
+        <v>55.208333333333336</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6095,10 +6145,12 @@
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
       <c r="J13" s="17">
         <f>100*SUM(E13:I13)/(2*A$1)</f>
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="K13" s="15">
         <v>65</v>
@@ -6112,19 +6164,22 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <f>I13*35</f>
+        <v>35</v>
+      </c>
       <c r="P13" s="17">
         <f>SUM(K13:O13)/(A$1)</f>
-        <v>66.25</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="22">
         <f>J13*0.2+P13*0.3+Q13*0.5</f>
-        <v>34.875</v>
+        <v>40</v>
       </c>
       <c r="S13" s="22">
         <f>D13*0.4+R13*0.6</f>
-        <v>51.078333333333333</v>
+        <v>54.153333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6152,10 +6207,12 @@
       <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
       <c r="J14" s="17">
         <f>100*SUM(E14:I14)/(2*A$1)</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="K14" s="15">
         <v>85</v>
@@ -6169,19 +6226,22 @@
       <c r="N14" s="6">
         <v>90</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6">
+        <f>I14*35</f>
+        <v>35</v>
+      </c>
       <c r="P14" s="17">
         <f>SUM(K14:O14)/(A$1)</f>
-        <v>93.75</v>
+        <v>102.5</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="22">
         <f>J14*0.2+P14*0.3+Q14*0.5</f>
-        <v>48.125</v>
+        <v>53.25</v>
       </c>
       <c r="S14" s="22">
         <f>D14*0.4+R14*0.6</f>
-        <v>49.48833333333333</v>
+        <v>52.563333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6209,10 +6269,12 @@
       <c r="H15" s="7">
         <v>2</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>0.9</v>
+      </c>
       <c r="J15" s="17">
         <f>100*SUM(E15:I15)/(2*A$1)</f>
-        <v>100</v>
+        <v>111.25</v>
       </c>
       <c r="K15" s="15">
         <v>70</v>
@@ -6226,19 +6288,22 @@
       <c r="N15" s="6">
         <v>100</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6">
+        <f>I15*35</f>
+        <v>31.5</v>
+      </c>
       <c r="P15" s="17">
         <f>SUM(K15:O15)/(A$1)</f>
-        <v>92.5</v>
+        <v>100.375</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="22">
         <f>J15*0.2+P15*0.3+Q15*0.5</f>
-        <v>47.75</v>
+        <v>52.362499999999997</v>
       </c>
       <c r="S15" s="22">
         <f>D15*0.4+R15*0.6</f>
-        <v>44.206666666666671</v>
+        <v>46.974166666666669</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6266,7 +6331,9 @@
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
       <c r="J16" s="17">
         <f>100*SUM(E16:I16)/(2*A$1)</f>
         <v>25</v>
@@ -6283,7 +6350,10 @@
       <c r="N16" s="6">
         <v>0</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6">
+        <f>I16*35</f>
+        <v>0</v>
+      </c>
       <c r="P16" s="17">
         <f>SUM(K16:O16)/(A$1)</f>
         <v>25</v>
@@ -6323,7 +6393,9 @@
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" s="17">
         <f>100*SUM(E17:I17)/(2*A$1)</f>
         <v>75</v>
@@ -6340,7 +6412,10 @@
       <c r="N17" s="6">
         <v>0</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6">
+        <f>I17*35</f>
+        <v>0</v>
+      </c>
       <c r="P17" s="17">
         <f>SUM(K17:O17)/(A$1)</f>
         <v>63.75</v>
@@ -6357,116 +6432,126 @@
     </row>
     <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D18" s="22">
-        <v>31.208333333333336</v>
+        <v>41.041666666666664</v>
       </c>
       <c r="E18" s="41">
-        <v>1.9</v>
-      </c>
-      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="45">
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
       <c r="J18" s="17">
         <f>100*SUM(E18:I18)/(2*A$1)</f>
-        <v>73.75</v>
+        <v>62.5</v>
       </c>
       <c r="K18" s="15">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
       </c>
       <c r="M18" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="6">
         <v>90</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6">
+        <f>I18*35</f>
+        <v>35</v>
+      </c>
       <c r="P18" s="17">
         <f>SUM(K18:O18)/(A$1)</f>
-        <v>62.5</v>
+        <v>48.75</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="22">
         <f>J18*0.2+P18*0.3+Q18*0.5</f>
-        <v>33.5</v>
+        <v>27.125</v>
       </c>
       <c r="S18" s="22">
         <f>D18*0.4+R18*0.6</f>
-        <v>32.583333333333329</v>
+        <v>32.691666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D19" s="22">
-        <v>41.041666666666664</v>
+        <v>31.208333333333336</v>
       </c>
       <c r="E19" s="41">
-        <v>2</v>
-      </c>
-      <c r="F19" s="45">
+        <v>1.9</v>
+      </c>
+      <c r="F19" s="7">
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
       <c r="J19" s="17">
         <f>100*SUM(E19:I19)/(2*A$1)</f>
-        <v>50</v>
+        <v>73.75</v>
       </c>
       <c r="K19" s="15">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
       </c>
       <c r="M19" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N19" s="6">
         <v>90</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6">
+        <f>I19*35</f>
+        <v>0</v>
+      </c>
       <c r="P19" s="17">
         <f>SUM(K19:O19)/(A$1)</f>
-        <v>40</v>
+        <v>62.5</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="22">
         <f>J19*0.2+P19*0.3+Q19*0.5</f>
-        <v>22</v>
+        <v>33.5</v>
       </c>
       <c r="S19" s="22">
         <f>D19*0.4+R19*0.6</f>
-        <v>29.616666666666667</v>
+        <v>32.583333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6494,7 +6579,9 @@
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
       <c r="J20" s="17">
         <f>100*SUM(E20:I20)/(2*A$1)</f>
         <v>0</v>
@@ -6508,8 +6595,13 @@
       <c r="M20" s="6">
         <v>0</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <f>I20*35</f>
+        <v>0</v>
+      </c>
       <c r="P20" s="17">
         <f>SUM(K20:O20)/(A$1)</f>
         <v>0</v>
@@ -6549,7 +6641,9 @@
       <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
       <c r="J21" s="17">
         <f>100*SUM(E21:I21)/(2*A$1)</f>
         <v>0</v>
@@ -6563,8 +6657,13 @@
       <c r="M21" s="6">
         <v>0</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <f>I21*35</f>
+        <v>0</v>
+      </c>
       <c r="P21" s="17">
         <f>SUM(K21:O21)/(A$1)</f>
         <v>0</v>
@@ -6602,7 +6701,9 @@
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
       <c r="J22" s="17">
         <f>100*SUM(E22:I22)/(2*A$1)</f>
         <v>0</v>
@@ -6616,8 +6717,13 @@
       <c r="M22" s="6">
         <v>0</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <f>I22*35</f>
+        <v>0</v>
+      </c>
       <c r="P22" s="17">
         <f>SUM(K22:O22)/(A$1)</f>
         <v>0</v>
@@ -6657,7 +6763,9 @@
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
       <c r="J23" s="17">
         <f>100*SUM(E23:I23)/(2*A$1)</f>
         <v>0</v>
@@ -6671,8 +6779,13 @@
       <c r="M23" s="6">
         <v>0</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <f>I23*35</f>
+        <v>0</v>
+      </c>
       <c r="P23" s="17">
         <f>SUM(K23:O23)/(A$1)</f>
         <v>0</v>
@@ -6712,7 +6825,9 @@
       <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
       <c r="J24" s="17">
         <f>100*SUM(E24:I24)/(2*A$1)</f>
         <v>0</v>
@@ -6726,8 +6841,13 @@
       <c r="M24" s="6">
         <v>0</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <f>I24*35</f>
+        <v>0</v>
+      </c>
       <c r="P24" s="17">
         <f>SUM(K24:O24)/(A$1)</f>
         <v>0</v>
@@ -6767,7 +6887,9 @@
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
       <c r="J25" s="17">
         <f>100*SUM(E25:I25)/(2*A$1)</f>
         <v>0</v>
@@ -6781,8 +6903,13 @@
       <c r="M25" s="6">
         <v>0</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <f>I25*35</f>
+        <v>0</v>
+      </c>
       <c r="P25" s="17">
         <f>SUM(K25:O25)/(A$1)</f>
         <v>0</v>
@@ -6822,7 +6949,9 @@
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
       <c r="J26" s="17">
         <f>100*SUM(E26:I26)/(2*A$1)</f>
         <v>0</v>
@@ -6836,8 +6965,13 @@
       <c r="M26" s="6">
         <v>0</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <f>I26*35</f>
+        <v>0</v>
+      </c>
       <c r="P26" s="17">
         <f>SUM(K26:O26)/(A$1)</f>
         <v>0</v>
@@ -6877,7 +7011,9 @@
       <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
       <c r="J27" s="17">
         <f>100*SUM(E27:I27)/(2*A$1)</f>
         <v>0</v>
@@ -6891,8 +7027,13 @@
       <c r="M27" s="6">
         <v>0</v>
       </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <f>I27*35</f>
+        <v>0</v>
+      </c>
       <c r="P27" s="17">
         <f>SUM(K27:O27)/(A$1)</f>
         <v>0</v>
@@ -6932,7 +7073,9 @@
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
       <c r="J28" s="17">
         <f>100*SUM(E28:I28)/(2*A$1)</f>
         <v>0</v>
@@ -6946,8 +7089,13 @@
       <c r="M28" s="6">
         <v>0</v>
       </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <f>I28*35</f>
+        <v>0</v>
+      </c>
       <c r="P28" s="17">
         <f>SUM(K28:O28)/(A$1)</f>
         <v>0</v>
@@ -6987,7 +7135,9 @@
       <c r="H29" s="7">
         <v>0</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
       <c r="J29" s="17">
         <f>100*SUM(E29:I29)/(2*A$1)</f>
         <v>0</v>
@@ -7001,8 +7151,13 @@
       <c r="M29" s="6">
         <v>0</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <f>I29*35</f>
+        <v>0</v>
+      </c>
       <c r="P29" s="17">
         <f>SUM(K29:O29)/(A$1)</f>
         <v>0</v>
@@ -7042,7 +7197,9 @@
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
       <c r="J30" s="17">
         <f>100*SUM(E30:I30)/(2*A$1)</f>
         <v>0</v>
@@ -7056,8 +7213,13 @@
       <c r="M30" s="6">
         <v>0</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <f>I30*35</f>
+        <v>0</v>
+      </c>
       <c r="P30" s="17">
         <f>SUM(K30:O30)/(A$1)</f>
         <v>0</v>
@@ -7097,7 +7259,9 @@
       <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
       <c r="J31" s="17">
         <f>100*SUM(E31:I31)/(2*A$1)</f>
         <v>0</v>
@@ -7111,8 +7275,13 @@
       <c r="M31" s="6">
         <v>0</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <f>I31*35</f>
+        <v>0</v>
+      </c>
       <c r="P31" s="17">
         <f>SUM(K31:O31)/(A$1)</f>
         <v>0</v>
@@ -7152,7 +7321,9 @@
       <c r="H32" s="7">
         <v>0</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
       <c r="J32" s="17">
         <f>100*SUM(E32:I32)/(2*A$1)</f>
         <v>0</v>
@@ -7166,8 +7337,13 @@
       <c r="M32" s="6">
         <v>0</v>
       </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <f>I32*35</f>
+        <v>0</v>
+      </c>
       <c r="P32" s="17">
         <f>SUM(K32:O32)/(A$1)</f>
         <v>0</v>
@@ -7207,7 +7383,9 @@
       <c r="H33" s="7">
         <v>0</v>
       </c>
-      <c r="I33" s="14"/>
+      <c r="I33" s="14">
+        <v>0</v>
+      </c>
       <c r="J33" s="17">
         <f>100*SUM(E33:I33)/(2*A$1)</f>
         <v>0</v>
@@ -7221,8 +7399,13 @@
       <c r="M33" s="6">
         <v>0</v>
       </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="6"/>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <f>I33*35</f>
+        <v>0</v>
+      </c>
       <c r="P33" s="17">
         <f>SUM(K33:O33)/(A$1)</f>
         <v>0</v>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -884,45 +884,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1420,7 +1382,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5204,14 +5166,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5272,52 +5234,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U33">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:X33">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5387,7 +5349,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5410,7 +5372,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="37"/>
@@ -5526,11 +5488,11 @@
         <v>2</v>
       </c>
       <c r="I3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="17">
-        <f>100*SUM(E3:I3)/(2*A$1)</f>
-        <v>112.5</v>
+        <f t="shared" ref="J3:J33" si="0">100*SUM(E3:I3)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="K3" s="15">
         <v>95</v>
@@ -5545,21 +5507,21 @@
         <v>100</v>
       </c>
       <c r="O3" s="6">
-        <f>I3*35</f>
-        <v>35</v>
+        <f>I3*47</f>
+        <v>94</v>
       </c>
       <c r="P3" s="17">
-        <f>SUM(K3:O3)/(A$1)</f>
-        <v>107.5</v>
+        <f t="shared" ref="P3:P33" si="1">SUM(K3:O3)/(A$1)</f>
+        <v>97.8</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="22">
-        <f>J3*0.2+P3*0.3+Q3*0.5</f>
-        <v>54.75</v>
+        <f t="shared" ref="R3:R33" si="2">J3*0.2+P3*0.3+Q3*0.5</f>
+        <v>49.339999999999996</v>
       </c>
       <c r="S3" s="22">
-        <f>D3*0.4+R3*0.6</f>
-        <v>71.383333333333326</v>
+        <f t="shared" ref="S3:S33" si="3">D3*0.4+R3*0.6</f>
+        <v>68.137333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5588,11 +5550,11 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="J4" s="17">
-        <f>100*SUM(E4:I4)/(2*A$1)</f>
-        <v>111.25</v>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="K4" s="15">
         <v>90</v>
@@ -5607,21 +5569,21 @@
         <v>100</v>
       </c>
       <c r="O4" s="6">
-        <f>I4*35</f>
-        <v>31.5</v>
+        <f>I4*51</f>
+        <v>96.899999999999991</v>
       </c>
       <c r="P4" s="17">
-        <f>SUM(K4:O4)/(A$1)</f>
-        <v>105.375</v>
+        <f t="shared" si="1"/>
+        <v>97.38</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="R4" s="22">
-        <f>J4*0.2+P4*0.3+Q4*0.5</f>
-        <v>53.862499999999997</v>
+        <f t="shared" si="2"/>
+        <v>49.013999999999996</v>
       </c>
       <c r="S4" s="22">
-        <f>D4*0.4+R4*0.6</f>
-        <v>68.664166666666659</v>
+        <f t="shared" si="3"/>
+        <v>65.755066666666664</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5638,23 +5600,23 @@
         <v>100.34166666666667</v>
       </c>
       <c r="E5" s="41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F5" s="7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I5" s="7">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="J5" s="17">
-        <f>100*SUM(E5:I5)/(2*A$1)</f>
-        <v>93.75</v>
+        <f t="shared" si="0"/>
+        <v>74.999999999999986</v>
       </c>
       <c r="K5" s="15">
         <v>75</v>
@@ -5669,21 +5631,21 @@
         <v>75</v>
       </c>
       <c r="O5" s="6">
-        <f>I5*35</f>
-        <v>35</v>
+        <f>I5*62</f>
+        <v>80.600000000000009</v>
       </c>
       <c r="P5" s="17">
-        <f>SUM(K5:O5)/(A$1)</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>81.12</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="22">
-        <f>J5*0.2+P5*0.3+Q5*0.5</f>
-        <v>45.75</v>
+        <f t="shared" si="2"/>
+        <v>39.335999999999999</v>
       </c>
       <c r="S5" s="22">
-        <f>D5*0.4+R5*0.6</f>
-        <v>67.586666666666673</v>
+        <f t="shared" si="3"/>
+        <v>63.738266666666668</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5712,11 +5674,11 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="J6" s="17">
-        <f>100*SUM(E6:I6)/(2*A$1)</f>
-        <v>98.75</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="K6" s="15">
         <v>85</v>
@@ -5731,21 +5693,21 @@
         <v>100</v>
       </c>
       <c r="O6" s="6">
-        <f>I6*35</f>
-        <v>31.5</v>
+        <f>I6*47</f>
+        <v>89.3</v>
       </c>
       <c r="P6" s="17">
-        <f>SUM(K6:O6)/(A$1)</f>
-        <v>104.125</v>
+        <f t="shared" si="1"/>
+        <v>94.86</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="22">
-        <f>J6*0.2+P6*0.3+Q6*0.5</f>
-        <v>50.987499999999997</v>
+        <f t="shared" si="2"/>
+        <v>46.257999999999996</v>
       </c>
       <c r="S6" s="22">
-        <f>D6*0.4+R6*0.6</f>
-        <v>64.185833333333321</v>
+        <f t="shared" si="3"/>
+        <v>61.348133333333323</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5774,11 +5736,11 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="J7" s="17">
-        <f>100*SUM(E7:I7)/(2*A$1)</f>
-        <v>108.75000000000001</v>
+        <f t="shared" si="0"/>
+        <v>97.000000000000014</v>
       </c>
       <c r="K7" s="15">
         <v>85</v>
@@ -5793,21 +5755,21 @@
         <v>100</v>
       </c>
       <c r="O7" s="6">
-        <f>I7*35</f>
-        <v>28</v>
+        <f t="shared" ref="O6:O18" si="4">I7*47</f>
+        <v>84.600000000000009</v>
       </c>
       <c r="P7" s="17">
-        <f>SUM(K7:O7)/(A$1)</f>
-        <v>103.25</v>
+        <f t="shared" si="1"/>
+        <v>93.92</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="22">
-        <f>J7*0.2+P7*0.3+Q7*0.5</f>
-        <v>52.725000000000001</v>
+        <f t="shared" si="2"/>
+        <v>47.576000000000008</v>
       </c>
       <c r="S7" s="22">
-        <f>D7*0.4+R7*0.6</f>
-        <v>65.228333333333325</v>
+        <f t="shared" si="3"/>
+        <v>62.138933333333327</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5836,11 +5798,11 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="17">
-        <f>100*SUM(E8:I8)/(2*A$1)</f>
-        <v>112.5</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="K8" s="15">
         <v>70</v>
@@ -5855,21 +5817,21 @@
         <v>100</v>
       </c>
       <c r="O8" s="6">
-        <f>I8*35</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P8" s="17">
-        <f>SUM(K8:O8)/(A$1)</f>
-        <v>101.25</v>
+        <f t="shared" si="1"/>
+        <v>92.8</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="22">
-        <f>J8*0.2+P8*0.3+Q8*0.5</f>
-        <v>52.875</v>
+        <f t="shared" si="2"/>
+        <v>47.84</v>
       </c>
       <c r="S8" s="22">
-        <f>D8*0.4+R8*0.6</f>
-        <v>60.868333333333332</v>
+        <f t="shared" si="3"/>
+        <v>57.847333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5898,11 +5860,11 @@
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="17">
-        <f>100*SUM(E9:I9)/(2*A$1)</f>
-        <v>112.5</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="K9" s="15">
         <v>95</v>
@@ -5917,21 +5879,21 @@
         <v>100</v>
       </c>
       <c r="O9" s="6">
-        <f>I9*35</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P9" s="17">
-        <f>SUM(K9:O9)/(A$1)</f>
-        <v>107.5</v>
+        <f t="shared" si="1"/>
+        <v>97.8</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="22">
-        <f>J9*0.2+P9*0.3+Q9*0.5</f>
-        <v>54.75</v>
+        <f t="shared" si="2"/>
+        <v>49.339999999999996</v>
       </c>
       <c r="S9" s="22">
-        <f>D9*0.4+R9*0.6</f>
-        <v>60.2</v>
+        <f t="shared" si="3"/>
+        <v>56.953999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5960,11 +5922,11 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="17">
-        <f>100*SUM(E10:I10)/(2*A$1)</f>
-        <v>87.5</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
@@ -5979,21 +5941,21 @@
         <v>100</v>
       </c>
       <c r="O10" s="6">
-        <f>I10*35</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P10" s="17">
-        <f>SUM(K10:O10)/(A$1)</f>
-        <v>83.75</v>
+        <f t="shared" si="1"/>
+        <v>78.8</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="22">
-        <f>J10*0.2+P10*0.3+Q10*0.5</f>
-        <v>42.625</v>
+        <f t="shared" si="2"/>
+        <v>39.64</v>
       </c>
       <c r="S10" s="22">
-        <f>D10*0.4+R10*0.6</f>
-        <v>59.515000000000001</v>
+        <f t="shared" si="3"/>
+        <v>57.723999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6022,11 +5984,11 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="17">
-        <f>100*SUM(E11:I11)/(2*A$1)</f>
-        <v>112.5</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="K11" s="15">
         <v>85</v>
@@ -6041,21 +6003,21 @@
         <v>90</v>
       </c>
       <c r="O11" s="6">
-        <f>I11*35</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P11" s="17">
-        <f>SUM(K11:O11)/(A$1)</f>
-        <v>102.5</v>
+        <f t="shared" si="1"/>
+        <v>93.8</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="22">
-        <f>J11*0.2+P11*0.3+Q11*0.5</f>
-        <v>53.25</v>
+        <f t="shared" si="2"/>
+        <v>48.14</v>
       </c>
       <c r="S11" s="22">
-        <f>D11*0.4+R11*0.6</f>
-        <v>55.8</v>
+        <f t="shared" si="3"/>
+        <v>52.734000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6084,11 +6046,11 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="17">
-        <f>100*SUM(E12:I12)/(2*A$1)</f>
-        <v>112.5</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="K12" s="15">
         <v>70</v>
@@ -6103,21 +6065,21 @@
         <v>90</v>
       </c>
       <c r="O12" s="6">
-        <f>I12*35</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P12" s="17">
-        <f>SUM(K12:O12)/(A$1)</f>
-        <v>98.75</v>
+        <f t="shared" si="1"/>
+        <v>90.8</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="22">
-        <f>J12*0.2+P12*0.3+Q12*0.5</f>
-        <v>52.125</v>
+        <f t="shared" si="2"/>
+        <v>47.239999999999995</v>
       </c>
       <c r="S12" s="22">
-        <f>D12*0.4+R12*0.6</f>
-        <v>55.208333333333336</v>
+        <f t="shared" si="3"/>
+        <v>52.277333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6146,11 +6108,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="17">
-        <f>100*SUM(E13:I13)/(2*A$1)</f>
-        <v>87.5</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="K13" s="15">
         <v>65</v>
@@ -6165,21 +6127,21 @@
         <v>0</v>
       </c>
       <c r="O13" s="6">
-        <f>I13*35</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P13" s="17">
-        <f>SUM(K13:O13)/(A$1)</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>71.8</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="22">
-        <f>J13*0.2+P13*0.3+Q13*0.5</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>37.54</v>
       </c>
       <c r="S13" s="22">
-        <f>D13*0.4+R13*0.6</f>
-        <v>54.153333333333336</v>
+        <f t="shared" si="3"/>
+        <v>52.677333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6208,11 +6170,11 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="17">
-        <f>100*SUM(E14:I14)/(2*A$1)</f>
-        <v>112.5</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="K14" s="15">
         <v>85</v>
@@ -6227,21 +6189,21 @@
         <v>90</v>
       </c>
       <c r="O14" s="6">
-        <f>I14*35</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P14" s="17">
-        <f>SUM(K14:O14)/(A$1)</f>
-        <v>102.5</v>
+        <f t="shared" si="1"/>
+        <v>93.8</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="22">
-        <f>J14*0.2+P14*0.3+Q14*0.5</f>
-        <v>53.25</v>
+        <f t="shared" si="2"/>
+        <v>48.14</v>
       </c>
       <c r="S14" s="22">
-        <f>D14*0.4+R14*0.6</f>
-        <v>52.563333333333333</v>
+        <f t="shared" si="3"/>
+        <v>49.49733333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6270,11 +6232,11 @@
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J15" s="17">
-        <f>100*SUM(E15:I15)/(2*A$1)</f>
-        <v>111.25</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="K15" s="15">
         <v>70</v>
@@ -6289,21 +6251,21 @@
         <v>100</v>
       </c>
       <c r="O15" s="6">
-        <f>I15*35</f>
-        <v>31.5</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P15" s="17">
-        <f>SUM(K15:O15)/(A$1)</f>
-        <v>100.375</v>
+        <f t="shared" si="1"/>
+        <v>92.8</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="22">
-        <f>J15*0.2+P15*0.3+Q15*0.5</f>
-        <v>52.362499999999997</v>
+        <f t="shared" si="2"/>
+        <v>47.84</v>
       </c>
       <c r="S15" s="22">
-        <f>D15*0.4+R15*0.6</f>
-        <v>46.974166666666669</v>
+        <f t="shared" si="3"/>
+        <v>44.260666666666673</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6335,8 +6297,8 @@
         <v>0</v>
       </c>
       <c r="J16" s="17">
-        <f>100*SUM(E16:I16)/(2*A$1)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="K16" s="15">
         <v>0</v>
@@ -6351,21 +6313,21 @@
         <v>0</v>
       </c>
       <c r="O16" s="6">
-        <f>I16*35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="17">
-        <f>SUM(K16:O16)/(A$1)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="22">
-        <f>J16*0.2+P16*0.3+Q16*0.5</f>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="S16" s="22">
-        <f>D16*0.4+R16*0.6</f>
-        <v>43.806666666666665</v>
+        <f t="shared" si="3"/>
+        <v>42.306666666666665</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6397,8 +6359,8 @@
         <v>0</v>
       </c>
       <c r="J17" s="17">
-        <f>100*SUM(E17:I17)/(2*A$1)</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="K17" s="15">
         <v>55</v>
@@ -6413,21 +6375,21 @@
         <v>0</v>
       </c>
       <c r="O17" s="6">
-        <f>I17*35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="17">
-        <f>SUM(K17:O17)/(A$1)</f>
-        <v>63.75</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="22">
-        <f>J17*0.2+P17*0.3+Q17*0.5</f>
-        <v>34.125</v>
+        <f t="shared" si="2"/>
+        <v>27.299999999999997</v>
       </c>
       <c r="S17" s="22">
-        <f>D17*0.4+R17*0.6</f>
-        <v>39.325000000000003</v>
+        <f t="shared" si="3"/>
+        <v>35.230000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6456,11 +6418,11 @@
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="17">
-        <f>100*SUM(E18:I18)/(2*A$1)</f>
-        <v>62.5</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="K18" s="15">
         <v>70</v>
@@ -6475,21 +6437,21 @@
         <v>90</v>
       </c>
       <c r="O18" s="6">
-        <f>I18*35</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="P18" s="17">
-        <f>SUM(K18:O18)/(A$1)</f>
-        <v>48.75</v>
+        <f t="shared" si="1"/>
+        <v>50.8</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="22">
-        <f>J18*0.2+P18*0.3+Q18*0.5</f>
-        <v>27.125</v>
+        <f t="shared" si="2"/>
+        <v>27.24</v>
       </c>
       <c r="S18" s="22">
-        <f>D18*0.4+R18*0.6</f>
-        <v>32.691666666666663</v>
+        <f t="shared" si="3"/>
+        <v>32.760666666666665</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6521,8 +6483,8 @@
         <v>0</v>
       </c>
       <c r="J19" s="17">
-        <f>100*SUM(E19:I19)/(2*A$1)</f>
-        <v>73.75</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="K19" s="15">
         <v>60</v>
@@ -6537,21 +6499,21 @@
         <v>90</v>
       </c>
       <c r="O19" s="6">
-        <f>I19*35</f>
+        <f t="shared" ref="O19:O33" si="5">I19*35</f>
         <v>0</v>
       </c>
       <c r="P19" s="17">
-        <f>SUM(K19:O19)/(A$1)</f>
-        <v>62.5</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="22">
-        <f>J19*0.2+P19*0.3+Q19*0.5</f>
-        <v>33.5</v>
+        <f t="shared" si="2"/>
+        <v>26.8</v>
       </c>
       <c r="S19" s="22">
-        <f>D19*0.4+R19*0.6</f>
-        <v>32.583333333333329</v>
+        <f t="shared" si="3"/>
+        <v>28.563333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6583,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="17">
-        <f>100*SUM(E20:I20)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="15">
@@ -6599,20 +6561,20 @@
         <v>0</v>
       </c>
       <c r="O20" s="6">
-        <f>I20*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P20" s="17">
-        <f>SUM(K20:O20)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="22">
-        <f>J20*0.2+P20*0.3+Q20*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S20" s="22">
-        <f>D20*0.4+R20*0.6</f>
+        <f t="shared" si="3"/>
         <v>19.733333333333334</v>
       </c>
     </row>
@@ -6645,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="17">
-        <f>100*SUM(E21:I21)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="15">
@@ -6661,20 +6623,20 @@
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <f>I21*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P21" s="17">
-        <f>SUM(K21:O21)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="15"/>
       <c r="R21" s="22">
-        <f>J21*0.2+P21*0.3+Q21*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S21" s="22">
-        <f>D21*0.4+R21*0.6</f>
+        <f t="shared" si="3"/>
         <v>15.033333333333335</v>
       </c>
     </row>
@@ -6705,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="17">
-        <f>100*SUM(E22:I22)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="15">
@@ -6721,20 +6683,20 @@
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <f>I22*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P22" s="17">
-        <f>SUM(K22:O22)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="22">
-        <f>J22*0.2+P22*0.3+Q22*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S22" s="22">
-        <f>D22*0.4+R22*0.6</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
@@ -6767,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="17">
-        <f>100*SUM(E23:I23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="15">
@@ -6783,20 +6745,20 @@
         <v>0</v>
       </c>
       <c r="O23" s="6">
-        <f>I23*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <f>SUM(K23:O23)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="22">
-        <f>J23*0.2+P23*0.3+Q23*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S23" s="22">
-        <f>D23*0.4+R23*0.6</f>
+        <f t="shared" si="3"/>
         <v>3.0833333333333339</v>
       </c>
     </row>
@@ -6829,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="17">
-        <f>100*SUM(E24:I24)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="15">
@@ -6845,20 +6807,20 @@
         <v>0</v>
       </c>
       <c r="O24" s="6">
-        <f>I24*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <f>SUM(K24:O24)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="22">
-        <f>J24*0.2+P24*0.3+Q24*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S24" s="22">
-        <f>D24*0.4+R24*0.6</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6891,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="17">
-        <f>100*SUM(E25:I25)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="15">
@@ -6907,20 +6869,20 @@
         <v>0</v>
       </c>
       <c r="O25" s="6">
-        <f>I25*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <f>SUM(K25:O25)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="22">
-        <f>J25*0.2+P25*0.3+Q25*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S25" s="22">
-        <f>D25*0.4+R25*0.6</f>
+        <f t="shared" si="3"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -6953,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="17">
-        <f>100*SUM(E26:I26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="15">
@@ -6969,20 +6931,20 @@
         <v>0</v>
       </c>
       <c r="O26" s="6">
-        <f>I26*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P26" s="17">
-        <f>SUM(K26:O26)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="22">
-        <f>J26*0.2+P26*0.3+Q26*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S26" s="22">
-        <f>D26*0.4+R26*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7015,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="17">
-        <f>100*SUM(E27:I27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="15">
@@ -7031,20 +6993,20 @@
         <v>0</v>
       </c>
       <c r="O27" s="6">
-        <f>I27*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <f>SUM(K27:O27)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="R27" s="22">
-        <f>J27*0.2+P27*0.3+Q27*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S27" s="22">
-        <f>D27*0.4+R27*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7077,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="17">
-        <f>100*SUM(E28:I28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="15">
@@ -7093,20 +7055,20 @@
         <v>0</v>
       </c>
       <c r="O28" s="6">
-        <f>I28*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P28" s="17">
-        <f>SUM(K28:O28)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="15"/>
       <c r="R28" s="22">
-        <f>J28*0.2+P28*0.3+Q28*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S28" s="22">
-        <f>D28*0.4+R28*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7139,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="17">
-        <f>100*SUM(E29:I29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="15">
@@ -7155,20 +7117,20 @@
         <v>0</v>
       </c>
       <c r="O29" s="6">
-        <f>I29*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P29" s="17">
-        <f>SUM(K29:O29)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" s="15"/>
       <c r="R29" s="22">
-        <f>J29*0.2+P29*0.3+Q29*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S29" s="22">
-        <f>D29*0.4+R29*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7201,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="17">
-        <f>100*SUM(E30:I30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="15">
@@ -7217,20 +7179,20 @@
         <v>0</v>
       </c>
       <c r="O30" s="6">
-        <f>I30*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30" s="17">
-        <f>SUM(K30:O30)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q30" s="15"/>
       <c r="R30" s="22">
-        <f>J30*0.2+P30*0.3+Q30*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S30" s="22">
-        <f>D30*0.4+R30*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7263,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="17">
-        <f>100*SUM(E31:I31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="15">
@@ -7279,20 +7241,20 @@
         <v>0</v>
       </c>
       <c r="O31" s="6">
-        <f>I31*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P31" s="17">
-        <f>SUM(K31:O31)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q31" s="15"/>
       <c r="R31" s="22">
-        <f>J31*0.2+P31*0.3+Q31*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S31" s="22">
-        <f>D31*0.4+R31*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7325,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="17">
-        <f>100*SUM(E32:I32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="15">
@@ -7341,20 +7303,20 @@
         <v>0</v>
       </c>
       <c r="O32" s="6">
-        <f>I32*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P32" s="17">
-        <f>SUM(K32:O32)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q32" s="15"/>
       <c r="R32" s="22">
-        <f>J32*0.2+P32*0.3+Q32*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S32" s="22">
-        <f>D32*0.4+R32*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7387,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="17">
-        <f>100*SUM(E33:I33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="15">
@@ -7403,20 +7365,20 @@
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <f>I33*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P33" s="17">
-        <f>SUM(K33:O33)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="15"/>
       <c r="R33" s="22">
-        <f>J33*0.2+P33*0.3+Q33*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S33" s="22">
-        <f>D33*0.4+R33*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8285,14 +8247,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8339,18 +8301,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -884,7 +884,83 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5166,14 +5242,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5234,52 +5310,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U33">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:X33">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5349,7 +5425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5491,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J33" si="0">100*SUM(E3:I3)/(2*A$1)</f>
+        <f>100*SUM(E3:I3)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K3" s="15">
@@ -5511,17 +5587,19 @@
         <v>94</v>
       </c>
       <c r="P3" s="17">
-        <f t="shared" ref="P3:P33" si="1">SUM(K3:O3)/(A$1)</f>
+        <f>SUM(K3:O3)/(A$1)</f>
         <v>97.8</v>
       </c>
-      <c r="Q3" s="15"/>
+      <c r="Q3" s="6">
+        <v>50</v>
+      </c>
       <c r="R3" s="22">
-        <f t="shared" ref="R3:R33" si="2">J3*0.2+P3*0.3+Q3*0.5</f>
-        <v>49.339999999999996</v>
+        <f>J3*0.2+P3*0.3+Q3*0.5</f>
+        <v>74.34</v>
       </c>
       <c r="S3" s="22">
-        <f t="shared" ref="S3:S33" si="3">D3*0.4+R3*0.6</f>
-        <v>68.137333333333331</v>
+        <f>D3*0.4+R3*0.6</f>
+        <v>83.137333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5553,7 +5631,7 @@
         <v>1.9</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E4:I4)/(2*A$1)</f>
         <v>99</v>
       </c>
       <c r="K4" s="15">
@@ -5573,17 +5651,19 @@
         <v>96.899999999999991</v>
       </c>
       <c r="P4" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K4:O4)/(A$1)</f>
         <v>97.38</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="6">
+        <v>50</v>
+      </c>
       <c r="R4" s="22">
-        <f t="shared" si="2"/>
-        <v>49.013999999999996</v>
+        <f>J4*0.2+P4*0.3+Q4*0.5</f>
+        <v>74.013999999999996</v>
       </c>
       <c r="S4" s="22">
-        <f t="shared" si="3"/>
-        <v>65.755066666666664</v>
+        <f>D4*0.4+R4*0.6</f>
+        <v>80.755066666666664</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5615,7 +5695,7 @@
         <v>1.3</v>
       </c>
       <c r="J5" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E5:I5)/(2*A$1)</f>
         <v>74.999999999999986</v>
       </c>
       <c r="K5" s="15">
@@ -5635,34 +5715,36 @@
         <v>80.600000000000009</v>
       </c>
       <c r="P5" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K5:O5)/(A$1)</f>
         <v>81.12</v>
       </c>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="6">
+        <v>50</v>
+      </c>
       <c r="R5" s="22">
-        <f t="shared" si="2"/>
-        <v>39.335999999999999</v>
+        <f>J5*0.2+P5*0.3+Q5*0.5</f>
+        <v>64.335999999999999</v>
       </c>
       <c r="S5" s="22">
-        <f t="shared" si="3"/>
-        <v>63.738266666666668</v>
+        <f>D5*0.4+R5*0.6</f>
+        <v>78.738266666666675</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D6" s="22">
         <v>83.98333333333332</v>
       </c>
       <c r="E6" s="41">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
@@ -5674,11 +5756,11 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J6" s="17">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <f>100*SUM(E6:I6)/(2*A$1)</f>
+        <v>97.000000000000014</v>
       </c>
       <c r="K6" s="15">
         <v>85</v>
@@ -5694,53 +5776,55 @@
       </c>
       <c r="O6" s="6">
         <f>I6*47</f>
-        <v>89.3</v>
+        <v>84.600000000000009</v>
       </c>
       <c r="P6" s="17">
-        <f t="shared" si="1"/>
-        <v>94.86</v>
-      </c>
-      <c r="Q6" s="15"/>
+        <f>SUM(K6:O6)/(A$1)</f>
+        <v>93.92</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>50</v>
+      </c>
       <c r="R6" s="22">
-        <f t="shared" si="2"/>
-        <v>46.257999999999996</v>
+        <f>J6*0.2+P6*0.3+Q6*0.5</f>
+        <v>72.576000000000008</v>
       </c>
       <c r="S6" s="22">
-        <f t="shared" si="3"/>
-        <v>61.348133333333323</v>
+        <f>D6*0.4+R6*0.6</f>
+        <v>77.138933333333327</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D7" s="22">
         <v>83.98333333333332</v>
       </c>
       <c r="E7" s="41">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
         <v>1.9</v>
       </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1.8</v>
-      </c>
       <c r="J7" s="17">
-        <f t="shared" si="0"/>
-        <v>97.000000000000014</v>
+        <f>100*SUM(E7:I7)/(2*A$1)</f>
+        <v>89</v>
       </c>
       <c r="K7" s="15">
         <v>85</v>
@@ -5755,21 +5839,23 @@
         <v>100</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" ref="O6:O18" si="4">I7*47</f>
-        <v>84.600000000000009</v>
+        <f>I7*47</f>
+        <v>89.3</v>
       </c>
       <c r="P7" s="17">
-        <f t="shared" si="1"/>
-        <v>93.92</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <f>SUM(K7:O7)/(A$1)</f>
+        <v>94.86</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>50</v>
+      </c>
       <c r="R7" s="22">
-        <f t="shared" si="2"/>
-        <v>47.576000000000008</v>
+        <f>J7*0.2+P7*0.3+Q7*0.5</f>
+        <v>71.257999999999996</v>
       </c>
       <c r="S7" s="22">
-        <f t="shared" si="3"/>
-        <v>62.138933333333327</v>
+        <f>D7*0.4+R7*0.6</f>
+        <v>76.348133333333323</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5801,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E8:I8)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K8" s="15">
@@ -5817,38 +5903,40 @@
         <v>100</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="4"/>
+        <f>I8*47</f>
         <v>94</v>
       </c>
       <c r="P8" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K8:O8)/(A$1)</f>
         <v>92.8</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="6">
+        <v>50</v>
+      </c>
       <c r="R8" s="22">
-        <f t="shared" si="2"/>
-        <v>47.84</v>
+        <f>J8*0.2+P8*0.3+Q8*0.5</f>
+        <v>72.84</v>
       </c>
       <c r="S8" s="22">
-        <f t="shared" si="3"/>
-        <v>57.847333333333339</v>
+        <f>D8*0.4+R8*0.6</f>
+        <v>72.847333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D9" s="22">
-        <v>68.375</v>
+        <v>84.85</v>
       </c>
       <c r="E9" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
@@ -5863,11 +5951,11 @@
         <v>2</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>100*SUM(E9:I9)/(2*A$1)</f>
+        <v>80</v>
       </c>
       <c r="K9" s="15">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6">
         <v>100</v>
@@ -5879,38 +5967,40 @@
         <v>100</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="4"/>
+        <f>I9*47</f>
         <v>94</v>
       </c>
       <c r="P9" s="17">
-        <f t="shared" si="1"/>
-        <v>97.8</v>
-      </c>
-      <c r="Q9" s="15"/>
+        <f>SUM(K9:O9)/(A$1)</f>
+        <v>78.8</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>50</v>
+      </c>
       <c r="R9" s="22">
-        <f t="shared" si="2"/>
-        <v>49.339999999999996</v>
+        <f>J9*0.2+P9*0.3+Q9*0.5</f>
+        <v>64.64</v>
       </c>
       <c r="S9" s="22">
-        <f t="shared" si="3"/>
-        <v>56.953999999999994</v>
+        <f>D9*0.4+R9*0.6</f>
+        <v>72.72399999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D10" s="22">
-        <v>84.85</v>
+        <v>68.375</v>
       </c>
       <c r="E10" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
@@ -5925,11 +6015,11 @@
         <v>2</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>100*SUM(E10:I10)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L10" s="6">
         <v>100</v>
@@ -5941,21 +6031,23 @@
         <v>100</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="4"/>
+        <f>I10*47</f>
         <v>94</v>
       </c>
       <c r="P10" s="17">
-        <f t="shared" si="1"/>
-        <v>78.8</v>
-      </c>
-      <c r="Q10" s="15"/>
+        <f>SUM(K10:O10)/(A$1)</f>
+        <v>97.8</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>50</v>
+      </c>
       <c r="R10" s="22">
-        <f t="shared" si="2"/>
-        <v>39.64</v>
+        <f>J10*0.2+P10*0.3+Q10*0.5</f>
+        <v>74.34</v>
       </c>
       <c r="S10" s="22">
-        <f t="shared" si="3"/>
-        <v>57.723999999999997</v>
+        <f>D10*0.4+R10*0.6</f>
+        <v>71.954000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5987,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E11:I11)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K11" s="15">
@@ -6003,35 +6095,37 @@
         <v>90</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="4"/>
+        <f>I11*47</f>
         <v>94</v>
       </c>
       <c r="P11" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K11:O11)/(A$1)</f>
         <v>93.8</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="6">
+        <v>50</v>
+      </c>
       <c r="R11" s="22">
-        <f t="shared" si="2"/>
-        <v>48.14</v>
+        <f>J11*0.2+P11*0.3+Q11*0.5</f>
+        <v>73.14</v>
       </c>
       <c r="S11" s="22">
-        <f t="shared" si="3"/>
-        <v>52.734000000000002</v>
+        <f>D11*0.4+R11*0.6</f>
+        <v>67.734000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D12" s="22">
-        <v>59.833333333333336</v>
+        <v>75.38333333333334</v>
       </c>
       <c r="E12" s="41">
         <v>2</v>
@@ -6043,17 +6137,17 @@
         <v>2</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
       </c>
       <c r="J12" s="17">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>100*SUM(E12:I12)/(2*A$1)</f>
+        <v>80</v>
       </c>
       <c r="K12" s="15">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L12" s="6">
         <v>100</v>
@@ -6062,38 +6156,40 @@
         <v>100</v>
       </c>
       <c r="N12" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="4"/>
+        <f>I12*47</f>
         <v>94</v>
       </c>
       <c r="P12" s="17">
-        <f t="shared" si="1"/>
-        <v>90.8</v>
-      </c>
-      <c r="Q12" s="15"/>
+        <f>SUM(K12:O12)/(A$1)</f>
+        <v>71.8</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>50</v>
+      </c>
       <c r="R12" s="22">
-        <f t="shared" si="2"/>
-        <v>47.239999999999995</v>
+        <f>J12*0.2+P12*0.3+Q12*0.5</f>
+        <v>62.54</v>
       </c>
       <c r="S12" s="22">
-        <f t="shared" si="3"/>
-        <v>52.277333333333331</v>
+        <f>D12*0.4+R12*0.6</f>
+        <v>67.677333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D13" s="22">
-        <v>75.38333333333334</v>
+        <v>51.533333333333331</v>
       </c>
       <c r="E13" s="41">
         <v>2</v>
@@ -6105,17 +6201,17 @@
         <v>2</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
         <v>2</v>
       </c>
       <c r="J13" s="17">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>100*SUM(E13:I13)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="K13" s="15">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L13" s="6">
         <v>100</v>
@@ -6124,38 +6220,40 @@
         <v>100</v>
       </c>
       <c r="N13" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="4"/>
+        <f>I13*47</f>
         <v>94</v>
       </c>
       <c r="P13" s="17">
-        <f t="shared" si="1"/>
-        <v>71.8</v>
-      </c>
-      <c r="Q13" s="15"/>
+        <f>SUM(K13:O13)/(A$1)</f>
+        <v>93.8</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>50</v>
+      </c>
       <c r="R13" s="22">
-        <f t="shared" si="2"/>
-        <v>37.54</v>
+        <f>J13*0.2+P13*0.3+Q13*0.5</f>
+        <v>73.14</v>
       </c>
       <c r="S13" s="22">
-        <f t="shared" si="3"/>
-        <v>52.677333333333337</v>
+        <f>D13*0.4+R13*0.6</f>
+        <v>64.49733333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D14" s="22">
-        <v>51.533333333333331</v>
+        <v>38.891666666666673</v>
       </c>
       <c r="E14" s="41">
         <v>2</v>
@@ -6173,11 +6271,11 @@
         <v>2</v>
       </c>
       <c r="J14" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E14:I14)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K14" s="15">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L14" s="6">
         <v>100</v>
@@ -6186,148 +6284,154 @@
         <v>100</v>
       </c>
       <c r="N14" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="4"/>
+        <f>I14*47</f>
         <v>94</v>
       </c>
       <c r="P14" s="17">
-        <f t="shared" si="1"/>
-        <v>93.8</v>
-      </c>
-      <c r="Q14" s="15"/>
+        <f>SUM(K14:O14)/(A$1)</f>
+        <v>92.8</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>50</v>
+      </c>
       <c r="R14" s="22">
-        <f t="shared" si="2"/>
-        <v>48.14</v>
+        <f>J14*0.2+P14*0.3+Q14*0.5</f>
+        <v>72.84</v>
       </c>
       <c r="S14" s="22">
-        <f t="shared" si="3"/>
-        <v>49.49733333333333</v>
+        <f>D14*0.4+R14*0.6</f>
+        <v>59.260666666666673</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D15" s="22">
-        <v>38.891666666666673</v>
+        <v>90.766666666666666</v>
       </c>
       <c r="E15" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="17">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>100*SUM(E15:I15)/(2*A$1)</f>
+        <v>20</v>
       </c>
       <c r="K15" s="15">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="6">
         <v>100</v>
       </c>
       <c r="N15" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
+        <f>I15*47</f>
+        <v>0</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" si="1"/>
-        <v>92.8</v>
-      </c>
-      <c r="Q15" s="15"/>
+        <f>SUM(K15:O15)/(A$1)</f>
+        <v>20</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>50</v>
+      </c>
       <c r="R15" s="22">
-        <f t="shared" si="2"/>
-        <v>47.84</v>
+        <f>J15*0.2+P15*0.3+Q15*0.5</f>
+        <v>35</v>
       </c>
       <c r="S15" s="22">
-        <f t="shared" si="3"/>
-        <v>44.260666666666673</v>
+        <f>D15*0.4+R15*0.6</f>
+        <v>57.306666666666665</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D16" s="22">
-        <v>90.766666666666666</v>
+        <v>59.833333333333336</v>
       </c>
       <c r="E16" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="17">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>100*SUM(E16:I16)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L16" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" s="6">
         <v>100</v>
       </c>
       <c r="N16" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>I16*47</f>
+        <v>94</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q16" s="15"/>
+        <f>SUM(K16:O16)/(A$1)</f>
+        <v>90.8</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
       <c r="R16" s="22">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>J16*0.2+P16*0.3+Q16*0.5</f>
+        <v>47.239999999999995</v>
       </c>
       <c r="S16" s="22">
-        <f t="shared" si="3"/>
-        <v>42.306666666666665</v>
+        <f>D16*0.4+R16*0.6</f>
+        <v>52.277333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6359,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E17:I17)/(2*A$1)</f>
         <v>60</v>
       </c>
       <c r="K17" s="15">
@@ -6375,207 +6479,215 @@
         <v>0</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="4"/>
+        <f>I17*47</f>
         <v>0</v>
       </c>
       <c r="P17" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K17:O17)/(A$1)</f>
         <v>51</v>
       </c>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="6">
+        <v>50</v>
+      </c>
       <c r="R17" s="22">
-        <f t="shared" si="2"/>
-        <v>27.299999999999997</v>
+        <f>J17*0.2+P17*0.3+Q17*0.5</f>
+        <v>52.3</v>
       </c>
       <c r="S17" s="22">
-        <f t="shared" si="3"/>
-        <v>35.230000000000004</v>
+        <f>D17*0.4+R17*0.6</f>
+        <v>50.23</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="22">
+        <v>49.333333333333336</v>
+      </c>
+      <c r="E18" s="41">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f>100*SUM(E18:I18)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <f>I18*35</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <f>SUM(K18:O18)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>50</v>
+      </c>
+      <c r="R18" s="22">
+        <f>J18*0.2+P18*0.3+Q18*0.5</f>
         <v>25</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="22">
-        <v>41.041666666666664</v>
-      </c>
-      <c r="E18" s="41">
-        <v>2</v>
-      </c>
-      <c r="F18" s="45">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2</v>
-      </c>
-      <c r="J18" s="17">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="K18" s="15">
-        <v>70</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>90</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P18" s="17">
-        <f t="shared" si="1"/>
-        <v>50.8</v>
-      </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="22">
-        <f t="shared" si="2"/>
-        <v>27.24</v>
-      </c>
       <c r="S18" s="22">
-        <f t="shared" si="3"/>
-        <v>32.760666666666665</v>
+        <f>D18*0.4+R18*0.6</f>
+        <v>34.733333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D19" s="22">
-        <v>31.208333333333336</v>
+        <v>41.041666666666664</v>
       </c>
       <c r="E19" s="41">
-        <v>1.9</v>
-      </c>
-      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="45">
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>100*SUM(E19:I19)/(2*A$1)</f>
+        <v>60</v>
       </c>
       <c r="K19" s="15">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
       </c>
       <c r="M19" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N19" s="6">
         <v>90</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" ref="O19:O33" si="5">I19*35</f>
-        <v>0</v>
+        <f>I19*47</f>
+        <v>94</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Q19" s="15"/>
+        <f>SUM(K19:O19)/(A$1)</f>
+        <v>50.8</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
       <c r="R19" s="22">
-        <f t="shared" si="2"/>
-        <v>26.8</v>
+        <f>J19*0.2+P19*0.3+Q19*0.5</f>
+        <v>27.24</v>
       </c>
       <c r="S19" s="22">
-        <f t="shared" si="3"/>
-        <v>28.563333333333333</v>
+        <f>D19*0.4+R19*0.6</f>
+        <v>32.760666666666665</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D20" s="22">
-        <v>49.333333333333336</v>
+        <v>31.208333333333336</v>
       </c>
       <c r="E20" s="41">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>100*SUM(E20:I20)/(2*A$1)</f>
+        <v>59</v>
       </c>
       <c r="K20" s="15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
       </c>
       <c r="M20" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="5"/>
+        <f>I20*35</f>
         <v>0</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="15"/>
+        <f>SUM(K20:O20)/(A$1)</f>
+        <v>50</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
       <c r="R20" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>J20*0.2+P20*0.3+Q20*0.5</f>
+        <v>26.8</v>
       </c>
       <c r="S20" s="22">
-        <f t="shared" si="3"/>
-        <v>19.733333333333334</v>
+        <f>D20*0.4+R20*0.6</f>
+        <v>28.563333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6607,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E21:I21)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K21" s="15">
@@ -6623,20 +6735,22 @@
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="5"/>
+        <f>I21*35</f>
         <v>0</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="15"/>
+        <f>SUM(K21:O21)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
       <c r="R21" s="22">
-        <f t="shared" si="2"/>
+        <f>J21*0.2+P21*0.3+Q21*0.5</f>
         <v>0</v>
       </c>
       <c r="S21" s="22">
-        <f t="shared" si="3"/>
+        <f>D21*0.4+R21*0.6</f>
         <v>15.033333333333335</v>
       </c>
     </row>
@@ -6667,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E22:I22)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K22" s="15">
@@ -6683,20 +6797,22 @@
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="5"/>
+        <f>I22*35</f>
         <v>0</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="15"/>
+        <f>SUM(K22:O22)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
       <c r="R22" s="22">
-        <f t="shared" si="2"/>
+        <f>J22*0.2+P22*0.3+Q22*0.5</f>
         <v>0</v>
       </c>
       <c r="S22" s="22">
-        <f t="shared" si="3"/>
+        <f>D22*0.4+R22*0.6</f>
         <v>4.5</v>
       </c>
     </row>
@@ -6729,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E23:I23)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K23" s="15">
@@ -6745,20 +6861,22 @@
         <v>0</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="5"/>
+        <f>I23*35</f>
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="15"/>
+        <f>SUM(K23:O23)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
       <c r="R23" s="22">
-        <f t="shared" si="2"/>
+        <f>J23*0.2+P23*0.3+Q23*0.5</f>
         <v>0</v>
       </c>
       <c r="S23" s="22">
-        <f t="shared" si="3"/>
+        <f>D23*0.4+R23*0.6</f>
         <v>3.0833333333333339</v>
       </c>
     </row>
@@ -6791,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E24:I24)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K24" s="15">
@@ -6807,20 +6925,22 @@
         <v>0</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="5"/>
+        <f>I24*35</f>
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="15"/>
+        <f>SUM(K24:O24)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
       <c r="R24" s="22">
-        <f t="shared" si="2"/>
+        <f>J24*0.2+P24*0.3+Q24*0.5</f>
         <v>0</v>
       </c>
       <c r="S24" s="22">
-        <f t="shared" si="3"/>
+        <f>D24*0.4+R24*0.6</f>
         <v>3</v>
       </c>
     </row>
@@ -6853,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E25:I25)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K25" s="15">
@@ -6869,20 +6989,22 @@
         <v>0</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="5"/>
+        <f>I25*35</f>
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="15"/>
+        <f>SUM(K25:O25)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
       <c r="R25" s="22">
-        <f t="shared" si="2"/>
+        <f>J25*0.2+P25*0.3+Q25*0.5</f>
         <v>0</v>
       </c>
       <c r="S25" s="22">
-        <f t="shared" si="3"/>
+        <f>D25*0.4+R25*0.6</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -6915,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E26:I26)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K26" s="15">
@@ -6931,20 +7053,22 @@
         <v>0</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="5"/>
+        <f>I26*35</f>
         <v>0</v>
       </c>
       <c r="P26" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="15"/>
+        <f>SUM(K26:O26)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
       <c r="R26" s="22">
-        <f t="shared" si="2"/>
+        <f>J26*0.2+P26*0.3+Q26*0.5</f>
         <v>0</v>
       </c>
       <c r="S26" s="22">
-        <f t="shared" si="3"/>
+        <f>D26*0.4+R26*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -6977,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E27:I27)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K27" s="15">
@@ -6993,20 +7117,22 @@
         <v>0</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="5"/>
+        <f>I27*35</f>
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="15"/>
+        <f>SUM(K27:O27)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
       <c r="R27" s="22">
-        <f t="shared" si="2"/>
+        <f>J27*0.2+P27*0.3+Q27*0.5</f>
         <v>0</v>
       </c>
       <c r="S27" s="22">
-        <f t="shared" si="3"/>
+        <f>D27*0.4+R27*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7039,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E28:I28)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K28" s="15">
@@ -7055,20 +7181,22 @@
         <v>0</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="5"/>
+        <f>I28*35</f>
         <v>0</v>
       </c>
       <c r="P28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="15"/>
+        <f>SUM(K28:O28)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
       <c r="R28" s="22">
-        <f t="shared" si="2"/>
+        <f>J28*0.2+P28*0.3+Q28*0.5</f>
         <v>0</v>
       </c>
       <c r="S28" s="22">
-        <f t="shared" si="3"/>
+        <f>D28*0.4+R28*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7101,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E29:I29)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K29" s="15">
@@ -7117,20 +7245,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="5"/>
+        <f>I29*35</f>
         <v>0</v>
       </c>
       <c r="P29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="15"/>
+        <f>SUM(K29:O29)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
       <c r="R29" s="22">
-        <f t="shared" si="2"/>
+        <f>J29*0.2+P29*0.3+Q29*0.5</f>
         <v>0</v>
       </c>
       <c r="S29" s="22">
-        <f t="shared" si="3"/>
+        <f>D29*0.4+R29*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7163,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E30:I30)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K30" s="15">
@@ -7179,20 +7309,22 @@
         <v>0</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="5"/>
+        <f>I30*35</f>
         <v>0</v>
       </c>
       <c r="P30" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="15"/>
+        <f>SUM(K30:O30)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
       <c r="R30" s="22">
-        <f t="shared" si="2"/>
+        <f>J30*0.2+P30*0.3+Q30*0.5</f>
         <v>0</v>
       </c>
       <c r="S30" s="22">
-        <f t="shared" si="3"/>
+        <f>D30*0.4+R30*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7225,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E31:I31)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K31" s="15">
@@ -7241,20 +7373,22 @@
         <v>0</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="5"/>
+        <f>I31*35</f>
         <v>0</v>
       </c>
       <c r="P31" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="15"/>
+        <f>SUM(K31:O31)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
       <c r="R31" s="22">
-        <f t="shared" si="2"/>
+        <f>J31*0.2+P31*0.3+Q31*0.5</f>
         <v>0</v>
       </c>
       <c r="S31" s="22">
-        <f t="shared" si="3"/>
+        <f>D31*0.4+R31*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7287,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E32:I32)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K32" s="15">
@@ -7303,20 +7437,22 @@
         <v>0</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="5"/>
+        <f>I32*35</f>
         <v>0</v>
       </c>
       <c r="P32" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="15"/>
+        <f>SUM(K32:O32)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
       <c r="R32" s="22">
-        <f t="shared" si="2"/>
+        <f>J32*0.2+P32*0.3+Q32*0.5</f>
         <v>0</v>
       </c>
       <c r="S32" s="22">
-        <f t="shared" si="3"/>
+        <f>D32*0.4+R32*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7349,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E33:I33)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K33" s="15">
@@ -7365,20 +7501,22 @@
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="5"/>
+        <f>I33*35</f>
         <v>0</v>
       </c>
       <c r="P33" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="15"/>
+        <f>SUM(K33:O33)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
       <c r="R33" s="22">
-        <f t="shared" si="2"/>
+        <f>J33*0.2+P33*0.3+Q33*0.5</f>
         <v>0</v>
       </c>
       <c r="S33" s="22">
-        <f t="shared" si="3"/>
+        <f>D33*0.4+R33*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -8247,19 +8385,19 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J33">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8273,7 +8411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P33">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8287,7 +8425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R33">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8301,24 +8439,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S33">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8332,7 +8470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D33">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8346,7 +8484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8357,6 +8495,23 @@
           <x14:id>{5152AADF-8FC6-4ED1-821D-0A79F65C7F2C}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q33">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -884,45 +884,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5242,14 +5204,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5310,52 +5272,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U33">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:X33">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5425,7 +5387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5567,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="17">
-        <f>100*SUM(E3:I3)/(2*A$1)</f>
+        <f t="shared" ref="J3:J33" si="0">100*SUM(E3:I3)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K3" s="15">
@@ -5587,18 +5549,18 @@
         <v>94</v>
       </c>
       <c r="P3" s="17">
-        <f>SUM(K3:O3)/(A$1)</f>
+        <f t="shared" ref="P3:P33" si="1">SUM(K3:O3)/(A$1)</f>
         <v>97.8</v>
       </c>
       <c r="Q3" s="6">
         <v>50</v>
       </c>
       <c r="R3" s="22">
-        <f>J3*0.2+P3*0.3+Q3*0.5</f>
+        <f t="shared" ref="R3:R33" si="2">J3*0.2+P3*0.3+Q3*0.5</f>
         <v>74.34</v>
       </c>
       <c r="S3" s="22">
-        <f>D3*0.4+R3*0.6</f>
+        <f t="shared" ref="S3:S33" si="3">D3*0.4+R3*0.6</f>
         <v>83.137333333333331</v>
       </c>
     </row>
@@ -5631,7 +5593,7 @@
         <v>1.9</v>
       </c>
       <c r="J4" s="17">
-        <f>100*SUM(E4:I4)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="K4" s="15">
@@ -5651,18 +5613,18 @@
         <v>96.899999999999991</v>
       </c>
       <c r="P4" s="17">
-        <f>SUM(K4:O4)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>97.38</v>
       </c>
       <c r="Q4" s="6">
         <v>50</v>
       </c>
       <c r="R4" s="22">
-        <f>J4*0.2+P4*0.3+Q4*0.5</f>
+        <f t="shared" si="2"/>
         <v>74.013999999999996</v>
       </c>
       <c r="S4" s="22">
-        <f>D4*0.4+R4*0.6</f>
+        <f t="shared" si="3"/>
         <v>80.755066666666664</v>
       </c>
     </row>
@@ -5695,7 +5657,7 @@
         <v>1.3</v>
       </c>
       <c r="J5" s="17">
-        <f>100*SUM(E5:I5)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>74.999999999999986</v>
       </c>
       <c r="K5" s="15">
@@ -5715,18 +5677,18 @@
         <v>80.600000000000009</v>
       </c>
       <c r="P5" s="17">
-        <f>SUM(K5:O5)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>81.12</v>
       </c>
       <c r="Q5" s="6">
         <v>50</v>
       </c>
       <c r="R5" s="22">
-        <f>J5*0.2+P5*0.3+Q5*0.5</f>
+        <f t="shared" si="2"/>
         <v>64.335999999999999</v>
       </c>
       <c r="S5" s="22">
-        <f>D5*0.4+R5*0.6</f>
+        <f t="shared" si="3"/>
         <v>78.738266666666675</v>
       </c>
     </row>
@@ -5759,7 +5721,7 @@
         <v>1.8</v>
       </c>
       <c r="J6" s="17">
-        <f>100*SUM(E6:I6)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>97.000000000000014</v>
       </c>
       <c r="K6" s="15">
@@ -5775,22 +5737,22 @@
         <v>100</v>
       </c>
       <c r="O6" s="6">
-        <f>I6*47</f>
+        <f t="shared" ref="O6:O17" si="4">I6*47</f>
         <v>84.600000000000009</v>
       </c>
       <c r="P6" s="17">
-        <f>SUM(K6:O6)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>93.92</v>
       </c>
       <c r="Q6" s="6">
         <v>50</v>
       </c>
       <c r="R6" s="22">
-        <f>J6*0.2+P6*0.3+Q6*0.5</f>
+        <f t="shared" si="2"/>
         <v>72.576000000000008</v>
       </c>
       <c r="S6" s="22">
-        <f>D6*0.4+R6*0.6</f>
+        <f t="shared" si="3"/>
         <v>77.138933333333327</v>
       </c>
     </row>
@@ -5823,7 +5785,7 @@
         <v>1.9</v>
       </c>
       <c r="J7" s="17">
-        <f>100*SUM(E7:I7)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="K7" s="15">
@@ -5839,22 +5801,22 @@
         <v>100</v>
       </c>
       <c r="O7" s="6">
-        <f>I7*47</f>
+        <f t="shared" si="4"/>
         <v>89.3</v>
       </c>
       <c r="P7" s="17">
-        <f>SUM(K7:O7)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>94.86</v>
       </c>
       <c r="Q7" s="6">
         <v>50</v>
       </c>
       <c r="R7" s="22">
-        <f>J7*0.2+P7*0.3+Q7*0.5</f>
+        <f t="shared" si="2"/>
         <v>71.257999999999996</v>
       </c>
       <c r="S7" s="22">
-        <f>D7*0.4+R7*0.6</f>
+        <f t="shared" si="3"/>
         <v>76.348133333333323</v>
       </c>
     </row>
@@ -5887,7 +5849,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="17">
-        <f>100*SUM(E8:I8)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K8" s="15">
@@ -5903,22 +5865,22 @@
         <v>100</v>
       </c>
       <c r="O8" s="6">
-        <f>I8*47</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="P8" s="17">
-        <f>SUM(K8:O8)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>92.8</v>
       </c>
       <c r="Q8" s="6">
         <v>50</v>
       </c>
       <c r="R8" s="22">
-        <f>J8*0.2+P8*0.3+Q8*0.5</f>
+        <f t="shared" si="2"/>
         <v>72.84</v>
       </c>
       <c r="S8" s="22">
-        <f>D8*0.4+R8*0.6</f>
+        <f t="shared" si="3"/>
         <v>72.847333333333339</v>
       </c>
     </row>
@@ -5951,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="17">
-        <f>100*SUM(E9:I9)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="K9" s="15">
@@ -5967,22 +5929,22 @@
         <v>100</v>
       </c>
       <c r="O9" s="6">
-        <f>I9*47</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="P9" s="17">
-        <f>SUM(K9:O9)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>78.8</v>
       </c>
       <c r="Q9" s="6">
         <v>50</v>
       </c>
       <c r="R9" s="22">
-        <f>J9*0.2+P9*0.3+Q9*0.5</f>
+        <f t="shared" si="2"/>
         <v>64.64</v>
       </c>
       <c r="S9" s="22">
-        <f>D9*0.4+R9*0.6</f>
+        <f t="shared" si="3"/>
         <v>72.72399999999999</v>
       </c>
     </row>
@@ -6015,7 +5977,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="17">
-        <f>100*SUM(E10:I10)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K10" s="15">
@@ -6031,22 +5993,22 @@
         <v>100</v>
       </c>
       <c r="O10" s="6">
-        <f>I10*47</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="P10" s="17">
-        <f>SUM(K10:O10)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>97.8</v>
       </c>
       <c r="Q10" s="6">
         <v>50</v>
       </c>
       <c r="R10" s="22">
-        <f>J10*0.2+P10*0.3+Q10*0.5</f>
+        <f t="shared" si="2"/>
         <v>74.34</v>
       </c>
       <c r="S10" s="22">
-        <f>D10*0.4+R10*0.6</f>
+        <f t="shared" si="3"/>
         <v>71.954000000000008</v>
       </c>
     </row>
@@ -6079,7 +6041,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="17">
-        <f>100*SUM(E11:I11)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K11" s="15">
@@ -6095,22 +6057,22 @@
         <v>90</v>
       </c>
       <c r="O11" s="6">
-        <f>I11*47</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="P11" s="17">
-        <f>SUM(K11:O11)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>93.8</v>
       </c>
       <c r="Q11" s="6">
         <v>50</v>
       </c>
       <c r="R11" s="22">
-        <f>J11*0.2+P11*0.3+Q11*0.5</f>
+        <f t="shared" si="2"/>
         <v>73.14</v>
       </c>
       <c r="S11" s="22">
-        <f>D11*0.4+R11*0.6</f>
+        <f t="shared" si="3"/>
         <v>67.734000000000009</v>
       </c>
     </row>
@@ -6143,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="17">
-        <f>100*SUM(E12:I12)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="K12" s="15">
@@ -6159,22 +6121,22 @@
         <v>0</v>
       </c>
       <c r="O12" s="6">
-        <f>I12*47</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="P12" s="17">
-        <f>SUM(K12:O12)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>71.8</v>
       </c>
       <c r="Q12" s="6">
         <v>50</v>
       </c>
       <c r="R12" s="22">
-        <f>J12*0.2+P12*0.3+Q12*0.5</f>
+        <f t="shared" si="2"/>
         <v>62.54</v>
       </c>
       <c r="S12" s="22">
-        <f>D12*0.4+R12*0.6</f>
+        <f t="shared" si="3"/>
         <v>67.677333333333337</v>
       </c>
     </row>
@@ -6207,7 +6169,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="17">
-        <f>100*SUM(E13:I13)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K13" s="15">
@@ -6223,22 +6185,22 @@
         <v>90</v>
       </c>
       <c r="O13" s="6">
-        <f>I13*47</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="P13" s="17">
-        <f>SUM(K13:O13)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>93.8</v>
       </c>
       <c r="Q13" s="6">
         <v>50</v>
       </c>
       <c r="R13" s="22">
-        <f>J13*0.2+P13*0.3+Q13*0.5</f>
+        <f t="shared" si="2"/>
         <v>73.14</v>
       </c>
       <c r="S13" s="22">
-        <f>D13*0.4+R13*0.6</f>
+        <f t="shared" si="3"/>
         <v>64.49733333333333</v>
       </c>
     </row>
@@ -6271,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="17">
-        <f>100*SUM(E14:I14)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K14" s="15">
@@ -6287,22 +6249,22 @@
         <v>100</v>
       </c>
       <c r="O14" s="6">
-        <f>I14*47</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="P14" s="17">
-        <f>SUM(K14:O14)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>92.8</v>
       </c>
       <c r="Q14" s="6">
         <v>50</v>
       </c>
       <c r="R14" s="22">
-        <f>J14*0.2+P14*0.3+Q14*0.5</f>
+        <f t="shared" si="2"/>
         <v>72.84</v>
       </c>
       <c r="S14" s="22">
-        <f>D14*0.4+R14*0.6</f>
+        <f t="shared" si="3"/>
         <v>59.260666666666673</v>
       </c>
     </row>
@@ -6335,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="17">
-        <f>100*SUM(E15:I15)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K15" s="15">
@@ -6351,22 +6313,22 @@
         <v>0</v>
       </c>
       <c r="O15" s="6">
-        <f>I15*47</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <f>SUM(K15:O15)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q15" s="6">
         <v>50</v>
       </c>
       <c r="R15" s="22">
-        <f>J15*0.2+P15*0.3+Q15*0.5</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="S15" s="22">
-        <f>D15*0.4+R15*0.6</f>
+        <f t="shared" si="3"/>
         <v>57.306666666666665</v>
       </c>
     </row>
@@ -6399,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="17">
-        <f>100*SUM(E16:I16)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K16" s="15">
@@ -6415,22 +6377,22 @@
         <v>90</v>
       </c>
       <c r="O16" s="6">
-        <f>I16*47</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="P16" s="17">
-        <f>SUM(K16:O16)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>90.8</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
       <c r="R16" s="22">
-        <f>J16*0.2+P16*0.3+Q16*0.5</f>
+        <f t="shared" si="2"/>
         <v>47.239999999999995</v>
       </c>
       <c r="S16" s="22">
-        <f>D16*0.4+R16*0.6</f>
+        <f t="shared" si="3"/>
         <v>52.277333333333331</v>
       </c>
     </row>
@@ -6463,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="17">
-        <f>100*SUM(E17:I17)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K17" s="15">
@@ -6479,22 +6441,22 @@
         <v>0</v>
       </c>
       <c r="O17" s="6">
-        <f>I17*47</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="17">
-        <f>SUM(K17:O17)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="Q17" s="6">
         <v>50</v>
       </c>
       <c r="R17" s="22">
-        <f>J17*0.2+P17*0.3+Q17*0.5</f>
+        <f t="shared" si="2"/>
         <v>52.3</v>
       </c>
       <c r="S17" s="22">
-        <f>D17*0.4+R17*0.6</f>
+        <f t="shared" si="3"/>
         <v>50.23</v>
       </c>
     </row>
@@ -6527,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="17">
-        <f>100*SUM(E18:I18)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="15">
@@ -6547,18 +6509,18 @@
         <v>0</v>
       </c>
       <c r="P18" s="17">
-        <f>SUM(K18:O18)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="6">
         <v>50</v>
       </c>
       <c r="R18" s="22">
-        <f>J18*0.2+P18*0.3+Q18*0.5</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="S18" s="22">
-        <f>D18*0.4+R18*0.6</f>
+        <f t="shared" si="3"/>
         <v>34.733333333333334</v>
       </c>
     </row>
@@ -6591,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="17">
-        <f>100*SUM(E19:I19)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K19" s="15">
@@ -6611,18 +6573,18 @@
         <v>94</v>
       </c>
       <c r="P19" s="17">
-        <f>SUM(K19:O19)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>50.8</v>
       </c>
       <c r="Q19" s="6">
         <v>0</v>
       </c>
       <c r="R19" s="22">
-        <f>J19*0.2+P19*0.3+Q19*0.5</f>
+        <f t="shared" si="2"/>
         <v>27.24</v>
       </c>
       <c r="S19" s="22">
-        <f>D19*0.4+R19*0.6</f>
+        <f t="shared" si="3"/>
         <v>32.760666666666665</v>
       </c>
     </row>
@@ -6655,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="17">
-        <f>100*SUM(E20:I20)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="K20" s="15">
@@ -6671,22 +6633,22 @@
         <v>90</v>
       </c>
       <c r="O20" s="6">
-        <f>I20*35</f>
+        <f t="shared" ref="O20:O33" si="5">I20*35</f>
         <v>0</v>
       </c>
       <c r="P20" s="17">
-        <f>SUM(K20:O20)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
       </c>
       <c r="R20" s="22">
-        <f>J20*0.2+P20*0.3+Q20*0.5</f>
+        <f t="shared" si="2"/>
         <v>26.8</v>
       </c>
       <c r="S20" s="22">
-        <f>D20*0.4+R20*0.6</f>
+        <f t="shared" si="3"/>
         <v>28.563333333333333</v>
       </c>
     </row>
@@ -6719,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="17">
-        <f>100*SUM(E21:I21)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="15">
@@ -6735,22 +6697,22 @@
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <f>I21*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P21" s="17">
-        <f>SUM(K21:O21)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
       </c>
       <c r="R21" s="22">
-        <f>J21*0.2+P21*0.3+Q21*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S21" s="22">
-        <f>D21*0.4+R21*0.6</f>
+        <f t="shared" si="3"/>
         <v>15.033333333333335</v>
       </c>
     </row>
@@ -6781,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="17">
-        <f>100*SUM(E22:I22)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="15">
@@ -6797,22 +6759,22 @@
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <f>I22*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P22" s="17">
-        <f>SUM(K22:O22)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
       </c>
       <c r="R22" s="22">
-        <f>J22*0.2+P22*0.3+Q22*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S22" s="22">
-        <f>D22*0.4+R22*0.6</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
@@ -6845,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="17">
-        <f>100*SUM(E23:I23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="15">
@@ -6861,22 +6823,22 @@
         <v>0</v>
       </c>
       <c r="O23" s="6">
-        <f>I23*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <f>SUM(K23:O23)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
       </c>
       <c r="R23" s="22">
-        <f>J23*0.2+P23*0.3+Q23*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S23" s="22">
-        <f>D23*0.4+R23*0.6</f>
+        <f t="shared" si="3"/>
         <v>3.0833333333333339</v>
       </c>
     </row>
@@ -6909,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="17">
-        <f>100*SUM(E24:I24)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="15">
@@ -6925,22 +6887,22 @@
         <v>0</v>
       </c>
       <c r="O24" s="6">
-        <f>I24*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <f>SUM(K24:O24)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
       </c>
       <c r="R24" s="22">
-        <f>J24*0.2+P24*0.3+Q24*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S24" s="22">
-        <f>D24*0.4+R24*0.6</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6973,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="17">
-        <f>100*SUM(E25:I25)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="15">
@@ -6989,22 +6951,22 @@
         <v>0</v>
       </c>
       <c r="O25" s="6">
-        <f>I25*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <f>SUM(K25:O25)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="6">
         <v>0</v>
       </c>
       <c r="R25" s="22">
-        <f>J25*0.2+P25*0.3+Q25*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S25" s="22">
-        <f>D25*0.4+R25*0.6</f>
+        <f t="shared" si="3"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -7037,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="17">
-        <f>100*SUM(E26:I26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="15">
@@ -7053,22 +7015,22 @@
         <v>0</v>
       </c>
       <c r="O26" s="6">
-        <f>I26*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P26" s="17">
-        <f>SUM(K26:O26)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
       </c>
       <c r="R26" s="22">
-        <f>J26*0.2+P26*0.3+Q26*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S26" s="22">
-        <f>D26*0.4+R26*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7101,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="17">
-        <f>100*SUM(E27:I27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="15">
@@ -7117,22 +7079,22 @@
         <v>0</v>
       </c>
       <c r="O27" s="6">
-        <f>I27*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <f>SUM(K27:O27)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
       </c>
       <c r="R27" s="22">
-        <f>J27*0.2+P27*0.3+Q27*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S27" s="22">
-        <f>D27*0.4+R27*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7165,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="17">
-        <f>100*SUM(E28:I28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="15">
@@ -7181,22 +7143,22 @@
         <v>0</v>
       </c>
       <c r="O28" s="6">
-        <f>I28*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P28" s="17">
-        <f>SUM(K28:O28)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
       </c>
       <c r="R28" s="22">
-        <f>J28*0.2+P28*0.3+Q28*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S28" s="22">
-        <f>D28*0.4+R28*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7229,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="17">
-        <f>100*SUM(E29:I29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="15">
@@ -7245,22 +7207,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="6">
-        <f>I29*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P29" s="17">
-        <f>SUM(K29:O29)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
       </c>
       <c r="R29" s="22">
-        <f>J29*0.2+P29*0.3+Q29*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S29" s="22">
-        <f>D29*0.4+R29*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7293,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="17">
-        <f>100*SUM(E30:I30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="15">
@@ -7309,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="O30" s="6">
-        <f>I30*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30" s="17">
-        <f>SUM(K30:O30)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
       </c>
       <c r="R30" s="22">
-        <f>J30*0.2+P30*0.3+Q30*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S30" s="22">
-        <f>D30*0.4+R30*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7357,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="17">
-        <f>100*SUM(E31:I31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="15">
@@ -7373,22 +7335,22 @@
         <v>0</v>
       </c>
       <c r="O31" s="6">
-        <f>I31*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P31" s="17">
-        <f>SUM(K31:O31)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q31" s="6">
         <v>0</v>
       </c>
       <c r="R31" s="22">
-        <f>J31*0.2+P31*0.3+Q31*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S31" s="22">
-        <f>D31*0.4+R31*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7421,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="17">
-        <f>100*SUM(E32:I32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="15">
@@ -7437,22 +7399,22 @@
         <v>0</v>
       </c>
       <c r="O32" s="6">
-        <f>I32*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P32" s="17">
-        <f>SUM(K32:O32)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q32" s="6">
         <v>0</v>
       </c>
       <c r="R32" s="22">
-        <f>J32*0.2+P32*0.3+Q32*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S32" s="22">
-        <f>D32*0.4+R32*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7485,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="17">
-        <f>100*SUM(E33:I33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="15">
@@ -7501,22 +7463,22 @@
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <f>I33*35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P33" s="17">
-        <f>SUM(K33:O33)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="6">
         <v>0</v>
       </c>
       <c r="R33" s="22">
-        <f>J33*0.2+P33*0.3+Q33*0.5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S33" s="22">
-        <f>D33*0.4+R33*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8385,14 +8347,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8439,18 +8401,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -8498,18 +8460,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>

--- a/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
+++ b/AdvancedJava_2017Autumn/_docs/NotlarIleriJavaGuz2017.xlsx
@@ -884,7 +884,113 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5204,14 +5310,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5272,52 +5378,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U33">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:X33">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5387,7 +5493,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomLeft" activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5502,80 +5608,80 @@
     </row>
     <row r="3" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D3" s="22">
-        <v>96.333333333333329</v>
+        <v>100.34166666666667</v>
       </c>
       <c r="E3" s="41">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="F3" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="G3" s="7">
         <v>2</v>
       </c>
       <c r="H3" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="I3" s="7">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="J3" s="17">
-        <f t="shared" ref="J3:J33" si="0">100*SUM(E3:I3)/(2*A$1)</f>
-        <v>100</v>
+        <f>100*SUM(E3:I3)/(2*A$1)</f>
+        <v>74.999999999999986</v>
       </c>
       <c r="K3" s="15">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L3" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M3" s="6">
         <v>100</v>
       </c>
       <c r="N3" s="6">
+        <v>75</v>
+      </c>
+      <c r="O3" s="6">
+        <f>I3*62</f>
+        <v>80.600000000000009</v>
+      </c>
+      <c r="P3" s="17">
+        <f>SUM(K3:O3)/(A$1)</f>
+        <v>81.12</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>120</v>
+      </c>
+      <c r="R3" s="22">
+        <f>IF(J3*0.2+P3*0.3+Q3*0.5+25&gt;100,100,J3*0.2+P3*0.3+Q3*0.5+25)</f>
         <v>100</v>
       </c>
-      <c r="O3" s="6">
-        <f>I3*47</f>
-        <v>94</v>
-      </c>
-      <c r="P3" s="17">
-        <f t="shared" ref="P3:P33" si="1">SUM(K3:O3)/(A$1)</f>
-        <v>97.8</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>50</v>
-      </c>
-      <c r="R3" s="22">
-        <f t="shared" ref="R3:R33" si="2">J3*0.2+P3*0.3+Q3*0.5</f>
-        <v>74.34</v>
-      </c>
       <c r="S3" s="22">
-        <f t="shared" ref="S3:S33" si="3">D3*0.4+R3*0.6</f>
-        <v>83.137333333333331</v>
+        <f>D3*0.4+R3*0.6</f>
+        <v>100.13666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D4" s="22">
-        <v>90.866666666666674</v>
+        <v>96.333333333333329</v>
       </c>
       <c r="E4" s="41">
         <v>2</v>
@@ -5590,14 +5696,14 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <f>100*SUM(E4:I4)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="K4" s="15">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L4" s="6">
         <v>100</v>
@@ -5609,104 +5715,104 @@
         <v>100</v>
       </c>
       <c r="O4" s="6">
-        <f>I4*51</f>
-        <v>96.899999999999991</v>
+        <f>I4*47</f>
+        <v>94</v>
       </c>
       <c r="P4" s="17">
-        <f t="shared" si="1"/>
-        <v>97.38</v>
+        <f>SUM(K4:O4)/(A$1)</f>
+        <v>97.8</v>
       </c>
       <c r="Q4" s="6">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="R4" s="22">
-        <f t="shared" si="2"/>
-        <v>74.013999999999996</v>
+        <f>IF(J4*0.2+P4*0.3+Q4*0.5+25&gt;100,100,J4*0.2+P4*0.3+Q4*0.5+25)</f>
+        <v>100</v>
       </c>
       <c r="S4" s="22">
-        <f t="shared" si="3"/>
-        <v>80.755066666666664</v>
+        <f>D4*0.4+R4*0.6</f>
+        <v>98.533333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C5" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="22">
+        <v>90.866666666666674</v>
+      </c>
+      <c r="E5" s="41">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="J5" s="17">
+        <f>100*SUM(E5:I5)/(2*A$1)</f>
+        <v>99</v>
+      </c>
+      <c r="K5" s="15">
         <v>90</v>
       </c>
-      <c r="D5" s="22">
-        <v>100.34166666666667</v>
-      </c>
-      <c r="E5" s="41">
-        <v>1.4</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="0"/>
-        <v>74.999999999999986</v>
-      </c>
-      <c r="K5" s="15">
-        <v>75</v>
-      </c>
       <c r="L5" s="6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M5" s="6">
         <v>100</v>
       </c>
       <c r="N5" s="6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O5" s="6">
-        <f>I5*62</f>
-        <v>80.600000000000009</v>
+        <f>I5*51</f>
+        <v>96.899999999999991</v>
       </c>
       <c r="P5" s="17">
-        <f t="shared" si="1"/>
-        <v>81.12</v>
+        <f>SUM(K5:O5)/(A$1)</f>
+        <v>97.38</v>
       </c>
       <c r="Q5" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R5" s="22">
-        <f t="shared" si="2"/>
-        <v>64.335999999999999</v>
+        <f>IF(J5*0.2+P5*0.3+Q5*0.5+25&gt;100,100,J5*0.2+P5*0.3+Q5*0.5+25)</f>
+        <v>100</v>
       </c>
       <c r="S5" s="22">
-        <f t="shared" si="3"/>
-        <v>78.738266666666675</v>
+        <f>D5*0.4+R5*0.6</f>
+        <v>96.346666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D6" s="22">
-        <v>83.98333333333332</v>
+        <v>84.85</v>
       </c>
       <c r="E6" s="41">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
@@ -5718,14 +5824,14 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J6" s="17">
-        <f t="shared" si="0"/>
-        <v>97.000000000000014</v>
+        <f>100*SUM(E6:I6)/(2*A$1)</f>
+        <v>80</v>
       </c>
       <c r="K6" s="15">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
         <v>100</v>
@@ -5737,40 +5843,40 @@
         <v>100</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" ref="O6:O17" si="4">I6*47</f>
-        <v>84.600000000000009</v>
+        <f>I6*47</f>
+        <v>94</v>
       </c>
       <c r="P6" s="17">
-        <f t="shared" si="1"/>
-        <v>93.92</v>
+        <f>SUM(K6:O6)/(A$1)</f>
+        <v>78.8</v>
       </c>
       <c r="Q6" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R6" s="22">
-        <f t="shared" si="2"/>
-        <v>72.576000000000008</v>
+        <f>IF(J6*0.2+P6*0.3+Q6*0.5+25&gt;100,100,J6*0.2+P6*0.3+Q6*0.5+25)</f>
+        <v>99.64</v>
       </c>
       <c r="S6" s="22">
-        <f t="shared" si="3"/>
-        <v>77.138933333333327</v>
+        <f>D6*0.4+R6*0.6</f>
+        <v>93.72399999999999</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D7" s="22">
         <v>83.98333333333332</v>
       </c>
       <c r="E7" s="41">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
@@ -5782,11 +5888,11 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <f>100*SUM(E7:I7)/(2*A$1)</f>
+        <v>97.000000000000014</v>
       </c>
       <c r="K7" s="15">
         <v>85</v>
@@ -5801,40 +5907,40 @@
         <v>100</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="4"/>
-        <v>89.3</v>
+        <f>I7*47</f>
+        <v>84.600000000000009</v>
       </c>
       <c r="P7" s="17">
-        <f t="shared" si="1"/>
-        <v>94.86</v>
+        <f>SUM(K7:O7)/(A$1)</f>
+        <v>93.92</v>
       </c>
       <c r="Q7" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R7" s="22">
-        <f t="shared" si="2"/>
-        <v>71.257999999999996</v>
+        <f>IF(J7*0.2+P7*0.3+Q7*0.5+25&gt;100,100,J7*0.2+P7*0.3+Q7*0.5+25)</f>
+        <v>100</v>
       </c>
       <c r="S7" s="22">
-        <f t="shared" si="3"/>
-        <v>76.348133333333323</v>
+        <f>D7*0.4+R7*0.6</f>
+        <v>93.593333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D8" s="22">
-        <v>72.858333333333334</v>
+        <v>83.98333333333332</v>
       </c>
       <c r="E8" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -5846,14 +5952,14 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>100*SUM(E8:I8)/(2*A$1)</f>
+        <v>89</v>
       </c>
       <c r="K8" s="15">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L8" s="6">
         <v>100</v>
@@ -5865,101 +5971,101 @@
         <v>100</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
+        <f>I8*47</f>
+        <v>89.3</v>
       </c>
       <c r="P8" s="17">
-        <f t="shared" si="1"/>
-        <v>92.8</v>
+        <f>SUM(K8:O8)/(A$1)</f>
+        <v>94.86</v>
       </c>
       <c r="Q8" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R8" s="22">
-        <f t="shared" si="2"/>
-        <v>72.84</v>
+        <f>IF(J8*0.2+P8*0.3+Q8*0.5+25&gt;100,100,J8*0.2+P8*0.3+Q8*0.5+25)</f>
+        <v>100</v>
       </c>
       <c r="S8" s="22">
-        <f t="shared" si="3"/>
-        <v>72.847333333333339</v>
+        <f>D8*0.4+R8*0.6</f>
+        <v>93.593333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D9" s="22">
-        <v>84.85</v>
+        <v>90.766666666666666</v>
       </c>
       <c r="E9" s="41">
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>100*SUM(E9:I9)/(2*A$1)</f>
+        <v>20</v>
       </c>
       <c r="K9" s="15">
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="6">
         <v>100</v>
       </c>
       <c r="N9" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
+        <f>I9*47</f>
+        <v>0</v>
       </c>
       <c r="P9" s="17">
-        <f t="shared" si="1"/>
-        <v>78.8</v>
+        <f>SUM(K9:O9)/(A$1)</f>
+        <v>20</v>
       </c>
       <c r="Q9" s="6">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="R9" s="22">
-        <f t="shared" si="2"/>
-        <v>64.64</v>
+        <f>IF(J9*0.2+P9*0.3+Q9*0.5+25&gt;100,100,J9*0.2+P9*0.3+Q9*0.5+25)</f>
+        <v>89</v>
       </c>
       <c r="S9" s="22">
-        <f t="shared" si="3"/>
-        <v>72.72399999999999</v>
+        <f>D9*0.4+R9*0.6</f>
+        <v>89.706666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D10" s="22">
-        <v>68.375</v>
+        <v>72.858333333333334</v>
       </c>
       <c r="E10" s="41">
         <v>2</v>
@@ -5977,11 +6083,11 @@
         <v>2</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E10:I10)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K10" s="15">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L10" s="6">
         <v>100</v>
@@ -5993,37 +6099,37 @@
         <v>100</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="4"/>
+        <f>I10*47</f>
         <v>94</v>
       </c>
       <c r="P10" s="17">
-        <f t="shared" si="1"/>
-        <v>97.8</v>
+        <f>SUM(K10:O10)/(A$1)</f>
+        <v>92.8</v>
       </c>
       <c r="Q10" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R10" s="22">
-        <f t="shared" si="2"/>
-        <v>74.34</v>
+        <f>IF(J10*0.2+P10*0.3+Q10*0.5+25&gt;100,100,J10*0.2+P10*0.3+Q10*0.5+25)</f>
+        <v>100</v>
       </c>
       <c r="S10" s="22">
-        <f t="shared" si="3"/>
-        <v>71.954000000000008</v>
+        <f>D10*0.4+R10*0.6</f>
+        <v>89.143333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" s="22">
-        <v>59.625</v>
+        <v>75.38333333333334</v>
       </c>
       <c r="E11" s="41">
         <v>2</v>
@@ -6035,17 +6141,17 @@
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>2</v>
       </c>
       <c r="J11" s="17">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>100*SUM(E11:I11)/(2*A$1)</f>
+        <v>80</v>
       </c>
       <c r="K11" s="15">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L11" s="6">
         <v>100</v>
@@ -6054,40 +6160,40 @@
         <v>100</v>
       </c>
       <c r="N11" s="6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="4"/>
+        <f>I11*47</f>
         <v>94</v>
       </c>
       <c r="P11" s="17">
-        <f t="shared" si="1"/>
-        <v>93.8</v>
+        <f>SUM(K11:O11)/(A$1)</f>
+        <v>71.8</v>
       </c>
       <c r="Q11" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R11" s="22">
-        <f t="shared" si="2"/>
-        <v>73.14</v>
+        <f>IF(J11*0.2+P11*0.3+Q11*0.5+25&gt;100,100,J11*0.2+P11*0.3+Q11*0.5+25)</f>
+        <v>97.539999999999992</v>
       </c>
       <c r="S11" s="22">
-        <f t="shared" si="3"/>
-        <v>67.734000000000009</v>
+        <f>D11*0.4+R11*0.6</f>
+        <v>88.677333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D12" s="22">
-        <v>75.38333333333334</v>
+        <v>68.375</v>
       </c>
       <c r="E12" s="41">
         <v>2</v>
@@ -6099,17 +6205,17 @@
         <v>2</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
       </c>
       <c r="J12" s="17">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>100*SUM(E12:I12)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="K12" s="15">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="L12" s="6">
         <v>100</v>
@@ -6118,40 +6224,40 @@
         <v>100</v>
       </c>
       <c r="N12" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="4"/>
+        <f>I12*47</f>
         <v>94</v>
       </c>
       <c r="P12" s="17">
-        <f t="shared" si="1"/>
-        <v>71.8</v>
+        <f>SUM(K12:O12)/(A$1)</f>
+        <v>97.8</v>
       </c>
       <c r="Q12" s="6">
         <v>50</v>
       </c>
       <c r="R12" s="22">
-        <f t="shared" si="2"/>
-        <v>62.54</v>
+        <f>IF(J12*0.2+P12*0.3+Q12*0.5+25&gt;100,100,J12*0.2+P12*0.3+Q12*0.5+25)</f>
+        <v>99.34</v>
       </c>
       <c r="S12" s="22">
-        <f t="shared" si="3"/>
-        <v>67.677333333333337</v>
+        <f>D12*0.4+R12*0.6</f>
+        <v>86.954000000000008</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="22">
-        <v>51.533333333333331</v>
+        <v>59.625</v>
       </c>
       <c r="E13" s="41">
         <v>2</v>
@@ -6169,7 +6275,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E13:I13)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K13" s="15">
@@ -6185,37 +6291,37 @@
         <v>90</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="4"/>
+        <f>I13*47</f>
         <v>94</v>
       </c>
       <c r="P13" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K13:O13)/(A$1)</f>
         <v>93.8</v>
       </c>
       <c r="Q13" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R13" s="22">
-        <f t="shared" si="2"/>
-        <v>73.14</v>
+        <f>IF(J13*0.2+P13*0.3+Q13*0.5+25&gt;100,100,J13*0.2+P13*0.3+Q13*0.5+25)</f>
+        <v>100</v>
       </c>
       <c r="S13" s="22">
-        <f t="shared" si="3"/>
-        <v>64.49733333333333</v>
+        <f>D13*0.4+R13*0.6</f>
+        <v>83.85</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D14" s="22">
-        <v>38.891666666666673</v>
+        <v>51.533333333333331</v>
       </c>
       <c r="E14" s="41">
         <v>2</v>
@@ -6233,11 +6339,11 @@
         <v>2</v>
       </c>
       <c r="J14" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E14:I14)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K14" s="15">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L14" s="6">
         <v>100</v>
@@ -6246,90 +6352,90 @@
         <v>100</v>
       </c>
       <c r="N14" s="6">
+        <v>90</v>
+      </c>
+      <c r="O14" s="6">
+        <f>I14*47</f>
+        <v>94</v>
+      </c>
+      <c r="P14" s="17">
+        <f>SUM(K14:O14)/(A$1)</f>
+        <v>93.8</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>60</v>
+      </c>
+      <c r="R14" s="22">
+        <f>IF(J14*0.2+P14*0.3+Q14*0.5+25&gt;100,100,J14*0.2+P14*0.3+Q14*0.5+25)</f>
         <v>100</v>
       </c>
-      <c r="O14" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P14" s="17">
-        <f t="shared" si="1"/>
-        <v>92.8</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>50</v>
-      </c>
-      <c r="R14" s="22">
-        <f t="shared" si="2"/>
-        <v>72.84</v>
-      </c>
       <c r="S14" s="22">
-        <f t="shared" si="3"/>
-        <v>59.260666666666673</v>
+        <f>D14*0.4+R14*0.6</f>
+        <v>80.61333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D15" s="22">
-        <v>90.766666666666666</v>
+        <v>38.891666666666673</v>
       </c>
       <c r="E15" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="17">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>100*SUM(E15:I15)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L15" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="6">
         <v>100</v>
       </c>
       <c r="N15" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>I15*47</f>
+        <v>94</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>SUM(K15:O15)/(A$1)</f>
+        <v>92.8</v>
       </c>
       <c r="Q15" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R15" s="22">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>IF(J15*0.2+P15*0.3+Q15*0.5+25&gt;100,100,J15*0.2+P15*0.3+Q15*0.5+25)</f>
+        <v>100</v>
       </c>
       <c r="S15" s="22">
-        <f t="shared" si="3"/>
-        <v>57.306666666666665</v>
+        <f>D15*0.4+R15*0.6</f>
+        <v>75.556666666666672</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6361,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E16:I16)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K16" s="15">
@@ -6377,46 +6483,46 @@
         <v>90</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="4"/>
+        <f>I16*47</f>
         <v>94</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K16:O16)/(A$1)</f>
         <v>90.8</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
       <c r="R16" s="22">
-        <f t="shared" si="2"/>
-        <v>47.239999999999995</v>
+        <f>IF(J16*0.2+P16*0.3+Q16*0.5+25&gt;100,100,J16*0.2+P16*0.3+Q16*0.5+25)</f>
+        <v>72.239999999999995</v>
       </c>
       <c r="S16" s="22">
-        <f t="shared" si="3"/>
-        <v>52.277333333333331</v>
+        <f>D16*0.4+R16*0.6</f>
+        <v>67.277333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D17" s="22">
-        <v>47.125</v>
+        <v>49.333333333333336</v>
       </c>
       <c r="E17" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6425,62 +6531,62 @@
         <v>0</v>
       </c>
       <c r="J17" s="17">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>100*SUM(E17:I17)/(2*A$1)</f>
+        <v>0</v>
       </c>
       <c r="K17" s="15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L17" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="6">
         <v>0</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="4"/>
+        <f>I17*35</f>
         <v>0</v>
       </c>
       <c r="P17" s="17">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f>SUM(K17:O17)/(A$1)</f>
+        <v>0</v>
       </c>
       <c r="Q17" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="R17" s="22">
-        <f t="shared" si="2"/>
-        <v>52.3</v>
+        <f>IF(J17*0.2+P17*0.3+Q17*0.5+25&gt;100,100,J17*0.2+P17*0.3+Q17*0.5+25)</f>
+        <v>70</v>
       </c>
       <c r="S17" s="22">
-        <f t="shared" si="3"/>
-        <v>50.23</v>
+        <f>D17*0.4+R17*0.6</f>
+        <v>61.733333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D18" s="22">
-        <v>49.333333333333336</v>
+        <v>47.125</v>
       </c>
       <c r="E18" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6489,39 +6595,39 @@
         <v>0</v>
       </c>
       <c r="J18" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>100*SUM(E18:I18)/(2*A$1)</f>
+        <v>60</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L18" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="6">
         <v>0</v>
       </c>
       <c r="O18" s="6">
-        <f>I18*35</f>
+        <f>I18*47</f>
         <v>0</v>
       </c>
       <c r="P18" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(K18:O18)/(A$1)</f>
+        <v>51</v>
       </c>
       <c r="Q18" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R18" s="22">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>IF(J18*0.2+P18*0.3+Q18*0.5+25&gt;100,100,J18*0.2+P18*0.3+Q18*0.5+25)</f>
+        <v>69.8</v>
       </c>
       <c r="S18" s="22">
-        <f t="shared" si="3"/>
-        <v>34.733333333333334</v>
+        <f>D18*0.4+R18*0.6</f>
+        <v>60.73</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6553,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E19:I19)/(2*A$1)</f>
         <v>60</v>
       </c>
       <c r="K19" s="15">
@@ -6573,19 +6679,19 @@
         <v>94</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K19:O19)/(A$1)</f>
         <v>50.8</v>
       </c>
       <c r="Q19" s="6">
         <v>0</v>
       </c>
       <c r="R19" s="22">
-        <f t="shared" si="2"/>
-        <v>27.24</v>
+        <f>IF(J19*0.2+P19*0.3+Q19*0.5+25&gt;100,100,J19*0.2+P19*0.3+Q19*0.5+25)</f>
+        <v>52.239999999999995</v>
       </c>
       <c r="S19" s="22">
-        <f t="shared" si="3"/>
-        <v>32.760666666666665</v>
+        <f>D19*0.4+R19*0.6</f>
+        <v>47.760666666666665</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6617,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E20:I20)/(2*A$1)</f>
         <v>59</v>
       </c>
       <c r="K20" s="15">
@@ -6633,23 +6739,23 @@
         <v>90</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20:O33" si="5">I20*35</f>
+        <f>I20*35</f>
         <v>0</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K20:O20)/(A$1)</f>
         <v>50</v>
       </c>
       <c r="Q20" s="6">
         <v>0</v>
       </c>
       <c r="R20" s="22">
-        <f t="shared" si="2"/>
-        <v>26.8</v>
+        <f>IF(J20*0.2+P20*0.3+Q20*0.5+25&gt;100,100,J20*0.2+P20*0.3+Q20*0.5+25)</f>
+        <v>51.8</v>
       </c>
       <c r="S20" s="22">
-        <f t="shared" si="3"/>
-        <v>28.563333333333333</v>
+        <f>D20*0.4+R20*0.6</f>
+        <v>43.563333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6681,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E21:I21)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K21" s="15">
@@ -6697,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="5"/>
+        <f>I21*35</f>
         <v>0</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K21:O21)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
       </c>
       <c r="R21" s="22">
-        <f t="shared" si="2"/>
+        <f>J21*0.2+P21*0.3+Q21*0.5</f>
         <v>0</v>
       </c>
       <c r="S21" s="22">
-        <f t="shared" si="3"/>
+        <f>D21*0.4+R21*0.6</f>
         <v>15.033333333333335</v>
       </c>
     </row>
@@ -6743,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E22:I22)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K22" s="15">
@@ -6759,22 +6865,22 @@
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="5"/>
+        <f>I22*35</f>
         <v>0</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K22:O22)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="6">
         <v>0</v>
       </c>
       <c r="R22" s="22">
-        <f t="shared" si="2"/>
+        <f>J22*0.2+P22*0.3+Q22*0.5</f>
         <v>0</v>
       </c>
       <c r="S22" s="22">
-        <f t="shared" si="3"/>
+        <f>D22*0.4+R22*0.6</f>
         <v>4.5</v>
       </c>
     </row>
@@ -6807,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E23:I23)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K23" s="15">
@@ -6823,22 +6929,22 @@
         <v>0</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="5"/>
+        <f>I23*35</f>
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K23:O23)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
       </c>
       <c r="R23" s="22">
-        <f t="shared" si="2"/>
+        <f>J23*0.2+P23*0.3+Q23*0.5</f>
         <v>0</v>
       </c>
       <c r="S23" s="22">
-        <f t="shared" si="3"/>
+        <f>D23*0.4+R23*0.6</f>
         <v>3.0833333333333339</v>
       </c>
     </row>
@@ -6871,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E24:I24)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K24" s="15">
@@ -6887,22 +6993,22 @@
         <v>0</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="5"/>
+        <f>I24*35</f>
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K24:O24)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
       </c>
       <c r="R24" s="22">
-        <f t="shared" si="2"/>
+        <f>J24*0.2+P24*0.3+Q24*0.5</f>
         <v>0</v>
       </c>
       <c r="S24" s="22">
-        <f t="shared" si="3"/>
+        <f>D24*0.4+R24*0.6</f>
         <v>3</v>
       </c>
     </row>
@@ -6935,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E25:I25)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K25" s="15">
@@ -6951,22 +7057,22 @@
         <v>0</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="5"/>
+        <f>I25*35</f>
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K25:O25)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="6">
         <v>0</v>
       </c>
       <c r="R25" s="22">
-        <f t="shared" si="2"/>
+        <f>J25*0.2+P25*0.3+Q25*0.5</f>
         <v>0</v>
       </c>
       <c r="S25" s="22">
-        <f t="shared" si="3"/>
+        <f>D25*0.4+R25*0.6</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -6999,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E26:I26)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K26" s="15">
@@ -7015,22 +7121,22 @@
         <v>0</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="5"/>
+        <f>I26*35</f>
         <v>0</v>
       </c>
       <c r="P26" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K26:O26)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="6">
         <v>0</v>
       </c>
       <c r="R26" s="22">
-        <f t="shared" si="2"/>
+        <f>J26*0.2+P26*0.3+Q26*0.5</f>
         <v>0</v>
       </c>
       <c r="S26" s="22">
-        <f t="shared" si="3"/>
+        <f>D26*0.4+R26*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7063,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E27:I27)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K27" s="15">
@@ -7079,22 +7185,22 @@
         <v>0</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="5"/>
+        <f>I27*35</f>
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K27:O27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="6">
         <v>0</v>
       </c>
       <c r="R27" s="22">
-        <f t="shared" si="2"/>
+        <f>J27*0.2+P27*0.3+Q27*0.5</f>
         <v>0</v>
       </c>
       <c r="S27" s="22">
-        <f t="shared" si="3"/>
+        <f>D27*0.4+R27*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7127,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E28:I28)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K28" s="15">
@@ -7143,22 +7249,22 @@
         <v>0</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="5"/>
+        <f>I28*35</f>
         <v>0</v>
       </c>
       <c r="P28" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K28:O28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="6">
         <v>0</v>
       </c>
       <c r="R28" s="22">
-        <f t="shared" si="2"/>
+        <f>J28*0.2+P28*0.3+Q28*0.5</f>
         <v>0</v>
       </c>
       <c r="S28" s="22">
-        <f t="shared" si="3"/>
+        <f>D28*0.4+R28*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7191,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E29:I29)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K29" s="15">
@@ -7207,22 +7313,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="5"/>
+        <f>I29*35</f>
         <v>0</v>
       </c>
       <c r="P29" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K29:O29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="6">
         <v>0</v>
       </c>
       <c r="R29" s="22">
-        <f t="shared" si="2"/>
+        <f>J29*0.2+P29*0.3+Q29*0.5</f>
         <v>0</v>
       </c>
       <c r="S29" s="22">
-        <f t="shared" si="3"/>
+        <f>D29*0.4+R29*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7255,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E30:I30)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K30" s="15">
@@ -7271,22 +7377,22 @@
         <v>0</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="5"/>
+        <f>I30*35</f>
         <v>0</v>
       </c>
       <c r="P30" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K30:O30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q30" s="6">
         <v>0</v>
       </c>
       <c r="R30" s="22">
-        <f t="shared" si="2"/>
+        <f>J30*0.2+P30*0.3+Q30*0.5</f>
         <v>0</v>
       </c>
       <c r="S30" s="22">
-        <f t="shared" si="3"/>
+        <f>D30*0.4+R30*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7319,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E31:I31)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K31" s="15">
@@ -7335,22 +7441,22 @@
         <v>0</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="5"/>
+        <f>I31*35</f>
         <v>0</v>
       </c>
       <c r="P31" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K31:O31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="6">
         <v>0</v>
       </c>
       <c r="R31" s="22">
-        <f t="shared" si="2"/>
+        <f>J31*0.2+P31*0.3+Q31*0.5</f>
         <v>0</v>
       </c>
       <c r="S31" s="22">
-        <f t="shared" si="3"/>
+        <f>D31*0.4+R31*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7383,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E32:I32)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K32" s="15">
@@ -7399,22 +7505,22 @@
         <v>0</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="5"/>
+        <f>I32*35</f>
         <v>0</v>
       </c>
       <c r="P32" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K32:O32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q32" s="6">
         <v>0</v>
       </c>
       <c r="R32" s="22">
-        <f t="shared" si="2"/>
+        <f>J32*0.2+P32*0.3+Q32*0.5</f>
         <v>0</v>
       </c>
       <c r="S32" s="22">
-        <f t="shared" si="3"/>
+        <f>D32*0.4+R32*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7447,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E33:I33)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K33" s="15">
@@ -7463,22 +7569,22 @@
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="5"/>
+        <f>I33*35</f>
         <v>0</v>
       </c>
       <c r="P33" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(K33:O33)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="6">
         <v>0</v>
       </c>
       <c r="R33" s="22">
-        <f t="shared" si="2"/>
+        <f>J33*0.2+P33*0.3+Q33*0.5</f>
         <v>0</v>
       </c>
       <c r="S33" s="22">
-        <f t="shared" si="3"/>
+        <f>D33*0.4+R33*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -8347,14 +8453,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8401,18 +8507,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -8460,20 +8566,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
-      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
